--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1300.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1300.xlsx
@@ -8491,14 +8491,8 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="inlineStr">
-        <is>
-          <t>K0, д.е.</t>
-        </is>
-      </c>
-      <c r="C47" s="144" t="n">
-        <v>0.8263518223330697</v>
-      </c>
+      <c r="B47" s="144" t="n"/>
+      <c r="C47" s="144" t="n"/>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8555,14 +8549,8 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="inlineStr">
-        <is>
-          <t>q_zg, МПа</t>
-        </is>
-      </c>
-      <c r="C48" s="144" t="n">
-        <v>0.04131759111665349</v>
-      </c>
+      <c r="B48" s="144" t="n"/>
+      <c r="C48" s="144" t="n"/>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8712,20 +8700,12 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="inlineStr">
-        <is>
-          <t>Точки модуля (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F50" s="144" t="n"/>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n">
-        <v>0.04131759111665349</v>
-      </c>
-      <c r="K50" s="144" t="n">
-        <v>0.06610814578664558</v>
-      </c>
+      <c r="J50" s="144" t="n"/>
+      <c r="K50" s="144" t="n"/>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8802,17 +8782,11 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="inlineStr">
-        <is>
-          <t>qf (полное напр.), МПа</t>
-        </is>
-      </c>
+      <c r="F51" s="144" t="n"/>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n">
-        <v>0.06301504120174584</v>
-      </c>
+      <c r="J51" s="144" t="n"/>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9258,10 +9232,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01301504120174584</v>
+        <v>0.01408217641431279</v>
       </c>
       <c r="B65" t="n">
-        <v>0.01161185707218262</v>
+        <v>0.0125639417696447</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9318,29 +9292,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.000468397238576633</v>
+        <v>0.001182481871192111</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0008058501508781648</v>
+        <v>0.0007875293326636894</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.001405179441760933</v>
+        <v>0.004819071790590684</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007950572373607289</v>
+        <v>0.0007835749000607076</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.003260683739302633</v>
+        <v>0.006176446388862555</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.000722166971208933</v>
+        <v>0.0007774230529824235</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.006034194233812018</v>
+        <v>0.001182481871192111</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007547606306568777</v>
+        <v>0.0007875293326636894</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9332,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.0008797337346853687</v>
+        <v>0.002720031874649538</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.00161170030175633</v>
+        <v>0.001575058665327379</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.002755113815544268</v>
+        <v>0.009254030524898538</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001590114474721458</v>
+        <v>0.001567149800121415</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.005999999999999978</v>
+        <v>0.01391107010552523</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001274553571428567</v>
+        <v>0.001554846105964847</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.01300000000000001</v>
+        <v>0.002720031874649538</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001476164772727274</v>
+        <v>0.001575058665327379</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9374,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.002194858215409337</v>
+        <v>0.003956144738234232</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002417550452634494</v>
+        <v>0.002362587997991068</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.004126964044490582</v>
+        <v>0.01415858201744419</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002385171712082187</v>
+        <v>0.002350724700182123</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.009427713727029524</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002166500913626799</v>
+        <v>0.002334696261682245</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.01847505102921121</v>
+        <v>0.003956144738234232</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002264281891970633</v>
+        <v>0.002362587997991068</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9421,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.003374619407831639</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003223400603512659</v>
+        <v>0.003122656249999998</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.005497891051740436</v>
+        <v>0.01818643208274837</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.003180228949442916</v>
+        <v>0.00313429960024283</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.01147381053717098</v>
+        <v>0.02422176690507727</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.002888667884835732</v>
+        <v>0.003109692211929694</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.02276736861988476</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003019042522627511</v>
+        <v>0.003122656249999998</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9484,62 +9458,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003870619024060873</v>
+        <v>0.003122656249999998</v>
       </c>
       <c r="B70" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.005902247860349701</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003870619024060873</v>
+        <v>0.003937646663318447</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.006745055760434424</v>
+        <v>0.02159128653533177</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003975286186803644</v>
+        <v>0.003917874500303538</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.01411174949143429</v>
+        <v>0.02977861234141282</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003610834856044665</v>
+        <v>0.003887115264912117</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.02782002869715167</v>
+        <v>0.005902247860349701</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003773803153284388</v>
+        <v>0.003937646663318447</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.005266490741694732</v>
+        <v>0.006732516874100626</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004835100905268988</v>
+        <v>0.004725175995982136</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.008</v>
+        <v>0.02492685118971505</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004996250000000001</v>
+        <v>0.004701449400364245</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.01634840689003686</v>
+        <v>0.03471054082916614</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004333001827253598</v>
+        <v>0.004664538317894542</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.03263478616327808</v>
+        <v>0.006732516874100626</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004528563783941265</v>
+        <v>0.004725175995982136</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9528,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.006073290700445919</v>
+        <v>0.007824941360986951</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005640951056147153</v>
+        <v>0.005512705328645826</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.008596877570447796</v>
+        <v>0.02744683186041894</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005565400661525103</v>
+        <v>0.005485024300424953</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.01869065903319622</v>
+        <v>0.03907383446838425</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005055168798462532</v>
+        <v>0.005441961370876965</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.03661339592052992</v>
+        <v>0.007824941360986951</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005283324414598144</v>
+        <v>0.005512705328645826</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9574,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.007816629128392413</v>
+        <v>0.00857923352866468</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006446801207025318</v>
+        <v>0.006300234661309515</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.009151528731177125</v>
+        <v>0.02960493436196412</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006360457898885831</v>
+        <v>0.006268599200485661</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.02144538222112966</v>
+        <v>0.04282477535911422</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.005777335769671464</v>
+        <v>0.006219384423859388</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.04125761287117319</v>
+        <v>0.00857923352866468</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006038085045255021</v>
+        <v>0.006300234661309515</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9611,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.00851064230336112</v>
+        <v>0.009495105584789852</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007252651357903482</v>
+        <v>0.007087763993973204</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.009830638396705269</v>
+        <v>0.03099999999999997</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.00715551513624656</v>
+        <v>0.007014662590579701</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.02361945275405478</v>
+        <v>0.04721964560140302</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006499502740880397</v>
+        <v>0.006996807476841812</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.04496919191747401</v>
+        <v>0.009495105584789852</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.006792845675911899</v>
+        <v>0.007087763993973204</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9655,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.00916946650317893</v>
+        <v>0.01007226973701845</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.008058501508781646</v>
+        <v>0.007875293326636895</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01055265570155202</v>
+        <v>0.03185967785709942</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007950572373607289</v>
+        <v>0.007835749000607076</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.02581974693218891</v>
+        <v>0.05041472729529772</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007221669712089329</v>
+        <v>0.007774230529824235</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.04814988796169822</v>
+        <v>0.01007226973701845</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007547606306568777</v>
+        <v>0.007875293326636895</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9697,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.00980723800567275</v>
+        <v>0.01081043819300651</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008864351659659812</v>
+        <v>0.008662822659300583</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.01103602978023715</v>
+        <v>0.03254013825316032</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008745629610968017</v>
+        <v>0.008619323900667783</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.02735314105574951</v>
+        <v>0.05266630254084537</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.007943836683298264</v>
+        <v>0.008551653582806658</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.05160145590611209</v>
+        <v>0.01081043819300651</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008302366937225655</v>
+        <v>0.008662822659300583</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9734,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01043809308866948</v>
+        <v>0.01170932316041002</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009670201810537977</v>
+        <v>0.009450351991964272</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01179920976728042</v>
+        <v>0.03278700734284073</v>
       </c>
       <c r="K77" t="n">
-        <v>0.009540686848328747</v>
+        <v>0.00940289880072849</v>
       </c>
       <c r="L77" t="n">
-        <v>0.02972651142495397</v>
+        <v>0.05610983896043342</v>
       </c>
       <c r="M77" t="n">
-        <v>0.008666003654507197</v>
+        <v>0.009357102233179756</v>
       </c>
       <c r="N77" t="n">
-        <v>0.05610983896043342</v>
+        <v>0.01170932316041002</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009101908535911217</v>
+        <v>0.009450351991964272</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9774,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01107616802999603</v>
+        <v>0.01226863684688501</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01047605196141614</v>
+        <v>0.01023788132462796</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01216064479720162</v>
+        <v>0.03369066203268772</v>
       </c>
       <c r="K78" t="n">
-        <v>0.01033574408568948</v>
+        <v>0.0101864737007892</v>
       </c>
       <c r="L78" t="n">
-        <v>0.03164673434001983</v>
+        <v>0.05800654855157145</v>
       </c>
       <c r="M78" t="n">
-        <v>0.009388170625716129</v>
+        <v>0.01010649968877151</v>
       </c>
       <c r="N78" t="n">
-        <v>0.05854818746155804</v>
+        <v>0.01226863684688501</v>
       </c>
       <c r="O78" t="n">
-        <v>0.00981188819853941</v>
+        <v>0.01023788132462796</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9816,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01301504120174584</v>
+        <v>0.01288809146008744</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01161185707218262</v>
+        <v>0.01102541065729165</v>
       </c>
       <c r="J79" t="n">
-        <v>0.01273878400452051</v>
+        <v>0.03509600768737309</v>
       </c>
       <c r="K79" t="n">
-        <v>0.01113080132305021</v>
+        <v>0.0113450070139776</v>
       </c>
       <c r="L79" t="n">
-        <v>0.03352068610116446</v>
+        <v>0.06015672013634987</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01011033759692506</v>
+        <v>0.01088392274175393</v>
       </c>
       <c r="N79" t="n">
-        <v>0.06191414420586566</v>
+        <v>0.01288809146008744</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01056664882919629</v>
+        <v>0.01102541065729165</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9847,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.01243450352611161</v>
+        <v>0.0134673992076734</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01208775226317247</v>
+        <v>0.01181293998995534</v>
       </c>
       <c r="J80" t="n">
-        <v>0.01345207652375689</v>
+        <v>0.03510975864271559</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01192585856041093</v>
+        <v>0.01175362350091061</v>
       </c>
       <c r="L80" t="n">
-        <v>0.03509600768737309</v>
+        <v>0.06228032665728589</v>
       </c>
       <c r="M80" t="n">
-        <v>0.0106504147478157</v>
+        <v>0.01166134579473635</v>
       </c>
       <c r="N80" t="n">
-        <v>0.06540601782447747</v>
+        <v>0.0134673992076734</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01132140945985317</v>
+        <v>0.01181293998995534</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9884,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01419296249527933</v>
+        <v>0.01408217641431279</v>
       </c>
       <c r="G81" t="n">
-        <v>0.01289360241405064</v>
+        <v>0.0125639417696447</v>
       </c>
       <c r="J81" t="n">
+        <v>0.03603904021319385</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.01253719840097132</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.06387619665931366</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0.01243876884771878</v>
+      </c>
+      <c r="N81" t="n">
         <v>0.01408217641431279</v>
       </c>
-      <c r="K81" t="n">
+      <c r="O81" t="n">
         <v>0.0125639417696447</v>
-      </c>
-      <c r="L81" t="n">
-        <v>0.0371389718003198</v>
-      </c>
-      <c r="M81" t="n">
-        <v>0.01155467153934293</v>
-      </c>
-      <c r="N81" t="n">
-        <v>0.06840580051238365</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0.01207617009051004</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9918,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01300168913815611</v>
+        <v>0.01442766623111533</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0136994525649288</v>
+        <v>0.01338799865528272</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01477275729852513</v>
+        <v>0.0365126477528947</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01351597303513239</v>
+        <v>0.01332077330103203</v>
       </c>
       <c r="L82" t="n">
-        <v>0.03897905796837739</v>
+        <v>0.06594315868736733</v>
       </c>
       <c r="M82" t="n">
-        <v>0.01227683851055186</v>
+        <v>0.0132161919007012</v>
       </c>
       <c r="N82" t="n">
-        <v>0.07129548446457429</v>
+        <v>0.01442766623111533</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01283093072116692</v>
+        <v>0.01338799865528272</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9949,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01484875459211034</v>
+        <v>0.01505012008850853</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01450530271580696</v>
+        <v>0.01417552798794641</v>
       </c>
       <c r="J83" t="n">
-        <v>0.01560912498455619</v>
+        <v>0.03752723405573163</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01431103027249312</v>
+        <v>0.01410434820109274</v>
       </c>
       <c r="L83" t="n">
-        <v>0.04076357701048386</v>
+        <v>0.06818004128638094</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01299900548176079</v>
+        <v>0.01399361495368362</v>
       </c>
       <c r="N83" t="n">
-        <v>0.0747570618760397</v>
+        <v>0.01505012008850853</v>
       </c>
       <c r="O83" t="n">
-        <v>0.0135856913518238</v>
+        <v>0.01417552798794641</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +9985,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.0167222299945104</v>
+        <v>0.01547290346460498</v>
       </c>
       <c r="G84" t="n">
-        <v>0.01531115286668513</v>
+        <v>0.0149630573206101</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01661209745793059</v>
+        <v>0.03857945191561807</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01510608750985385</v>
+        <v>0.01488792310115344</v>
       </c>
       <c r="L84" t="n">
-        <v>0.04287705507683801</v>
+        <v>0.07068567300128886</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01372117245296973</v>
+        <v>0.01477103800666605</v>
       </c>
       <c r="N84" t="n">
-        <v>0.07697252494176998</v>
+        <v>0.01547290346460498</v>
       </c>
       <c r="O84" t="n">
-        <v>0.01434045198248068</v>
+        <v>0.0149630573206101</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10025,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01561018648272469</v>
+        <v>0.01599524011008145</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01611700301756329</v>
+        <v>0.01575058665327379</v>
       </c>
       <c r="J85" t="n">
-        <v>0.01756506643629778</v>
+        <v>0.03946595412646761</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01590114474721458</v>
+        <v>0.01567149800121415</v>
       </c>
       <c r="L85" t="n">
-        <v>0.04490401831763877</v>
+        <v>0.07175888237702499</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01444333942417866</v>
+        <v>0.01554846105964847</v>
       </c>
       <c r="N85" t="n">
-        <v>0.08102386585675553</v>
+        <v>0.01599524011008145</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01509521261313755</v>
+        <v>0.01575058665327379</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10067,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01850069519412159</v>
+        <v>0.01671635377561471</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01692285316844146</v>
+        <v>0.01653811598593748</v>
       </c>
       <c r="J86" t="n">
-        <v>0.01865142363730712</v>
+        <v>0.04098339348219368</v>
       </c>
       <c r="K86" t="n">
-        <v>0.0166962019845753</v>
+        <v>0.01645507290127486</v>
       </c>
       <c r="L86" t="n">
-        <v>0.04742899288308486</v>
+        <v>0.07459849795852364</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01516550639538759</v>
+        <v>0.01632588411263089</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0834930768159865</v>
+        <v>0.01671635377561471</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01584997324379443</v>
+        <v>0.01653811598593748</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10098,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.01938182726606948</v>
+        <v>0.0171354682118815</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01772870331931962</v>
+        <v>0.01732564531860117</v>
       </c>
       <c r="J87" t="n">
-        <v>0.01955456077860812</v>
+        <v>0.04172842277670977</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01749125922193603</v>
+        <v>0.01723864780133557</v>
       </c>
       <c r="L87" t="n">
-        <v>0.04903650492337516</v>
+        <v>0.07620334829071879</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01588767336659653</v>
+        <v>0.01710330716561332</v>
       </c>
       <c r="N87" t="n">
-        <v>0.086062150014453</v>
+        <v>0.0171354682118815</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01660473387445131</v>
+        <v>0.01732564531860117</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10133,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01824165383593675</v>
+        <v>0.01775180716955861</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01853455347019779</v>
+        <v>0.01811317465126486</v>
       </c>
       <c r="J88" t="n">
-        <v>0.02055786957785015</v>
+        <v>0.04279769480392942</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01828631645929676</v>
+        <v>0.01802222270139628</v>
       </c>
       <c r="L88" t="n">
-        <v>0.05101108058870849</v>
+        <v>0.07727226191854475</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01660984033780546</v>
+        <v>0.01788073021859574</v>
       </c>
       <c r="N88" t="n">
-        <v>0.08941307764714534</v>
+        <v>0.01775180716955861</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01735949450510818</v>
+        <v>0.01811317465126486</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4578 +10167,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01906824604109178</v>
+        <v>0.01806459439932276</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01934040362107595</v>
+        <v>0.01890070398392854</v>
       </c>
       <c r="J89" t="n">
-        <v>0.02144474175268263</v>
+        <v>0.04358786235776613</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01908137369665749</v>
+        <v>0.01880579760145698</v>
       </c>
       <c r="L89" t="n">
-        <v>0.05273724602928373</v>
+        <v>0.07930406738693557</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01733200730901439</v>
+        <v>0.01865815327157817</v>
       </c>
       <c r="N89" t="n">
-        <v>0.09192785190905373</v>
+        <v>0.01806459439932276</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01811425513576506</v>
+        <v>0.01890070398392854</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01984967501890297</v>
+        <v>0.01877305365185074</v>
       </c>
       <c r="G90" t="n">
-        <v>0.02014625377195412</v>
+        <v>0.01968823331659223</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02249856902075503</v>
+        <v>0.04519557823213327</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01987643093401822</v>
+        <v>0.01958937250151769</v>
       </c>
       <c r="L90" t="n">
-        <v>0.05489952739529966</v>
+        <v>0.08159759324082538</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01805417428022333</v>
+        <v>0.01943557632456059</v>
       </c>
       <c r="N90" t="n">
-        <v>0.09378846499516835</v>
+        <v>0.01877305365185074</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01886901576642194</v>
+        <v>0.01968823331659223</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.0225740119067387</v>
+        <v>0.01917640867781929</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02095210392283228</v>
+        <v>0.02047576264925592</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02350274309971673</v>
+        <v>0.04621749522094451</v>
       </c>
       <c r="K91" t="n">
-        <v>0.02067148817137895</v>
+        <v>0.0203729474015784</v>
       </c>
       <c r="L91" t="n">
-        <v>0.0567824508369551</v>
+        <v>0.08325166802514844</v>
       </c>
       <c r="M91" t="n">
-        <v>0.01877634125143226</v>
+        <v>0.02021299937754301</v>
       </c>
       <c r="N91" t="n">
-        <v>0.09707690910047939</v>
+        <v>0.01917640867781929</v>
       </c>
       <c r="O91" t="n">
-        <v>0.01962377639707882</v>
+        <v>0.02047576264925592</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02322932784196734</v>
+        <v>0.01957388322790515</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02175795407371045</v>
+        <v>0.02126329198191961</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02434065570721719</v>
+        <v>0.04725026611811323</v>
       </c>
       <c r="K92" t="n">
-        <v>0.02146654540873968</v>
+        <v>0.0211565223016391</v>
       </c>
       <c r="L92" t="n">
-        <v>0.05807054250444896</v>
+        <v>0.08476512028483879</v>
       </c>
       <c r="M92" t="n">
-        <v>0.01949850822264119</v>
+        <v>0.02099042243052543</v>
       </c>
       <c r="N92" t="n">
-        <v>0.09827517641997713</v>
+        <v>0.01957388322790515</v>
       </c>
       <c r="O92" t="n">
-        <v>0.0203785370277357</v>
+        <v>0.02126329198191961</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02180369396195731</v>
+        <v>0.02006470105278514</v>
       </c>
       <c r="G93" t="n">
-        <v>0.02256380422458861</v>
+        <v>0.0220508213145833</v>
       </c>
       <c r="J93" t="n">
-        <v>0.0248956985609058</v>
+        <v>0.04859054371755292</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02226160264610041</v>
+        <v>0.02194009720169981</v>
       </c>
       <c r="L93" t="n">
-        <v>0.05964832854798002</v>
+        <v>0.08683677856483052</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02022067519385013</v>
+        <v>0.02176784548350786</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1006652591486517</v>
+        <v>0.02006470105278514</v>
       </c>
       <c r="O93" t="n">
-        <v>0.02113329765839258</v>
+        <v>0.0220508213145833</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02328518140407695</v>
+        <v>0.02074808590313597</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02336965437546678</v>
+        <v>0.02283835064724699</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02555126337843201</v>
+        <v>0.04923498081317712</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02305665988346114</v>
+        <v>0.02272367210176052</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06170033511774708</v>
+        <v>0.08796547141005784</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02094284216505906</v>
+        <v>0.02254526853649028</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1022291494814934</v>
+        <v>0.02074808590313597</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02188805828904945</v>
+        <v>0.02283835064724699</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0226618613056947</v>
+        <v>0.02112326152963438</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02417550452634494</v>
+        <v>0.02362587997991068</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02619074187744524</v>
+        <v>0.05108023019889929</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02385171712082187</v>
+        <v>0.02350724700182123</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06291108836394904</v>
+        <v>0.08995002736545493</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02166500913626799</v>
+        <v>0.02332269158947271</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1036488396134924</v>
+        <v>0.02112326152963438</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02264281891970633</v>
+        <v>0.02362587997991068</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0239218048041789</v>
+        <v>0.02148945168295718</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02498135467722311</v>
+        <v>0.02441340931257437</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02669752577559494</v>
+        <v>0.05192294466863293</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02464677435818259</v>
+        <v>0.02429082190188193</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06366511443678469</v>
+        <v>0.09188927497595584</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02238717610747692</v>
+        <v>0.02410011464245513</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1051063217396389</v>
+        <v>0.02148945168295718</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02339757955036321</v>
+        <v>0.02441340931257437</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02305308303689795</v>
+        <v>0.02214588011378113</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02578720482810127</v>
+        <v>0.02520093864523806</v>
       </c>
       <c r="J97" t="n">
-        <v>0.02695500679053046</v>
+        <v>0.05315977701629154</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02544183159554332</v>
+        <v>0.02507439680194264</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06484693948645287</v>
+        <v>0.09268204278649483</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02310934307868586</v>
+        <v>0.02487753769543755</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1054835880549231</v>
+        <v>0.02214588011378113</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02415234018102009</v>
+        <v>0.02520093864523806</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.0240555731161143</v>
+        <v>0.02259177057278293</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02659305497897943</v>
+        <v>0.02598846797790175</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0268465766399013</v>
+        <v>0.0539873800357886</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02623688883290405</v>
+        <v>0.02585797170200335</v>
       </c>
       <c r="L98" t="n">
-        <v>0.06524108966315245</v>
+        <v>0.09442715934200591</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02383151004989479</v>
+        <v>0.02565496074841998</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1056626307543352</v>
+        <v>0.02259177057278293</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02490710081167696</v>
+        <v>0.02598846797790175</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02298177764006108</v>
+        <v>0.02292634681063939</v>
       </c>
       <c r="G99" t="n">
-        <v>0.0273989051298576</v>
+        <v>0.02677599731056544</v>
       </c>
       <c r="J99" t="n">
-        <v>0.0270153252573003</v>
+        <v>0.05520240652103761</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02703194607026478</v>
+        <v>0.02664154660206406</v>
       </c>
       <c r="L99" t="n">
-        <v>0.06623209111708223</v>
+        <v>0.09622345318742331</v>
       </c>
       <c r="M99" t="n">
-        <v>0.02455367702110372</v>
+        <v>0.0264323838014024</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1067254420328655</v>
+        <v>0.02292634681063939</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02566186144233384</v>
+        <v>0.02677599731056544</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02384683294147654</v>
+        <v>0.02344883257802724</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02820475528073577</v>
+        <v>0.02756352664322913</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02672376094011994</v>
+        <v>0.05660150926595212</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02782700330762551</v>
+        <v>0.02742512150212477</v>
       </c>
       <c r="L100" t="n">
-        <v>0.06640446999844105</v>
+        <v>0.09686975286768118</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02527584399231265</v>
+        <v>0.02720980685438482</v>
       </c>
       <c r="N100" t="n">
-        <v>0.106519231368098</v>
+        <v>0.02344883257802724</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02641662207299071</v>
+        <v>0.02756352664322913</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02265926498507868</v>
+        <v>0.02365845162562326</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02901060543161393</v>
+        <v>0.02835105597589282</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02657864530600222</v>
+        <v>0.05708134106444548</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02862206054498624</v>
+        <v>0.02820869640218547</v>
       </c>
       <c r="L101" t="n">
-        <v>0.0667427524574277</v>
+        <v>0.09816488692771358</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02599801096352159</v>
+        <v>0.02798722990736725</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1059672104419132</v>
+        <v>0.02365845162562326</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0271713827036476</v>
+        <v>0.02835105597589282</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02442759973558544</v>
+        <v>0.0241544277041042</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02981645558249209</v>
+        <v>0.02913858530855651</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02658672353811255</v>
+        <v>0.05843855471043127</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02941711778234697</v>
+        <v>0.02899227130224618</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06688910024898831</v>
+        <v>0.09910768391245472</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02672017793473052</v>
+        <v>0.02876465296034967</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1053258196572892</v>
+        <v>0.0241544277041042</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02792614333430447</v>
+        <v>0.02913858530855651</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02416036315771481</v>
+        <v>0.02443598456414681</v>
       </c>
       <c r="G103" t="n">
-        <v>0.03062230573337026</v>
+        <v>0.0299261146412202</v>
       </c>
       <c r="J103" t="n">
-        <v>0.02615474081961625</v>
+        <v>0.05916980299782307</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0302121750197077</v>
+        <v>0.02977584620230689</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06621801123138493</v>
+        <v>0.1009969723668387</v>
       </c>
       <c r="M103" t="n">
-        <v>0.02744234490593945</v>
+        <v>0.0295420760133321</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1037586383672166</v>
+        <v>0.02443598456414681</v>
       </c>
       <c r="O103" t="n">
-        <v>0.02868090396496135</v>
+        <v>0.0299261146412202</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02186608121618474</v>
+        <v>0.02500234595642788</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03142815588424842</v>
+        <v>0.03071364397388389</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02588944233367872</v>
+        <v>0.06077173872053426</v>
       </c>
       <c r="K104" t="n">
-        <v>0.03100723225706843</v>
+        <v>0.0305594211023676</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06614024615677727</v>
+        <v>0.1024315808357998</v>
       </c>
       <c r="M104" t="n">
-        <v>0.02816451187714839</v>
+        <v>0.03031949906631452</v>
       </c>
       <c r="N104" t="n">
-        <v>0.101629245924686</v>
+        <v>0.02500234595642788</v>
       </c>
       <c r="O104" t="n">
-        <v>0.02943566459561823</v>
+        <v>0.03071364397388389</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02155327987571323</v>
+        <v>0.02515273563162412</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03223400603512658</v>
+        <v>0.03150117330654758</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02569757326346536</v>
+        <v>0.06114101467247832</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03180228949442915</v>
+        <v>0.03134299600242831</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06546631161405464</v>
+        <v>0.1035103378642719</v>
       </c>
       <c r="M105" t="n">
-        <v>0.02888667884835732</v>
+        <v>0.03109692211929694</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1000012216826879</v>
+        <v>0.02515273563162412</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03019042522627511</v>
+        <v>0.03150117330654758</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02123048510101821</v>
+        <v>0.02548637734041234</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03303985618600475</v>
+        <v>0.03228870263921126</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02538587879214153</v>
+        <v>0.06277428364756876</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03259734673178988</v>
+        <v>0.03212657090248901</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06550671419210616</v>
+        <v>0.1045320719971893</v>
       </c>
       <c r="M106" t="n">
-        <v>0.02960884581956625</v>
+        <v>0.03187434517227936</v>
       </c>
       <c r="N106" t="n">
-        <v>0.09863814499421303</v>
+        <v>0.02548637734041234</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03094518585693198</v>
+        <v>0.03228870263921126</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02290622285681767</v>
+        <v>0.02580249483346926</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03384570633688292</v>
+        <v>0.03307623197187495</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02516110410287263</v>
+        <v>0.06316819843971913</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03339240396915061</v>
+        <v>0.03291014580254972</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06507196047982111</v>
+        <v>0.1048956117794862</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03033101279077519</v>
+        <v>0.03265176822526179</v>
       </c>
       <c r="N107" t="n">
-        <v>0.09650359521225199</v>
+        <v>0.02580249483346926</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03169994648758886</v>
+        <v>0.03307623197187495</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02258901910782957</v>
+        <v>0.02610031186147163</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03465155648776108</v>
+        <v>0.03386376130453864</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02462999437882399</v>
+        <v>0.06451941184284285</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03418746120651134</v>
+        <v>0.03369372070261043</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06437255706608869</v>
+        <v>0.1058997857560967</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03105317976198412</v>
+        <v>0.03342919127824421</v>
       </c>
       <c r="N108" t="n">
-        <v>0.09456115168979534</v>
+        <v>0.02610031186147163</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03245470711824574</v>
+        <v>0.03386376130453864</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.0222873998187719</v>
+        <v>0.02647905217509627</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03545740663863925</v>
+        <v>0.03465129063720233</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02449929480316103</v>
+        <v>0.06492457665085349</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03498251844387207</v>
+        <v>0.03447729560267113</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06321901053979817</v>
+        <v>0.1065434224719548</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03177534673319306</v>
+        <v>0.03420661433122663</v>
       </c>
       <c r="N109" t="n">
-        <v>0.0928743937798337</v>
+        <v>0.02647905217509627</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03320946774890262</v>
+        <v>0.03465129063720233</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02200989095436261</v>
+        <v>0.02673793952501988</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03626325678951742</v>
+        <v>0.03543881996986602</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02417575055904911</v>
+        <v>0.06548034565766447</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0357775756812328</v>
+        <v>0.03526087050273184</v>
       </c>
       <c r="L110" t="n">
-        <v>0.0625218274898387</v>
+        <v>0.1078253504719948</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03249751370440199</v>
+        <v>0.03498403738420906</v>
       </c>
       <c r="N110" t="n">
-        <v>0.0908069008353577</v>
+        <v>0.02673793952501988</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03396422837955949</v>
+        <v>0.03543881996986602</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02076501847931967</v>
+        <v>0.02697619766191924</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03706910694039558</v>
+        <v>0.03622634930252971</v>
       </c>
       <c r="J111" t="n">
-        <v>0.0237661068296536</v>
+        <v>0.06638337165718933</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03657263291859353</v>
+        <v>0.03604444540279255</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06189151450509955</v>
+        <v>0.1080443983011508</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03321968067561092</v>
+        <v>0.03576146043719148</v>
       </c>
       <c r="N111" t="n">
-        <v>0.08982225220935786</v>
+        <v>0.02697619766191924</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03471898901021637</v>
+        <v>0.03622634930252971</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02156130835836107</v>
+        <v>0.02709305033647111</v>
       </c>
       <c r="G112" t="n">
-        <v>0.03787495709127374</v>
+        <v>0.0370138786351934</v>
       </c>
       <c r="J112" t="n">
-        <v>0.0235771087981399</v>
+        <v>0.06743030744334155</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03736769015595426</v>
+        <v>0.03682802030285326</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06163857817446988</v>
+        <v>0.1084993945043569</v>
       </c>
       <c r="M112" t="n">
-        <v>0.03394184764681985</v>
+        <v>0.0365388834901739</v>
       </c>
       <c r="N112" t="n">
-        <v>0.08838402725482486</v>
+        <v>0.02709305033647111</v>
       </c>
       <c r="O112" t="n">
-        <v>0.03547374964087325</v>
+        <v>0.0370138786351934</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02040728655620475</v>
+        <v>0.02728772129935222</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03868080724215191</v>
+        <v>0.03780140796785709</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02331550164767335</v>
+        <v>0.06751780581003458</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03816274739331499</v>
+        <v>0.03761159520291396</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06087352508683902</v>
+        <v>0.1093891676265473</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03466401461802879</v>
+        <v>0.03731630654315633</v>
       </c>
       <c r="N113" t="n">
-        <v>0.08735580532474924</v>
+        <v>0.02728772129935222</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03622851027153012</v>
+        <v>0.03780140796785709</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.0213114790375687</v>
+        <v>0.02765943430123939</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03948665739303007</v>
+        <v>0.03858893730052078</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02288803056141936</v>
+        <v>0.06784251955118195</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03895780463067572</v>
+        <v>0.03839517010297467</v>
       </c>
       <c r="L114" t="n">
-        <v>0.05960686183109609</v>
+        <v>0.1094125462126562</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03538618158923772</v>
+        <v>0.03809372959613875</v>
       </c>
       <c r="N114" t="n">
-        <v>0.08660116577212168</v>
+        <v>0.02765943430123939</v>
       </c>
       <c r="O114" t="n">
-        <v>0.036983270902187</v>
+        <v>0.03858893730052078</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.01928222340702285</v>
+        <v>0.02760741309280931</v>
       </c>
       <c r="G115" t="n">
-        <v>0.04029250754390824</v>
+        <v>0.03937646663318447</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02270144072254329</v>
+        <v>0.06870110146069716</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03975286186803645</v>
+        <v>0.03917874500303538</v>
       </c>
       <c r="L115" t="n">
-        <v>0.05884909499613034</v>
+        <v>0.1104683588076175</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03610834856044665</v>
+        <v>0.03887115264912117</v>
       </c>
       <c r="N115" t="n">
-        <v>0.08558333786994954</v>
+        <v>0.02760741309280931</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03773803153284389</v>
+        <v>0.03937646663318447</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02030164369198393</v>
+        <v>0.0278308814247388</v>
       </c>
       <c r="G116" t="n">
-        <v>0.0410983576947864</v>
+        <v>0.04016399596584816</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02266247731421055</v>
+        <v>0.0686902043324937</v>
       </c>
       <c r="K116" t="n">
-        <v>0.04054791910539718</v>
+        <v>0.03996231990309609</v>
       </c>
       <c r="L116" t="n">
-        <v>0.05821073117083098</v>
+        <v>0.1110554339563656</v>
       </c>
       <c r="M116" t="n">
-        <v>0.03683051553165559</v>
+        <v>0.0396485757021036</v>
       </c>
       <c r="N116" t="n">
-        <v>0.08596211165883544</v>
+        <v>0.0278308814247388</v>
       </c>
       <c r="O116" t="n">
-        <v>0.03849279216350076</v>
+        <v>0.04016399596584816</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02135204489172233</v>
+        <v>0.02792906304770457</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04190420784566457</v>
+        <v>0.04095152529851185</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02267788551958647</v>
+        <v>0.0694064809604851</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0413429763427579</v>
+        <v>0.0407458948031568</v>
       </c>
       <c r="L117" t="n">
-        <v>0.05790227694408728</v>
+        <v>0.1113726002038345</v>
       </c>
       <c r="M117" t="n">
-        <v>0.03755268250286452</v>
+        <v>0.04042599875508603</v>
       </c>
       <c r="N117" t="n">
-        <v>0.08647913412991065</v>
+        <v>0.02792906304770457</v>
       </c>
       <c r="O117" t="n">
-        <v>0.03924755279415764</v>
+        <v>0.04095152529851185</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02143118184657334</v>
+        <v>0.02810118171238341</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04271005799654273</v>
+        <v>0.04173905463117553</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02265430156802252</v>
+        <v>0.06984658413858477</v>
       </c>
       <c r="K118" t="n">
-        <v>0.04213803358011863</v>
+        <v>0.0415294697032175</v>
       </c>
       <c r="L118" t="n">
-        <v>0.0567342389047884</v>
+        <v>0.1108186860949585</v>
       </c>
       <c r="M118" t="n">
-        <v>0.03827484947407345</v>
+        <v>0.04120342180806844</v>
       </c>
       <c r="N118" t="n">
-        <v>0.08642523273342734</v>
+        <v>0.02810118171238341</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04000231342481451</v>
+        <v>0.04173905463117553</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02053680939687228</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04351590814742089</v>
+        <v>0.04252658396383922</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02258897685623236</v>
+        <v>0.06990716666070623</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04293309081747936</v>
+        <v>0.04231304460327821</v>
       </c>
       <c r="L119" t="n">
-        <v>0.05631712364182362</v>
+        <v>0.1118925201746716</v>
       </c>
       <c r="M119" t="n">
-        <v>0.03899701644528238</v>
+        <v>0.04198084486105087</v>
       </c>
       <c r="N119" t="n">
-        <v>0.08729123491963758</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="O119" t="n">
-        <v>0.0407570740554714</v>
+        <v>0.04252658396383922</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02066668238295444</v>
+        <v>0.02806412516958727</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04432175829829906</v>
+        <v>0.04331411329650291</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02267447922215991</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04372814805484009</v>
+        <v>0.04309661950333892</v>
       </c>
       <c r="L120" t="n">
-        <v>0.05566143774408214</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="M120" t="n">
-        <v>0.03971918341649132</v>
+        <v>0.04275826791403329</v>
       </c>
       <c r="N120" t="n">
-        <v>0.08756796813879364</v>
+        <v>0.02806412516958727</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04151183468612827</v>
+        <v>0.04331411329650291</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.01981855564515516</v>
+        <v>0.02816232471797588</v>
       </c>
       <c r="G121" t="n">
-        <v>0.04512760844917722</v>
+        <v>0.0441016426291666</v>
       </c>
       <c r="J121" t="n">
-        <v>0.0229061886131072</v>
+        <v>0.06968807339179478</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04452320529220082</v>
+        <v>0.04388019440339962</v>
       </c>
       <c r="L121" t="n">
-        <v>0.05497768780045315</v>
+        <v>0.111719272591135</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04044135038770025</v>
+        <v>0.04353569096701572</v>
       </c>
       <c r="N121" t="n">
-        <v>0.08814625984114771</v>
+        <v>0.02816232471797588</v>
       </c>
       <c r="O121" t="n">
-        <v>0.04226659531678515</v>
+        <v>0.0441016426291666</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02099018402380971</v>
+        <v>0.0281550847834519</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04593345860005539</v>
+        <v>0.04488917196183029</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02287948497637621</v>
+        <v>0.06976402781318936</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04531826252956155</v>
+        <v>0.04466376930346033</v>
       </c>
       <c r="L122" t="n">
-        <v>0.05497638039982591</v>
+        <v>0.1120978309498273</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04116351735890918</v>
+        <v>0.04431311401999814</v>
       </c>
       <c r="N122" t="n">
-        <v>0.08971693747695197</v>
+        <v>0.0281550847834519</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04302135594744203</v>
+        <v>0.04488917196183029</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.0201793223592534</v>
+        <v>0.02794269564666672</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04673930875093355</v>
+        <v>0.04567670129449398</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02308974825926902</v>
+        <v>0.06991879391832606</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04611331976692228</v>
+        <v>0.04544734420352104</v>
       </c>
       <c r="L123" t="n">
-        <v>0.05476802213108958</v>
+        <v>0.1112444166403292</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04188568433011812</v>
+        <v>0.04509053707298056</v>
       </c>
       <c r="N123" t="n">
-        <v>0.0903708284964585</v>
+        <v>0.02794269564666672</v>
       </c>
       <c r="O123" t="n">
-        <v>0.0437761165780989</v>
+        <v>0.04567670129449398</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02238372549182154</v>
+        <v>0.02802526273894877</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04754515890181171</v>
+        <v>0.04646423062715768</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02333235840908761</v>
+        <v>0.06955312944608999</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04690837700428301</v>
+        <v>0.04623091910358175</v>
       </c>
       <c r="L124" t="n">
-        <v>0.0546631195831335</v>
+        <v>0.1120599041515879</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04260785130132705</v>
+        <v>0.04586796012596299</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09139876034991962</v>
+        <v>0.02802526273894877</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04453087720875578</v>
+        <v>0.04646423062715768</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02060114826184944</v>
+        <v>0.02810289149162641</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04835100905268988</v>
+        <v>0.04725175995982136</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02380269537313401</v>
+        <v>0.06956779213536626</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04770343424164374</v>
+        <v>0.04701449400364246</v>
       </c>
       <c r="L125" t="n">
-        <v>0.05407217934484676</v>
+        <v>0.1111451679725505</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04333001827253598</v>
+        <v>0.04664538317894541</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09259156048758743</v>
+        <v>0.02810289149162641</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04528563783941266</v>
+        <v>0.04725175995982136</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02282934550967238</v>
+        <v>0.02787568733602802</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04915685920356805</v>
+        <v>0.04803928929248505</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02399613909871026</v>
+        <v>0.06966353972503997</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04849849147900447</v>
+        <v>0.04779806890370316</v>
       </c>
       <c r="L126" t="n">
-        <v>0.05400287904208331</v>
+        <v>0.1117010825921645</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04405218524374491</v>
+        <v>0.04742280623192783</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09324005635971422</v>
+        <v>0.02787568733602802</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04604039847006954</v>
+        <v>0.04803928929248505</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.0230660720756257</v>
+        <v>0.02794375570348202</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04996270935444622</v>
+        <v>0.04882681862514874</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02420806953311837</v>
+        <v>0.06944112995399623</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04929354871636519</v>
+        <v>0.04858164380376387</v>
       </c>
       <c r="L127" t="n">
-        <v>0.05454913342228176</v>
+        <v>0.1106285224993769</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04477435221495385</v>
+        <v>0.04820022928491025</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09363507541655208</v>
+        <v>0.02794375570348202</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04679515910072642</v>
+        <v>0.04882681862514874</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02330908280004467</v>
+        <v>0.02800720202531679</v>
       </c>
       <c r="G128" t="n">
-        <v>0.05076855950532438</v>
+        <v>0.04961434795781243</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02473386662366039</v>
+        <v>0.06910132056112014</v>
       </c>
       <c r="K128" t="n">
-        <v>0.05008860595372592</v>
+        <v>0.04936521870382458</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05510220647328729</v>
+        <v>0.1104283621831351</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04549651918616278</v>
+        <v>0.04897765233789268</v>
       </c>
       <c r="N128" t="n">
-        <v>0.09516744510835318</v>
+        <v>0.02800720202531679</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04754991973138329</v>
+        <v>0.04961434795781243</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02255613252326463</v>
+        <v>0.02796613173286069</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05157440965620255</v>
+        <v>0.05040187729047612</v>
       </c>
       <c r="J129" t="n">
-        <v>0.02486891031763828</v>
+        <v>0.06894486928529686</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05088366319108665</v>
+        <v>0.05014879360388529</v>
       </c>
       <c r="L129" t="n">
-        <v>0.05495346405656235</v>
+        <v>0.1106014761323862</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04621868615737171</v>
+        <v>0.04975507539087511</v>
       </c>
       <c r="N129" t="n">
-        <v>0.09642799288536974</v>
+        <v>0.02796613173286069</v>
       </c>
       <c r="O129" t="n">
-        <v>0.04830468036204017</v>
+        <v>0.05040187729047612</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02380497608562086</v>
+        <v>0.02772065025744215</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05238025980708071</v>
+        <v>0.05118940662313981</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02520858056235413</v>
+        <v>0.06867253386541147</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05167872042844738</v>
+        <v>0.05093236850394599</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05559427203356954</v>
+        <v>0.1099487388360776</v>
       </c>
       <c r="M130" t="n">
-        <v>0.04694085312858065</v>
+        <v>0.05053249844385752</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09720754619785399</v>
+        <v>0.02772065025744215</v>
       </c>
       <c r="O130" t="n">
-        <v>0.04905944099269705</v>
+        <v>0.05118940662313981</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02305336832744865</v>
+        <v>0.02777086303038957</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05318610995795887</v>
+        <v>0.05197693595580349</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02574825730510993</v>
+        <v>0.06858507204034905</v>
       </c>
       <c r="K131" t="n">
-        <v>0.05247377766580811</v>
+        <v>0.0517159434040067</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05571599626577142</v>
+        <v>0.1105710247831563</v>
       </c>
       <c r="M131" t="n">
-        <v>0.04766302009978958</v>
+        <v>0.05130992149683995</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09919693249605804</v>
+        <v>0.02777086303038957</v>
       </c>
       <c r="O131" t="n">
-        <v>0.04981420162335393</v>
+        <v>0.05197693595580349</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02229906408908335</v>
+        <v>0.0277168754830313</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05399196010883704</v>
+        <v>0.05276446528846719</v>
       </c>
       <c r="J132" t="n">
-        <v>0.0260833204932077</v>
+        <v>0.06828324154899479</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05326883490316883</v>
+        <v>0.05249951830406741</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05641000261463061</v>
+        <v>0.1103692084625697</v>
       </c>
       <c r="M132" t="n">
-        <v>0.04838518707099852</v>
+        <v>0.05208734454982238</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09948697923023408</v>
+        <v>0.0277168754830313</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05056896225401081</v>
+        <v>0.05276446528846719</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02353981821086023</v>
+        <v>0.02775879304669575</v>
       </c>
       <c r="G133" t="n">
-        <v>0.0547978102597152</v>
+        <v>0.05355199462113088</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02640915007394948</v>
+        <v>0.06866780013023374</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05406389214052956</v>
+        <v>0.05328309320412811</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05726765694160951</v>
+        <v>0.109944164363265</v>
       </c>
       <c r="M133" t="n">
-        <v>0.04910735404220744</v>
+        <v>0.05286476760280481</v>
       </c>
       <c r="N133" t="n">
-        <v>0.1014685138506344</v>
+        <v>0.02775879304669575</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05132372288466768</v>
+        <v>0.05355199462113088</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02277338553311458</v>
+        <v>0.02759672115271129</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05560366041059337</v>
+        <v>0.05433952395379457</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02672112599463727</v>
+        <v>0.06813950552295103</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05485894937789029</v>
+        <v>0.05406666810418882</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05838032510817082</v>
+        <v>0.1091967669741895</v>
       </c>
       <c r="M134" t="n">
-        <v>0.04982952101341638</v>
+        <v>0.05364219065578722</v>
       </c>
       <c r="N134" t="n">
-        <v>0.102132363807511</v>
+        <v>0.02759672115271129</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05207848351532456</v>
+        <v>0.05433952395379457</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02299752089618174</v>
+        <v>0.02753076523240633</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05640951056147153</v>
+        <v>0.05512705328645826</v>
       </c>
       <c r="J135" t="n">
-        <v>0.02701462820257312</v>
+        <v>0.06749911546603177</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05565400661525102</v>
+        <v>0.05485024300424954</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05913937297577701</v>
+        <v>0.1088278907842903</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05055168798462531</v>
+        <v>0.05441961370876965</v>
       </c>
       <c r="N135" t="n">
-        <v>0.1030693565511162</v>
+        <v>0.02753076523240633</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05283324414598143</v>
+        <v>0.05512705328645826</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02420997914039701</v>
+        <v>0.02746103071710927</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05721536071234969</v>
+        <v>0.05591458261912195</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02728503664505903</v>
+        <v>0.06724738769836106</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05644906385261175</v>
+        <v>0.05563381790431024</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05983616640589068</v>
+        <v>0.1082384102825148</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05127385495583425</v>
+        <v>0.05519703676175206</v>
       </c>
       <c r="N136" t="n">
-        <v>0.1050703195317022</v>
+        <v>0.02746103071710927</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05358800477663832</v>
+        <v>0.05591458261912195</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.02440851510609567</v>
+        <v>0.0273876230381485</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05802121086322785</v>
+        <v>0.05670211195178564</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02752773126939705</v>
+        <v>0.06728507995882405</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05724412108997248</v>
+        <v>0.05641739280437095</v>
       </c>
       <c r="L137" t="n">
-        <v>0.06026207125997438</v>
+        <v>0.10742919995781</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05199602192704317</v>
+        <v>0.05597445981473449</v>
       </c>
       <c r="N137" t="n">
-        <v>0.105426080199521</v>
+        <v>0.0273876230381485</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05434276540729519</v>
+        <v>0.05670211195178564</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02559088363361305</v>
+        <v>0.02721064762685239</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05882706101410602</v>
+        <v>0.05748964128444933</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02753809202288916</v>
+        <v>0.0670129499863058</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05803917832733321</v>
+        <v>0.05720096770443165</v>
       </c>
       <c r="L138" t="n">
-        <v>0.06160845339949064</v>
+        <v>0.1070011342991234</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05271818889825211</v>
+        <v>0.05675188286771692</v>
       </c>
       <c r="N138" t="n">
-        <v>0.1069274660048251</v>
+        <v>0.02721064762685239</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05509752603795207</v>
+        <v>0.05748964128444933</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02475483956328444</v>
+        <v>0.02723020991454933</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05963291116498419</v>
+        <v>0.05827717061711302</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02771149885283741</v>
+        <v>0.06683175551969148</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05883423556469394</v>
+        <v>0.05798454260449235</v>
       </c>
       <c r="L139" t="n">
-        <v>0.06216667868590203</v>
+        <v>0.107355087795402</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05344035586946105</v>
+        <v>0.05752930592069933</v>
       </c>
       <c r="N139" t="n">
-        <v>0.1075653043978664</v>
+        <v>0.02723020991454933</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05585228666860895</v>
+        <v>0.05827717061711302</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02489813773544514</v>
+        <v>0.02704641533256773</v>
       </c>
       <c r="G140" t="n">
-        <v>0.06043876131586236</v>
+        <v>0.05906469994977671</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02784333170654384</v>
+        <v>0.06674225429786618</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05962929280205467</v>
+        <v>0.05876811750455307</v>
       </c>
       <c r="L140" t="n">
-        <v>0.06262811298067109</v>
+        <v>0.1069919349355933</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05416252284066998</v>
+        <v>0.05830672897368176</v>
       </c>
       <c r="N140" t="n">
-        <v>0.1079304228288972</v>
+        <v>0.02704641533256773</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05660704729926583</v>
+        <v>0.05906469994977671</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02603008240349169</v>
+        <v>0.02705936931223596</v>
       </c>
       <c r="G141" t="n">
-        <v>0.06124461146674052</v>
+        <v>0.0598522292824404</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02816435282862557</v>
+        <v>0.06624520405971498</v>
       </c>
       <c r="K141" t="n">
-        <v>0.0604243500394154</v>
+        <v>0.05955169240461378</v>
       </c>
       <c r="L141" t="n">
-        <v>0.06408412214526038</v>
+        <v>0.1065125502086443</v>
       </c>
       <c r="M141" t="n">
-        <v>0.0548846898118789</v>
+        <v>0.05908415202666419</v>
       </c>
       <c r="N141" t="n">
-        <v>0.1090136487481697</v>
+        <v>0.02705936931223596</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0573618079299227</v>
+        <v>0.0598522292824404</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02512431961217249</v>
+        <v>0.02696917728488243</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06205046161761869</v>
+        <v>0.06063975861510409</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02796379527443925</v>
+        <v>0.06624136254412302</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06121940727677613</v>
+        <v>0.06033526730467448</v>
       </c>
       <c r="L142" t="n">
-        <v>0.06452607204113248</v>
+        <v>0.1061178081035024</v>
       </c>
       <c r="M142" t="n">
-        <v>0.05560685678308784</v>
+        <v>0.0598615750796466</v>
       </c>
       <c r="N142" t="n">
-        <v>0.109805809605936</v>
+        <v>0.02696917728488243</v>
       </c>
       <c r="O142" t="n">
-        <v>0.05811656856057958</v>
+        <v>0.06063975861510409</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02423025030514698</v>
+        <v>0.02687594468183553</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06285631176849685</v>
+        <v>0.06142728794776777</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02816371297007247</v>
+        <v>0.0652314874899754</v>
       </c>
       <c r="K143" t="n">
-        <v>0.06201446451413686</v>
+        <v>0.0611188422047352</v>
       </c>
       <c r="L143" t="n">
-        <v>0.06534532852974992</v>
+        <v>0.1052085831091146</v>
       </c>
       <c r="M143" t="n">
-        <v>0.05632902375429678</v>
+        <v>0.06063899813262903</v>
       </c>
       <c r="N143" t="n">
-        <v>0.1105977328524484</v>
+        <v>0.02687594468183553</v>
       </c>
       <c r="O143" t="n">
-        <v>0.05887132919123646</v>
+        <v>0.06142728794776777</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02433623158550224</v>
+        <v>0.02687977693442363</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06366216191937502</v>
+        <v>0.06221481728043146</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02796137756511276</v>
+        <v>0.06561633663615726</v>
       </c>
       <c r="K144" t="n">
-        <v>0.06280952175149758</v>
+        <v>0.0619024171047959</v>
       </c>
       <c r="L144" t="n">
-        <v>0.06653325747257527</v>
+        <v>0.1044857497144284</v>
       </c>
       <c r="M144" t="n">
-        <v>0.05705119072550571</v>
+        <v>0.06141642118561146</v>
       </c>
       <c r="N144" t="n">
-        <v>0.1106802459379589</v>
+        <v>0.02687977693442363</v>
       </c>
       <c r="O144" t="n">
-        <v>0.05962608982189333</v>
+        <v>0.06221481728043146</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0254420190158337</v>
+        <v>0.02668077947397511</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06446801207025317</v>
+        <v>0.06300234661309516</v>
       </c>
       <c r="J145" t="n">
-        <v>0.02805736835816348</v>
+        <v>0.06519666772155369</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06360457898885831</v>
+        <v>0.06268599200485661</v>
       </c>
       <c r="L145" t="n">
-        <v>0.06738122473107105</v>
+        <v>0.1045501824083909</v>
       </c>
       <c r="M145" t="n">
-        <v>0.05777335769671463</v>
+        <v>0.06219384423859388</v>
       </c>
       <c r="N145" t="n">
-        <v>0.1108441763127199</v>
+        <v>0.02668077947397511</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06038085045255021</v>
+        <v>0.06300234661309516</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02554736815873688</v>
+        <v>0.02647905773181841</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06527386222113134</v>
+        <v>0.06378987594575884</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02795172454299014</v>
+        <v>0.06477323848504976</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06439963622621904</v>
+        <v>0.06346956690491731</v>
       </c>
       <c r="L146" t="n">
-        <v>0.06788059616669986</v>
+        <v>0.1039027556799493</v>
       </c>
       <c r="M146" t="n">
-        <v>0.05849552466792357</v>
+        <v>0.0629712672915763</v>
       </c>
       <c r="N146" t="n">
-        <v>0.1122196779208668</v>
+        <v>0.02647905773181841</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06113561108320709</v>
+        <v>0.06378987594575884</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02465203457680728</v>
+        <v>0.02637471713928188</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06607971237200951</v>
+        <v>0.06457740527842253</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02794448531335827</v>
+        <v>0.06464680666553069</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06519469346357977</v>
+        <v>0.06425314180497801</v>
       </c>
       <c r="L147" t="n">
-        <v>0.06802273764092426</v>
+        <v>0.1031443440180509</v>
       </c>
       <c r="M147" t="n">
-        <v>0.05921769163913251</v>
+        <v>0.06374869034455873</v>
       </c>
       <c r="N147" t="n">
-        <v>0.1118174752141535</v>
+        <v>0.02637471713928188</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06189037171386397</v>
+        <v>0.06457740527842253</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02575577383264036</v>
+        <v>0.02646786312769393</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06688556252288767</v>
+        <v>0.06536493461108622</v>
       </c>
       <c r="J148" t="n">
-        <v>0.02793568986303339</v>
+        <v>0.06391813000188146</v>
       </c>
       <c r="K148" t="n">
-        <v>0.0659897507009405</v>
+        <v>0.06503671670503873</v>
       </c>
       <c r="L148" t="n">
-        <v>0.06909901501520677</v>
+        <v>0.102875821911643</v>
       </c>
       <c r="M148" t="n">
-        <v>0.05993985861034144</v>
+        <v>0.06452611339754115</v>
       </c>
       <c r="N148" t="n">
-        <v>0.111546673245723</v>
+        <v>0.02646786312769393</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06264513234452085</v>
+        <v>0.06536493461108622</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02585834148883163</v>
+        <v>0.02625860112838294</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06769141267376584</v>
+        <v>0.06615246394374991</v>
       </c>
       <c r="J149" t="n">
-        <v>0.02792537738578106</v>
+        <v>0.06358796623298729</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06678480793830122</v>
+        <v>0.06582029160509943</v>
       </c>
       <c r="L149" t="n">
-        <v>0.06980079415100995</v>
+        <v>0.1021980638496728</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06066202558155038</v>
+        <v>0.06530353645052357</v>
       </c>
       <c r="N149" t="n">
-        <v>0.1121723843956242</v>
+        <v>0.02625860112838294</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06339989297517773</v>
+        <v>0.06615246394374991</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02695949310797655</v>
+        <v>0.02604703657267729</v>
       </c>
       <c r="G150" t="n">
-        <v>0.068497262824644</v>
+        <v>0.0669399932764136</v>
       </c>
       <c r="J150" t="n">
-        <v>0.02811358707536676</v>
+        <v>0.06355707309773329</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06757986517566195</v>
+        <v>0.06660386650516015</v>
       </c>
       <c r="L150" t="n">
-        <v>0.0701920153747462</v>
+        <v>0.1016119443210874</v>
       </c>
       <c r="M150" t="n">
-        <v>0.06138419255275931</v>
+        <v>0.066080959503506</v>
       </c>
       <c r="N150" t="n">
-        <v>0.1118944811572993</v>
+        <v>0.02604703657267729</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0641546536058346</v>
+        <v>0.0669399932764136</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.02605898425267063</v>
+        <v>0.0259332748919054</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06930311297552216</v>
+        <v>0.06772752260907729</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02790035812555604</v>
+        <v>0.06282620833500446</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06837492241302268</v>
+        <v>0.06738744140522086</v>
       </c>
       <c r="L151" t="n">
-        <v>0.07040093851305124</v>
+        <v>0.1011183378148341</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06210635952396824</v>
+        <v>0.06685838255648842</v>
       </c>
       <c r="N151" t="n">
-        <v>0.1118128360241906</v>
+        <v>0.0259332748919054</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06490941423649148</v>
+        <v>0.06772752260907729</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02615657048550934</v>
+        <v>0.02591742151739565</v>
       </c>
       <c r="G152" t="n">
-        <v>0.07010896312640033</v>
+        <v>0.06851505194174097</v>
       </c>
       <c r="J152" t="n">
-        <v>0.0280857297301144</v>
+        <v>0.062596129683686</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06916997965038341</v>
+        <v>0.06817101630528156</v>
       </c>
       <c r="L152" t="n">
-        <v>0.070782548148033</v>
+        <v>0.1003181188198602</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06282852649517717</v>
+        <v>0.06763580560947084</v>
       </c>
       <c r="N152" t="n">
-        <v>0.1124273214897401</v>
+        <v>0.02591742151739565</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06566417486714836</v>
+        <v>0.06851505194174097</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02625200736908818</v>
+        <v>0.02579958188047639</v>
       </c>
       <c r="G153" t="n">
-        <v>0.0709148132772785</v>
+        <v>0.06930258127440467</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02786974108280742</v>
+        <v>0.06246759488266304</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06996503688774414</v>
+        <v>0.06895459120534227</v>
       </c>
       <c r="L153" t="n">
-        <v>0.07126401243671651</v>
+        <v>0.09921216182511305</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06355069346638612</v>
+        <v>0.06841322866245327</v>
       </c>
       <c r="N153" t="n">
-        <v>0.1121378100473902</v>
+        <v>0.02579958188047639</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06641893549780524</v>
+        <v>0.06930258127440467</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02534505046600264</v>
+        <v>0.02557986141247608</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07172066342815667</v>
+        <v>0.07009011060706835</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02795243137740057</v>
+        <v>0.06183237706223343</v>
       </c>
       <c r="K154" t="n">
-        <v>0.07076009412510487</v>
+        <v>0.06973816610540297</v>
       </c>
       <c r="L154" t="n">
-        <v>0.07174483064180182</v>
+        <v>0.09850134131953964</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06427286043759504</v>
+        <v>0.06919065171543569</v>
       </c>
       <c r="N154" t="n">
-        <v>0.1121441741905831</v>
+        <v>0.02557986141247608</v>
       </c>
       <c r="O154" t="n">
-        <v>0.06717369612846211</v>
+        <v>0.07009011060706835</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02643545533884819</v>
+        <v>0.02545836554472306</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07252651357903483</v>
+        <v>0.07087763993973205</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02803383980765942</v>
+        <v>0.06155201130023888</v>
       </c>
       <c r="K155" t="n">
-        <v>0.0715551513624656</v>
+        <v>0.07052174100546367</v>
       </c>
       <c r="L155" t="n">
-        <v>0.07172450202598912</v>
+        <v>0.09778653179208735</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06499502740880397</v>
+        <v>0.06996807476841811</v>
       </c>
       <c r="N155" t="n">
-        <v>0.1126462864127608</v>
+        <v>0.02545836554472306</v>
       </c>
       <c r="O155" t="n">
-        <v>0.06792845675911899</v>
+        <v>0.07087763993973205</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02552297755022031</v>
+        <v>0.02553519970854574</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07333236372991299</v>
+        <v>0.07166516927239573</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02801400556734947</v>
+        <v>0.06112456390520613</v>
       </c>
       <c r="K156" t="n">
-        <v>0.07235020859982633</v>
+        <v>0.0713053159055244</v>
       </c>
       <c r="L156" t="n">
-        <v>0.07210252585197849</v>
+        <v>0.09776860773170326</v>
       </c>
       <c r="M156" t="n">
-        <v>0.0657171943800129</v>
+        <v>0.07074549782140054</v>
       </c>
       <c r="N156" t="n">
-        <v>0.1131440192073658</v>
+        <v>0.02553519970854574</v>
       </c>
       <c r="O156" t="n">
-        <v>0.06868321738977587</v>
+        <v>0.07166516927239573</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.02660737266271451</v>
+        <v>0.0254104693352725</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07413821388079116</v>
+        <v>0.07245269860505943</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02789296785023623</v>
+        <v>0.06085298804237083</v>
       </c>
       <c r="K157" t="n">
-        <v>0.07314526583718706</v>
+        <v>0.0720888908055851</v>
       </c>
       <c r="L157" t="n">
-        <v>0.07247840138247003</v>
+        <v>0.09704844362733478</v>
       </c>
       <c r="M157" t="n">
-        <v>0.06643936135122185</v>
+        <v>0.07152292087438296</v>
       </c>
       <c r="N157" t="n">
-        <v>0.1134372450678401</v>
+        <v>0.0254104693352725</v>
       </c>
       <c r="O157" t="n">
-        <v>0.06943797802043274</v>
+        <v>0.07245269860505943</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02768839623892628</v>
+        <v>0.02528427985623173</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07494406403166931</v>
+        <v>0.07324022793772311</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02797076585008526</v>
+        <v>0.06024023687696858</v>
       </c>
       <c r="K158" t="n">
-        <v>0.07394032307454779</v>
+        <v>0.0728724657056458</v>
       </c>
       <c r="L158" t="n">
-        <v>0.07315162788016388</v>
+        <v>0.09632691396792914</v>
       </c>
       <c r="M158" t="n">
-        <v>0.06716152832243077</v>
+        <v>0.0723003439273654</v>
       </c>
       <c r="N158" t="n">
-        <v>0.1129258364876261</v>
+        <v>0.02528427985623173</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07019273865108962</v>
+        <v>0.07324022793772311</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02576580384145109</v>
+        <v>0.02515673670275184</v>
       </c>
       <c r="G159" t="n">
-        <v>0.07574991418254748</v>
+        <v>0.0740277572703868</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02784743876066208</v>
+        <v>0.05998926357423509</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07473538031190852</v>
+        <v>0.07365604060570652</v>
       </c>
       <c r="L159" t="n">
-        <v>0.07302170460776009</v>
+        <v>0.09530489324243346</v>
       </c>
       <c r="M159" t="n">
-        <v>0.0678836952936397</v>
+        <v>0.07307776698034781</v>
       </c>
       <c r="N159" t="n">
-        <v>0.1133096659601657</v>
+        <v>0.02515673670275184</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0709474992817465</v>
+        <v>0.0740277572703868</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02683935103288442</v>
+        <v>0.02492794530616119</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07655576433342565</v>
+        <v>0.07481528660305049</v>
       </c>
       <c r="J160" t="n">
-        <v>0.0279230257757322</v>
+        <v>0.05890302129940603</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07553043754926925</v>
+        <v>0.07443961550576722</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0739881308279588</v>
+        <v>0.09468325593979499</v>
       </c>
       <c r="M160" t="n">
-        <v>0.06860586226484863</v>
+        <v>0.07385519003333023</v>
       </c>
       <c r="N160" t="n">
-        <v>0.1136886059789014</v>
+        <v>0.02492794530616119</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07170225991240338</v>
+        <v>0.07481528660305049</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02790879337582178</v>
+        <v>0.02479801109778819</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07736161448430381</v>
+        <v>0.07560281593571418</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02789756608906116</v>
+        <v>0.05878446321771699</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07632549478662998</v>
+        <v>0.07522319040582792</v>
       </c>
       <c r="L161" t="n">
-        <v>0.07405040580346012</v>
+        <v>0.09426287654896104</v>
       </c>
       <c r="M161" t="n">
-        <v>0.06932802923605758</v>
+        <v>0.07463261308631267</v>
       </c>
       <c r="N161" t="n">
-        <v>0.1133625290372753</v>
+        <v>0.02479801109778819</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07245702054306025</v>
+        <v>0.07560281593571418</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02797388643285865</v>
+        <v>0.02456703950896122</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07816746463518198</v>
+        <v>0.07639034526837787</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02777109889441448</v>
+        <v>0.05813654249440373</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07712055202399071</v>
+        <v>0.07600676530588864</v>
       </c>
       <c r="L162" t="n">
-        <v>0.07430802879696413</v>
+        <v>0.09373675384971647</v>
       </c>
       <c r="M162" t="n">
-        <v>0.0700501962072665</v>
+        <v>0.07541003613929508</v>
       </c>
       <c r="N162" t="n">
-        <v>0.1133313076287297</v>
+        <v>0.02456703950896122</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07321178117371714</v>
+        <v>0.07639034526837787</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02703438576659051</v>
+        <v>0.02463513597100869</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07897331478606014</v>
+        <v>0.07717787460104156</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02774366338555767</v>
+        <v>0.05726221229470177</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07791560926135144</v>
+        <v>0.07679034020594934</v>
       </c>
       <c r="L163" t="n">
-        <v>0.07456049907117099</v>
+        <v>0.09303305895880559</v>
       </c>
       <c r="M163" t="n">
-        <v>0.07077236317847545</v>
+        <v>0.0761874591922775</v>
       </c>
       <c r="N163" t="n">
-        <v>0.1127948142467066</v>
+        <v>0.02463513597100869</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07396654180437401</v>
+        <v>0.07717787460104156</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02609004693961283</v>
+        <v>0.02440240591525898</v>
       </c>
       <c r="G164" t="n">
-        <v>0.0797791649369383</v>
+        <v>0.07796540393370525</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02761529875625629</v>
+        <v>0.05626442578384688</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07871066649871217</v>
+        <v>0.07757391510601006</v>
       </c>
       <c r="L164" t="n">
-        <v>0.07470731588878074</v>
+        <v>0.09204009235299826</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07149453014968436</v>
+        <v>0.07696488224525992</v>
       </c>
       <c r="N164" t="n">
-        <v>0.1138529213846485</v>
+        <v>0.02440240591525898</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07472130243503089</v>
+        <v>0.07796540393370525</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02614062551452114</v>
+        <v>0.02416895477304049</v>
       </c>
       <c r="G165" t="n">
-        <v>0.08058501508781647</v>
+        <v>0.07875293326636894</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02778604420027586</v>
+        <v>0.05544613612707466</v>
       </c>
       <c r="K165" t="n">
-        <v>0.0795057237360729</v>
+        <v>0.07835749000607076</v>
       </c>
       <c r="L165" t="n">
-        <v>0.07574797851249357</v>
+        <v>0.0912650894977487</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07221669712089331</v>
+        <v>0.07774230529824235</v>
       </c>
       <c r="N165" t="n">
-        <v>0.1138055015359972</v>
+        <v>0.02416895477304049</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07547606306568777</v>
+        <v>0.07875293326636894</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02618587705391089</v>
+        <v>0.02403488797568157</v>
       </c>
       <c r="G166" t="n">
-        <v>0.08139086523869464</v>
+        <v>0.07954046259903262</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02775593891138188</v>
+        <v>0.05471029648962081</v>
       </c>
       <c r="K166" t="n">
-        <v>0.08030078097343363</v>
+        <v>0.07914106490613146</v>
       </c>
       <c r="L166" t="n">
-        <v>0.07558198620500955</v>
+        <v>0.09101528585851104</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07293886409210223</v>
+        <v>0.07851972835122478</v>
       </c>
       <c r="N166" t="n">
-        <v>0.1131524271941953</v>
+        <v>0.02403488797568157</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07623082369634465</v>
+        <v>0.07954046259903262</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.0272255571203776</v>
+        <v>0.02410031095451066</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08219671538957281</v>
+        <v>0.08032799193169632</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02772502208333988</v>
+        <v>0.05405986003672095</v>
       </c>
       <c r="K167" t="n">
-        <v>0.08109583821079436</v>
+        <v>0.07992463980619217</v>
       </c>
       <c r="L167" t="n">
-        <v>0.07620883822902874</v>
+        <v>0.08949791690073949</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07366103106331118</v>
+        <v>0.07929715140420719</v>
       </c>
       <c r="N167" t="n">
-        <v>0.1138935708526849</v>
+        <v>0.02410031095451066</v>
       </c>
       <c r="O167" t="n">
-        <v>0.07698558432700152</v>
+        <v>0.08032799193169632</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02625942127651671</v>
+        <v>0.02386532914085611</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08300256554045098</v>
+        <v>0.08111552126436</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02769333290991542</v>
+        <v>0.05349777993361077</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08189089544815509</v>
+        <v>0.08070821470625289</v>
       </c>
       <c r="L168" t="n">
-        <v>0.07622803384725127</v>
+        <v>0.08902021808988825</v>
       </c>
       <c r="M168" t="n">
-        <v>0.07438319803452009</v>
+        <v>0.08007457445718962</v>
       </c>
       <c r="N168" t="n">
-        <v>0.1141288050049081</v>
+        <v>0.02386532914085611</v>
       </c>
       <c r="O168" t="n">
-        <v>0.0777403449576584</v>
+        <v>0.08111552126436</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02728722508492374</v>
+        <v>0.02373004796604634</v>
       </c>
       <c r="G169" t="n">
-        <v>0.08380841569132913</v>
+        <v>0.0819030505970237</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02756091058487398</v>
+        <v>0.05282700934552589</v>
       </c>
       <c r="K169" t="n">
-        <v>0.0826859526855158</v>
+        <v>0.08149178960631359</v>
       </c>
       <c r="L169" t="n">
-        <v>0.0768390723223773</v>
+        <v>0.08718942489141157</v>
       </c>
       <c r="M169" t="n">
-        <v>0.07510536500572904</v>
+        <v>0.08085199751017205</v>
       </c>
       <c r="N169" t="n">
-        <v>0.1141580021443072</v>
+        <v>0.02373004796604634</v>
       </c>
       <c r="O169" t="n">
-        <v>0.07849510558831528</v>
+        <v>0.0819030505970237</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02630872410819419</v>
+        <v>0.02369457286140973</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08461426584220728</v>
+        <v>0.08269057992968738</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02752779430198113</v>
+        <v>0.051950501437702</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08348100992287653</v>
+        <v>0.08227536450637429</v>
       </c>
       <c r="L170" t="n">
-        <v>0.0770414529171069</v>
+        <v>0.08661277277076362</v>
       </c>
       <c r="M170" t="n">
-        <v>0.07582753197693796</v>
+        <v>0.08162942056315446</v>
       </c>
       <c r="N170" t="n">
-        <v>0.1141810347643243</v>
+        <v>0.02369457286140973</v>
       </c>
       <c r="O170" t="n">
-        <v>0.07924986621897215</v>
+        <v>0.08269057992968738</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02732367390892349</v>
+        <v>0.02345435963613959</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08542011599308545</v>
+        <v>0.08347810926235107</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02749402325500236</v>
+        <v>0.05127120937537472</v>
       </c>
       <c r="K171" t="n">
-        <v>0.08427606716023726</v>
+        <v>0.083058939406435</v>
       </c>
       <c r="L171" t="n">
-        <v>0.07733467489414017</v>
+        <v>0.08469749719339853</v>
       </c>
       <c r="M171" t="n">
-        <v>0.07654969894814691</v>
+        <v>0.08240684361613689</v>
       </c>
       <c r="N171" t="n">
-        <v>0.1139977753584018</v>
+        <v>0.02345435963613959</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08000462684962903</v>
+        <v>0.08347810926235107</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02833183004970718</v>
+        <v>0.02319428176801092</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08622596614396362</v>
+        <v>0.08426563859501476</v>
       </c>
       <c r="J172" t="n">
-        <v>0.02745963663770321</v>
+        <v>0.05059208632377973</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08507112439759799</v>
+        <v>0.08384251430649571</v>
       </c>
       <c r="L172" t="n">
-        <v>0.07741823751617721</v>
+        <v>0.08315083362477071</v>
       </c>
       <c r="M172" t="n">
-        <v>0.07727186591935584</v>
+        <v>0.08318426666911932</v>
       </c>
       <c r="N172" t="n">
-        <v>0.1141080964199819</v>
+        <v>0.02319428176801092</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08075938748028591</v>
+        <v>0.08426563859501476</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02733186666385453</v>
+        <v>0.02311534200259473</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08703181629484179</v>
+        <v>0.08505316792767845</v>
       </c>
       <c r="J173" t="n">
-        <v>0.0273246736438492</v>
+        <v>0.04981608544815269</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08586618163495872</v>
+        <v>0.08462608920655641</v>
       </c>
       <c r="L173" t="n">
-        <v>0.07769164004591819</v>
+        <v>0.08288001753033419</v>
       </c>
       <c r="M173" t="n">
-        <v>0.07799403289056477</v>
+        <v>0.08396168972210173</v>
       </c>
       <c r="N173" t="n">
-        <v>0.1137118704425065</v>
+        <v>0.02311534200259473</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08151414811094279</v>
+        <v>0.08505316792767845</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02731069621690147</v>
+        <v>0.02302000097666611</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08783766644571996</v>
+        <v>0.08584069726034214</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02738917346720589</v>
+        <v>0.04894615991372925</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08666123887231945</v>
+        <v>0.08540966410661713</v>
       </c>
       <c r="L174" t="n">
-        <v>0.07825438174606314</v>
+        <v>0.08119228437554327</v>
       </c>
       <c r="M174" t="n">
-        <v>0.07871619986177369</v>
+        <v>0.08473911277508417</v>
       </c>
       <c r="N174" t="n">
-        <v>0.1134925868119778</v>
+        <v>0.02302000097666611</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08226890874159966</v>
+        <v>0.08584069726034214</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02626565219997842</v>
+        <v>0.02271071932700015</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08864351659659812</v>
+        <v>0.08662822659300583</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02735317530153876</v>
+        <v>0.04828526288574508</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08745629610968018</v>
+        <v>0.08619323900667784</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07850596187931222</v>
+        <v>0.07959486962585205</v>
       </c>
       <c r="M175" t="n">
-        <v>0.07943836683298264</v>
+        <v>0.08551653582806658</v>
       </c>
       <c r="N175" t="n">
-        <v>0.1141299035802303</v>
+        <v>0.02271071932700015</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08302366937225654</v>
+        <v>0.08662822659300583</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02719816121184489</v>
+        <v>0.02238995769037191</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08944936674747629</v>
+        <v>0.08741575592566952</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02741671834061335</v>
+        <v>0.04693634752943582</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08825135334704091</v>
+        <v>0.08697681390673855</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07884587970836551</v>
+        <v>0.07849500874671483</v>
       </c>
       <c r="M176" t="n">
-        <v>0.08016053380419157</v>
+        <v>0.086293958881049</v>
       </c>
       <c r="N176" t="n">
-        <v>0.1131253435984594</v>
+        <v>0.02238995769037191</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08377843000291342</v>
+        <v>0.08741575592566952</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0261096498512605</v>
+        <v>0.02216017670355651</v>
       </c>
       <c r="G177" t="n">
-        <v>0.09025521689835445</v>
+        <v>0.08820328525833321</v>
       </c>
       <c r="J177" t="n">
-        <v>0.0271798417781952</v>
+        <v>0.04660236701003714</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08904641058440164</v>
+        <v>0.08776038880679925</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0789736344959231</v>
+        <v>0.07729993720358574</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08088270077540051</v>
+        <v>0.08707138193403144</v>
       </c>
       <c r="N177" t="n">
-        <v>0.1132805198834096</v>
+        <v>0.02216017670355651</v>
       </c>
       <c r="O177" t="n">
-        <v>0.0845331906335703</v>
+        <v>0.08820328525833321</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02700154471698477</v>
+        <v>0.02212383700332905</v>
       </c>
       <c r="G178" t="n">
-        <v>0.09106106704923261</v>
+        <v>0.08899081459099689</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02714106779317138</v>
+        <v>0.04548627449278464</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08984146782176237</v>
+        <v>0.08854396370685995</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07908872550468515</v>
+        <v>0.07641689046191913</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08160486774660942</v>
+        <v>0.08784880498701385</v>
       </c>
       <c r="N178" t="n">
-        <v>0.1136970454518256</v>
+        <v>0.02212383700332905</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08528795126422717</v>
+        <v>0.08899081459099689</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02787527240777731</v>
+        <v>0.02188339922646457</v>
       </c>
       <c r="G179" t="n">
-        <v>0.09186691720011078</v>
+        <v>0.08977834392366059</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02719548509755255</v>
+        <v>0.04489102314291413</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09063652505912309</v>
+        <v>0.08932753860692066</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07959065199735169</v>
+        <v>0.07465310398716901</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08232703471781837</v>
+        <v>0.08862622803999627</v>
       </c>
       <c r="N179" t="n">
-        <v>0.1123765333204521</v>
+        <v>0.02188339922646457</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08604271189488406</v>
+        <v>0.08977834392366059</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02773225952239764</v>
+        <v>0.02154132400973818</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09267276735098895</v>
+        <v>0.09056587325632427</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02704306169559921</v>
+        <v>0.04411956612566106</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09143158229648382</v>
+        <v>0.09011111350698138</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07977891323662287</v>
+        <v>0.07321581324478971</v>
       </c>
       <c r="M180" t="n">
-        <v>0.0830492016890273</v>
+        <v>0.08940365109297871</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1121205965060336</v>
+        <v>0.02154132400973818</v>
       </c>
       <c r="O180" t="n">
-        <v>0.08679747252554093</v>
+        <v>0.09056587325632427</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.02657393265960534</v>
+        <v>0.021400071989925</v>
       </c>
       <c r="G181" t="n">
-        <v>0.0934786175018671</v>
+        <v>0.09135340258898797</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02708418867385093</v>
+        <v>0.04397485660626127</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09222663953384455</v>
+        <v>0.09089468840704208</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07995300848519885</v>
+        <v>0.07281225370023542</v>
       </c>
       <c r="M181" t="n">
-        <v>0.08377136866023624</v>
+        <v>0.09018107414596112</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1125308480253148</v>
+        <v>0.021400071989925</v>
       </c>
       <c r="O181" t="n">
-        <v>0.0875522331561978</v>
+        <v>0.09135340258898797</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02740171841815999</v>
+        <v>0.02096210380380005</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09428446765274527</v>
+        <v>0.09214093192165165</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02701925711884727</v>
+        <v>0.04295984774995032</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09302169677120528</v>
+        <v>0.09167826330710278</v>
       </c>
       <c r="L182" t="n">
-        <v>0.0798124370057797</v>
+        <v>0.07154966081896036</v>
       </c>
       <c r="M182" t="n">
-        <v>0.08449353563144517</v>
+        <v>0.09095849719894356</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1120089008950403</v>
+        <v>0.02096210380380005</v>
       </c>
       <c r="O182" t="n">
-        <v>0.08830699378685469</v>
+        <v>0.09214093192165165</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02721704339682115</v>
+        <v>0.02092988008813847</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09509031780362343</v>
+        <v>0.09292846125431535</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02684865811712789</v>
+        <v>0.04287749272196384</v>
       </c>
       <c r="K183" t="n">
-        <v>0.09381675400856601</v>
+        <v>0.0924618382071635</v>
       </c>
       <c r="L183" t="n">
-        <v>0.07985669806106543</v>
+        <v>0.06993527006641859</v>
       </c>
       <c r="M183" t="n">
-        <v>0.0852157026026541</v>
+        <v>0.09173592025192598</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1113563681319548</v>
+        <v>0.02092988008813847</v>
       </c>
       <c r="O183" t="n">
-        <v>0.08906175441751156</v>
+        <v>0.09292846125431535</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02602133419434837</v>
+        <v>0.02060586147971533</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09589616795450159</v>
+        <v>0.09371599058697903</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02687278275523231</v>
+        <v>0.0424307446875376</v>
       </c>
       <c r="K184" t="n">
-        <v>0.09461181124592674</v>
+        <v>0.0932454131072242</v>
       </c>
       <c r="L184" t="n">
-        <v>0.07988529091375635</v>
+        <v>0.06907631690806454</v>
       </c>
       <c r="M184" t="n">
-        <v>0.08593786957386303</v>
+        <v>0.09251334330490839</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1115748627528029</v>
+        <v>0.02060586147971533</v>
       </c>
       <c r="O184" t="n">
-        <v>0.08981651504816844</v>
+        <v>0.09371599058697903</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02481601740950123</v>
+        <v>0.0202925086153057</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09670201810537976</v>
+        <v>0.09450351991964272</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02669202211970016</v>
+        <v>0.04142255681190715</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09540686848328747</v>
+        <v>0.09402898800728492</v>
       </c>
       <c r="L185" t="n">
-        <v>0.07989771482655239</v>
+        <v>0.06788003680935223</v>
       </c>
       <c r="M185" t="n">
-        <v>0.08666003654507197</v>
+        <v>0.09329076635789083</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1114659977743293</v>
+        <v>0.0202925086153057</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09057127567882532</v>
+        <v>0.09450351991964272</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02560251964103927</v>
+        <v>0.02019228213168467</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09750786825625793</v>
+        <v>0.09529104925230641</v>
       </c>
       <c r="J186" t="n">
-        <v>0.026706767297071</v>
+        <v>0.0413558822603082</v>
       </c>
       <c r="K186" t="n">
-        <v>0.0962019257206482</v>
+        <v>0.09481256290734562</v>
       </c>
       <c r="L186" t="n">
-        <v>0.07999346906215371</v>
+        <v>0.066753665235736</v>
       </c>
       <c r="M186" t="n">
-        <v>0.0873822035162809</v>
+        <v>0.09406818941087325</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1100313862132784</v>
+        <v>0.02019228213168467</v>
       </c>
       <c r="O186" t="n">
-        <v>0.0913260363094822</v>
+        <v>0.09529104925230641</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02638226748772211</v>
+        <v>0.02000764266562735</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0983137184071361</v>
+        <v>0.0960785785849701</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02661740937388445</v>
+        <v>0.04053367419797638</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09699698295800893</v>
+        <v>0.09559613780740632</v>
       </c>
       <c r="L187" t="n">
-        <v>0.08067205288326046</v>
+        <v>0.06650443765267</v>
       </c>
       <c r="M187" t="n">
-        <v>0.08810437048748983</v>
+        <v>0.09484561246385566</v>
       </c>
       <c r="N187" t="n">
-        <v>0.109972641086395</v>
+        <v>0.02000764266562735</v>
       </c>
       <c r="O187" t="n">
-        <v>0.09208079694013907</v>
+        <v>0.0960785785849701</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02515668754830925</v>
+        <v>0.01993452314172096</v>
       </c>
       <c r="G188" t="n">
-        <v>0.09911956855801426</v>
+        <v>0.0968661079176338</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02652433943668009</v>
+        <v>0.04065888579014737</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09779204019536966</v>
+        <v>0.09637971270746704</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0802329655525727</v>
+        <v>0.06563958952560833</v>
       </c>
       <c r="M188" t="n">
-        <v>0.08882653745869877</v>
+        <v>0.0956230355168381</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1092913754104238</v>
+        <v>0.01993452314172096</v>
       </c>
       <c r="O188" t="n">
-        <v>0.09283555757079595</v>
+        <v>0.0968661079176338</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02592720642156029</v>
+        <v>0.01966559080233307</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09992541870889243</v>
+        <v>0.09765363725029748</v>
       </c>
       <c r="J189" t="n">
-        <v>0.0264279485719975</v>
+        <v>0.03973447020205684</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09858709743273038</v>
+        <v>0.09716328760752774</v>
       </c>
       <c r="L189" t="n">
-        <v>0.08007570633279051</v>
+        <v>0.06436635632000542</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0895487044299077</v>
+        <v>0.0964004585698205</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1093892022021093</v>
+        <v>0.01966559080233307</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09359031820145283</v>
+        <v>0.09765363725029748</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.0246952507062348</v>
+        <v>0.01960060115611999</v>
       </c>
       <c r="G190" t="n">
-        <v>0.1007312688597706</v>
+        <v>0.09844116658296116</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02632862786637627</v>
+        <v>0.03996338059894039</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09938215467009111</v>
+        <v>0.09794686250758844</v>
       </c>
       <c r="L190" t="n">
-        <v>0.08069977448661411</v>
+        <v>0.06359197350131535</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09027087140111663</v>
+        <v>0.09717788162280294</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1082677344781962</v>
+        <v>0.01960060115611999</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09434507883210971</v>
+        <v>0.09844116658296116</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02346224700109231</v>
+        <v>0.01933933138386851</v>
       </c>
       <c r="G191" t="n">
-        <v>0.1015371190106488</v>
+        <v>0.09922869591562486</v>
       </c>
       <c r="J191" t="n">
-        <v>0.026126768406356</v>
+        <v>0.03934857014603371</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1001772119074518</v>
+        <v>0.09873043740764915</v>
       </c>
       <c r="L191" t="n">
-        <v>0.08030165203972686</v>
+        <v>0.06412367653499224</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09099303837232556</v>
+        <v>0.09795530467578537</v>
       </c>
       <c r="N191" t="n">
-        <v>0.1085285852554291</v>
+        <v>0.01933933138386851</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09509983946276658</v>
+        <v>0.09922869591562486</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02422962190489242</v>
+        <v>0.01918155866636551</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1023429691615269</v>
+        <v>0.1000162252482885</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02622276127847629</v>
+        <v>0.03949299200857248</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1009722691448126</v>
+        <v>0.09951401230770987</v>
       </c>
       <c r="L192" t="n">
-        <v>0.08071532195442688</v>
+        <v>0.06376403747651654</v>
       </c>
       <c r="M192" t="n">
-        <v>0.0917152053435345</v>
+        <v>0.09873272772876777</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1076733675505526</v>
+        <v>0.01918155866636551</v>
       </c>
       <c r="O192" t="n">
-        <v>0.09585460009342346</v>
+        <v>0.1000162252482885</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02399880201639468</v>
+        <v>0.01892706018439776</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1031488193124051</v>
+        <v>0.1008037545809522</v>
       </c>
       <c r="J193" t="n">
-        <v>0.0261169975692767</v>
+        <v>0.03899959935179231</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1017673263821733</v>
+        <v>0.1002975872077706</v>
       </c>
       <c r="L193" t="n">
-        <v>0.08001932463672964</v>
+        <v>0.06315466597352654</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09243737231474343</v>
+        <v>0.09951015078175021</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1074036943803114</v>
+        <v>0.01892706018439776</v>
       </c>
       <c r="O193" t="n">
-        <v>0.09660936072408034</v>
+        <v>0.1008037545809522</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02277121393435867</v>
+        <v>0.0187756131187521</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1039546694632832</v>
+        <v>0.1015912839136159</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02580986836529683</v>
+        <v>0.03955489319603087</v>
       </c>
       <c r="K194" t="n">
-        <v>0.102562383619534</v>
+        <v>0.1010811621078313</v>
       </c>
       <c r="L194" t="n">
-        <v>0.08022073286582912</v>
+        <v>0.06327374812295988</v>
       </c>
       <c r="M194" t="n">
-        <v>0.09315953928595237</v>
+        <v>0.1002875738347326</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1063211787614501</v>
+        <v>0.0187756131187521</v>
       </c>
       <c r="O194" t="n">
-        <v>0.09736412135473721</v>
+        <v>0.1015912839136159</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02454828425754394</v>
+        <v>0.01872699465021541</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1047605196141614</v>
+        <v>0.1023788132462796</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02580176475307627</v>
+        <v>0.03951678215519996</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1033574408568948</v>
+        <v>0.101864737007892</v>
       </c>
       <c r="L195" t="n">
-        <v>0.07912661942091909</v>
+        <v>0.06231837727948464</v>
       </c>
       <c r="M195" t="n">
-        <v>0.0938817062571613</v>
+        <v>0.101064996887715</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1061274337107134</v>
+        <v>0.01872699465021541</v>
       </c>
       <c r="O195" t="n">
-        <v>0.09811888198539409</v>
+        <v>0.1023788132462796</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02433143958471005</v>
+        <v>0.01848098195957443</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1055663697650396</v>
+        <v>0.1031663425789433</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02559307781915462</v>
+        <v>0.0388826298379833</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1041524980942555</v>
+        <v>0.1026483119079527</v>
       </c>
       <c r="L196" t="n">
-        <v>0.07924405708119342</v>
+        <v>0.06178564679776855</v>
       </c>
       <c r="M196" t="n">
-        <v>0.09460387322837023</v>
+        <v>0.1018424199406975</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1053240722448458</v>
+        <v>0.01848098195957443</v>
       </c>
       <c r="O196" t="n">
-        <v>0.09887364261605097</v>
+        <v>0.1031663425789433</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02212210651461657</v>
+        <v>0.01843735222761606</v>
       </c>
       <c r="G197" t="n">
-        <v>0.1063722199159177</v>
+        <v>0.103953871911607</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02558419865007149</v>
+        <v>0.03905206384570559</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1049475553316162</v>
+        <v>0.1034318868080134</v>
       </c>
       <c r="L197" t="n">
-        <v>0.07808011862584591</v>
+        <v>0.06197265003247993</v>
       </c>
       <c r="M197" t="n">
-        <v>0.09532604019957916</v>
+        <v>0.1026198429936799</v>
       </c>
       <c r="N197" t="n">
-        <v>0.104312707380592</v>
+        <v>0.01843735222761606</v>
       </c>
       <c r="O197" t="n">
-        <v>0.09962840324670785</v>
+        <v>0.103953871911607</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02192171164602307</v>
+        <v>0.01819588263512706</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1071780700667959</v>
+        <v>0.1047414012442707</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0253755183323664</v>
+        <v>0.03912471177969154</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1057426125689769</v>
+        <v>0.1042154617080741</v>
       </c>
       <c r="L198" t="n">
-        <v>0.07754187683407043</v>
+        <v>0.06227648033828664</v>
       </c>
       <c r="M198" t="n">
-        <v>0.0960482071707881</v>
+        <v>0.1033972660466623</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1033949521346966</v>
+        <v>0.01819588263512706</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1003831638773647</v>
+        <v>0.1047414012442707</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02273168157768912</v>
+        <v>0.01805635036289431</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1079839202176741</v>
+        <v>0.1055289305769344</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02536742795257903</v>
+        <v>0.0388002012412659</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1065376698063377</v>
+        <v>0.1049990366081348</v>
       </c>
       <c r="L199" t="n">
-        <v>0.07693640448506076</v>
+        <v>0.06159423106985679</v>
       </c>
       <c r="M199" t="n">
-        <v>0.09677037414199703</v>
+        <v>0.1041746890996448</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1036724195239043</v>
+        <v>0.01805635036289431</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1011379245080216</v>
+        <v>0.1055289305769344</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02355344290837427</v>
+        <v>0.01811853259170461</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1087897703685522</v>
+        <v>0.1063164599095981</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02526031859724888</v>
+        <v>0.03927815983175345</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1073327270436984</v>
+        <v>0.1057826115081955</v>
       </c>
       <c r="L200" t="n">
-        <v>0.07647077435801086</v>
+        <v>0.06112299558185835</v>
       </c>
       <c r="M200" t="n">
-        <v>0.09749254111320596</v>
+        <v>0.1049521121526272</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1021467225649597</v>
+        <v>0.01811853259170461</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1018926851386785</v>
+        <v>0.1063164599095981</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02238842223683809</v>
+        <v>0.01798220650234476</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1095956205194304</v>
+        <v>0.1071039892422618</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02515458135291561</v>
+        <v>0.0391582151524788</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1081277842810591</v>
+        <v>0.1065661864082562</v>
       </c>
       <c r="L201" t="n">
-        <v>0.07545205923211448</v>
+        <v>0.06185986722895925</v>
       </c>
       <c r="M201" t="n">
-        <v>0.09821470808441489</v>
+        <v>0.1057295352056096</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1015194742746073</v>
+        <v>0.01798220650234476</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1026474457693354</v>
+        <v>0.1071039892422618</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02123804616184016</v>
+        <v>0.01774714927560164</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1104014706703086</v>
+        <v>0.1078915185749254</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02515060730611877</v>
+        <v>0.03893999480476681</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1089228415184199</v>
+        <v>0.1073497613083169</v>
       </c>
       <c r="L202" t="n">
-        <v>0.07458733188656547</v>
+        <v>0.06120193936582763</v>
       </c>
       <c r="M202" t="n">
-        <v>0.09893687505562383</v>
+        <v>0.106506958258592</v>
       </c>
       <c r="N202" t="n">
-        <v>0.101192287669592</v>
+        <v>0.01774714927560164</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1034022063999922</v>
+        <v>0.1078915185749254</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02109867788105855</v>
+        <v>0.01751313809226206</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1112073208211867</v>
+        <v>0.1086790479075891</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02504878754339795</v>
+        <v>0.03872312638994213</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1097178987557806</v>
+        <v>0.1081333362083776</v>
       </c>
       <c r="L203" t="n">
-        <v>0.07358366510055769</v>
+        <v>0.06134630534713154</v>
       </c>
       <c r="M203" t="n">
-        <v>0.09965904202683276</v>
+        <v>0.1072843813115744</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1007667757666582</v>
+        <v>0.01751313809226206</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1041569670306491</v>
+        <v>0.1086790479075891</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0219601251886044</v>
+        <v>0.0173799501331128</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1120131709720649</v>
+        <v>0.1094665772402528</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02484951315129277</v>
+        <v>0.03870723750932953</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1105129559931413</v>
+        <v>0.1089169111084384</v>
       </c>
       <c r="L204" t="n">
-        <v>0.072548131653285</v>
+        <v>0.06079005852753888</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1003812089980417</v>
+        <v>0.1080618043645569</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1004445515825507</v>
+        <v>0.0173799501331128</v>
       </c>
       <c r="O204" t="n">
-        <v>0.104911727661306</v>
+        <v>0.1094665772402528</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02182205536369502</v>
+        <v>0.01724736257894076</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1128190211229431</v>
+        <v>0.1102541065729165</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02465292865312366</v>
+        <v>0.03889195576425367</v>
       </c>
       <c r="K205" t="n">
-        <v>0.111308013230502</v>
+        <v>0.1097004860084991</v>
       </c>
       <c r="L205" t="n">
-        <v>0.07178780432394119</v>
+        <v>0.06013029226171768</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1011033759692506</v>
+        <v>0.1088392274175393</v>
       </c>
       <c r="N205" t="n">
-        <v>0.098927228134014</v>
+        <v>0.01724736257894076</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1056664882919629</v>
+        <v>0.1102541065729165</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02268449067379826</v>
+        <v>0.01711515261053269</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1136248712738212</v>
+        <v>0.1110416359055802</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02455676955685376</v>
+        <v>0.03927690875603931</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1121030704678628</v>
+        <v>0.1104840609085598</v>
       </c>
       <c r="L206" t="n">
-        <v>0.07080975589172012</v>
+        <v>0.05996409990433604</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1018255429404596</v>
+        <v>0.1096166504705217</v>
       </c>
       <c r="N206" t="n">
-        <v>0.09861641843779267</v>
+        <v>0.01711515261053269</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1064212489226197</v>
+        <v>0.1110416359055802</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.021547453386382</v>
+        <v>0.01698309740867547</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1144307214246994</v>
+        <v>0.1118291652382439</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02466039427218053</v>
+        <v>0.03916172408601126</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1128981277052235</v>
+        <v>0.1112676358086205</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06962105913581565</v>
+        <v>0.06028857481006189</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1025477099116685</v>
+        <v>0.1103940735235041</v>
       </c>
       <c r="N207" t="n">
-        <v>0.09821373551063162</v>
+        <v>0.01698309740867547</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1071760095532766</v>
+        <v>0.1118291652382439</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02241096576891407</v>
+        <v>0.01705097415415591</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1152365715755775</v>
+        <v>0.1126166945709076</v>
       </c>
       <c r="J208" t="n">
-        <v>0.0243638008274867</v>
+        <v>0.03904602935549412</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1136931849425842</v>
+        <v>0.1120512107086812</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06852878683542155</v>
+        <v>0.0606008103335634</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1032698768828774</v>
+        <v>0.1111714965764866</v>
       </c>
       <c r="N208" t="n">
-        <v>0.0979207923692752</v>
+        <v>0.01705097415415591</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1079307701839335</v>
+        <v>0.1126166945709076</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02227505008886235</v>
+        <v>0.01691856002776079</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1160424217264557</v>
+        <v>0.1134042239035713</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0244669872511552</v>
+        <v>0.03882945216581271</v>
       </c>
       <c r="K209" t="n">
-        <v>0.114488242179945</v>
+        <v>0.1128347856087419</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06794001176973175</v>
+        <v>0.05969789982950829</v>
       </c>
       <c r="M209" t="n">
-        <v>0.1039920438540863</v>
+        <v>0.111948919629469</v>
       </c>
       <c r="N209" t="n">
-        <v>0.09713920203046822</v>
+        <v>0.01691856002776079</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1086855308145904</v>
+        <v>0.1134042239035713</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.0221397286136947</v>
+        <v>0.01668563221027701</v>
       </c>
       <c r="G210" t="n">
-        <v>0.1168482718773339</v>
+        <v>0.114191753236235</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02416995157156882</v>
+        <v>0.03891162011829172</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1152832994173057</v>
+        <v>0.1136183605088026</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06686180671794004</v>
+        <v>0.06027693665256489</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1047142108252953</v>
+        <v>0.1127263426824514</v>
       </c>
       <c r="N210" t="n">
-        <v>0.09647057751095522</v>
+        <v>0.01668563221027701</v>
       </c>
       <c r="O210" t="n">
-        <v>0.1094402914452473</v>
+        <v>0.114191753236235</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02000502361087899</v>
+        <v>0.01655196788249137</v>
       </c>
       <c r="G211" t="n">
-        <v>0.117654122028212</v>
+        <v>0.1149792825688987</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02427269181711043</v>
+        <v>0.03909216081425584</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1160783566546664</v>
+        <v>0.1144019354088633</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06560124445924029</v>
+        <v>0.0589350141574011</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1054363777965042</v>
+        <v>0.1135037657354338</v>
       </c>
       <c r="N211" t="n">
-        <v>0.09580657316397939</v>
+        <v>0.01655196788249137</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1101950520759041</v>
+        <v>0.1149792825688987</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02187095734788306</v>
+        <v>0.01651734422519067</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1184599721790902</v>
+        <v>0.1157668119015623</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02397520601616285</v>
+        <v>0.0384707018550299</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1168734138920272</v>
+        <v>0.115185510308924</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06536539777282635</v>
+        <v>0.05916922569868482</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1061585447677132</v>
+        <v>0.1142811887884163</v>
       </c>
       <c r="N212" t="n">
-        <v>0.09583572641298299</v>
+        <v>0.01651734422519067</v>
       </c>
       <c r="O212" t="n">
-        <v>0.110949812706561</v>
+        <v>0.1157668119015623</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.0217375520921748</v>
+        <v>0.01618153841916176</v>
       </c>
       <c r="G213" t="n">
-        <v>0.1192658223299684</v>
+        <v>0.116554341234226</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02407749219710895</v>
+        <v>0.03874687084193856</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1176684711293879</v>
+        <v>0.1159690852089847</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06406133943789194</v>
+        <v>0.05927704154746688</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1068807117389221</v>
+        <v>0.1150586118413987</v>
       </c>
       <c r="N213" t="n">
-        <v>0.09445803749599035</v>
+        <v>0.01618153841916176</v>
       </c>
       <c r="O213" t="n">
-        <v>0.1117045733372179</v>
+        <v>0.116554341234226</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02160483011122202</v>
+        <v>0.01614432764519146</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1200716724808465</v>
+        <v>0.1173418705668897</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02397954838833152</v>
+        <v>0.03842029537630656</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1184635283667486</v>
+        <v>0.1167526601090454</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06329614223363109</v>
+        <v>0.05916454383475189</v>
       </c>
       <c r="M214" t="n">
-        <v>0.107602878710131</v>
+        <v>0.1158360348943811</v>
       </c>
       <c r="N214" t="n">
-        <v>0.09417353325804551</v>
+        <v>0.01614432764519146</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1124593339678748</v>
+        <v>0.1173418705668897</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02147281367249263</v>
+        <v>0.0160054890840666</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1208775226317247</v>
+        <v>0.1181293998995534</v>
       </c>
       <c r="J215" t="n">
-        <v>0.02388137261821346</v>
+        <v>0.03859060305945863</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1192585856041093</v>
+        <v>0.1175362350091061</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06217687893923748</v>
+        <v>0.05813490298120172</v>
       </c>
       <c r="M215" t="n">
-        <v>0.10832504568134</v>
+        <v>0.1166134579473635</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0940822405441924</v>
+        <v>0.0160054890840666</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1132140945985317</v>
+        <v>0.1181293998995534</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01934152504345448</v>
+        <v>0.01596479991657397</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1216833727826029</v>
+        <v>0.1189169292322171</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02378296291513757</v>
+        <v>0.03875742149271949</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1200536428414701</v>
+        <v>0.1183198099091668</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06141062233390504</v>
+        <v>0.05798823468797587</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1090472126525489</v>
+        <v>0.1173908810003459</v>
       </c>
       <c r="N216" t="n">
-        <v>0.09308418619947512</v>
+        <v>0.01596479991657397</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1139688552291885</v>
+        <v>0.1189169292322171</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01921098649157541</v>
+        <v>0.01562203732350043</v>
       </c>
       <c r="G217" t="n">
-        <v>0.122489222933481</v>
+        <v>0.1197044585648808</v>
       </c>
       <c r="J217" t="n">
-        <v>0.0235843173074867</v>
+        <v>0.03882037827741389</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1208487000788308</v>
+        <v>0.1191033848092276</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06070444519682758</v>
+        <v>0.05802465465623391</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1097693796237578</v>
+        <v>0.1181683040533284</v>
       </c>
       <c r="N217" t="n">
-        <v>0.09227939706893767</v>
+        <v>0.01562203732350043</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1147236158598454</v>
+        <v>0.1197044585648808</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02008122028432333</v>
+        <v>0.01547697848563281</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1232950730843592</v>
+        <v>0.1204919878975445</v>
       </c>
       <c r="J218" t="n">
-        <v>0.02338543382364368</v>
+        <v>0.03847838305734905</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1216437573161915</v>
+        <v>0.1198869597092883</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0601572876965622</v>
+        <v>0.0572442785871356</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1104915465949668</v>
+        <v>0.1189457271063108</v>
       </c>
       <c r="N218" t="n">
-        <v>0.09126789999762402</v>
+        <v>0.01547697848563281</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1154783764905023</v>
+        <v>0.1204919878975445</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01895224868916604</v>
+        <v>0.01532940058375792</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1241009232352374</v>
+        <v>0.1212795172302082</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02328631049199138</v>
+        <v>0.03881779832099228</v>
       </c>
       <c r="K219" t="n">
-        <v>0.1224388145535523</v>
+        <v>0.120670534609349</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06002163259265408</v>
+        <v>0.05674722218184042</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1112137135661757</v>
+        <v>0.1197231501592932</v>
       </c>
       <c r="N219" t="n">
-        <v>0.09144972183057809</v>
+        <v>0.01532940058375792</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1162331371211592</v>
+        <v>0.1212795172302082</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01882409397357145</v>
+        <v>0.01537908079866261</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1249067733861155</v>
+        <v>0.1220670465628718</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02328694534091262</v>
+        <v>0.03823383451766049</v>
       </c>
       <c r="K220" t="n">
-        <v>0.123233871790913</v>
+        <v>0.1214541095094097</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05908864611802733</v>
+        <v>0.05663360114150801</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1119358805373846</v>
+        <v>0.1205005732122757</v>
       </c>
       <c r="N220" t="n">
-        <v>0.09002488941284409</v>
+        <v>0.01537908079866261</v>
       </c>
       <c r="O220" t="n">
-        <v>0.116987897751816</v>
+        <v>0.1220670465628718</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01969677840500739</v>
+        <v>0.01522607957687981</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1257126235369937</v>
+        <v>0.1228545758955355</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02308733639879024</v>
+        <v>0.03832686450964881</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1240289290282737</v>
+        <v>0.1222376844094704</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05805841750904103</v>
+        <v>0.05640353116729802</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1126580475085936</v>
+        <v>0.1212779962652581</v>
       </c>
       <c r="N221" t="n">
-        <v>0.08959342958946581</v>
+        <v>0.01522607957687981</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1177426583824729</v>
+        <v>0.1228545758955355</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01957032425094173</v>
+        <v>0.01487216113405594</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1265184736878719</v>
+        <v>0.1236421052281992</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02318748169400708</v>
+        <v>0.03799726115925253</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1248239862656344</v>
+        <v>0.1230212593095311</v>
       </c>
       <c r="L222" t="n">
-        <v>0.0577310360020544</v>
+        <v>0.05605712796036993</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1133802144798025</v>
+        <v>0.1220554193182405</v>
       </c>
       <c r="N222" t="n">
-        <v>0.08875536920548743</v>
+        <v>0.01487216113405594</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1184974190131298</v>
+        <v>0.1236421052281992</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02044475377884233</v>
+        <v>0.01491766965230283</v>
       </c>
       <c r="G223" t="n">
-        <v>0.12732432383875</v>
+        <v>0.1244296345608629</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02288737925494601</v>
+        <v>0.03844539732876667</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1256190435029952</v>
+        <v>0.1238048342095918</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05690659083342658</v>
+        <v>0.05519450722188329</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1141023814510114</v>
+        <v>0.1228328423712229</v>
       </c>
       <c r="N223" t="n">
-        <v>0.08911073510595274</v>
+        <v>0.01491766965230283</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1192521796437867</v>
+        <v>0.1244296345608629</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01932008925617705</v>
+        <v>0.01466260462908456</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1281301739896282</v>
+        <v>0.1252171638935266</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02278702710998981</v>
+        <v>0.03757164588048642</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1264141007403559</v>
+        <v>0.1245884091096525</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05678517123951665</v>
+        <v>0.05421578465299792</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1148245484222204</v>
+        <v>0.1236102654242053</v>
       </c>
       <c r="N224" t="n">
-        <v>0.08825955413590597</v>
+        <v>0.01466260462908456</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1200069402744436</v>
+        <v>0.1252171638935266</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01819635295041375</v>
+        <v>0.01450696556186523</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1289360241405063</v>
+        <v>0.1260046932261903</v>
       </c>
       <c r="J225" t="n">
-        <v>0.0227864232875214</v>
+        <v>0.03767637967670695</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1272091579777166</v>
+        <v>0.1253719840097132</v>
       </c>
       <c r="L225" t="n">
-        <v>0.0562668664566838</v>
+        <v>0.05452107595487327</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1155467153934293</v>
+        <v>0.1243876884771878</v>
       </c>
       <c r="N225" t="n">
-        <v>0.08750185314039105</v>
+        <v>0.01450696556186523</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1207617009051004</v>
+        <v>0.1260046932261903</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01907356712902031</v>
+        <v>0.01435075194810899</v>
       </c>
       <c r="G226" t="n">
-        <v>0.1297418742913845</v>
+        <v>0.126792222558854</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02258556581592354</v>
+        <v>0.03735997157972346</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1280042152150773</v>
+        <v>0.1261555589097739</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05505176572128717</v>
+        <v>0.05351049682866904</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1162688823646382</v>
+        <v>0.1251651115301702</v>
       </c>
       <c r="N226" t="n">
-        <v>0.08633765896445195</v>
+        <v>0.01435075194810899</v>
       </c>
       <c r="O226" t="n">
-        <v>0.1215164615357573</v>
+        <v>0.126792222558854</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01895175405946457</v>
+        <v>0.01409396328527993</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1305477244422627</v>
+        <v>0.1275797518915177</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02258445272357913</v>
+        <v>0.03692279445183105</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1287992724524381</v>
+        <v>0.1269391338098346</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05443995826968587</v>
+        <v>0.05338416297554466</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1169910493358471</v>
+        <v>0.1259425345831526</v>
       </c>
       <c r="N227" t="n">
-        <v>0.08576699845313274</v>
+        <v>0.01409396328527993</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1222712221664142</v>
+        <v>0.1275797518915177</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0198309360092144</v>
+        <v>0.01413659907084218</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1313535745931408</v>
+        <v>0.1283672812241814</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02238308203887097</v>
+        <v>0.03736522115532492</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1295943296897988</v>
+        <v>0.1277227087098953</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05443153333823908</v>
+        <v>0.05284219009665991</v>
       </c>
       <c r="M228" t="n">
-        <v>0.1177132163070561</v>
+        <v>0.126719957636135</v>
       </c>
       <c r="N228" t="n">
-        <v>0.08488989845147737</v>
+        <v>0.01413659907084218</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1230259827970711</v>
+        <v>0.1283672812241814</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01971113524573764</v>
+        <v>0.01387865880225984</v>
       </c>
       <c r="G229" t="n">
-        <v>0.132159424744019</v>
+        <v>0.1291548105568451</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02248145179018195</v>
+        <v>0.03638762455250022</v>
       </c>
       <c r="K229" t="n">
-        <v>0.1303893869271595</v>
+        <v>0.128506283609956</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05372658016330589</v>
+        <v>0.05188469389317418</v>
       </c>
       <c r="M229" t="n">
-        <v>0.118435383278265</v>
+        <v>0.1274973806891175</v>
       </c>
       <c r="N229" t="n">
-        <v>0.08490638580452975</v>
+        <v>0.01387865880225984</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1237807434277279</v>
+        <v>0.1291548105568451</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01959237403650219</v>
+        <v>0.01372014197699703</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1329652748948972</v>
+        <v>0.1299423398895087</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02227956000589486</v>
+        <v>0.03649037750565212</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1311844441645203</v>
+        <v>0.1292898585100168</v>
       </c>
       <c r="L230" t="n">
-        <v>0.05272518798124548</v>
+        <v>0.0514117900662473</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1191575502494739</v>
+        <v>0.1282748037420999</v>
       </c>
       <c r="N230" t="n">
-        <v>0.08381648735733416</v>
+        <v>0.01372014197699703</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1245355040583848</v>
+        <v>0.1299423398895087</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01847467464897588</v>
+        <v>0.01346104809251786</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1337711250457753</v>
+        <v>0.1307298692221724</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02217740471439257</v>
+        <v>0.03637385287707576</v>
       </c>
       <c r="K231" t="n">
-        <v>0.131979501401881</v>
+        <v>0.1300734334100775</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05202744602841705</v>
+        <v>0.05102359431703873</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1198797172206829</v>
+        <v>0.1290522267950823</v>
       </c>
       <c r="N231" t="n">
-        <v>0.08362022995493434</v>
+        <v>0.01346104809251786</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1252902646890417</v>
+        <v>0.1307298692221724</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01835805935062658</v>
+        <v>0.01350137664628644</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1345769751966535</v>
+        <v>0.1315173985548361</v>
       </c>
       <c r="J232" t="n">
-        <v>0.0221749839440579</v>
+        <v>0.03563842352906627</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1327745586392417</v>
+        <v>0.1308570083101382</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0519334435411796</v>
+        <v>0.05032022234670808</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1206018841918918</v>
+        <v>0.1298296498480647</v>
       </c>
       <c r="N232" t="n">
-        <v>0.08301764044237436</v>
+        <v>0.01350137664628644</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1260450253196986</v>
+        <v>0.1315173985548361</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01724255040892215</v>
+        <v>0.01334112713576689</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1353828253475317</v>
+        <v>0.1323049278874998</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0218722957232737</v>
+        <v>0.0353844623239189</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1335696158766024</v>
+        <v>0.1316405832101989</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05094326975589236</v>
+        <v>0.05000178985641501</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1213240511631008</v>
+        <v>0.1306070729010471</v>
       </c>
       <c r="N233" t="n">
-        <v>0.0814087456646983</v>
+        <v>0.01334112713576689</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1267997859503555</v>
+        <v>0.1323049278874998</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01712817009133046</v>
+        <v>0.01308029905842333</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1361886754984098</v>
+        <v>0.1330924572201635</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02186933808042281</v>
+        <v>0.03531234212392878</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1343646731139632</v>
+        <v>0.1324241581102596</v>
       </c>
       <c r="L234" t="n">
-        <v>0.05055701390891448</v>
+        <v>0.0484684125473191</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1220462181343097</v>
+        <v>0.1313844959540296</v>
       </c>
       <c r="N234" t="n">
-        <v>0.08109357246695009</v>
+        <v>0.01308029905842333</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1275545465810123</v>
+        <v>0.1330924572201635</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01901494066531936</v>
+        <v>0.01291889191171987</v>
       </c>
       <c r="G235" t="n">
-        <v>0.136994525649288</v>
+        <v>0.1338799865528272</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0218661090438881</v>
+        <v>0.034522435791391</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1351597303513239</v>
+        <v>0.1332077330103203</v>
       </c>
       <c r="L235" t="n">
-        <v>0.05017476523660508</v>
+        <v>0.04792020612057984</v>
       </c>
       <c r="M235" t="n">
-        <v>0.1227683851055186</v>
+        <v>0.132161919007012</v>
       </c>
       <c r="N235" t="n">
-        <v>0.08047214769417382</v>
+        <v>0.01291889191171987</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1283093072116692</v>
+        <v>0.1338799865528272</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.01690288439835672</v>
+        <v>0.0127569051931206</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1378003758001662</v>
+        <v>0.1346675158854909</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02156260664205235</v>
+        <v>0.03431511618860078</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1359547875886846</v>
+        <v>0.133991307910381</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04909661297532328</v>
+        <v>0.04705728627735695</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1234905520767276</v>
+        <v>0.1329393420599944</v>
       </c>
       <c r="N236" t="n">
-        <v>0.07914449819141345</v>
+        <v>0.0127569051931206</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1290640678423261</v>
+        <v>0.1346675158854909</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01679202355791039</v>
+        <v>0.01259433840008968</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1386062259510443</v>
+        <v>0.1354550452181546</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02155882890329845</v>
+        <v>0.03419075617785325</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1367498448260454</v>
+        <v>0.1347748828104417</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04882264636142827</v>
+        <v>0.04717976871881002</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1242127190479365</v>
+        <v>0.1337167651129768</v>
       </c>
       <c r="N237" t="n">
-        <v>0.07891065080371285</v>
+        <v>0.01259433840008968</v>
       </c>
       <c r="O237" t="n">
-        <v>0.129818828472983</v>
+        <v>0.1354550452181546</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01868238041144824</v>
+        <v>0.01243119103009117</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1394120761019225</v>
+        <v>0.1362425745508183</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02155477385600924</v>
+        <v>0.03324972862144362</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1375449020634061</v>
+        <v>0.1355584577105024</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04785295463127912</v>
+        <v>0.04608776914609869</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1249348860191454</v>
+        <v>0.1344941881659593</v>
       </c>
       <c r="N238" t="n">
-        <v>0.07767063237611627</v>
+        <v>0.01243119103009117</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1305735891036398</v>
+        <v>0.1362425745508183</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01657397722643811</v>
+        <v>0.01226746258058922</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1402179262528007</v>
+        <v>0.1370301038834819</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02135043952856752</v>
+        <v>0.03329240638166703</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1383399593007668</v>
+        <v>0.1363420326105631</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04748762702123505</v>
+        <v>0.04528140326038238</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1256570529903543</v>
+        <v>0.1352716112189417</v>
       </c>
       <c r="N239" t="n">
-        <v>0.07762446975366749</v>
+        <v>0.01226746258058922</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1313283497342967</v>
+        <v>0.1370301038834819</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.0174668362703479</v>
+        <v>0.01210315254904794</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1410237764036788</v>
+        <v>0.1378176332161456</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02134582394935616</v>
+        <v>0.03221916232081867</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1391350165381275</v>
+        <v>0.1371256075106238</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04732675276765522</v>
+        <v>0.04476078676282091</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1263792199615633</v>
+        <v>0.1360490342719241</v>
       </c>
       <c r="N240" t="n">
-        <v>0.07637218978141069</v>
+        <v>0.01210315254904794</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1320831103649536</v>
+        <v>0.1378176332161456</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01636097981064544</v>
+        <v>0.01183826043293144</v>
       </c>
       <c r="G241" t="n">
-        <v>0.141829626554557</v>
+        <v>0.1386051625488093</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02114092514675801</v>
+        <v>0.03233036930119354</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1399300737754883</v>
+        <v>0.1379091824106845</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0463704211068986</v>
+        <v>0.0441260353545736</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1271013869327722</v>
+        <v>0.1368264573249065</v>
       </c>
       <c r="N241" t="n">
-        <v>0.0763138193043898</v>
+        <v>0.01183826043293144</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1328378709956105</v>
+        <v>0.1386051625488093</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.0162564301147986</v>
+        <v>0.01177278572970382</v>
       </c>
       <c r="G242" t="n">
-        <v>0.1426354767054352</v>
+        <v>0.139392691881473</v>
       </c>
       <c r="J242" t="n">
-        <v>0.0211357411491559</v>
+        <v>0.03132640018508703</v>
       </c>
       <c r="K242" t="n">
-        <v>0.140725131012849</v>
+        <v>0.1386927573107453</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04591872127532448</v>
+        <v>0.04307726473680029</v>
       </c>
       <c r="M242" t="n">
-        <v>0.1278235539039811</v>
+        <v>0.137603880377889</v>
       </c>
       <c r="N242" t="n">
-        <v>0.07474938516764884</v>
+        <v>0.01177278572970382</v>
       </c>
       <c r="O242" t="n">
-        <v>0.1335926316262674</v>
+        <v>0.139392691881473</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01715320945027525</v>
+        <v>0.01170672793682921</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1434413268563133</v>
+        <v>0.1401802212141367</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02103026998493265</v>
+        <v>0.03080762783479415</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1415201882502097</v>
+        <v>0.1394763322108059</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04577174250929203</v>
+        <v>0.04291459061066066</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1285457208751901</v>
+        <v>0.1383813034308714</v>
       </c>
       <c r="N243" t="n">
-        <v>0.07407891421623175</v>
+        <v>0.01170672793682921</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1343473922569242</v>
+        <v>0.1401802212141367</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01705134008454324</v>
+        <v>0.01144008655177172</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1442471770071915</v>
+        <v>0.1409677505468004</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02072450968247112</v>
+        <v>0.03007442511261013</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1423152454875705</v>
+        <v>0.1402599071108667</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04472957404516029</v>
+        <v>0.04133812867731396</v>
       </c>
       <c r="M244" t="n">
-        <v>0.129267887846399</v>
+        <v>0.1391587264838538</v>
       </c>
       <c r="N244" t="n">
-        <v>0.07400243329518263</v>
+        <v>0.01144008655177172</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1351021528875811</v>
+        <v>0.1409677505468004</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01795084428507043</v>
+        <v>0.01137286107199546</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1450530271580697</v>
+        <v>0.1417552798794641</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02071845827015417</v>
+        <v>0.02992716488083011</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1431103027249312</v>
+        <v>0.1410434820109273</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04399230511928842</v>
+        <v>0.04044799463792015</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1299900548176079</v>
+        <v>0.1399361495368362</v>
       </c>
       <c r="N245" t="n">
-        <v>0.07331996924954542</v>
+        <v>0.01137286107199546</v>
       </c>
       <c r="O245" t="n">
-        <v>0.135856913518238</v>
+        <v>0.1417552798794641</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01685174431932468</v>
+        <v>0.01110505099496454</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1458588773089478</v>
+        <v>0.1425428092121278</v>
       </c>
       <c r="J246" t="n">
-        <v>0.0206121137763646</v>
+        <v>0.02966622000174921</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1439053599622919</v>
+        <v>0.1418270569109881</v>
       </c>
       <c r="L246" t="n">
-        <v>0.04406002496803565</v>
+        <v>0.03984430419363849</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1307122217888169</v>
+        <v>0.1407135725898186</v>
       </c>
       <c r="N246" t="n">
-        <v>0.07183154892436405</v>
+        <v>0.01110505099496454</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1366116741488949</v>
+        <v>0.1425428092121278</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01575406245477386</v>
+        <v>0.01093665581814309</v>
       </c>
       <c r="G247" t="n">
-        <v>0.146664727459826</v>
+        <v>0.1433303385447915</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02040547422948528</v>
+        <v>0.02869196333766263</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1447004171996527</v>
+        <v>0.1426106318110488</v>
       </c>
       <c r="L247" t="n">
-        <v>0.04343282282776101</v>
+        <v>0.03882717304562888</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1314343887600258</v>
+        <v>0.1414909956428011</v>
       </c>
       <c r="N247" t="n">
-        <v>0.07093719916468277</v>
+        <v>0.01093665581814309</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1373664347795517</v>
+        <v>0.1433303385447915</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01565782095888583</v>
+        <v>0.0108676750389952</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1474705776107041</v>
+        <v>0.1441178678774551</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02029853765789903</v>
+        <v>0.02810476775086557</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1454954744370134</v>
+        <v>0.1433942067111095</v>
       </c>
       <c r="L248" t="n">
-        <v>0.04241078793482372</v>
+        <v>0.03799671689505074</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1321565557312347</v>
+        <v>0.1422684186957835</v>
       </c>
       <c r="N248" t="n">
-        <v>0.07063694681554539</v>
+        <v>0.0108676750389952</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1381211954102086</v>
+        <v>0.1441178678774551</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01756304209912844</v>
+        <v>0.010598108154985</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1482764277615823</v>
+        <v>0.1449053972101189</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02039130208998872</v>
+        <v>0.02770500610365309</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1462905316743741</v>
+        <v>0.1441777816111702</v>
       </c>
       <c r="L249" t="n">
-        <v>0.04219400952558283</v>
+        <v>0.03815305144306375</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1328787227024437</v>
+        <v>0.1430458417487659</v>
       </c>
       <c r="N249" t="n">
-        <v>0.06973081872199594</v>
+        <v>0.010598108154985</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1388759560408655</v>
+        <v>0.1449053972101189</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01646974814296957</v>
+        <v>0.01032795466357661</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1490822779124605</v>
+        <v>0.1456929265427825</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02028376555413718</v>
+        <v>0.02679305125832043</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1470855889117348</v>
+        <v>0.1449613565112309</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04168257683639762</v>
+        <v>0.03739629239082742</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1336008896736526</v>
+        <v>0.1438232648017483</v>
       </c>
       <c r="N250" t="n">
-        <v>0.06911884172907845</v>
+        <v>0.01032795466357661</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1396307166715224</v>
+        <v>0.1456929265427825</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01737796135787705</v>
+        <v>0.01025721406223413</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1498881280633386</v>
+        <v>0.1464804558754462</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02007592607872721</v>
+        <v>0.02636927607716275</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1478806461490956</v>
+        <v>0.1457449314112916</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04157657910362708</v>
+        <v>0.03642655543950146</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1343230566448615</v>
+        <v>0.1446006878547308</v>
       </c>
       <c r="N251" t="n">
-        <v>0.06750104268183699</v>
+        <v>0.01025721406223413</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1403854773021792</v>
+        <v>0.1464804558754462</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01528770401131877</v>
+        <v>0.01018588584842167</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1506939782142168</v>
+        <v>0.1472679852081099</v>
       </c>
       <c r="J252" t="n">
-        <v>0.0200677816921417</v>
+        <v>0.02563405342247513</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1486757033864563</v>
+        <v>0.1465285063113523</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04067610556363044</v>
+        <v>0.03474395629024535</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1350452236160705</v>
+        <v>0.1453781109077132</v>
       </c>
       <c r="N252" t="n">
-        <v>0.06677744842531547</v>
+        <v>0.01018588584842167</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1411402379328361</v>
+        <v>0.1472679852081099</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01619899837076258</v>
+        <v>0.009913969519603355</v>
       </c>
       <c r="G253" t="n">
-        <v>0.151499828365095</v>
+        <v>0.1480555145407736</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01975933042276348</v>
+        <v>0.02518775615655283</v>
       </c>
       <c r="K253" t="n">
-        <v>0.149470760623817</v>
+        <v>0.147312081211413</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04048124545276688</v>
+        <v>0.03374861064421886</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1357673905872794</v>
+        <v>0.1461555339606956</v>
       </c>
       <c r="N253" t="n">
-        <v>0.06594808580455791</v>
+        <v>0.009913969519603355</v>
       </c>
       <c r="O253" t="n">
-        <v>0.141894998563493</v>
+        <v>0.1480555145407736</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01611186670367636</v>
+        <v>0.009741464573243298</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1523056785159731</v>
+        <v>0.1488430438734373</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01985057029897537</v>
+        <v>0.02443075714169099</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1502658178611778</v>
+        <v>0.1480956561114737</v>
       </c>
       <c r="L254" t="n">
-        <v>0.0399920880073954</v>
+        <v>0.03274063420258139</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1364895575584884</v>
+        <v>0.1469329570136781</v>
       </c>
       <c r="N254" t="n">
-        <v>0.06541298166460818</v>
+        <v>0.009741464573243298</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1426497591941499</v>
+        <v>0.1488430438734373</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01502633127752793</v>
+        <v>0.0096683705068056</v>
       </c>
       <c r="G255" t="n">
-        <v>0.1531115286668513</v>
+        <v>0.149630573206101</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01954149934916025</v>
+        <v>0.02336342924018472</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1510608750985385</v>
+        <v>0.1488792310115344</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03960872246387531</v>
+        <v>0.03202014266649267</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1372117245296973</v>
+        <v>0.1477103800666605</v>
       </c>
       <c r="N255" t="n">
-        <v>0.06487216285051056</v>
+        <v>0.0096683705068056</v>
       </c>
       <c r="O255" t="n">
-        <v>0.1434045198248068</v>
+        <v>0.149630573206101</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01594241435978518</v>
+        <v>0.009394686817754391</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1539173788177295</v>
+        <v>0.1504181025387647</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01963211560170093</v>
+        <v>0.02338614531432923</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1518559323358992</v>
+        <v>0.1496628059115951</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03843123805856558</v>
+        <v>0.03088725173711226</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1379338915009062</v>
+        <v>0.1484878031196429</v>
       </c>
       <c r="N256" t="n">
-        <v>0.06442565620730895</v>
+        <v>0.009394686817754391</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1441592804554636</v>
+        <v>0.1504181025387647</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01686013821791596</v>
+        <v>0.009320413003553782</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1547232289686076</v>
+        <v>0.1512056318714284</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01952241708498025</v>
+        <v>0.02249927822641962</v>
       </c>
       <c r="K257" t="n">
-        <v>0.15265098957326</v>
+        <v>0.1504463808116558</v>
       </c>
       <c r="L257" t="n">
-        <v>0.03855972402782548</v>
+        <v>0.02994207711559976</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1386560584721152</v>
+        <v>0.1492652261726253</v>
       </c>
       <c r="N257" t="n">
-        <v>0.06277348858004728</v>
+        <v>0.009320413003553782</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1449140410861205</v>
+        <v>0.1512056318714284</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01677952511938815</v>
+        <v>0.009145548561667861</v>
       </c>
       <c r="G258" t="n">
-        <v>0.1555290791194858</v>
+        <v>0.151993161204092</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01921240182738103</v>
+        <v>0.02180320083875112</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1534460468106207</v>
+        <v>0.1512299557117166</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03789426960801415</v>
+        <v>0.03008473450311472</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1393782254433241</v>
+        <v>0.1500426492256077</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06271568681376966</v>
+        <v>0.009145548561667861</v>
       </c>
       <c r="O258" t="n">
-        <v>0.1456688017167774</v>
+        <v>0.151993161204092</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01670059733166959</v>
+        <v>0.008870092989560777</v>
       </c>
       <c r="G259" t="n">
-        <v>0.156334929270364</v>
+        <v>0.1527806905367557</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01920206785728619</v>
+        <v>0.02069828601361884</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1542411040479814</v>
+        <v>0.1520135306117773</v>
       </c>
       <c r="L259" t="n">
-        <v>0.03773496403549062</v>
+        <v>0.02851533960081687</v>
       </c>
       <c r="M259" t="n">
-        <v>0.140100392414533</v>
+        <v>0.1508200722785902</v>
       </c>
       <c r="N259" t="n">
-        <v>0.06145227775351997</v>
+        <v>0.008870092989560777</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1464235623474343</v>
+        <v>0.1527806905367557</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01662337712222815</v>
+        <v>0.008594045784696636</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1571407794212421</v>
+        <v>0.1535682198694194</v>
       </c>
       <c r="J260" t="n">
-        <v>0.01909141320307849</v>
+        <v>0.019984906613318</v>
       </c>
       <c r="K260" t="n">
-        <v>0.1550361612853421</v>
+        <v>0.152797105511838</v>
       </c>
       <c r="L260" t="n">
-        <v>0.03698189654661416</v>
+        <v>0.02803400810986567</v>
       </c>
       <c r="M260" t="n">
-        <v>0.140822559385742</v>
+        <v>0.1515974953315726</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06018328824434227</v>
+        <v>0.008594045784696636</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1471783229780911</v>
+        <v>0.1535682198694194</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01654788675853168</v>
+        <v>0.008617406444539531</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1579466295721203</v>
+        <v>0.1543557492020831</v>
       </c>
       <c r="J261" t="n">
-        <v>0.0189804358931408</v>
+        <v>0.01946343550014368</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1558312185227029</v>
+        <v>0.1535806804118987</v>
       </c>
       <c r="L261" t="n">
-        <v>0.03653515637774379</v>
+        <v>0.02604085573142079</v>
       </c>
       <c r="M261" t="n">
-        <v>0.1415447263569509</v>
+        <v>0.152374918384555</v>
       </c>
       <c r="N261" t="n">
-        <v>0.05990874513128064</v>
+        <v>0.008617406444539531</v>
       </c>
       <c r="O261" t="n">
-        <v>0.147933083608748</v>
+        <v>0.1543557492020831</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01447414850804807</v>
+        <v>0.008340174466553593</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1587524797229984</v>
+        <v>0.1551432785347468</v>
       </c>
       <c r="J262" t="n">
-        <v>0.01886913395585596</v>
+        <v>0.0188342455363911</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1566262757600636</v>
+        <v>0.1543642553119594</v>
       </c>
       <c r="L262" t="n">
-        <v>0.03599483276523877</v>
+        <v>0.02523599816664179</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1422668933281598</v>
+        <v>0.1531523414375374</v>
       </c>
       <c r="N262" t="n">
-        <v>0.05912867525937904</v>
+        <v>0.008340174466553593</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1486878442394049</v>
+        <v>0.1551432785347468</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.01440218463824514</v>
+        <v>0.008062349348202935</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1595583298738766</v>
+        <v>0.1559308078674105</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01885750541960682</v>
+        <v>0.01779770958435539</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1574213329974243</v>
+        <v>0.1551478302120201</v>
       </c>
       <c r="L263" t="n">
-        <v>0.0359610149454582</v>
+        <v>0.02491955111668837</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1429890602993687</v>
+        <v>0.1539297644905198</v>
       </c>
       <c r="N263" t="n">
-        <v>0.05834310547368143</v>
+        <v>0.008062349348202935</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1494426048700618</v>
+        <v>0.1559308078674105</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01633201741659078</v>
+        <v>0.008083930586951664</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1603641800247548</v>
+        <v>0.1567183372000742</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01874554831277619</v>
+        <v>0.01735420050633174</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1582163902347851</v>
+        <v>0.1559314051120808</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03543379215476114</v>
+        <v>0.02349163028271994</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1437112272705777</v>
+        <v>0.1547071875435023</v>
       </c>
       <c r="N264" t="n">
-        <v>0.05735206261923181</v>
+        <v>0.008083930586951664</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1501973655007187</v>
+        <v>0.1567183372000742</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1300.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1300.xlsx
@@ -8491,8 +8491,14 @@
     </row>
     <row r="47" ht="16.5" customHeight="1">
       <c r="A47" s="144" t="n"/>
-      <c r="B47" s="144" t="n"/>
-      <c r="C47" s="144" t="n"/>
+      <c r="B47" s="144" t="inlineStr">
+        <is>
+          <t>K0, д.е.</t>
+        </is>
+      </c>
+      <c r="C47" s="144" t="n">
+        <v>0.8263518223330697</v>
+      </c>
       <c r="D47" s="144" t="n"/>
       <c r="E47" s="144" t="n"/>
       <c r="F47" s="144" t="n"/>
@@ -8549,8 +8555,14 @@
     </row>
     <row r="48" ht="16.5" customHeight="1">
       <c r="A48" s="144" t="n"/>
-      <c r="B48" s="144" t="n"/>
-      <c r="C48" s="144" t="n"/>
+      <c r="B48" s="144" t="inlineStr">
+        <is>
+          <t>q_zg, МПа</t>
+        </is>
+      </c>
+      <c r="C48" s="144" t="n">
+        <v>0.04131759111665349</v>
+      </c>
       <c r="D48" s="144" t="n"/>
       <c r="E48" s="144" t="n"/>
       <c r="F48" s="144" t="n"/>
@@ -8700,12 +8712,20 @@
         <f>B70/A70</f>
         <v/>
       </c>
-      <c r="F50" s="144" t="n"/>
+      <c r="F50" s="144" t="inlineStr">
+        <is>
+          <t>Точки модуля (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G50" s="144" t="n"/>
       <c r="H50" s="144" t="n"/>
       <c r="I50" s="144" t="n"/>
-      <c r="J50" s="144" t="n"/>
-      <c r="K50" s="144" t="n"/>
+      <c r="J50" s="144" t="n">
+        <v>0.04131759111665349</v>
+      </c>
+      <c r="K50" s="144" t="n">
+        <v>0.06610814578664558</v>
+      </c>
       <c r="L50" s="144" t="n"/>
       <c r="N50" s="148">
         <f>J50</f>
@@ -8782,11 +8802,17 @@
         <f>A65/B65</f>
         <v/>
       </c>
-      <c r="F51" s="144" t="n"/>
+      <c r="F51" s="144" t="inlineStr">
+        <is>
+          <t>qf (полное напр.), МПа</t>
+        </is>
+      </c>
       <c r="G51" s="144" t="n"/>
       <c r="H51" s="144" t="n"/>
       <c r="I51" s="144" t="n"/>
-      <c r="J51" s="144" t="n"/>
+      <c r="J51" s="144" t="n">
+        <v>0.06301504120174584</v>
+      </c>
       <c r="K51" s="144" t="n"/>
       <c r="L51" s="144" t="n"/>
       <c r="M51" s="1" t="n"/>
@@ -9232,10 +9258,10 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.01408217641431279</v>
+        <v>0.01301504120174584</v>
       </c>
       <c r="B65" t="n">
-        <v>0.0125639417696447</v>
+        <v>0.01161185707218262</v>
       </c>
       <c r="C65" s="151">
         <f>MATCH(A65,F65:F1000,1)-A67</f>
@@ -9292,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.001182481871192111</v>
+        <v>0.0009287488047290057</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.0007875293326636894</v>
+        <v>0.001640573193916749</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.004819071790590684</v>
+        <v>0.002972858691911551</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.0007835749000607076</v>
+        <v>0.001652834983126887</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.006176446388862555</v>
+        <v>0.008634424255389433</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.0007774230529824235</v>
+        <v>0.001649472467423369</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.001182481871192111</v>
+        <v>0.01621058668621039</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.0007875293326636894</v>
+        <v>0.001651450417837203</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9332,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.002720031874649538</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.001575058665327379</v>
+        <v>0.003870619024060873</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.009254030524898538</v>
+        <v>0.005577136521501998</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.001567149800121415</v>
+        <v>0.003305669966253774</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.01391107010552523</v>
+        <v>0.0147403232286967</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.001554846105964847</v>
+        <v>0.00292247380680063</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.002720031874649538</v>
+        <v>0.03366590337626008</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.001575058665327379</v>
+        <v>0.004122629160383319</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9374,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.003956144738234232</v>
+        <v>0.005381569558494302</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.002362587997991068</v>
+        <v>0.004921719581750248</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.01415858201744419</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.002350724700182123</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.02000000000000002</v>
+        <v>0.01996385187385166</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.002334696261682245</v>
+        <v>0.004948417402270108</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.003956144738234232</v>
+        <v>0.03670811882711872</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.002362587997991068</v>
+        <v>0.004954351253511608</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9421,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.0080419682701472</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.003122656249999998</v>
+        <v>0.006562292775666997</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.01818643208274837</v>
+        <v>0.009069598721608139</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.00313429960024283</v>
+        <v>0.006611339932507548</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02422176690507727</v>
+        <v>0.02360990095610818</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.003109692211929694</v>
+        <v>0.006597889869693477</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.04116266549052106</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.003122656249999998</v>
+        <v>0.006605801671348811</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9458,62 +9484,62 @@
     </row>
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="n">
-        <v>0.003122656249999998</v>
+        <v>0.003870619024060873</v>
       </c>
       <c r="B70" t="n">
-        <v>0.004999999999999998</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.005902247860349701</v>
+        <v>0.008500280801339924</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.003937646663318447</v>
+        <v>0.008202865969583745</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.02159128653533177</v>
+        <v>0.01052669752016193</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.003917874500303538</v>
+        <v>0.008264174915634435</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02977861234141282</v>
+        <v>0.02629642524997039</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.003887115264912117</v>
+        <v>0.008247362337116846</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.005902247860349701</v>
+        <v>0.04443043854335232</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.003937646663318447</v>
+        <v>0.008257252089186014</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.006732516874100626</v>
+        <v>0.01178658295088881</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.004725175995982136</v>
+        <v>0.009843439163500495</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.02492685118971505</v>
+        <v>0.01141765500361058</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.004701449400364245</v>
+        <v>0.009917009898761322</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.03471054082916614</v>
+        <v>0.02951334573077477</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.004664538317894542</v>
+        <v>0.009896834804540216</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.006732516874100626</v>
+        <v>0.04794011344218752</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.004725175995982136</v>
+        <v>0.009908702507023217</v>
       </c>
     </row>
     <row r="72">
@@ -9528,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.007824941360986951</v>
+        <v>0.01301504120174584</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.005512705328645826</v>
+        <v>0.01161185707218262</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.02744683186041894</v>
+        <v>0.01251290879697961</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.005485024300424953</v>
+        <v>0.01156984488188821</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03907383446838425</v>
+        <v>0.03205058337385772</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.005441961370876965</v>
+        <v>0.01154630727196358</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.007824941360986951</v>
+        <v>0.05102036564360157</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.005512705328645826</v>
+        <v>0.01156015292486042</v>
       </c>
     </row>
     <row r="73">
@@ -9574,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.00857923352866468</v>
+        <v>0.01200013184450271</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.006300234661309515</v>
+        <v>0.01312458555133399</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.02960493436196412</v>
+        <v>0.01358289652529458</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.006268599200485661</v>
+        <v>0.0132226798650151</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.04282477535911422</v>
+        <v>0.03509600768737309</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.006219384423859388</v>
+        <v>0.01338281249999999</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.00857923352866468</v>
+        <v>0.05610983896043342</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.006300234661309515</v>
+        <v>0.01377642463235293</v>
       </c>
     </row>
     <row r="74">
@@ -9611,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.009495105584789852</v>
+        <v>0.0140504508204195</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.007087763993973204</v>
+        <v>0.01476515874525074</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.03099999999999997</v>
+        <v>0.01408217641431279</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.007014662590579701</v>
+        <v>0.01405195312499999</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.04721964560140302</v>
+        <v>0.03675420698190079</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.006996807476841812</v>
+        <v>0.01484525220681032</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.009495105584789852</v>
+        <v>0.05817304835937798</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.007087763993973204</v>
+        <v>0.01486305376053483</v>
       </c>
     </row>
     <row r="75">
@@ -9655,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01007226973701845</v>
+        <v>0.01607479322041418</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.007875293326636895</v>
+        <v>0.01640573193916749</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.03185967785709942</v>
+        <v>0.01553280198950475</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.007835749000607076</v>
+        <v>0.01652834983126887</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.05041472729529772</v>
+        <v>0.03993844183930711</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.007774230529824235</v>
+        <v>0.01649472467423369</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.01007226973701845</v>
+        <v>0.06149057803073443</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.007875293326636895</v>
+        <v>0.01651450417837203</v>
       </c>
     </row>
     <row r="76">
@@ -9697,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01081043819300651</v>
+        <v>0.01606574494641441</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.008662822659300583</v>
+        <v>0.01804630513308424</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.03254013825316032</v>
+        <v>0.0166907215552294</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.008619323900667783</v>
+        <v>0.01818118481439576</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.05266630254084537</v>
+        <v>0.0427193007143748</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.008551653582806658</v>
+        <v>0.01814419714165706</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.01081043819300651</v>
+        <v>0.06605621118269489</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.008662822659300583</v>
+        <v>0.01816595459620923</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9734,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01170932316041002</v>
+        <v>0.01801589190034786</v>
       </c>
       <c r="G77" t="n">
-        <v>0.009450351991964272</v>
+        <v>0.01968687832700099</v>
       </c>
       <c r="J77" t="n">
-        <v>0.03278700734284073</v>
+        <v>0.01755058807615817</v>
       </c>
       <c r="K77" t="n">
-        <v>0.00940289880072849</v>
+        <v>0.01983401979752264</v>
       </c>
       <c r="L77" t="n">
-        <v>0.05610983896043342</v>
+        <v>0.04486634476474272</v>
       </c>
       <c r="M77" t="n">
-        <v>0.009357102233179756</v>
+        <v>0.01979366960908043</v>
       </c>
       <c r="N77" t="n">
-        <v>0.01170932316041002</v>
+        <v>0.07020025700955962</v>
       </c>
       <c r="O77" t="n">
-        <v>0.009450351991964272</v>
+        <v>0.01981740501404643</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9774,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01226863684688501</v>
+        <v>0.01891781998414219</v>
       </c>
       <c r="G78" t="n">
-        <v>0.01023788132462796</v>
+        <v>0.02132745152091774</v>
       </c>
       <c r="J78" t="n">
-        <v>0.03369066203268772</v>
+        <v>0.01859829680881597</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0101864737007892</v>
+        <v>0.02148685478064953</v>
       </c>
       <c r="L78" t="n">
-        <v>0.05800654855157145</v>
+        <v>0.0473491351480495</v>
       </c>
       <c r="M78" t="n">
-        <v>0.01010649968877151</v>
+        <v>0.0214431420765038</v>
       </c>
       <c r="N78" t="n">
-        <v>0.01226863684688501</v>
+        <v>0.07375302470562894</v>
       </c>
       <c r="O78" t="n">
-        <v>0.01023788132462796</v>
+        <v>0.02146885543188364</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9816,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01288809146008744</v>
+        <v>0.01776411509972506</v>
       </c>
       <c r="G79" t="n">
-        <v>0.01102541065729165</v>
+        <v>0.02296802471483449</v>
       </c>
       <c r="J79" t="n">
-        <v>0.03509600768737309</v>
+        <v>0.0198197430097278</v>
       </c>
       <c r="K79" t="n">
-        <v>0.0113450070139776</v>
+        <v>0.02313968976377642</v>
       </c>
       <c r="L79" t="n">
-        <v>0.06015672013634987</v>
+        <v>0.04983723302193405</v>
       </c>
       <c r="M79" t="n">
-        <v>0.01088392274175393</v>
+        <v>0.02309261454392717</v>
       </c>
       <c r="N79" t="n">
-        <v>0.01288809146008744</v>
+        <v>0.07834482346520322</v>
       </c>
       <c r="O79" t="n">
-        <v>0.01102541065729165</v>
+        <v>0.02312030584972084</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9847,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.0134673992076734</v>
+        <v>0.02054736314902411</v>
       </c>
       <c r="G80" t="n">
-        <v>0.01181293998995534</v>
+        <v>0.02460859790875124</v>
       </c>
       <c r="J80" t="n">
-        <v>0.03510975864271559</v>
+        <v>0.02080082193541861</v>
       </c>
       <c r="K80" t="n">
-        <v>0.01175362350091061</v>
+        <v>0.0247925247469033</v>
       </c>
       <c r="L80" t="n">
-        <v>0.06228032665728589</v>
+        <v>0.05220019954403507</v>
       </c>
       <c r="M80" t="n">
-        <v>0.01166134579473635</v>
+        <v>0.02474208701135054</v>
       </c>
       <c r="N80" t="n">
-        <v>0.0134673992076734</v>
+        <v>0.08290596248258247</v>
       </c>
       <c r="O80" t="n">
-        <v>0.01181293998995534</v>
+        <v>0.02477175626755804</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9884,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.01408217641431279</v>
+        <v>0.02026015003396702</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0125639417696447</v>
+        <v>0.02624917110266799</v>
       </c>
       <c r="J81" t="n">
-        <v>0.03603904021319385</v>
+        <v>0.02152742884241336</v>
       </c>
       <c r="K81" t="n">
-        <v>0.01253719840097132</v>
+        <v>0.02644535973003019</v>
       </c>
       <c r="L81" t="n">
-        <v>0.06387619665931366</v>
+        <v>0.05510759587199129</v>
       </c>
       <c r="M81" t="n">
-        <v>0.01243876884771878</v>
+        <v>0.02639155947877391</v>
       </c>
       <c r="N81" t="n">
-        <v>0.01408217641431279</v>
+        <v>0.08656675095206728</v>
       </c>
       <c r="O81" t="n">
-        <v>0.0125639417696447</v>
+        <v>0.02642320668539525</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9918,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.01442766623111533</v>
+        <v>0.02089506165648145</v>
       </c>
       <c r="G82" t="n">
-        <v>0.01338799865528272</v>
+        <v>0.02788974429658473</v>
       </c>
       <c r="J82" t="n">
-        <v>0.0365126477528947</v>
+        <v>0.02248545898723699</v>
       </c>
       <c r="K82" t="n">
-        <v>0.01332077330103203</v>
+        <v>0.02809819471315708</v>
       </c>
       <c r="L82" t="n">
-        <v>0.06594315868736733</v>
+        <v>0.05662898316344156</v>
       </c>
       <c r="M82" t="n">
-        <v>0.0132161919007012</v>
+        <v>0.02804103194619728</v>
       </c>
       <c r="N82" t="n">
-        <v>0.01442766623111533</v>
+        <v>0.08965749806795764</v>
       </c>
       <c r="O82" t="n">
-        <v>0.01338799865528272</v>
+        <v>0.02807465710323245</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9949,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.01505012008850853</v>
+        <v>0.02244468391849504</v>
       </c>
       <c r="G83" t="n">
-        <v>0.01417552798794641</v>
+        <v>0.02953031749050148</v>
       </c>
       <c r="J83" t="n">
-        <v>0.03752723405573163</v>
+        <v>0.02326080762641444</v>
       </c>
       <c r="K83" t="n">
-        <v>0.01410434820109274</v>
+        <v>0.02975102969628397</v>
       </c>
       <c r="L83" t="n">
-        <v>0.06818004128638094</v>
+        <v>0.05883392257602457</v>
       </c>
       <c r="M83" t="n">
-        <v>0.01399361495368362</v>
+        <v>0.02969050441362064</v>
       </c>
       <c r="N83" t="n">
-        <v>0.01505012008850853</v>
+        <v>0.09300851302455398</v>
       </c>
       <c r="O83" t="n">
-        <v>0.01417552798794641</v>
+        <v>0.02972610752106965</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -9985,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.01547290346460498</v>
+        <v>0.02090160272193545</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0149630573206101</v>
+        <v>0.03117089068441823</v>
       </c>
       <c r="J84" t="n">
-        <v>0.03857945191561807</v>
+        <v>0.02403937001647072</v>
       </c>
       <c r="K84" t="n">
-        <v>0.01488792310115344</v>
+        <v>0.03140386467941085</v>
       </c>
       <c r="L84" t="n">
-        <v>0.07068567300128886</v>
+        <v>0.06039197526737908</v>
       </c>
       <c r="M84" t="n">
-        <v>0.01477103800666605</v>
+        <v>0.03133997688104401</v>
       </c>
       <c r="N84" t="n">
-        <v>0.01547290346460498</v>
+        <v>0.09545010501615675</v>
       </c>
       <c r="O84" t="n">
-        <v>0.0149630573206101</v>
+        <v>0.03137755793890686</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10025,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.01599524011008145</v>
+        <v>0.02125892984408267</v>
       </c>
       <c r="G85" t="n">
-        <v>0.01575058665327379</v>
+        <v>0.03281146387833498</v>
       </c>
       <c r="J85" t="n">
-        <v>0.03946595412646761</v>
+        <v>0.02460704141393075</v>
       </c>
       <c r="K85" t="n">
-        <v>0.01567149800121415</v>
+        <v>0.03305669966253774</v>
       </c>
       <c r="L85" t="n">
-        <v>0.07175888237702499</v>
+        <v>0.06147270239514388</v>
       </c>
       <c r="M85" t="n">
-        <v>0.01554846105964847</v>
+        <v>0.03298944934846738</v>
       </c>
       <c r="N85" t="n">
-        <v>0.01599524011008145</v>
+        <v>0.09791258323706581</v>
       </c>
       <c r="O85" t="n">
-        <v>0.01575058665327379</v>
+        <v>0.03302900835674406</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10067,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.01671635377561471</v>
+        <v>0.02256956633994091</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01653811598593748</v>
+        <v>0.03445203707225173</v>
       </c>
       <c r="J86" t="n">
-        <v>0.04098339348219368</v>
+        <v>0.0249497170753195</v>
       </c>
       <c r="K86" t="n">
-        <v>0.01645507290127486</v>
+        <v>0.03470953464566463</v>
       </c>
       <c r="L86" t="n">
-        <v>0.07459849795852364</v>
+        <v>0.06224860075936581</v>
       </c>
       <c r="M86" t="n">
-        <v>0.01632588411263089</v>
+        <v>0.03463892181589075</v>
       </c>
       <c r="N86" t="n">
-        <v>0.01671635377561471</v>
+        <v>0.0994262568815818</v>
       </c>
       <c r="O86" t="n">
-        <v>0.01653811598593748</v>
+        <v>0.03468045877458126</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10098,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.0171354682118815</v>
+        <v>0.02387103294551538</v>
       </c>
       <c r="G87" t="n">
-        <v>0.01732564531860117</v>
+        <v>0.03609261026616848</v>
       </c>
       <c r="J87" t="n">
-        <v>0.04172842277670977</v>
+        <v>0.02539453742290408</v>
       </c>
       <c r="K87" t="n">
-        <v>0.01723864780133557</v>
+        <v>0.03636236962879151</v>
       </c>
       <c r="L87" t="n">
-        <v>0.07620334829071879</v>
+        <v>0.06358997176192166</v>
       </c>
       <c r="M87" t="n">
-        <v>0.01710330716561332</v>
+        <v>0.03628839428331412</v>
       </c>
       <c r="N87" t="n">
-        <v>0.0171354682118815</v>
+        <v>0.1013822056246338</v>
       </c>
       <c r="O87" t="n">
-        <v>0.01732564531860117</v>
+        <v>0.03633190919241847</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10133,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.01775180716955861</v>
+        <v>0.02316128016733791</v>
       </c>
       <c r="G88" t="n">
-        <v>0.01811317465126486</v>
+        <v>0.03773318346008523</v>
       </c>
       <c r="J88" t="n">
-        <v>0.04279769480392942</v>
+        <v>0.025526591751648</v>
       </c>
       <c r="K88" t="n">
-        <v>0.01802222270139628</v>
+        <v>0.0380152046119184</v>
       </c>
       <c r="L88" t="n">
-        <v>0.07727226191854475</v>
+        <v>0.06430612377717732</v>
       </c>
       <c r="M88" t="n">
-        <v>0.01788073021859574</v>
+        <v>0.03793786675073749</v>
       </c>
       <c r="N88" t="n">
-        <v>0.01775180716955861</v>
+        <v>0.1017978884384715</v>
       </c>
       <c r="O88" t="n">
-        <v>0.01811317465126486</v>
+        <v>0.03798335961025567</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10167,4578 +10193,4578 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.01806459439932276</v>
+        <v>0.02343825851194036</v>
       </c>
       <c r="G89" t="n">
-        <v>0.01890070398392854</v>
+        <v>0.03937375665400198</v>
       </c>
       <c r="J89" t="n">
-        <v>0.04358786235776613</v>
+        <v>0.0258470346474997</v>
       </c>
       <c r="K89" t="n">
-        <v>0.01880579760145698</v>
+        <v>0.03966803959504529</v>
       </c>
       <c r="L89" t="n">
-        <v>0.07930406738693557</v>
+        <v>0.06479143977069166</v>
       </c>
       <c r="M89" t="n">
-        <v>0.01865815327157817</v>
+        <v>0.03958733921816086</v>
       </c>
       <c r="N89" t="n">
-        <v>0.01806459439932276</v>
+        <v>0.1028660535928158</v>
       </c>
       <c r="O89" t="n">
-        <v>0.01890070398392854</v>
+        <v>0.03963481002809287</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.01877305365185074</v>
+        <v>0.02269991848585459</v>
       </c>
       <c r="G90" t="n">
-        <v>0.01968823331659223</v>
+        <v>0.04101432984791873</v>
       </c>
       <c r="J90" t="n">
-        <v>0.04519557823213327</v>
+        <v>0.02625359847923961</v>
       </c>
       <c r="K90" t="n">
-        <v>0.01958937250151769</v>
+        <v>0.04132087457817217</v>
       </c>
       <c r="L90" t="n">
-        <v>0.08159759324082538</v>
+        <v>0.06544030270802356</v>
       </c>
       <c r="M90" t="n">
-        <v>0.01943557632456059</v>
+        <v>0.04123681168558423</v>
       </c>
       <c r="N90" t="n">
-        <v>0.01877305365185074</v>
+        <v>0.1046776884938663</v>
       </c>
       <c r="O90" t="n">
-        <v>0.01968823331659223</v>
+        <v>0.04128626044593007</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.01917640867781929</v>
+        <v>0.02294421059561246</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02047576264925592</v>
+        <v>0.04265490304183548</v>
       </c>
       <c r="J91" t="n">
-        <v>0.04621749522094451</v>
+        <v>0.02664401561564811</v>
       </c>
       <c r="K91" t="n">
-        <v>0.0203729474015784</v>
+        <v>0.04297370956129906</v>
       </c>
       <c r="L91" t="n">
-        <v>0.08325166802514844</v>
+        <v>0.06624709555473185</v>
       </c>
       <c r="M91" t="n">
-        <v>0.02021299937754301</v>
+        <v>0.0428862841530076</v>
       </c>
       <c r="N91" t="n">
-        <v>0.01917640867781929</v>
+        <v>0.1052237805478227</v>
       </c>
       <c r="O91" t="n">
-        <v>0.02047576264925592</v>
+        <v>0.04293771086376728</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.01957388322790515</v>
+        <v>0.02316908534774583</v>
       </c>
       <c r="G92" t="n">
-        <v>0.02126329198191961</v>
+        <v>0.04429547623575223</v>
       </c>
       <c r="J92" t="n">
-        <v>0.04725026611811323</v>
+        <v>0.02691601842550562</v>
       </c>
       <c r="K92" t="n">
-        <v>0.0211565223016391</v>
+        <v>0.04462654454442595</v>
       </c>
       <c r="L92" t="n">
-        <v>0.08476512028483879</v>
+        <v>0.06690620127637548</v>
       </c>
       <c r="M92" t="n">
-        <v>0.02099042243052543</v>
+        <v>0.04453575662043097</v>
       </c>
       <c r="N92" t="n">
-        <v>0.01957388322790515</v>
+        <v>0.1069953171608847</v>
       </c>
       <c r="O92" t="n">
-        <v>0.02126329198191961</v>
+        <v>0.04458916128160448</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02006470105278514</v>
+        <v>0.02437249324878654</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0220508213145833</v>
+        <v>0.04593604942966898</v>
       </c>
       <c r="J93" t="n">
-        <v>0.04859054371755292</v>
+        <v>0.02696733927759254</v>
       </c>
       <c r="K93" t="n">
-        <v>0.02194009720169981</v>
+        <v>0.04627937952755283</v>
       </c>
       <c r="L93" t="n">
-        <v>0.08683677856483052</v>
+        <v>0.06751200283851322</v>
       </c>
       <c r="M93" t="n">
-        <v>0.02176784548350786</v>
+        <v>0.04618522908785434</v>
       </c>
       <c r="N93" t="n">
-        <v>0.02006470105278514</v>
+        <v>0.1080832857392521</v>
       </c>
       <c r="O93" t="n">
-        <v>0.0220508213145833</v>
+        <v>0.04624061169944169</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02074808590313597</v>
+        <v>0.02355238480526644</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02283835064724699</v>
+        <v>0.04757662262358572</v>
       </c>
       <c r="J94" t="n">
-        <v>0.04923498081317712</v>
+        <v>0.02729571054068929</v>
       </c>
       <c r="K94" t="n">
-        <v>0.02272367210176052</v>
+        <v>0.04793221451067972</v>
       </c>
       <c r="L94" t="n">
-        <v>0.08796547141005784</v>
+        <v>0.06805888320670397</v>
       </c>
       <c r="M94" t="n">
-        <v>0.02254526853649028</v>
+        <v>0.04783470155527771</v>
       </c>
       <c r="N94" t="n">
-        <v>0.02074808590313597</v>
+        <v>0.1082786736891246</v>
       </c>
       <c r="O94" t="n">
-        <v>0.02283835064724699</v>
+        <v>0.04789206211727889</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.02112326152963438</v>
+        <v>0.0237067105237174</v>
       </c>
       <c r="G95" t="n">
-        <v>0.02362587997991068</v>
+        <v>0.04921719581750247</v>
       </c>
       <c r="J95" t="n">
-        <v>0.05108023019889929</v>
+        <v>0.02759886458357627</v>
       </c>
       <c r="K95" t="n">
-        <v>0.02350724700182123</v>
+        <v>0.04958504949380661</v>
       </c>
       <c r="L95" t="n">
-        <v>0.08995002736545493</v>
+        <v>0.06854122534650658</v>
       </c>
       <c r="M95" t="n">
-        <v>0.02332269158947271</v>
+        <v>0.04948417402270108</v>
       </c>
       <c r="N95" t="n">
-        <v>0.02112326152963438</v>
+        <v>0.1089724684167018</v>
       </c>
       <c r="O95" t="n">
-        <v>0.02362587997991068</v>
+        <v>0.04954351253511609</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.02148945168295718</v>
+        <v>0.0248334209106713</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02441340931257437</v>
+        <v>0.05085776901141922</v>
       </c>
       <c r="J96" t="n">
-        <v>0.05192294466863293</v>
+        <v>0.02757453377503387</v>
       </c>
       <c r="K96" t="n">
-        <v>0.02429082190188193</v>
+        <v>0.0512378844769335</v>
       </c>
       <c r="L96" t="n">
-        <v>0.09188927497595584</v>
+        <v>0.06905341222347999</v>
       </c>
       <c r="M96" t="n">
-        <v>0.02410011464245513</v>
+        <v>0.05113364649012444</v>
       </c>
       <c r="N96" t="n">
-        <v>0.02148945168295718</v>
+        <v>0.1098556573281834</v>
       </c>
       <c r="O96" t="n">
-        <v>0.02441340931257437</v>
+        <v>0.05119496295295329</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02214588011378113</v>
+        <v>0.02593046647265995</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02520093864523806</v>
+        <v>0.05249834220533597</v>
       </c>
       <c r="J97" t="n">
-        <v>0.05315977701629154</v>
+        <v>0.0278204504838425</v>
       </c>
       <c r="K97" t="n">
-        <v>0.02507439680194264</v>
+        <v>0.05289071946006038</v>
       </c>
       <c r="L97" t="n">
-        <v>0.09268204278649483</v>
+        <v>0.06958982680318296</v>
       </c>
       <c r="M97" t="n">
-        <v>0.02487753769543755</v>
+        <v>0.05278311895754782</v>
       </c>
       <c r="N97" t="n">
-        <v>0.02214588011378113</v>
+        <v>0.1106192278297692</v>
       </c>
       <c r="O97" t="n">
-        <v>0.02520093864523806</v>
+        <v>0.05284641337079049</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02259177057278293</v>
+        <v>0.02603008240349169</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02598846797790175</v>
+        <v>0.05413891539925272</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0539873800357886</v>
+        <v>0.0279343470787826</v>
       </c>
       <c r="K98" t="n">
-        <v>0.02585797170200335</v>
+        <v>0.05454355444318727</v>
       </c>
       <c r="L98" t="n">
-        <v>0.09442715934200591</v>
+        <v>0.0694448520511744</v>
       </c>
       <c r="M98" t="n">
-        <v>0.02565496074841998</v>
+        <v>0.05443259142497119</v>
       </c>
       <c r="N98" t="n">
-        <v>0.02259177057278293</v>
+        <v>0.1114541673276587</v>
       </c>
       <c r="O98" t="n">
-        <v>0.02598846797790175</v>
+        <v>0.0544978637886277</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02292634681063939</v>
+        <v>0.02402736514786897</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02677599731056544</v>
+        <v>0.05577948859316947</v>
       </c>
       <c r="J99" t="n">
-        <v>0.05520240652103761</v>
+        <v>0.02811395592863455</v>
       </c>
       <c r="K99" t="n">
-        <v>0.02664154660206406</v>
+        <v>0.05619638942631415</v>
       </c>
       <c r="L99" t="n">
-        <v>0.09622345318742331</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0264323838014024</v>
+        <v>0.05608206389239456</v>
       </c>
       <c r="N99" t="n">
-        <v>0.02292634681063939</v>
+        <v>0.1109514632280518</v>
       </c>
       <c r="O99" t="n">
-        <v>0.02677599731056544</v>
+        <v>0.0561493142064649</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02344883257802724</v>
+        <v>0.02602674969770311</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02756352664322913</v>
+        <v>0.05742006178708622</v>
       </c>
       <c r="J100" t="n">
-        <v>0.05660150926595212</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K100" t="n">
-        <v>0.02742512150212477</v>
+        <v>0.05784922440944105</v>
       </c>
       <c r="L100" t="n">
-        <v>0.09686975286768118</v>
+        <v>0.07008826641425819</v>
       </c>
       <c r="M100" t="n">
-        <v>0.02720980685438482</v>
+        <v>0.05773153635981792</v>
       </c>
       <c r="N100" t="n">
-        <v>0.02344883257802724</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="O100" t="n">
-        <v>0.02756352664322913</v>
+        <v>0.0578007646243021</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02365845162562326</v>
+        <v>0.02400748963613918</v>
       </c>
       <c r="G101" t="n">
-        <v>0.02835105597589282</v>
+        <v>0.05906063498100297</v>
       </c>
       <c r="J101" t="n">
-        <v>0.05708134106444548</v>
+        <v>0.02816285023839191</v>
       </c>
       <c r="K101" t="n">
-        <v>0.02820869640218547</v>
+        <v>0.05950205939256793</v>
       </c>
       <c r="L101" t="n">
-        <v>0.09816488692771358</v>
+        <v>0.06967934397257555</v>
       </c>
       <c r="M101" t="n">
-        <v>0.02798722990736725</v>
+        <v>0.05938100882724129</v>
       </c>
       <c r="N101" t="n">
-        <v>0.02365845162562326</v>
+        <v>0.1111088252200645</v>
       </c>
       <c r="O101" t="n">
-        <v>0.02835105597589282</v>
+        <v>0.0594522150421393</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.0241544277041042</v>
+        <v>0.02497203045443189</v>
       </c>
       <c r="G102" t="n">
-        <v>0.02913858530855651</v>
+        <v>0.06070120817491972</v>
       </c>
       <c r="J102" t="n">
-        <v>0.05843855471043127</v>
+        <v>0.02814579778603209</v>
       </c>
       <c r="K102" t="n">
-        <v>0.02899227130224618</v>
+        <v>0.06115489437569482</v>
       </c>
       <c r="L102" t="n">
-        <v>0.09910768391245472</v>
+        <v>0.06952176913726812</v>
       </c>
       <c r="M102" t="n">
-        <v>0.02876465296034967</v>
+        <v>0.06103048129466466</v>
       </c>
       <c r="N102" t="n">
-        <v>0.0241544277041042</v>
+        <v>0.1114308806726252</v>
       </c>
       <c r="O102" t="n">
-        <v>0.02913858530855651</v>
+        <v>0.0611036654599765</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02443598456414681</v>
+        <v>0.02392145229474305</v>
       </c>
       <c r="G103" t="n">
-        <v>0.0299261146412202</v>
+        <v>0.06234178136883647</v>
       </c>
       <c r="J103" t="n">
-        <v>0.05916980299782307</v>
+        <v>0.0279107049648131</v>
       </c>
       <c r="K103" t="n">
-        <v>0.02977584620230689</v>
+        <v>0.0628077293588217</v>
       </c>
       <c r="L103" t="n">
-        <v>0.1009969723668387</v>
+        <v>0.06982039395470799</v>
       </c>
       <c r="M103" t="n">
-        <v>0.0295420760133321</v>
+        <v>0.06267995376208803</v>
       </c>
       <c r="N103" t="n">
-        <v>0.02443598456414681</v>
+        <v>0.1113818205427519</v>
       </c>
       <c r="O103" t="n">
-        <v>0.0299261146412202</v>
+        <v>0.06275511587781371</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02500234595642788</v>
+        <v>0.02585683529923449</v>
       </c>
       <c r="G104" t="n">
-        <v>0.03071364397388389</v>
+        <v>0.06398235456275321</v>
       </c>
       <c r="J104" t="n">
-        <v>0.06077173872053426</v>
+        <v>0.02795876688178253</v>
       </c>
       <c r="K104" t="n">
-        <v>0.0305594211023676</v>
+        <v>0.06446056434194858</v>
       </c>
       <c r="L104" t="n">
-        <v>0.1024315808357998</v>
+        <v>0.06917817876403193</v>
       </c>
       <c r="M104" t="n">
-        <v>0.03031949906631452</v>
+        <v>0.06432942622951139</v>
       </c>
       <c r="N104" t="n">
-        <v>0.02500234595642788</v>
+        <v>0.110666394727286</v>
       </c>
       <c r="O104" t="n">
-        <v>0.03071364397388389</v>
+        <v>0.0644065662956509</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02515273563162412</v>
+        <v>0.02577925961006803</v>
       </c>
       <c r="G105" t="n">
-        <v>0.03150117330654758</v>
+        <v>0.06562292775666996</v>
       </c>
       <c r="J105" t="n">
-        <v>0.06114101467247832</v>
+        <v>0.02789117864398796</v>
       </c>
       <c r="K105" t="n">
-        <v>0.03134299600242831</v>
+        <v>0.06611339932507548</v>
       </c>
       <c r="L105" t="n">
-        <v>0.1035103378642719</v>
+        <v>0.06939808390437668</v>
       </c>
       <c r="M105" t="n">
-        <v>0.03109692211929694</v>
+        <v>0.06597889869693477</v>
       </c>
       <c r="N105" t="n">
-        <v>0.02515273563162412</v>
+        <v>0.1111893531230692</v>
       </c>
       <c r="O105" t="n">
-        <v>0.03150117330654758</v>
+        <v>0.06605801671348811</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02548637734041234</v>
+        <v>0.02468980536940549</v>
       </c>
       <c r="G106" t="n">
-        <v>0.03228870263921126</v>
+        <v>0.06726350095058671</v>
       </c>
       <c r="J106" t="n">
-        <v>0.06277428364756876</v>
+        <v>0.02790913535847697</v>
       </c>
       <c r="K106" t="n">
-        <v>0.03212657090248901</v>
+        <v>0.06776623430820236</v>
       </c>
       <c r="L106" t="n">
-        <v>0.1045320719971893</v>
+        <v>0.06918306971487906</v>
       </c>
       <c r="M106" t="n">
-        <v>0.03187434517227936</v>
+        <v>0.06762837116435813</v>
       </c>
       <c r="N106" t="n">
-        <v>0.02548637734041234</v>
+        <v>0.1103554456269429</v>
       </c>
       <c r="O106" t="n">
-        <v>0.03228870263921126</v>
+        <v>0.06770946713132532</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02580249483346926</v>
+        <v>0.02558955271940872</v>
       </c>
       <c r="G107" t="n">
-        <v>0.03307623197187495</v>
+        <v>0.06890407414450346</v>
       </c>
       <c r="J107" t="n">
-        <v>0.06316819843971913</v>
+        <v>0.02761383213229715</v>
       </c>
       <c r="K107" t="n">
-        <v>0.03291014580254972</v>
+        <v>0.06941906929132925</v>
       </c>
       <c r="L107" t="n">
-        <v>0.1048956117794862</v>
+        <v>0.06883609653467576</v>
       </c>
       <c r="M107" t="n">
-        <v>0.03265176822526179</v>
+        <v>0.06927784363178151</v>
       </c>
       <c r="N107" t="n">
-        <v>0.02580249483346926</v>
+        <v>0.1100694221357488</v>
       </c>
       <c r="O107" t="n">
-        <v>0.03307623197187495</v>
+        <v>0.06936091754916253</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02610031186147163</v>
+        <v>0.02347958180223953</v>
       </c>
       <c r="G108" t="n">
-        <v>0.03386376130453864</v>
+        <v>0.07054464733842021</v>
       </c>
       <c r="J108" t="n">
-        <v>0.06451941184284285</v>
+        <v>0.02770646407249608</v>
       </c>
       <c r="K108" t="n">
-        <v>0.03369372070261043</v>
+        <v>0.07107190427445613</v>
       </c>
       <c r="L108" t="n">
-        <v>0.1058997857560967</v>
+        <v>0.06876012470290366</v>
       </c>
       <c r="M108" t="n">
-        <v>0.03342919127824421</v>
+        <v>0.07092731609920488</v>
       </c>
       <c r="N108" t="n">
-        <v>0.02610031186147163</v>
+        <v>0.1097360325463283</v>
       </c>
       <c r="O108" t="n">
-        <v>0.03386376130453864</v>
+        <v>0.07101236796699972</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02647905217509627</v>
+        <v>0.02436097276005977</v>
       </c>
       <c r="G109" t="n">
-        <v>0.03465129063720233</v>
+        <v>0.07218522053233696</v>
       </c>
       <c r="J109" t="n">
-        <v>0.06492457665085349</v>
+        <v>0.02758822628612134</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03447729560267113</v>
+        <v>0.07272473925758302</v>
       </c>
       <c r="L109" t="n">
-        <v>0.1065434224719548</v>
+        <v>0.06825811455869943</v>
       </c>
       <c r="M109" t="n">
-        <v>0.03420661433122663</v>
+        <v>0.07257678856662823</v>
       </c>
       <c r="N109" t="n">
-        <v>0.02647905217509627</v>
+        <v>0.1091600267555231</v>
       </c>
       <c r="O109" t="n">
-        <v>0.03465129063720233</v>
+        <v>0.07266381838483693</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02673793952501988</v>
+        <v>0.02523480573503122</v>
       </c>
       <c r="G110" t="n">
-        <v>0.03543881996986602</v>
+        <v>0.07382579372625371</v>
       </c>
       <c r="J110" t="n">
-        <v>0.06548034565766447</v>
+        <v>0.02736031388022053</v>
       </c>
       <c r="K110" t="n">
-        <v>0.03526087050273184</v>
+        <v>0.0743775742407099</v>
       </c>
       <c r="L110" t="n">
-        <v>0.1078253504719948</v>
+        <v>0.06813302644119992</v>
       </c>
       <c r="M110" t="n">
-        <v>0.03498403738420906</v>
+        <v>0.07422626103405161</v>
       </c>
       <c r="N110" t="n">
-        <v>0.02673793952501988</v>
+        <v>0.1084461546601746</v>
       </c>
       <c r="O110" t="n">
-        <v>0.03543881996986602</v>
+        <v>0.07431526880267414</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02697619766191924</v>
+        <v>0.02510216086931575</v>
       </c>
       <c r="G111" t="n">
-        <v>0.03622634930252971</v>
+        <v>0.07546636692017046</v>
       </c>
       <c r="J111" t="n">
-        <v>0.06638337165718933</v>
+        <v>0.02722392196184123</v>
       </c>
       <c r="K111" t="n">
-        <v>0.03604444540279255</v>
+        <v>0.0760304092238368</v>
       </c>
       <c r="L111" t="n">
-        <v>0.1080443983011508</v>
+        <v>0.06748782068954184</v>
       </c>
       <c r="M111" t="n">
-        <v>0.03576146043719148</v>
+        <v>0.07587573350147499</v>
       </c>
       <c r="N111" t="n">
-        <v>0.02697619766191924</v>
+        <v>0.1082991661571245</v>
       </c>
       <c r="O111" t="n">
-        <v>0.03622634930252971</v>
+        <v>0.07596671922051133</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02709305033647111</v>
+        <v>0.02496411830507519</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0370138786351934</v>
+        <v>0.07710694011408721</v>
       </c>
       <c r="J112" t="n">
-        <v>0.06743030744334155</v>
+        <v>0.026980245638031</v>
       </c>
       <c r="K112" t="n">
-        <v>0.03682802030285326</v>
+        <v>0.07768324420696368</v>
       </c>
       <c r="L112" t="n">
-        <v>0.1084993945043569</v>
+        <v>0.06762545764286199</v>
       </c>
       <c r="M112" t="n">
-        <v>0.0365388834901739</v>
+        <v>0.07752520596889835</v>
       </c>
       <c r="N112" t="n">
-        <v>0.02709305033647111</v>
+        <v>0.1074238111432143</v>
       </c>
       <c r="O112" t="n">
-        <v>0.0370138786351934</v>
+        <v>0.07761816963834854</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02728772129935222</v>
+        <v>0.02382175818447133</v>
       </c>
       <c r="G113" t="n">
-        <v>0.03780140796785709</v>
+        <v>0.07874751330800396</v>
       </c>
       <c r="J113" t="n">
-        <v>0.06751780581003458</v>
+        <v>0.02703048001583747</v>
       </c>
       <c r="K113" t="n">
-        <v>0.03761159520291396</v>
+        <v>0.07933607919009057</v>
       </c>
       <c r="L113" t="n">
-        <v>0.1093891676265473</v>
+        <v>0.06664889764029713</v>
       </c>
       <c r="M113" t="n">
-        <v>0.03731630654315633</v>
+        <v>0.07917467843632173</v>
       </c>
       <c r="N113" t="n">
-        <v>0.02728772129935222</v>
+        <v>0.1073248395152855</v>
       </c>
       <c r="O113" t="n">
-        <v>0.03780140796785709</v>
+        <v>0.07926962005618574</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02765943430123939</v>
+        <v>0.02367616064966601</v>
       </c>
       <c r="G114" t="n">
-        <v>0.03858893730052078</v>
+        <v>0.08038808650192071</v>
       </c>
       <c r="J114" t="n">
-        <v>0.06784251955118195</v>
+        <v>0.02687582020230819</v>
       </c>
       <c r="K114" t="n">
-        <v>0.03839517010297467</v>
+        <v>0.08098891417321745</v>
       </c>
       <c r="L114" t="n">
-        <v>0.1094125462126562</v>
+        <v>0.06676110102098406</v>
       </c>
       <c r="M114" t="n">
-        <v>0.03809372959613875</v>
+        <v>0.08082415090374509</v>
       </c>
       <c r="N114" t="n">
-        <v>0.02765943430123939</v>
+        <v>0.1070070011701799</v>
       </c>
       <c r="O114" t="n">
-        <v>0.03858893730052078</v>
+        <v>0.08092107047402294</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02760741309280931</v>
+        <v>0.02252840584282107</v>
       </c>
       <c r="G115" t="n">
-        <v>0.03937646663318447</v>
+        <v>0.08202865969583746</v>
       </c>
       <c r="J115" t="n">
-        <v>0.06870110146069716</v>
+        <v>0.02661746130449075</v>
       </c>
       <c r="K115" t="n">
-        <v>0.03917874500303538</v>
+        <v>0.08264174915634434</v>
       </c>
       <c r="L115" t="n">
-        <v>0.1104683588076175</v>
+        <v>0.06646502812405947</v>
       </c>
       <c r="M115" t="n">
-        <v>0.03887115264912117</v>
+        <v>0.08247362337116845</v>
       </c>
       <c r="N115" t="n">
-        <v>0.02760741309280931</v>
+        <v>0.1058750460047386</v>
       </c>
       <c r="O115" t="n">
-        <v>0.03937646663318447</v>
+        <v>0.08257252089186014</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.0278308814247388</v>
+        <v>0.02337957390609833</v>
       </c>
       <c r="G116" t="n">
-        <v>0.04016399596584816</v>
+        <v>0.08366923288975421</v>
       </c>
       <c r="J116" t="n">
-        <v>0.0686902043324937</v>
+        <v>0.02655659842943274</v>
       </c>
       <c r="K116" t="n">
-        <v>0.03996231990309609</v>
+        <v>0.08429458413947123</v>
       </c>
       <c r="L116" t="n">
-        <v>0.1110554339563656</v>
+        <v>0.06556363928866024</v>
       </c>
       <c r="M116" t="n">
-        <v>0.0396485757021036</v>
+        <v>0.08412309583859183</v>
       </c>
       <c r="N116" t="n">
-        <v>0.0278308814247388</v>
+        <v>0.1049337239158036</v>
       </c>
       <c r="O116" t="n">
-        <v>0.04016399596584816</v>
+        <v>0.08422397130969735</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02792906304770457</v>
+        <v>0.02323074498165962</v>
       </c>
       <c r="G117" t="n">
-        <v>0.04095152529851185</v>
+        <v>0.08530980608367096</v>
       </c>
       <c r="J117" t="n">
-        <v>0.0694064809604851</v>
+        <v>0.02619442668418173</v>
       </c>
       <c r="K117" t="n">
-        <v>0.0407458948031568</v>
+        <v>0.08594741912259812</v>
       </c>
       <c r="L117" t="n">
-        <v>0.1113726002038345</v>
+        <v>0.06555989485392305</v>
       </c>
       <c r="M117" t="n">
-        <v>0.04042599875508603</v>
+        <v>0.08577256830601521</v>
       </c>
       <c r="N117" t="n">
-        <v>0.02792906304770457</v>
+        <v>0.1044877848002162</v>
       </c>
       <c r="O117" t="n">
-        <v>0.04095152529851185</v>
+        <v>0.08587542172753455</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02810118171238341</v>
+        <v>0.02408299921166677</v>
       </c>
       <c r="G118" t="n">
-        <v>0.04173905463117553</v>
+        <v>0.0869503792775877</v>
       </c>
       <c r="J118" t="n">
-        <v>0.06984658413858477</v>
+        <v>0.02603214117578533</v>
       </c>
       <c r="K118" t="n">
-        <v>0.0415294697032175</v>
+        <v>0.087600254105725</v>
       </c>
       <c r="L118" t="n">
-        <v>0.1108186860949585</v>
+        <v>0.06515675515898472</v>
       </c>
       <c r="M118" t="n">
-        <v>0.04120342180806844</v>
+        <v>0.08742204077343856</v>
       </c>
       <c r="N118" t="n">
-        <v>0.02810118171238341</v>
+        <v>0.103441978554818</v>
       </c>
       <c r="O118" t="n">
-        <v>0.04173905463117553</v>
+        <v>0.08752687214537175</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02816435282862557</v>
+        <v>0.02193488379958698</v>
       </c>
       <c r="G119" t="n">
-        <v>0.04252658396383922</v>
+        <v>0.08859095247150446</v>
       </c>
       <c r="J119" t="n">
-        <v>0.06990716666070623</v>
+        <v>0.02597093701129112</v>
       </c>
       <c r="K119" t="n">
-        <v>0.04231304460327821</v>
+        <v>0.08925308908885189</v>
       </c>
       <c r="L119" t="n">
-        <v>0.1118925201746716</v>
+        <v>0.064157180542982</v>
       </c>
       <c r="M119" t="n">
-        <v>0.04198084486105087</v>
+        <v>0.08907151324086193</v>
       </c>
       <c r="N119" t="n">
-        <v>0.02816435282862557</v>
+        <v>0.1036010550764507</v>
       </c>
       <c r="O119" t="n">
-        <v>0.04252658396383922</v>
+        <v>0.08917832256320896</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02806412516958727</v>
+        <v>0.02176792966330589</v>
       </c>
       <c r="G120" t="n">
-        <v>0.04331411329650291</v>
+        <v>0.0902315256654212</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0701920153747462</v>
+        <v>0.02581014977537117</v>
       </c>
       <c r="K120" t="n">
-        <v>0.04309661950333892</v>
+        <v>0.09090592407197877</v>
       </c>
       <c r="L120" t="n">
-        <v>0.1122196779208668</v>
+        <v>0.06374868818436336</v>
       </c>
       <c r="M120" t="n">
-        <v>0.04275826791403329</v>
+        <v>0.09072098570828531</v>
       </c>
       <c r="N120" t="n">
-        <v>0.02806412516958727</v>
+        <v>0.1031564447134856</v>
       </c>
       <c r="O120" t="n">
-        <v>0.04331411329650291</v>
+        <v>0.09082977298104615</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02816232471797588</v>
+        <v>0.02258108658792213</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0441016426291666</v>
+        <v>0.09187209885933796</v>
       </c>
       <c r="J121" t="n">
-        <v>0.06968807339179478</v>
+        <v>0.02552988065542067</v>
       </c>
       <c r="K121" t="n">
-        <v>0.04388019440339962</v>
+        <v>0.09255875905510566</v>
       </c>
       <c r="L121" t="n">
-        <v>0.111719272591135</v>
+        <v>0.06388327496725413</v>
       </c>
       <c r="M121" t="n">
-        <v>0.04353569096701572</v>
+        <v>0.09237045817570867</v>
       </c>
       <c r="N121" t="n">
-        <v>0.02816232471797588</v>
+        <v>0.1020273705530975</v>
       </c>
       <c r="O121" t="n">
-        <v>0.0441016426291666</v>
+        <v>0.09248122339888337</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.0281550847834519</v>
+        <v>0.02337787380571395</v>
       </c>
       <c r="G122" t="n">
-        <v>0.04488917196183029</v>
+        <v>0.0935126720532547</v>
       </c>
       <c r="J122" t="n">
-        <v>0.06976402781318936</v>
+        <v>0.02552750308574636</v>
       </c>
       <c r="K122" t="n">
-        <v>0.04466376930346033</v>
+        <v>0.09421159403823255</v>
       </c>
       <c r="L122" t="n">
-        <v>0.1120978309498273</v>
+        <v>0.06326579805731644</v>
       </c>
       <c r="M122" t="n">
-        <v>0.04431311401999814</v>
+        <v>0.09401993064313205</v>
       </c>
       <c r="N122" t="n">
-        <v>0.0281550847834519</v>
+        <v>0.1008122091182926</v>
       </c>
       <c r="O122" t="n">
-        <v>0.04488917196183029</v>
+        <v>0.09413267381672057</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02794269564666672</v>
+        <v>0.02316181054895961</v>
       </c>
       <c r="G123" t="n">
-        <v>0.04567670129449398</v>
+        <v>0.09515324524717145</v>
       </c>
       <c r="J123" t="n">
-        <v>0.06991879391832606</v>
+        <v>0.02510691086796665</v>
       </c>
       <c r="K123" t="n">
-        <v>0.04544734420352104</v>
+        <v>0.09586442902135944</v>
       </c>
       <c r="L123" t="n">
-        <v>0.1112444166403292</v>
+        <v>0.06230590259332278</v>
       </c>
       <c r="M123" t="n">
-        <v>0.04509053707298056</v>
+        <v>0.09566940311055541</v>
       </c>
       <c r="N123" t="n">
-        <v>0.02794269564666672</v>
+        <v>0.1004264361407605</v>
       </c>
       <c r="O123" t="n">
-        <v>0.04567670129449398</v>
+        <v>0.09578412423455777</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02802526273894877</v>
+        <v>0.02193641604993741</v>
       </c>
       <c r="G124" t="n">
-        <v>0.04646423062715768</v>
+        <v>0.0967938184410882</v>
       </c>
       <c r="J124" t="n">
-        <v>0.06955312944608999</v>
+        <v>0.02507199780369997</v>
       </c>
       <c r="K124" t="n">
-        <v>0.04623091910358175</v>
+        <v>0.09751726400448632</v>
       </c>
       <c r="L124" t="n">
-        <v>0.1120599041515879</v>
+        <v>0.06201323371404549</v>
       </c>
       <c r="M124" t="n">
-        <v>0.04586796012596299</v>
+        <v>0.09731887557797878</v>
       </c>
       <c r="N124" t="n">
-        <v>0.02802526273894877</v>
+        <v>0.09888552735219108</v>
       </c>
       <c r="O124" t="n">
-        <v>0.04646423062715768</v>
+        <v>0.09743557465239498</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02810289149162641</v>
+        <v>0.02170520954092558</v>
       </c>
       <c r="G125" t="n">
-        <v>0.04725175995982136</v>
+        <v>0.09843439163500495</v>
       </c>
       <c r="J125" t="n">
-        <v>0.06956779213536626</v>
+        <v>0.02482665769456471</v>
       </c>
       <c r="K125" t="n">
-        <v>0.04701449400364246</v>
+        <v>0.09917009898761321</v>
       </c>
       <c r="L125" t="n">
-        <v>0.1111451679725505</v>
+        <v>0.06129743655825703</v>
       </c>
       <c r="M125" t="n">
-        <v>0.04664538317894541</v>
+        <v>0.09896834804540215</v>
       </c>
       <c r="N125" t="n">
-        <v>0.02810289149162641</v>
+        <v>0.09780495848427412</v>
       </c>
       <c r="O125" t="n">
-        <v>0.04725175995982136</v>
+        <v>0.09908702507023218</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02787568733602802</v>
+        <v>0.02147171025420239</v>
       </c>
       <c r="G126" t="n">
-        <v>0.04803928929248505</v>
+        <v>0.1000749648289217</v>
       </c>
       <c r="J126" t="n">
-        <v>0.06966353972503997</v>
+        <v>0.02447478434217931</v>
       </c>
       <c r="K126" t="n">
-        <v>0.04779806890370316</v>
+        <v>0.1008229339707401</v>
       </c>
       <c r="L126" t="n">
-        <v>0.1117010825921645</v>
+        <v>0.06106815626472972</v>
       </c>
       <c r="M126" t="n">
-        <v>0.04742280623192783</v>
+        <v>0.1006178205128255</v>
       </c>
       <c r="N126" t="n">
-        <v>0.02787568733602802</v>
+        <v>0.09760020526869922</v>
       </c>
       <c r="O126" t="n">
-        <v>0.04803928929248505</v>
+        <v>0.1007384754880694</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02794375570348202</v>
+        <v>0.02023943742204615</v>
       </c>
       <c r="G127" t="n">
-        <v>0.04882681862514874</v>
+        <v>0.1017155380228384</v>
       </c>
       <c r="J127" t="n">
-        <v>0.06944112995399623</v>
+        <v>0.02412027154816219</v>
       </c>
       <c r="K127" t="n">
-        <v>0.04858164380376387</v>
+        <v>0.102475768953867</v>
       </c>
       <c r="L127" t="n">
-        <v>0.1106285224993769</v>
+        <v>0.06013503797223602</v>
       </c>
       <c r="M127" t="n">
-        <v>0.04820022928491025</v>
+        <v>0.1022672929802489</v>
       </c>
       <c r="N127" t="n">
-        <v>0.02794375570348202</v>
+        <v>0.09678674343715632</v>
       </c>
       <c r="O127" t="n">
-        <v>0.04882681862514874</v>
+        <v>0.1023899259059066</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02800720202531679</v>
+        <v>0.02201191027673507</v>
       </c>
       <c r="G128" t="n">
-        <v>0.04961434795781243</v>
+        <v>0.1033561112167552</v>
       </c>
       <c r="J128" t="n">
-        <v>0.06910132056112014</v>
+        <v>0.02386701311413179</v>
       </c>
       <c r="K128" t="n">
-        <v>0.04936521870382458</v>
+        <v>0.1041286039369939</v>
       </c>
       <c r="L128" t="n">
-        <v>0.1104283621831351</v>
+        <v>0.05940772681954828</v>
       </c>
       <c r="M128" t="n">
-        <v>0.04897765233789268</v>
+        <v>0.1039167654476723</v>
       </c>
       <c r="N128" t="n">
-        <v>0.02800720202531679</v>
+        <v>0.0953800487213351</v>
       </c>
       <c r="O128" t="n">
-        <v>0.04961434795781243</v>
+        <v>0.1040413763237438</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02796613173286069</v>
+        <v>0.02179264805054746</v>
       </c>
       <c r="G129" t="n">
-        <v>0.05040187729047612</v>
+        <v>0.1049966844106719</v>
       </c>
       <c r="J129" t="n">
-        <v>0.06894486928529686</v>
+        <v>0.0237189028417065</v>
       </c>
       <c r="K129" t="n">
-        <v>0.05014879360388529</v>
+        <v>0.1057814389201208</v>
       </c>
       <c r="L129" t="n">
-        <v>0.1106014761323862</v>
+        <v>0.058595867945439</v>
       </c>
       <c r="M129" t="n">
-        <v>0.04975507539087511</v>
+        <v>0.1055662379150956</v>
       </c>
       <c r="N129" t="n">
-        <v>0.02796613173286069</v>
+        <v>0.0940955968529254</v>
       </c>
       <c r="O129" t="n">
-        <v>0.05040187729047612</v>
+        <v>0.105692826741581</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.02772065025744215</v>
+        <v>0.01958221001375723</v>
       </c>
       <c r="G130" t="n">
-        <v>0.05118940662313981</v>
+        <v>0.1066372576045887</v>
       </c>
       <c r="J130" t="n">
-        <v>0.06867253386541147</v>
+        <v>0.02347983453250475</v>
       </c>
       <c r="K130" t="n">
-        <v>0.05093236850394599</v>
+        <v>0.1074342739032476</v>
       </c>
       <c r="L130" t="n">
-        <v>0.1099487388360776</v>
+        <v>0.05800910648868052</v>
       </c>
       <c r="M130" t="n">
-        <v>0.05053249844385752</v>
+        <v>0.107215710382519</v>
       </c>
       <c r="N130" t="n">
-        <v>0.02772065025744215</v>
+        <v>0.09324886356361689</v>
       </c>
       <c r="O130" t="n">
-        <v>0.05118940662313981</v>
+        <v>0.1073442771594182</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02777086303038957</v>
+        <v>0.02135613815166713</v>
       </c>
       <c r="G131" t="n">
-        <v>0.05197693595580349</v>
+        <v>0.1082778307985054</v>
       </c>
       <c r="J131" t="n">
-        <v>0.06858507204034905</v>
+        <v>0.02325040164797816</v>
       </c>
       <c r="K131" t="n">
-        <v>0.0517159434040067</v>
+        <v>0.1090871088863745</v>
       </c>
       <c r="L131" t="n">
-        <v>0.1105710247831563</v>
+        <v>0.05733380971785373</v>
       </c>
       <c r="M131" t="n">
-        <v>0.05130992149683995</v>
+        <v>0.1088651828499424</v>
       </c>
       <c r="N131" t="n">
-        <v>0.02777086303038957</v>
+        <v>0.09183373786554949</v>
       </c>
       <c r="O131" t="n">
-        <v>0.05197693595580349</v>
+        <v>0.1089957275772554</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.0277168754830313</v>
+        <v>0.02011224588997754</v>
       </c>
       <c r="G132" t="n">
-        <v>0.05276446528846719</v>
+        <v>0.1099184039924222</v>
       </c>
       <c r="J132" t="n">
-        <v>0.06828324154899479</v>
+        <v>0.02300375437457289</v>
       </c>
       <c r="K132" t="n">
-        <v>0.05249951830406741</v>
+        <v>0.1107399438695014</v>
       </c>
       <c r="L132" t="n">
-        <v>0.1103692084625697</v>
+        <v>0.05720592049702375</v>
       </c>
       <c r="M132" t="n">
-        <v>0.05208734454982238</v>
+        <v>0.1105146553173657</v>
       </c>
       <c r="N132" t="n">
-        <v>0.0277168754830313</v>
+        <v>0.09194209389387903</v>
       </c>
       <c r="O132" t="n">
-        <v>0.05276446528846719</v>
+        <v>0.1106471779950926</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.02775879304669575</v>
+        <v>0.01985557101072575</v>
       </c>
       <c r="G133" t="n">
-        <v>0.05355199462113088</v>
+        <v>0.1115589771863389</v>
       </c>
       <c r="J133" t="n">
-        <v>0.06866780013023374</v>
+        <v>0.02263761051189009</v>
       </c>
       <c r="K133" t="n">
-        <v>0.05328309320412811</v>
+        <v>0.1123927788526283</v>
       </c>
       <c r="L133" t="n">
-        <v>0.109944164363265</v>
+        <v>0.05653335410638452</v>
       </c>
       <c r="M133" t="n">
-        <v>0.05286476760280481</v>
+        <v>0.1121641277847891</v>
       </c>
       <c r="N133" t="n">
-        <v>0.02775879304669575</v>
+        <v>0.09087534836180572</v>
       </c>
       <c r="O133" t="n">
-        <v>0.05355199462113088</v>
+        <v>0.1122986284129298</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.02759672115271129</v>
+        <v>0.01859115129594906</v>
       </c>
       <c r="G134" t="n">
-        <v>0.05433952395379457</v>
+        <v>0.1131995503802557</v>
       </c>
       <c r="J134" t="n">
-        <v>0.06813950552295103</v>
+        <v>0.02235754403808725</v>
       </c>
       <c r="K134" t="n">
-        <v>0.05406666810418882</v>
+        <v>0.1140456138357552</v>
       </c>
       <c r="L134" t="n">
-        <v>0.1091967669741895</v>
+        <v>0.05602991756491418</v>
       </c>
       <c r="M134" t="n">
-        <v>0.05364219065578722</v>
+        <v>0.1138136002522125</v>
       </c>
       <c r="N134" t="n">
-        <v>0.02759672115271129</v>
+        <v>0.08955565478377692</v>
       </c>
       <c r="O134" t="n">
-        <v>0.05433952395379457</v>
+        <v>0.113950078830767</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.02753076523240633</v>
+        <v>0.01932402452768477</v>
       </c>
       <c r="G135" t="n">
-        <v>0.05512705328645826</v>
+        <v>0.1148401235741724</v>
       </c>
       <c r="J135" t="n">
-        <v>0.06749911546603177</v>
+        <v>0.0220691289313218</v>
       </c>
       <c r="K135" t="n">
-        <v>0.05485024300424954</v>
+        <v>0.1156984488188821</v>
       </c>
       <c r="L135" t="n">
-        <v>0.1088278907842903</v>
+        <v>0.05500941789159108</v>
       </c>
       <c r="M135" t="n">
-        <v>0.05441961370876965</v>
+        <v>0.1154630727196358</v>
       </c>
       <c r="N135" t="n">
-        <v>0.02753076523240633</v>
+        <v>0.08770516667424028</v>
       </c>
       <c r="O135" t="n">
-        <v>0.05512705328645826</v>
+        <v>0.1156015292486042</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.02746103071710927</v>
+        <v>0.0200592284879702</v>
       </c>
       <c r="G136" t="n">
-        <v>0.05591458261912195</v>
+        <v>0.1164806967680892</v>
       </c>
       <c r="J136" t="n">
-        <v>0.06724738769836106</v>
+        <v>0.02177793916975124</v>
       </c>
       <c r="K136" t="n">
-        <v>0.05563381790431024</v>
+        <v>0.117351283802009</v>
       </c>
       <c r="L136" t="n">
-        <v>0.1082384102825148</v>
+        <v>0.05428566210539343</v>
       </c>
       <c r="M136" t="n">
-        <v>0.05519703676175206</v>
+        <v>0.1171125451870592</v>
       </c>
       <c r="N136" t="n">
-        <v>0.02746103071710927</v>
+        <v>0.08654603754764328</v>
       </c>
       <c r="O136" t="n">
-        <v>0.05591458261912195</v>
+        <v>0.1172529796664414</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.0273876230381485</v>
+        <v>0.01880180095884263</v>
       </c>
       <c r="G137" t="n">
-        <v>0.05670211195178564</v>
+        <v>0.1181212699620059</v>
       </c>
       <c r="J137" t="n">
-        <v>0.06728507995882405</v>
+        <v>0.02148954873153298</v>
       </c>
       <c r="K137" t="n">
-        <v>0.05641739280437095</v>
+        <v>0.1190041187851359</v>
       </c>
       <c r="L137" t="n">
-        <v>0.10742919995781</v>
+        <v>0.05367245722529945</v>
       </c>
       <c r="M137" t="n">
-        <v>0.05597445981473449</v>
+        <v>0.1187620176544826</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0273876230381485</v>
+        <v>0.0863004209184336</v>
       </c>
       <c r="O137" t="n">
-        <v>0.05670211195178564</v>
+        <v>0.1189044300842786</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.02721064762685239</v>
+        <v>0.01755677972233937</v>
       </c>
       <c r="G138" t="n">
-        <v>0.05748964128444933</v>
+        <v>0.1197618431559227</v>
       </c>
       <c r="J138" t="n">
-        <v>0.0670129499863058</v>
+        <v>0.02120953159482453</v>
       </c>
       <c r="K138" t="n">
-        <v>0.05720096770443165</v>
+        <v>0.1206569537682627</v>
       </c>
       <c r="L138" t="n">
-        <v>0.1070011342991234</v>
+        <v>0.0528836102702874</v>
       </c>
       <c r="M138" t="n">
-        <v>0.05675188286771692</v>
+        <v>0.120411490121906</v>
       </c>
       <c r="N138" t="n">
-        <v>0.02721064762685239</v>
+        <v>0.08489047030105845</v>
       </c>
       <c r="O138" t="n">
-        <v>0.05748964128444933</v>
+        <v>0.1205558805021158</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.02723020991454933</v>
+        <v>0.01832920256049773</v>
       </c>
       <c r="G139" t="n">
-        <v>0.05827717061711302</v>
+        <v>0.1214024163498394</v>
       </c>
       <c r="J139" t="n">
-        <v>0.06683175551969148</v>
+        <v>0.02114346173778332</v>
       </c>
       <c r="K139" t="n">
-        <v>0.05798454260449235</v>
+        <v>0.1223097887513896</v>
       </c>
       <c r="L139" t="n">
-        <v>0.107355087795402</v>
+        <v>0.05253292825933553</v>
       </c>
       <c r="M139" t="n">
-        <v>0.05752930592069933</v>
+        <v>0.1220609625893293</v>
       </c>
       <c r="N139" t="n">
-        <v>0.02723020991454933</v>
+        <v>0.08403833920996573</v>
       </c>
       <c r="O139" t="n">
-        <v>0.05827717061711302</v>
+        <v>0.122207330919953</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.02704641533256773</v>
+        <v>0.01712410725535501</v>
       </c>
       <c r="G140" t="n">
-        <v>0.05906469994977671</v>
+        <v>0.1230429895437562</v>
       </c>
       <c r="J140" t="n">
-        <v>0.06674225429786618</v>
+        <v>0.02069691313856684</v>
       </c>
       <c r="K140" t="n">
-        <v>0.05876811750455307</v>
+        <v>0.1239626237345165</v>
       </c>
       <c r="L140" t="n">
-        <v>0.1069919349355933</v>
+        <v>0.05153421821142209</v>
       </c>
       <c r="M140" t="n">
-        <v>0.05830672897368176</v>
+        <v>0.1237104350567527</v>
       </c>
       <c r="N140" t="n">
-        <v>0.02704641533256773</v>
+        <v>0.08216618115960272</v>
       </c>
       <c r="O140" t="n">
-        <v>0.05906469994977671</v>
+        <v>0.1238587813377902</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.02705936931223596</v>
+        <v>0.01794653158894851</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0598522292824404</v>
+        <v>0.1246835627376729</v>
       </c>
       <c r="J141" t="n">
-        <v>0.06624520405971498</v>
+        <v>0.02067545977533253</v>
       </c>
       <c r="K141" t="n">
-        <v>0.05955169240461378</v>
+        <v>0.1256154587176434</v>
       </c>
       <c r="L141" t="n">
-        <v>0.1065125502086443</v>
+        <v>0.0508012871455254</v>
       </c>
       <c r="M141" t="n">
-        <v>0.05908415202666419</v>
+        <v>0.1253599075241761</v>
       </c>
       <c r="N141" t="n">
-        <v>0.02705936931223596</v>
+        <v>0.08139614966441711</v>
       </c>
       <c r="O141" t="n">
-        <v>0.0598522292824404</v>
+        <v>0.1255102317556274</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.02696917728488243</v>
+        <v>0.01880151334331554</v>
       </c>
       <c r="G142" t="n">
-        <v>0.06063975861510409</v>
+        <v>0.1263241359315897</v>
       </c>
       <c r="J142" t="n">
-        <v>0.06624136254412302</v>
+        <v>0.02028467562623784</v>
       </c>
       <c r="K142" t="n">
-        <v>0.06033526730467448</v>
+        <v>0.1272682937007703</v>
       </c>
       <c r="L142" t="n">
-        <v>0.1061178081035024</v>
+        <v>0.05064794208062354</v>
       </c>
       <c r="M142" t="n">
-        <v>0.0598615750796466</v>
+        <v>0.1270093799915994</v>
       </c>
       <c r="N142" t="n">
-        <v>0.02696917728488243</v>
+        <v>0.08135039823885637</v>
       </c>
       <c r="O142" t="n">
-        <v>0.06063975861510409</v>
+        <v>0.1271616821734646</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.02687594468183553</v>
+        <v>0.0176940903004934</v>
       </c>
       <c r="G143" t="n">
-        <v>0.06142728794776777</v>
+        <v>0.1279647091255064</v>
       </c>
       <c r="J143" t="n">
-        <v>0.0652314874899754</v>
+        <v>0.02033013466944025</v>
       </c>
       <c r="K143" t="n">
-        <v>0.0611188422047352</v>
+        <v>0.1289211286838972</v>
       </c>
       <c r="L143" t="n">
-        <v>0.1052085831091146</v>
+        <v>0.05018799003569491</v>
       </c>
       <c r="M143" t="n">
-        <v>0.06063899813262903</v>
+        <v>0.1286588524590228</v>
       </c>
       <c r="N143" t="n">
-        <v>0.02687594468183553</v>
+        <v>0.08015108039736801</v>
       </c>
       <c r="O143" t="n">
-        <v>0.06142728794776777</v>
+        <v>0.1288131325913018</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.02687977693442363</v>
+        <v>0.01662930024251939</v>
       </c>
       <c r="G144" t="n">
-        <v>0.06221481728043146</v>
+        <v>0.1296052823194232</v>
       </c>
       <c r="J144" t="n">
-        <v>0.06561633663615726</v>
+        <v>0.02011741088309721</v>
       </c>
       <c r="K144" t="n">
-        <v>0.0619024171047959</v>
+        <v>0.1305739636670241</v>
       </c>
       <c r="L144" t="n">
-        <v>0.1044857497144284</v>
+        <v>0.05003523802971768</v>
       </c>
       <c r="M144" t="n">
-        <v>0.06141642118561146</v>
+        <v>0.1303083249264461</v>
       </c>
       <c r="N144" t="n">
-        <v>0.02687977693442363</v>
+        <v>0.08032034965439971</v>
       </c>
       <c r="O144" t="n">
-        <v>0.06221481728043146</v>
+        <v>0.130464583009139</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.02668077947397511</v>
+        <v>0.0186116061525192</v>
       </c>
       <c r="G145" t="n">
-        <v>0.06300234661309516</v>
+        <v>0.1312458555133399</v>
       </c>
       <c r="J145" t="n">
-        <v>0.06519666772155369</v>
+        <v>0.0201520782453662</v>
       </c>
       <c r="K145" t="n">
-        <v>0.06268599200485661</v>
+        <v>0.132226798650151</v>
       </c>
       <c r="L145" t="n">
-        <v>0.1045501824083909</v>
+        <v>0.04980349308167012</v>
       </c>
       <c r="M145" t="n">
-        <v>0.06219384423859388</v>
+        <v>0.1319577973938695</v>
       </c>
       <c r="N145" t="n">
-        <v>0.02668077947397511</v>
+        <v>0.07938035952439876</v>
       </c>
       <c r="O145" t="n">
-        <v>0.06300234661309516</v>
+        <v>0.1321160334269762</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.02647905773181841</v>
+        <v>0.01661650873174326</v>
       </c>
       <c r="G146" t="n">
-        <v>0.06378987594575884</v>
+        <v>0.1328864287072567</v>
       </c>
       <c r="J146" t="n">
-        <v>0.06477323848504976</v>
+        <v>0.02003782854425704</v>
       </c>
       <c r="K146" t="n">
-        <v>0.06346956690491731</v>
+        <v>0.1338796336332778</v>
       </c>
       <c r="L146" t="n">
-        <v>0.1039027556799493</v>
+        <v>0.04979003112668109</v>
       </c>
       <c r="M146" t="n">
-        <v>0.0629712672915763</v>
+        <v>0.1336072698612929</v>
       </c>
       <c r="N146" t="n">
-        <v>0.02647905773181841</v>
+        <v>0.07943938815884644</v>
       </c>
       <c r="O146" t="n">
-        <v>0.06378987594575884</v>
+        <v>0.1337674838448134</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.02637471713928188</v>
+        <v>0.01862854973839592</v>
       </c>
       <c r="G147" t="n">
-        <v>0.06457740527842253</v>
+        <v>0.1345270019011734</v>
       </c>
       <c r="J147" t="n">
-        <v>0.06464680666553069</v>
+        <v>0.02014414181170844</v>
       </c>
       <c r="K147" t="n">
-        <v>0.06425314180497801</v>
+        <v>0.1355324686164047</v>
       </c>
       <c r="L147" t="n">
-        <v>0.1031443440180509</v>
+        <v>0.05001045661604611</v>
       </c>
       <c r="M147" t="n">
-        <v>0.06374869034455873</v>
+        <v>0.1352567423287163</v>
       </c>
       <c r="N147" t="n">
-        <v>0.02637471713928188</v>
+        <v>0.07956764650279885</v>
       </c>
       <c r="O147" t="n">
-        <v>0.06457740527842253</v>
+        <v>0.1354189342626506</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.02646786312769393</v>
+        <v>0.01664735899808818</v>
       </c>
       <c r="G148" t="n">
-        <v>0.06536493461108622</v>
+        <v>0.1361675750950902</v>
       </c>
       <c r="J148" t="n">
-        <v>0.06391813000188146</v>
+        <v>0.01995824365780231</v>
       </c>
       <c r="K148" t="n">
-        <v>0.06503671670503873</v>
+        <v>0.1371853035995316</v>
       </c>
       <c r="L148" t="n">
-        <v>0.102875821911643</v>
+        <v>0.05004997215216023</v>
       </c>
       <c r="M148" t="n">
-        <v>0.06452611339754115</v>
+        <v>0.1369062147961397</v>
       </c>
       <c r="N148" t="n">
-        <v>0.02646786312769393</v>
+        <v>0.0798267264622135</v>
       </c>
       <c r="O148" t="n">
-        <v>0.06536493461108622</v>
+        <v>0.1370703846804879</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.02625860112838294</v>
+        <v>0.01667256633643106</v>
       </c>
       <c r="G149" t="n">
-        <v>0.06615246394374991</v>
+        <v>0.1378081482890069</v>
       </c>
       <c r="J149" t="n">
-        <v>0.06358796623298729</v>
+        <v>0.0200797245086541</v>
       </c>
       <c r="K149" t="n">
-        <v>0.06582029160509943</v>
+        <v>0.1388381385826585</v>
       </c>
       <c r="L149" t="n">
-        <v>0.1021980638496728</v>
+        <v>0.0502075632002984</v>
       </c>
       <c r="M149" t="n">
-        <v>0.06530353645052357</v>
+        <v>0.138555687263563</v>
       </c>
       <c r="N149" t="n">
-        <v>0.02625860112838294</v>
+        <v>0.07971500020491873</v>
       </c>
       <c r="O149" t="n">
-        <v>0.06615246394374991</v>
+        <v>0.1387218350983251</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.02604703657267729</v>
+        <v>0.01670380157903555</v>
       </c>
       <c r="G150" t="n">
-        <v>0.0669399932764136</v>
+        <v>0.1394487214829237</v>
       </c>
       <c r="J150" t="n">
-        <v>0.06355707309773329</v>
+        <v>0.0200081747903792</v>
       </c>
       <c r="K150" t="n">
-        <v>0.06660386650516015</v>
+        <v>0.1404909735657854</v>
       </c>
       <c r="L150" t="n">
-        <v>0.1016119443210874</v>
+        <v>0.05038221522573549</v>
       </c>
       <c r="M150" t="n">
-        <v>0.066080959503506</v>
+        <v>0.1402051597309864</v>
       </c>
       <c r="N150" t="n">
-        <v>0.02604703657267729</v>
+        <v>0.08023083989874263</v>
       </c>
       <c r="O150" t="n">
-        <v>0.0669399932764136</v>
+        <v>0.1403732855161622</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.0259332748919054</v>
+        <v>0.01774069455151267</v>
       </c>
       <c r="G151" t="n">
-        <v>0.06772752260907729</v>
+        <v>0.1410892946768404</v>
       </c>
       <c r="J151" t="n">
-        <v>0.06282620833500446</v>
+        <v>0.02004318492909302</v>
       </c>
       <c r="K151" t="n">
-        <v>0.06738744140522086</v>
+        <v>0.1421438085489123</v>
       </c>
       <c r="L151" t="n">
-        <v>0.1011183378148341</v>
+        <v>0.04977291369374653</v>
       </c>
       <c r="M151" t="n">
-        <v>0.06685838255648842</v>
+        <v>0.1418546321984098</v>
       </c>
       <c r="N151" t="n">
-        <v>0.0259332748919054</v>
+        <v>0.07977261771151339</v>
       </c>
       <c r="O151" t="n">
-        <v>0.06772752260907729</v>
+        <v>0.1420247359339994</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.02591742151739565</v>
+        <v>0.01878287507947339</v>
       </c>
       <c r="G152" t="n">
-        <v>0.06851505194174097</v>
+        <v>0.1427298678707572</v>
       </c>
       <c r="J152" t="n">
-        <v>0.062596129683686</v>
+        <v>0.02008434535091094</v>
       </c>
       <c r="K152" t="n">
-        <v>0.06817101630528156</v>
+        <v>0.1437966435320392</v>
       </c>
       <c r="L152" t="n">
-        <v>0.1003181188198602</v>
+        <v>0.05057864406960641</v>
       </c>
       <c r="M152" t="n">
-        <v>0.06763580560947084</v>
+        <v>0.1435041046658331</v>
       </c>
       <c r="N152" t="n">
-        <v>0.02591742151739565</v>
+        <v>0.08073870581105935</v>
       </c>
       <c r="O152" t="n">
-        <v>0.06851505194174097</v>
+        <v>0.1436761863518367</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.02579958188047639</v>
+        <v>0.01682997298852874</v>
       </c>
       <c r="G153" t="n">
-        <v>0.06930258127440467</v>
+        <v>0.1443704410646739</v>
       </c>
       <c r="J153" t="n">
-        <v>0.06246759488266304</v>
+        <v>0.02013124648194843</v>
       </c>
       <c r="K153" t="n">
-        <v>0.06895459120534227</v>
+        <v>0.145449478515166</v>
       </c>
       <c r="L153" t="n">
-        <v>0.09921216182511305</v>
+        <v>0.05029839181859008</v>
       </c>
       <c r="M153" t="n">
-        <v>0.06841322866245327</v>
+        <v>0.1451535771332565</v>
       </c>
       <c r="N153" t="n">
-        <v>0.02579958188047639</v>
+        <v>0.08092747636520875</v>
       </c>
       <c r="O153" t="n">
-        <v>0.06930258127440467</v>
+        <v>0.1453276367696739</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.02557986141247608</v>
+        <v>0.0178816181042897</v>
       </c>
       <c r="G154" t="n">
-        <v>0.07009011060706835</v>
+        <v>0.1460110142585907</v>
       </c>
       <c r="J154" t="n">
-        <v>0.06183237706223343</v>
+        <v>0.02018347874832087</v>
       </c>
       <c r="K154" t="n">
-        <v>0.06973816610540297</v>
+        <v>0.1471023134982929</v>
       </c>
       <c r="L154" t="n">
-        <v>0.09850134131953964</v>
+        <v>0.05013114240597247</v>
       </c>
       <c r="M154" t="n">
-        <v>0.06919065171543569</v>
+        <v>0.1468030496006799</v>
       </c>
       <c r="N154" t="n">
-        <v>0.02557986141247608</v>
+        <v>0.08043730154178952</v>
       </c>
       <c r="O154" t="n">
-        <v>0.07009011060706835</v>
+        <v>0.146979087187511</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.02545836554472306</v>
+        <v>0.01893744025236729</v>
       </c>
       <c r="G155" t="n">
-        <v>0.07087763993973205</v>
+        <v>0.1476515874525074</v>
       </c>
       <c r="J155" t="n">
-        <v>0.06155201130023888</v>
+        <v>0.02044063257614367</v>
       </c>
       <c r="K155" t="n">
-        <v>0.07052174100546367</v>
+        <v>0.1487551484814198</v>
       </c>
       <c r="L155" t="n">
-        <v>0.09778653179208735</v>
+        <v>0.05097588129702851</v>
       </c>
       <c r="M155" t="n">
-        <v>0.06996807476841811</v>
+        <v>0.1484525220681032</v>
       </c>
       <c r="N155" t="n">
-        <v>0.02545836554472306</v>
+        <v>0.08046655350863025</v>
       </c>
       <c r="O155" t="n">
-        <v>0.07087763993973205</v>
+        <v>0.1486305376053483</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.02553519970854574</v>
+        <v>0.01899706925837251</v>
       </c>
       <c r="G156" t="n">
-        <v>0.07166516927239573</v>
+        <v>0.1492921606464242</v>
       </c>
       <c r="J156" t="n">
-        <v>0.06112456390520613</v>
+        <v>0.02050229839153225</v>
       </c>
       <c r="K156" t="n">
-        <v>0.0713053159055244</v>
+        <v>0.1504079834645467</v>
       </c>
       <c r="L156" t="n">
-        <v>0.09776860773170326</v>
+        <v>0.05113159395703315</v>
       </c>
       <c r="M156" t="n">
-        <v>0.07074549782140054</v>
+        <v>0.1501019945355266</v>
       </c>
       <c r="N156" t="n">
-        <v>0.02553519970854574</v>
+        <v>0.08171360443355891</v>
       </c>
       <c r="O156" t="n">
-        <v>0.07166516927239573</v>
+        <v>0.1502819880231855</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.0254104693352725</v>
+        <v>0.01906114337544437</v>
       </c>
       <c r="G157" t="n">
-        <v>0.07245269860505943</v>
+        <v>0.1509327338403409</v>
       </c>
       <c r="J157" t="n">
-        <v>0.06085298804237083</v>
+        <v>0.02036806662060203</v>
       </c>
       <c r="K157" t="n">
-        <v>0.0720888908055851</v>
+        <v>0.1520608184476736</v>
       </c>
       <c r="L157" t="n">
-        <v>0.09704844362733478</v>
+        <v>0.0509972658512613</v>
       </c>
       <c r="M157" t="n">
-        <v>0.07152292087438296</v>
+        <v>0.15175146700295</v>
       </c>
       <c r="N157" t="n">
-        <v>0.0254104693352725</v>
+        <v>0.08087682648440375</v>
       </c>
       <c r="O157" t="n">
-        <v>0.07245269860505943</v>
+        <v>0.1519334384410227</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.02528427985623173</v>
+        <v>0.01716888065668556</v>
       </c>
       <c r="G158" t="n">
-        <v>0.07324022793772311</v>
+        <v>0.1525733070342577</v>
       </c>
       <c r="J158" t="n">
-        <v>0.06024023687696858</v>
+        <v>0.02064266121524096</v>
       </c>
       <c r="K158" t="n">
-        <v>0.0728724657056458</v>
+        <v>0.1537136534308005</v>
       </c>
       <c r="L158" t="n">
-        <v>0.09632691396792914</v>
+        <v>0.05080289368427537</v>
       </c>
       <c r="M158" t="n">
-        <v>0.0723003439273654</v>
+        <v>0.1534009394703733</v>
       </c>
       <c r="N158" t="n">
-        <v>0.02528427985623173</v>
+        <v>0.08138554459293723</v>
       </c>
       <c r="O158" t="n">
-        <v>0.07324022793772311</v>
+        <v>0.1535848888588599</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.02515673670275184</v>
+        <v>0.01933248997384705</v>
       </c>
       <c r="G159" t="n">
-        <v>0.0740277572703868</v>
+        <v>0.1542138802281744</v>
       </c>
       <c r="J159" t="n">
-        <v>0.05998926357423509</v>
+        <v>0.02057399185459539</v>
       </c>
       <c r="K159" t="n">
-        <v>0.07365604060570652</v>
+        <v>0.1553664884139274</v>
       </c>
       <c r="L159" t="n">
-        <v>0.09530489324243346</v>
+        <v>0.05186347584872125</v>
       </c>
       <c r="M159" t="n">
-        <v>0.07307776698034781</v>
+        <v>0.1550504119377967</v>
       </c>
       <c r="N159" t="n">
-        <v>0.02515673670275184</v>
+        <v>0.08193103341462532</v>
       </c>
       <c r="O159" t="n">
-        <v>0.0740277572703868</v>
+        <v>0.1552363392766971</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.02492794530616119</v>
+        <v>0.01754079665557274</v>
       </c>
       <c r="G160" t="n">
-        <v>0.07481528660305049</v>
+        <v>0.1558544534220912</v>
       </c>
       <c r="J160" t="n">
-        <v>0.05890302129940603</v>
+        <v>0.02086404139841048</v>
       </c>
       <c r="K160" t="n">
-        <v>0.07443961550576722</v>
+        <v>0.1570193233970543</v>
       </c>
       <c r="L160" t="n">
-        <v>0.09468325593979499</v>
+        <v>0.0522632486718998</v>
       </c>
       <c r="M160" t="n">
-        <v>0.07385519003333023</v>
+        <v>0.1566998844052201</v>
       </c>
       <c r="N160" t="n">
-        <v>0.02492794530616119</v>
+        <v>0.08310576753785714</v>
       </c>
       <c r="O160" t="n">
-        <v>0.07481528660305049</v>
+        <v>0.1568877896945343</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.02479801109778819</v>
+        <v>0.01978262603050653</v>
       </c>
       <c r="G161" t="n">
-        <v>0.07560281593571418</v>
+        <v>0.1574950266160079</v>
       </c>
       <c r="J161" t="n">
-        <v>0.05878446321771699</v>
+        <v>0.02110044579965241</v>
       </c>
       <c r="K161" t="n">
-        <v>0.07522319040582792</v>
+        <v>0.1586721583801811</v>
       </c>
       <c r="L161" t="n">
-        <v>0.09426287654896104</v>
+        <v>0.05227158579912813</v>
       </c>
       <c r="M161" t="n">
-        <v>0.07463261308631267</v>
+        <v>0.1583493568726435</v>
       </c>
       <c r="N161" t="n">
-        <v>0.02479801109778819</v>
+        <v>0.08436060663827954</v>
       </c>
       <c r="O161" t="n">
-        <v>0.07560281593571418</v>
+        <v>0.1585392401123715</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02456703950896122</v>
+        <v>0.02004680342729229</v>
       </c>
       <c r="G162" t="n">
-        <v>0.07639034526837787</v>
+        <v>0.1591355998099246</v>
       </c>
       <c r="J162" t="n">
-        <v>0.05813654249440373</v>
+        <v>0.02137084101128718</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07600676530588864</v>
+        <v>0.160324993363308</v>
       </c>
       <c r="L162" t="n">
-        <v>0.09373675384971647</v>
+        <v>0.05355786087572342</v>
       </c>
       <c r="M162" t="n">
-        <v>0.07541003613929508</v>
+        <v>0.1599988293400668</v>
       </c>
       <c r="N162" t="n">
-        <v>0.02456703950896122</v>
+        <v>0.08544641039153927</v>
       </c>
       <c r="O162" t="n">
-        <v>0.07639034526837787</v>
+        <v>0.1601906905302087</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.02463513597100869</v>
+        <v>0.01832215417457397</v>
       </c>
       <c r="G163" t="n">
-        <v>0.07717787460104156</v>
+        <v>0.1607761730038414</v>
       </c>
       <c r="J163" t="n">
-        <v>0.05726221229470177</v>
+        <v>0.02156286298628095</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07679034020594934</v>
+        <v>0.1619778283464349</v>
       </c>
       <c r="L163" t="n">
-        <v>0.09303305895880559</v>
+        <v>0.05369144754700281</v>
       </c>
       <c r="M163" t="n">
-        <v>0.0761874591922775</v>
+        <v>0.1616483018074902</v>
       </c>
       <c r="N163" t="n">
-        <v>0.02463513597100869</v>
+        <v>0.08611403847328297</v>
       </c>
       <c r="O163" t="n">
-        <v>0.07717787460104156</v>
+        <v>0.1618421409480459</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.02440240591525898</v>
+        <v>0.01959750360099543</v>
       </c>
       <c r="G164" t="n">
-        <v>0.07796540393370525</v>
+        <v>0.1624167461977582</v>
       </c>
       <c r="J164" t="n">
-        <v>0.05626442578384688</v>
+        <v>0.02196414767759984</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07757391510601006</v>
+        <v>0.1636306633295618</v>
       </c>
       <c r="L164" t="n">
-        <v>0.09204009235299826</v>
+        <v>0.05464171945828342</v>
       </c>
       <c r="M164" t="n">
-        <v>0.07696488224525992</v>
+        <v>0.1632977742749135</v>
       </c>
       <c r="N164" t="n">
-        <v>0.02440240591525898</v>
+        <v>0.08761435055915762</v>
       </c>
       <c r="O164" t="n">
-        <v>0.07796540393370525</v>
+        <v>0.1634935913658831</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.02416895477304049</v>
+        <v>0.01986167703520056</v>
       </c>
       <c r="G165" t="n">
-        <v>0.07875293326636894</v>
+        <v>0.1640573193916749</v>
       </c>
       <c r="J165" t="n">
-        <v>0.05544613612707466</v>
+        <v>0.02216233103820991</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07835749000607076</v>
+        <v>0.1652834983126887</v>
       </c>
       <c r="L165" t="n">
-        <v>0.0912650894977487</v>
+        <v>0.05547805025488239</v>
       </c>
       <c r="M165" t="n">
-        <v>0.07774230529824235</v>
+        <v>0.1649472467423369</v>
       </c>
       <c r="N165" t="n">
-        <v>0.02416895477304049</v>
+        <v>0.08869820632480996</v>
       </c>
       <c r="O165" t="n">
-        <v>0.07875293326636894</v>
+        <v>0.1651450417837203</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02403488797568157</v>
+        <v>0.02010349980583327</v>
       </c>
       <c r="G166" t="n">
-        <v>0.07954046259903262</v>
+        <v>0.1656978925855916</v>
       </c>
       <c r="J166" t="n">
-        <v>0.05471029648962081</v>
+        <v>0.02254504902107732</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07914106490613146</v>
+        <v>0.1669363332958156</v>
       </c>
       <c r="L166" t="n">
-        <v>0.09101528585851104</v>
+        <v>0.0563698135821169</v>
       </c>
       <c r="M166" t="n">
-        <v>0.07851972835122478</v>
+        <v>0.1665967192097603</v>
       </c>
       <c r="N166" t="n">
-        <v>0.02403488797568157</v>
+        <v>0.08991646544588672</v>
       </c>
       <c r="O166" t="n">
-        <v>0.07954046259903262</v>
+        <v>0.1667964922015575</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02410031095451066</v>
+        <v>0.02131251938413761</v>
       </c>
       <c r="G167" t="n">
-        <v>0.08032799193169632</v>
+        <v>0.1673384657795084</v>
       </c>
       <c r="J167" t="n">
-        <v>0.05405986003672095</v>
+        <v>0.02279993757916812</v>
       </c>
       <c r="K167" t="n">
-        <v>0.07992463980619217</v>
+        <v>0.1685891682789425</v>
       </c>
       <c r="L167" t="n">
-        <v>0.08949791690073949</v>
+        <v>0.05648638308530404</v>
       </c>
       <c r="M167" t="n">
-        <v>0.07929715140420719</v>
+        <v>0.1682461916771837</v>
       </c>
       <c r="N167" t="n">
-        <v>0.02410031095451066</v>
+        <v>0.09061998759803469</v>
       </c>
       <c r="O167" t="n">
-        <v>0.08032799193169632</v>
+        <v>0.1684479426193947</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02386532914085611</v>
+        <v>0.02050531464043853</v>
       </c>
       <c r="G168" t="n">
-        <v>0.08111552126436</v>
+        <v>0.1689790389734252</v>
       </c>
       <c r="J168" t="n">
-        <v>0.05349777993361077</v>
+        <v>0.02301945832441535</v>
       </c>
       <c r="K168" t="n">
-        <v>0.08070821470625289</v>
+        <v>0.1702420032620694</v>
       </c>
       <c r="L168" t="n">
-        <v>0.08902021808988825</v>
+        <v>0.05722158340174452</v>
       </c>
       <c r="M168" t="n">
-        <v>0.08007457445718962</v>
+        <v>0.169895664144607</v>
       </c>
       <c r="N168" t="n">
-        <v>0.02386532914085611</v>
+        <v>0.09218615179731882</v>
       </c>
       <c r="O168" t="n">
-        <v>0.08111552126436</v>
+        <v>0.1700993930372319</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02373004796604634</v>
+        <v>0.02069333940680716</v>
       </c>
       <c r="G169" t="n">
-        <v>0.0819030505970237</v>
+        <v>0.1706196121673419</v>
       </c>
       <c r="J169" t="n">
-        <v>0.05282700934552589</v>
+        <v>0.02332809279450082</v>
       </c>
       <c r="K169" t="n">
-        <v>0.08149178960631359</v>
+        <v>0.1718948382451962</v>
       </c>
       <c r="L169" t="n">
-        <v>0.08718942489141157</v>
+        <v>0.05783793687505212</v>
       </c>
       <c r="M169" t="n">
-        <v>0.08085199751017205</v>
+        <v>0.1715451366120304</v>
       </c>
       <c r="N169" t="n">
-        <v>0.02373004796604634</v>
+        <v>0.09281506048881577</v>
       </c>
       <c r="O169" t="n">
-        <v>0.0819030505970237</v>
+        <v>0.1717508434550691</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02369457286140973</v>
+        <v>0.02187694817745221</v>
       </c>
       <c r="G170" t="n">
-        <v>0.08269057992968738</v>
+        <v>0.1722601853612586</v>
       </c>
       <c r="J170" t="n">
-        <v>0.051950501437702</v>
+        <v>0.02343160107150252</v>
       </c>
       <c r="K170" t="n">
-        <v>0.08227536450637429</v>
+        <v>0.1735476732283231</v>
       </c>
       <c r="L170" t="n">
-        <v>0.08661277277076362</v>
+        <v>0.05864175478367298</v>
       </c>
       <c r="M170" t="n">
-        <v>0.08162942056315446</v>
+        <v>0.1731946090794538</v>
       </c>
       <c r="N170" t="n">
-        <v>0.02369457286140973</v>
+        <v>0.09282370244597143</v>
       </c>
       <c r="O170" t="n">
-        <v>0.08269057992968738</v>
+        <v>0.1734022938729063</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02345435963613959</v>
+        <v>0.02205649544658244</v>
       </c>
       <c r="G171" t="n">
-        <v>0.08347810926235107</v>
+        <v>0.1739007585551754</v>
       </c>
       <c r="J171" t="n">
-        <v>0.05127120937537472</v>
+        <v>0.02363037538020543</v>
       </c>
       <c r="K171" t="n">
-        <v>0.083058939406435</v>
+        <v>0.17520050821145</v>
       </c>
       <c r="L171" t="n">
-        <v>0.08469749719339853</v>
+        <v>0.05863400868775637</v>
       </c>
       <c r="M171" t="n">
-        <v>0.08240684361613689</v>
+        <v>0.1748440815468771</v>
       </c>
       <c r="N171" t="n">
-        <v>0.02345435963613959</v>
+        <v>0.09441363654777596</v>
       </c>
       <c r="O171" t="n">
-        <v>0.08347810926235107</v>
+        <v>0.1750537442907435</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02319428176801092</v>
+        <v>0.02223233570840665</v>
       </c>
       <c r="G172" t="n">
-        <v>0.08426563859501476</v>
+        <v>0.1755413317490922</v>
       </c>
       <c r="J172" t="n">
-        <v>0.05059208632377973</v>
+        <v>0.0238248079453946</v>
       </c>
       <c r="K172" t="n">
-        <v>0.08384251430649571</v>
+        <v>0.1768533431945769</v>
       </c>
       <c r="L172" t="n">
-        <v>0.08315083362477071</v>
+        <v>0.05921567014745149</v>
       </c>
       <c r="M172" t="n">
-        <v>0.08318426666911932</v>
+        <v>0.1764935540143005</v>
       </c>
       <c r="N172" t="n">
-        <v>0.02319428176801092</v>
+        <v>0.0943864216732197</v>
       </c>
       <c r="O172" t="n">
-        <v>0.08426563859501476</v>
+        <v>0.1767051947085807</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02311534200259473</v>
+        <v>0.02040482345713356</v>
       </c>
       <c r="G173" t="n">
-        <v>0.08505316792767845</v>
+        <v>0.1771819049430089</v>
       </c>
       <c r="J173" t="n">
-        <v>0.04981608544815269</v>
+        <v>0.02401529099185504</v>
       </c>
       <c r="K173" t="n">
-        <v>0.08462608920655641</v>
+        <v>0.1785061781777038</v>
       </c>
       <c r="L173" t="n">
-        <v>0.08288001753033419</v>
+        <v>0.05988771072290766</v>
       </c>
       <c r="M173" t="n">
-        <v>0.08396168972210173</v>
+        <v>0.1781430264817239</v>
       </c>
       <c r="N173" t="n">
-        <v>0.02311534200259473</v>
+        <v>0.0955436167012928</v>
       </c>
       <c r="O173" t="n">
-        <v>0.08505316792767845</v>
+        <v>0.1783566451264179</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02302000097666611</v>
+        <v>0.02057431318697194</v>
       </c>
       <c r="G174" t="n">
-        <v>0.08584069726034214</v>
+        <v>0.1788224781369256</v>
       </c>
       <c r="J174" t="n">
-        <v>0.04894615991372925</v>
+        <v>0.02430221674437177</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08540966410661713</v>
+        <v>0.1801590131608307</v>
       </c>
       <c r="L174" t="n">
-        <v>0.08119228437554327</v>
+        <v>0.06045110197427406</v>
       </c>
       <c r="M174" t="n">
-        <v>0.08473911277508417</v>
+        <v>0.1797924989491472</v>
       </c>
       <c r="N174" t="n">
-        <v>0.02302000097666611</v>
+        <v>0.09678678051098544</v>
       </c>
       <c r="O174" t="n">
-        <v>0.08584069726034214</v>
+        <v>0.1800080955442551</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02271071932700015</v>
+        <v>0.02274115939213055</v>
       </c>
       <c r="G175" t="n">
-        <v>0.08662822659300583</v>
+        <v>0.1804630513308424</v>
       </c>
       <c r="J175" t="n">
-        <v>0.04828526288574508</v>
+        <v>0.02438597742772981</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08619323900667784</v>
+        <v>0.1818118481439575</v>
       </c>
       <c r="L175" t="n">
-        <v>0.07959486962585205</v>
+        <v>0.0604068154616999</v>
       </c>
       <c r="M175" t="n">
-        <v>0.08551653582806658</v>
+        <v>0.1814419714165706</v>
       </c>
       <c r="N175" t="n">
-        <v>0.02271071932700015</v>
+        <v>0.097217471981288</v>
       </c>
       <c r="O175" t="n">
-        <v>0.08662822659300583</v>
+        <v>0.1816595459620923</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02238995769037191</v>
+        <v>0.02090571656681815</v>
       </c>
       <c r="G176" t="n">
-        <v>0.08741575592566952</v>
+        <v>0.1821036245247591</v>
       </c>
       <c r="J176" t="n">
-        <v>0.04693634752943582</v>
+        <v>0.02466696526671419</v>
       </c>
       <c r="K176" t="n">
-        <v>0.08697681390673855</v>
+        <v>0.1834646831270844</v>
       </c>
       <c r="L176" t="n">
-        <v>0.07849500874671483</v>
+        <v>0.06115582274533451</v>
       </c>
       <c r="M176" t="n">
-        <v>0.086293958881049</v>
+        <v>0.183091443883994</v>
       </c>
       <c r="N176" t="n">
-        <v>0.02238995769037191</v>
+        <v>0.09823724999119055</v>
       </c>
       <c r="O176" t="n">
-        <v>0.08741575592566952</v>
+        <v>0.1833109963799295</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.02216017670355651</v>
+        <v>0.0210683392052435</v>
       </c>
       <c r="G177" t="n">
-        <v>0.08820328525833321</v>
+        <v>0.1837441977186759</v>
       </c>
       <c r="J177" t="n">
-        <v>0.04660236701003714</v>
+        <v>0.02464557248610991</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08776038880679925</v>
+        <v>0.1851175181102113</v>
       </c>
       <c r="L177" t="n">
-        <v>0.07729993720358574</v>
+        <v>0.0615990953853271</v>
       </c>
       <c r="M177" t="n">
-        <v>0.08707138193403144</v>
+        <v>0.1847409163514173</v>
       </c>
       <c r="N177" t="n">
-        <v>0.02216017670355651</v>
+        <v>0.09904767341968351</v>
       </c>
       <c r="O177" t="n">
-        <v>0.08820328525833321</v>
+        <v>0.1849624467977667</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02212383700332905</v>
+        <v>0.02122938180161536</v>
       </c>
       <c r="G178" t="n">
-        <v>0.08899081459099689</v>
+        <v>0.1853847709125926</v>
       </c>
       <c r="J178" t="n">
-        <v>0.04548627449278464</v>
+        <v>0.02482219131070201</v>
       </c>
       <c r="K178" t="n">
-        <v>0.08854396370685995</v>
+        <v>0.1867703530933382</v>
       </c>
       <c r="L178" t="n">
-        <v>0.07641689046191913</v>
+        <v>0.06173760494182687</v>
       </c>
       <c r="M178" t="n">
-        <v>0.08784880498701385</v>
+        <v>0.1863903888188407</v>
       </c>
       <c r="N178" t="n">
-        <v>0.02212383700332905</v>
+        <v>0.09965030114575685</v>
       </c>
       <c r="O178" t="n">
-        <v>0.08899081459099689</v>
+        <v>0.1866138972156039</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02188339922646457</v>
+        <v>0.02339543362885276</v>
       </c>
       <c r="G179" t="n">
-        <v>0.08977834392366059</v>
+        <v>0.1870253441065094</v>
       </c>
       <c r="J179" t="n">
-        <v>0.04489102314291413</v>
+        <v>0.02509803512257135</v>
       </c>
       <c r="K179" t="n">
-        <v>0.08932753860692066</v>
+        <v>0.1884231880764651</v>
       </c>
       <c r="L179" t="n">
-        <v>0.07465310398716901</v>
+        <v>0.06267711701554371</v>
       </c>
       <c r="M179" t="n">
-        <v>0.08862622803999627</v>
+        <v>0.1880398612862641</v>
       </c>
       <c r="N179" t="n">
-        <v>0.02188339922646457</v>
+        <v>0.09985156299567555</v>
       </c>
       <c r="O179" t="n">
-        <v>0.08977834392366059</v>
+        <v>0.1882653476334411</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.02154132400973818</v>
+        <v>0.0235702601516665</v>
       </c>
       <c r="G180" t="n">
-        <v>0.09056587325632427</v>
+        <v>0.1886659173004261</v>
       </c>
       <c r="J180" t="n">
-        <v>0.04411956612566106</v>
+        <v>0.02538332459391034</v>
       </c>
       <c r="K180" t="n">
-        <v>0.09011111350698138</v>
+        <v>0.190076023059592</v>
       </c>
       <c r="L180" t="n">
-        <v>0.07321581324478971</v>
+        <v>0.06294222151769774</v>
       </c>
       <c r="M180" t="n">
-        <v>0.08940365109297871</v>
+        <v>0.1896893337536874</v>
       </c>
       <c r="N180" t="n">
-        <v>0.02154132400973818</v>
+        <v>0.1002921265183934</v>
       </c>
       <c r="O180" t="n">
-        <v>0.09056587325632427</v>
+        <v>0.1899167980512783</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.021400071989925</v>
+        <v>0.0227477899920727</v>
       </c>
       <c r="G181" t="n">
-        <v>0.09135340258898797</v>
+        <v>0.1903064904943429</v>
       </c>
       <c r="J181" t="n">
-        <v>0.04397485660626127</v>
+        <v>0.02557578164401163</v>
       </c>
       <c r="K181" t="n">
-        <v>0.09089468840704208</v>
+        <v>0.1917288580427189</v>
       </c>
       <c r="L181" t="n">
-        <v>0.07281225370023542</v>
+        <v>0.06332225876081971</v>
       </c>
       <c r="M181" t="n">
-        <v>0.09018107414596112</v>
+        <v>0.1913388062211108</v>
       </c>
       <c r="N181" t="n">
-        <v>0.021400071989925</v>
+        <v>0.1015593152319821</v>
       </c>
       <c r="O181" t="n">
-        <v>0.09135340258898797</v>
+        <v>0.1915682484691155</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02096210380380005</v>
+        <v>0.02292193356479636</v>
       </c>
       <c r="G182" t="n">
-        <v>0.09214093192165165</v>
+        <v>0.1919470636882596</v>
       </c>
       <c r="J182" t="n">
-        <v>0.04295984774995032</v>
+        <v>0.02556866854284653</v>
       </c>
       <c r="K182" t="n">
-        <v>0.09167826330710278</v>
+        <v>0.1933816930258458</v>
       </c>
       <c r="L182" t="n">
-        <v>0.07154966081896036</v>
+        <v>0.06430053905511379</v>
       </c>
       <c r="M182" t="n">
-        <v>0.09095849719894356</v>
+        <v>0.1929882786885342</v>
       </c>
       <c r="N182" t="n">
-        <v>0.02096210380380005</v>
+        <v>0.1027263503448287</v>
       </c>
       <c r="O182" t="n">
-        <v>0.09214093192165165</v>
+        <v>0.1932196988869527</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02092988008813847</v>
+        <v>0.02408660128456246</v>
       </c>
       <c r="G183" t="n">
-        <v>0.09292846125431535</v>
+        <v>0.1935876368821764</v>
       </c>
       <c r="J183" t="n">
-        <v>0.04287749272196384</v>
+        <v>0.02585524756038633</v>
       </c>
       <c r="K183" t="n">
-        <v>0.0924618382071635</v>
+        <v>0.1950345280089726</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06993527006641859</v>
+        <v>0.06466037271078409</v>
       </c>
       <c r="M183" t="n">
-        <v>0.09173592025192598</v>
+        <v>0.1946377511559576</v>
       </c>
       <c r="N183" t="n">
-        <v>0.02092988008813847</v>
+        <v>0.1030664530653199</v>
       </c>
       <c r="O183" t="n">
-        <v>0.09292846125431535</v>
+        <v>0.19487114930479</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02060586147971533</v>
+        <v>0.02223570356609599</v>
       </c>
       <c r="G184" t="n">
-        <v>0.09371599058697903</v>
+        <v>0.1952282100760931</v>
       </c>
       <c r="J184" t="n">
-        <v>0.0424307446875376</v>
+        <v>0.02612878096660229</v>
       </c>
       <c r="K184" t="n">
-        <v>0.0932454131072242</v>
+        <v>0.1966873629920995</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06907631690806454</v>
+        <v>0.06488507003803473</v>
       </c>
       <c r="M184" t="n">
-        <v>0.09251334330490839</v>
+        <v>0.1962872236233809</v>
       </c>
       <c r="N184" t="n">
-        <v>0.02060586147971533</v>
+        <v>0.1034528446018425</v>
       </c>
       <c r="O184" t="n">
-        <v>0.09371599058697903</v>
+        <v>0.1965225997226271</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.0202925086153057</v>
+        <v>0.02236315082412197</v>
       </c>
       <c r="G185" t="n">
-        <v>0.09450351991964272</v>
+        <v>0.1968687832700099</v>
       </c>
       <c r="J185" t="n">
-        <v>0.04142255681190715</v>
+        <v>0.02618253103146566</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09402898800728492</v>
+        <v>0.1983401979752264</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06788003680935223</v>
+        <v>0.06545794134706998</v>
       </c>
       <c r="M185" t="n">
-        <v>0.09329076635789083</v>
+        <v>0.1979366960908043</v>
       </c>
       <c r="N185" t="n">
-        <v>0.0202925086153057</v>
+        <v>0.1036587461627835</v>
       </c>
       <c r="O185" t="n">
-        <v>0.09450351991964272</v>
+        <v>0.1981740501404644</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02019228213168467</v>
+        <v>0.02446285347336537</v>
       </c>
       <c r="G186" t="n">
-        <v>0.09529104925230641</v>
+        <v>0.1985093564639266</v>
       </c>
       <c r="J186" t="n">
-        <v>0.0413558822603082</v>
+        <v>0.02640976002494778</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09481256290734562</v>
+        <v>0.1999930329583533</v>
       </c>
       <c r="L186" t="n">
-        <v>0.066753665235736</v>
+        <v>0.06526229694809391</v>
       </c>
       <c r="M186" t="n">
-        <v>0.09406818941087325</v>
+        <v>0.1995861685582277</v>
       </c>
       <c r="N186" t="n">
-        <v>0.02019228213168467</v>
+        <v>0.1044573789565296</v>
       </c>
       <c r="O186" t="n">
-        <v>0.09529104925230641</v>
+        <v>0.1998255005583015</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.02000764266562735</v>
+        <v>0.024532832238384</v>
       </c>
       <c r="G187" t="n">
-        <v>0.0960785785849701</v>
+        <v>0.2001499296578434</v>
       </c>
       <c r="J187" t="n">
-        <v>0.04053367419797638</v>
+        <v>0.02640373021701987</v>
       </c>
       <c r="K187" t="n">
-        <v>0.09559613780740632</v>
+        <v>0.2016458679414802</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06650443765267</v>
+        <v>0.06598159908722559</v>
       </c>
       <c r="M187" t="n">
-        <v>0.09484561246385566</v>
+        <v>0.2012356410256511</v>
       </c>
       <c r="N187" t="n">
-        <v>0.02000764266562735</v>
+        <v>0.1053219641914678</v>
       </c>
       <c r="O187" t="n">
-        <v>0.0960785785849701</v>
+        <v>0.2014769509761388</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.01993452314172096</v>
+        <v>0.02259663230638794</v>
       </c>
       <c r="G188" t="n">
-        <v>0.0968661079176338</v>
+        <v>0.2017905028517601</v>
       </c>
       <c r="J188" t="n">
-        <v>0.04065888579014737</v>
+        <v>0.02657434465121918</v>
       </c>
       <c r="K188" t="n">
-        <v>0.09637971270746704</v>
+        <v>0.2032987029246071</v>
       </c>
       <c r="L188" t="n">
-        <v>0.06563958952560833</v>
+        <v>0.0660561443715281</v>
       </c>
       <c r="M188" t="n">
-        <v>0.0956230355168381</v>
+        <v>0.2028851134930744</v>
       </c>
       <c r="N188" t="n">
-        <v>0.01993452314172096</v>
+        <v>0.1058020133969012</v>
       </c>
       <c r="O188" t="n">
-        <v>0.0968661079176338</v>
+        <v>0.2031284013939759</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.01966559080233307</v>
+        <v>0.02365902057993397</v>
       </c>
       <c r="G189" t="n">
-        <v>0.09765363725029748</v>
+        <v>0.2034310760456769</v>
       </c>
       <c r="J189" t="n">
-        <v>0.03973447020205684</v>
+        <v>0.02644322423862991</v>
       </c>
       <c r="K189" t="n">
-        <v>0.09716328760752774</v>
+        <v>0.204951537907734</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06436635632000542</v>
+        <v>0.06582686641956356</v>
       </c>
       <c r="M189" t="n">
-        <v>0.0964004585698205</v>
+        <v>0.2045345859604978</v>
       </c>
       <c r="N189" t="n">
-        <v>0.01966559080233307</v>
+        <v>0.1053758411271014</v>
       </c>
       <c r="O189" t="n">
-        <v>0.09765363725029748</v>
+        <v>0.2047798518118132</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.01960060115611999</v>
+        <v>0.02471997464852426</v>
       </c>
       <c r="G190" t="n">
-        <v>0.09844116658296116</v>
+        <v>0.2050716492395936</v>
       </c>
       <c r="J190" t="n">
-        <v>0.03996338059894039</v>
+        <v>0.02661054254015618</v>
       </c>
       <c r="K190" t="n">
-        <v>0.09794686250758844</v>
+        <v>0.2066043728908609</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06359197350131535</v>
+        <v>0.06619370381101522</v>
       </c>
       <c r="M190" t="n">
-        <v>0.09717788162280294</v>
+        <v>0.2061840584279211</v>
       </c>
       <c r="N190" t="n">
-        <v>0.01960060115611999</v>
+        <v>0.1064434522006711</v>
       </c>
       <c r="O190" t="n">
-        <v>0.09844116658296116</v>
+        <v>0.2064313022296504</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.01933933138386851</v>
+        <v>0.02377947210166097</v>
       </c>
       <c r="G191" t="n">
-        <v>0.09922869591562486</v>
+        <v>0.2067122224335104</v>
       </c>
       <c r="J191" t="n">
-        <v>0.03934857014603371</v>
+        <v>0.02677627476003977</v>
       </c>
       <c r="K191" t="n">
-        <v>0.09873043740764915</v>
+        <v>0.2082572078739877</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06412367653499224</v>
+        <v>0.06615659512556621</v>
       </c>
       <c r="M191" t="n">
-        <v>0.09795530467578537</v>
+        <v>0.2078335308953445</v>
       </c>
       <c r="N191" t="n">
-        <v>0.01933933138386851</v>
+        <v>0.106204748068033</v>
       </c>
       <c r="O191" t="n">
-        <v>0.09922869591562486</v>
+        <v>0.2080827526474876</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.01918155866636551</v>
+        <v>0.02383749052884627</v>
       </c>
       <c r="G192" t="n">
-        <v>0.1000162252482885</v>
+        <v>0.2083527956274271</v>
       </c>
       <c r="J192" t="n">
-        <v>0.03949299200857248</v>
+        <v>0.02674039610252239</v>
       </c>
       <c r="K192" t="n">
-        <v>0.09951401230770987</v>
+        <v>0.2099100428571146</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06376403747651654</v>
+        <v>0.06681547894289966</v>
       </c>
       <c r="M192" t="n">
-        <v>0.09873272772876777</v>
+        <v>0.2094830033627679</v>
       </c>
       <c r="N192" t="n">
-        <v>0.01918155866636551</v>
+        <v>0.1068596301796108</v>
       </c>
       <c r="O192" t="n">
-        <v>0.1000162252482885</v>
+        <v>0.2097342030653248</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.01892706018439776</v>
+        <v>0.02289400751958231</v>
       </c>
       <c r="G193" t="n">
-        <v>0.1008037545809522</v>
+        <v>0.2099933688213439</v>
       </c>
       <c r="J193" t="n">
-        <v>0.03899959935179231</v>
+        <v>0.02670288177184584</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1002975872077706</v>
+        <v>0.2115628778402415</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06315466597352654</v>
+        <v>0.06637029384269869</v>
       </c>
       <c r="M193" t="n">
-        <v>0.09951015078175021</v>
+        <v>0.2111324758301913</v>
       </c>
       <c r="N193" t="n">
-        <v>0.01892706018439776</v>
+        <v>0.1065079999858275</v>
       </c>
       <c r="O193" t="n">
-        <v>0.1008037545809522</v>
+        <v>0.211385653483162</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.0187756131187521</v>
+        <v>0.02394900066337128</v>
       </c>
       <c r="G194" t="n">
-        <v>0.1015912839136159</v>
+        <v>0.2116339420152606</v>
       </c>
       <c r="J194" t="n">
-        <v>0.03955489319603087</v>
+        <v>0.02676370697225187</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1010811621078313</v>
+        <v>0.2132157128233684</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06327374812295988</v>
+        <v>0.06682097840464654</v>
       </c>
       <c r="M194" t="n">
-        <v>0.1002875738347326</v>
+        <v>0.2127819482976146</v>
       </c>
       <c r="N194" t="n">
-        <v>0.0187756131187521</v>
+        <v>0.1066497589371063</v>
       </c>
       <c r="O194" t="n">
-        <v>0.1015912839136159</v>
+        <v>0.2130371039009992</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.01872699465021541</v>
+        <v>0.02300244754971532</v>
       </c>
       <c r="G195" t="n">
-        <v>0.1023788132462796</v>
+        <v>0.2132745152091774</v>
       </c>
       <c r="J195" t="n">
-        <v>0.03951678215519996</v>
+        <v>0.02702284690798228</v>
       </c>
       <c r="K195" t="n">
-        <v>0.101864737007892</v>
+        <v>0.2148685478064953</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06231837727948464</v>
+        <v>0.06736747120842629</v>
       </c>
       <c r="M195" t="n">
-        <v>0.101064996887715</v>
+        <v>0.214431420765038</v>
       </c>
       <c r="N195" t="n">
-        <v>0.01872699465021541</v>
+        <v>0.1072848084838706</v>
       </c>
       <c r="O195" t="n">
-        <v>0.1023788132462796</v>
+        <v>0.2146885543188364</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.01848098195957443</v>
+        <v>0.02305432576811659</v>
       </c>
       <c r="G196" t="n">
-        <v>0.1031663425789433</v>
+        <v>0.2149150884030941</v>
       </c>
       <c r="J196" t="n">
-        <v>0.0388826298379833</v>
+        <v>0.02688027678327877</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1026483119079527</v>
+        <v>0.2165213827896222</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06178564679776855</v>
+        <v>0.06680971083372117</v>
       </c>
       <c r="M196" t="n">
-        <v>0.1018424199406975</v>
+        <v>0.2160808932324614</v>
       </c>
       <c r="N196" t="n">
-        <v>0.01848098195957443</v>
+        <v>0.1076130500765435</v>
       </c>
       <c r="O196" t="n">
-        <v>0.1031663425789433</v>
+        <v>0.2163400047366736</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.01843735222761606</v>
+        <v>0.02310461290807727</v>
       </c>
       <c r="G197" t="n">
-        <v>0.103953871911607</v>
+        <v>0.2165556615970109</v>
       </c>
       <c r="J197" t="n">
-        <v>0.03905206384570559</v>
+        <v>0.02713597180238317</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1034318868080134</v>
+        <v>0.2181742177727491</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06197265003247993</v>
+        <v>0.06694763586021421</v>
       </c>
       <c r="M197" t="n">
-        <v>0.1026198429936799</v>
+        <v>0.2177303656998847</v>
       </c>
       <c r="N197" t="n">
-        <v>0.01843735222761606</v>
+        <v>0.1079343851655484</v>
       </c>
       <c r="O197" t="n">
-        <v>0.103953871911607</v>
+        <v>0.2179914551545108</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.01819588263512706</v>
+        <v>0.02515328655909951</v>
       </c>
       <c r="G198" t="n">
-        <v>0.1047414012442707</v>
+        <v>0.2181962347909276</v>
       </c>
       <c r="J198" t="n">
-        <v>0.03912471177969154</v>
+        <v>0.0269899071695372</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1042154617080741</v>
+        <v>0.2198270527558759</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06227648033828664</v>
+        <v>0.06708118486758868</v>
       </c>
       <c r="M198" t="n">
-        <v>0.1033972660466623</v>
+        <v>0.2193798381673081</v>
       </c>
       <c r="N198" t="n">
-        <v>0.01819588263512706</v>
+        <v>0.1073487152013083</v>
       </c>
       <c r="O198" t="n">
-        <v>0.1047414012442707</v>
+        <v>0.219642905572348</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.01805635036289431</v>
+        <v>0.02420032431068549</v>
       </c>
       <c r="G199" t="n">
-        <v>0.1055289305769344</v>
+        <v>0.2198368079848444</v>
       </c>
       <c r="J199" t="n">
-        <v>0.0388002012412659</v>
+        <v>0.02704205808898263</v>
       </c>
       <c r="K199" t="n">
-        <v>0.1049990366081348</v>
+        <v>0.2214798877390028</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06159423106985679</v>
+        <v>0.06781029643552766</v>
       </c>
       <c r="M199" t="n">
-        <v>0.1041746890996448</v>
+        <v>0.2210293106347315</v>
       </c>
       <c r="N199" t="n">
-        <v>0.01805635036289431</v>
+        <v>0.1079559416342467</v>
       </c>
       <c r="O199" t="n">
-        <v>0.1055289305769344</v>
+        <v>0.2212943559901852</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.01811853259170461</v>
+        <v>0.02524570375233736</v>
       </c>
       <c r="G200" t="n">
-        <v>0.1063164599095981</v>
+        <v>0.2214773811787611</v>
       </c>
       <c r="J200" t="n">
-        <v>0.03927815983175345</v>
+        <v>0.02709239976496125</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1057826115081955</v>
+        <v>0.2231327227221297</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06112299558185835</v>
+        <v>0.06783490914371432</v>
       </c>
       <c r="M200" t="n">
-        <v>0.1049521121526272</v>
+        <v>0.2226787831021548</v>
       </c>
       <c r="N200" t="n">
-        <v>0.01811853259170461</v>
+        <v>0.1081559659147867</v>
       </c>
       <c r="O200" t="n">
-        <v>0.1063164599095981</v>
+        <v>0.2229458064080224</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.01798220650234476</v>
+        <v>0.02428940247355727</v>
       </c>
       <c r="G201" t="n">
-        <v>0.1071039892422618</v>
+        <v>0.2231179543726779</v>
       </c>
       <c r="J201" t="n">
-        <v>0.0391582151524788</v>
+        <v>0.02734090740171483</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1065661864082562</v>
+        <v>0.2247855577052566</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06185986722895925</v>
+        <v>0.06775496157183183</v>
       </c>
       <c r="M201" t="n">
-        <v>0.1057295352056096</v>
+        <v>0.2243282555695782</v>
       </c>
       <c r="N201" t="n">
-        <v>0.01798220650234476</v>
+        <v>0.1085486894933515</v>
       </c>
       <c r="O201" t="n">
-        <v>0.1071039892422618</v>
+        <v>0.2245972568258596</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.01774714927560164</v>
+        <v>0.02433139806384744</v>
       </c>
       <c r="G202" t="n">
-        <v>0.1078915185749254</v>
+        <v>0.2247585275665946</v>
       </c>
       <c r="J202" t="n">
-        <v>0.03893999480476681</v>
+        <v>0.02718755620348508</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1073497613083169</v>
+        <v>0.2264383926883835</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06120193936582763</v>
+        <v>0.06787039229956332</v>
       </c>
       <c r="M202" t="n">
-        <v>0.106506958258592</v>
+        <v>0.2259777280370016</v>
       </c>
       <c r="N202" t="n">
-        <v>0.01774714927560164</v>
+        <v>0.1081340138203644</v>
       </c>
       <c r="O202" t="n">
-        <v>0.1078915185749254</v>
+        <v>0.2262487072436968</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.01751313809226206</v>
+        <v>0.02337166811270996</v>
       </c>
       <c r="G203" t="n">
-        <v>0.1086790479075891</v>
+        <v>0.2263991007605114</v>
       </c>
       <c r="J203" t="n">
-        <v>0.03872312638994213</v>
+        <v>0.02723232137451383</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1081333362083776</v>
+        <v>0.2280912276715104</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06134630534713154</v>
+        <v>0.06808113990659198</v>
       </c>
       <c r="M203" t="n">
-        <v>0.1072843813115744</v>
+        <v>0.2276272005044249</v>
       </c>
       <c r="N203" t="n">
-        <v>0.01751313809226206</v>
+        <v>0.1087118403462486</v>
       </c>
       <c r="O203" t="n">
-        <v>0.1086790479075891</v>
+        <v>0.227900157661534</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.0173799501331128</v>
+        <v>0.02341019020964705</v>
       </c>
       <c r="G204" t="n">
-        <v>0.1094665772402528</v>
+        <v>0.2280396739544281</v>
       </c>
       <c r="J204" t="n">
-        <v>0.03870723750932953</v>
+        <v>0.02747517811904279</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1089169111084384</v>
+        <v>0.2297440626546373</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06079005852753888</v>
+        <v>0.06818714297260092</v>
       </c>
       <c r="M204" t="n">
-        <v>0.1080618043645569</v>
+        <v>0.2292766729718483</v>
       </c>
       <c r="N204" t="n">
-        <v>0.0173799501331128</v>
+        <v>0.1093820705214273</v>
       </c>
       <c r="O204" t="n">
-        <v>0.1094665772402528</v>
+        <v>0.2295516080793712</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.01724736257894076</v>
+        <v>0.02544694194416084</v>
       </c>
       <c r="G205" t="n">
-        <v>0.1102541065729165</v>
+        <v>0.2296802471483449</v>
       </c>
       <c r="J205" t="n">
-        <v>0.03889195576425367</v>
+        <v>0.02731610164131375</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1097004860084991</v>
+        <v>0.2313968976377642</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06013029226171768</v>
+        <v>0.06818834007727326</v>
       </c>
       <c r="M205" t="n">
-        <v>0.1088392274175393</v>
+        <v>0.2309261454392717</v>
       </c>
       <c r="N205" t="n">
-        <v>0.01724736257894076</v>
+        <v>0.1094446057963239</v>
       </c>
       <c r="O205" t="n">
-        <v>0.1102541065729165</v>
+        <v>0.2312030584972084</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.01711515261053269</v>
+        <v>0.02348190090575349</v>
       </c>
       <c r="G206" t="n">
-        <v>0.1110416359055802</v>
+        <v>0.2313208203422616</v>
       </c>
       <c r="J206" t="n">
-        <v>0.03927690875603931</v>
+        <v>0.02745506714556847</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1104840609085598</v>
+        <v>0.2330497326208911</v>
       </c>
       <c r="L206" t="n">
-        <v>0.05996409990433604</v>
+        <v>0.06838466980029229</v>
       </c>
       <c r="M206" t="n">
-        <v>0.1096166504705217</v>
+        <v>0.2325756179066951</v>
       </c>
       <c r="N206" t="n">
-        <v>0.01711515261053269</v>
+        <v>0.1091993476213615</v>
       </c>
       <c r="O206" t="n">
-        <v>0.1110416359055802</v>
+        <v>0.2328545089150456</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.01698309740867547</v>
+        <v>0.0245150446839272</v>
       </c>
       <c r="G207" t="n">
-        <v>0.1118291652382439</v>
+        <v>0.2329613935361784</v>
       </c>
       <c r="J207" t="n">
-        <v>0.03916172408601126</v>
+        <v>0.02759204983604875</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1112676358086205</v>
+        <v>0.2347025676040179</v>
       </c>
       <c r="L207" t="n">
-        <v>0.06028857481006189</v>
+        <v>0.068576070721341</v>
       </c>
       <c r="M207" t="n">
-        <v>0.1103940735235041</v>
+        <v>0.2342250903741184</v>
       </c>
       <c r="N207" t="n">
-        <v>0.01698309740867547</v>
+        <v>0.1096461974469634</v>
       </c>
       <c r="O207" t="n">
-        <v>0.1118291652382439</v>
+        <v>0.2345059593328828</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.01705097415415591</v>
+        <v>0.02354635086818409</v>
       </c>
       <c r="G208" t="n">
-        <v>0.1126166945709076</v>
+        <v>0.2346019667300951</v>
       </c>
       <c r="J208" t="n">
-        <v>0.03904602935549412</v>
+        <v>0.02762702491699631</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1120512107086812</v>
+        <v>0.2363554025871448</v>
       </c>
       <c r="L208" t="n">
-        <v>0.0606008103335634</v>
+        <v>0.06826248142010266</v>
       </c>
       <c r="M208" t="n">
-        <v>0.1111714965764866</v>
+        <v>0.2358745628415418</v>
       </c>
       <c r="N208" t="n">
-        <v>0.01705097415415591</v>
+        <v>0.1098850567235527</v>
       </c>
       <c r="O208" t="n">
-        <v>0.1126166945709076</v>
+        <v>0.23615740975072</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.01691856002776079</v>
+        <v>0.02557579704802635</v>
       </c>
       <c r="G209" t="n">
-        <v>0.1134042239035713</v>
+        <v>0.2362425399240119</v>
       </c>
       <c r="J209" t="n">
-        <v>0.03882945216581271</v>
+        <v>0.0274599675926529</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1128347856087419</v>
+        <v>0.2380082375702717</v>
       </c>
       <c r="L209" t="n">
-        <v>0.05969789982950829</v>
+        <v>0.06834384047626033</v>
       </c>
       <c r="M209" t="n">
-        <v>0.111948919629469</v>
+        <v>0.2375240353089652</v>
       </c>
       <c r="N209" t="n">
-        <v>0.01691856002776079</v>
+        <v>0.1091158269015529</v>
       </c>
       <c r="O209" t="n">
-        <v>0.1134042239035713</v>
+        <v>0.2378088601685572</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.01668563221027701</v>
+        <v>0.02560336081295616</v>
       </c>
       <c r="G210" t="n">
-        <v>0.114191753236235</v>
+        <v>0.2378831131179286</v>
       </c>
       <c r="J210" t="n">
-        <v>0.03891162011829172</v>
+        <v>0.02759085306726035</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1136183605088026</v>
+        <v>0.2396610725533986</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06027693665256489</v>
+        <v>0.06882008646949722</v>
       </c>
       <c r="M210" t="n">
-        <v>0.1127263426824514</v>
+        <v>0.2391735077763885</v>
       </c>
       <c r="N210" t="n">
-        <v>0.01668563221027701</v>
+        <v>0.1095384094313869</v>
       </c>
       <c r="O210" t="n">
-        <v>0.114191753236235</v>
+        <v>0.2394603105863944</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.01655196788249137</v>
+        <v>0.02462901975247563</v>
       </c>
       <c r="G211" t="n">
-        <v>0.1149792825688987</v>
+        <v>0.2395236863118454</v>
       </c>
       <c r="J211" t="n">
-        <v>0.03909216081425584</v>
+        <v>0.02751965654506035</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1144019354088633</v>
+        <v>0.2413139075365255</v>
       </c>
       <c r="L211" t="n">
-        <v>0.0589350141574011</v>
+        <v>0.06879115797949648</v>
       </c>
       <c r="M211" t="n">
-        <v>0.1135037657354338</v>
+        <v>0.2408229802438119</v>
       </c>
       <c r="N211" t="n">
-        <v>0.01655196788249137</v>
+        <v>0.1094527057634783</v>
       </c>
       <c r="O211" t="n">
-        <v>0.1149792825688987</v>
+        <v>0.2411117610042316</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.01651734422519067</v>
+        <v>0.02465275145608698</v>
       </c>
       <c r="G212" t="n">
-        <v>0.1157668119015623</v>
+        <v>0.2411642595057621</v>
       </c>
       <c r="J212" t="n">
-        <v>0.0384707018550299</v>
+        <v>0.02754635323029472</v>
       </c>
       <c r="K212" t="n">
-        <v>0.115185510308924</v>
+        <v>0.2429667425196524</v>
       </c>
       <c r="L212" t="n">
-        <v>0.05916922569868482</v>
+        <v>0.06895699358594126</v>
       </c>
       <c r="M212" t="n">
-        <v>0.1142811887884163</v>
+        <v>0.2424724527112352</v>
       </c>
       <c r="N212" t="n">
-        <v>0.01651734422519067</v>
+        <v>0.11015861734825</v>
       </c>
       <c r="O212" t="n">
-        <v>0.1157668119015623</v>
+        <v>0.2427632114220688</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.01618153841916176</v>
+        <v>0.02567453351329233</v>
       </c>
       <c r="G213" t="n">
-        <v>0.116554341234226</v>
+        <v>0.2428048326996789</v>
       </c>
       <c r="J213" t="n">
-        <v>0.03874687084193856</v>
+        <v>0.02767091832720521</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1159690852089847</v>
+        <v>0.2446195775027793</v>
       </c>
       <c r="L213" t="n">
-        <v>0.05927704154746688</v>
+        <v>0.06871753186851468</v>
       </c>
       <c r="M213" t="n">
-        <v>0.1150586118413987</v>
+        <v>0.2441219251786586</v>
       </c>
       <c r="N213" t="n">
-        <v>0.01618153841916176</v>
+        <v>0.1097560456361255</v>
       </c>
       <c r="O213" t="n">
-        <v>0.116554341234226</v>
+        <v>0.244414661839906</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.01614432764519146</v>
+        <v>0.02469434351359388</v>
       </c>
       <c r="G214" t="n">
-        <v>0.1173418705668897</v>
+        <v>0.2444454058935956</v>
       </c>
       <c r="J214" t="n">
-        <v>0.03842029537630656</v>
+        <v>0.02769332704003359</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1167526601090454</v>
+        <v>0.2462724124859061</v>
       </c>
       <c r="L214" t="n">
-        <v>0.05916454383475189</v>
+        <v>0.06877271140689994</v>
       </c>
       <c r="M214" t="n">
-        <v>0.1158360348943811</v>
+        <v>0.245771397646082</v>
       </c>
       <c r="N214" t="n">
-        <v>0.01614432764519146</v>
+        <v>0.1105448920775279</v>
       </c>
       <c r="O214" t="n">
-        <v>0.1173418705668897</v>
+        <v>0.2460661122577432</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.0160054890840666</v>
+        <v>0.02571215904649376</v>
       </c>
       <c r="G215" t="n">
-        <v>0.1181293998995534</v>
+        <v>0.2460859790875124</v>
       </c>
       <c r="J215" t="n">
-        <v>0.03859060305945863</v>
+        <v>0.0276135545730216</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1175362350091061</v>
+        <v>0.247925247469033</v>
       </c>
       <c r="L215" t="n">
-        <v>0.05813490298120172</v>
+        <v>0.06922247078078014</v>
       </c>
       <c r="M215" t="n">
-        <v>0.1166134579473635</v>
+        <v>0.2474208701135054</v>
       </c>
       <c r="N215" t="n">
-        <v>0.0160054890840666</v>
+        <v>0.1101250581228805</v>
       </c>
       <c r="O215" t="n">
-        <v>0.1181293998995534</v>
+        <v>0.2477175626755805</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.01596479991657397</v>
+        <v>0.02372795770149414</v>
       </c>
       <c r="G216" t="n">
-        <v>0.1189169292322171</v>
+        <v>0.2477265522814291</v>
       </c>
       <c r="J216" t="n">
-        <v>0.03875742149271949</v>
+        <v>0.02773157613041102</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1183198099091668</v>
+        <v>0.2495780824521599</v>
       </c>
       <c r="L216" t="n">
-        <v>0.05798823468797587</v>
+        <v>0.06866674856983848</v>
       </c>
       <c r="M216" t="n">
-        <v>0.1173908810003459</v>
+        <v>0.2490703425809287</v>
       </c>
       <c r="N216" t="n">
-        <v>0.01596479991657397</v>
+        <v>0.1098964452226064</v>
       </c>
       <c r="O216" t="n">
-        <v>0.1189169292322171</v>
+        <v>0.2493690130934176</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.01562203732350043</v>
+        <v>0.02374171706809721</v>
       </c>
       <c r="G217" t="n">
-        <v>0.1197044585648808</v>
+        <v>0.2493671254753459</v>
       </c>
       <c r="J217" t="n">
-        <v>0.03882037827741389</v>
+        <v>0.02784736691644364</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1191033848092276</v>
+        <v>0.2512309174352868</v>
       </c>
       <c r="L217" t="n">
-        <v>0.05802465465623391</v>
+        <v>0.06900548335375803</v>
       </c>
       <c r="M217" t="n">
-        <v>0.1181683040533284</v>
+        <v>0.2507198150483521</v>
       </c>
       <c r="N217" t="n">
-        <v>0.01562203732350043</v>
+        <v>0.110858954827129</v>
       </c>
       <c r="O217" t="n">
-        <v>0.1197044585648808</v>
+        <v>0.2510204635112548</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.01547697848563281</v>
+        <v>0.02575341473580511</v>
       </c>
       <c r="G218" t="n">
-        <v>0.1204919878975445</v>
+        <v>0.2510076986692626</v>
       </c>
       <c r="J218" t="n">
-        <v>0.03847838305734905</v>
+        <v>0.0277609021353612</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1198869597092883</v>
+        <v>0.2528837524184137</v>
       </c>
       <c r="L218" t="n">
-        <v>0.0572442785871356</v>
+        <v>0.06913861371222213</v>
       </c>
       <c r="M218" t="n">
-        <v>0.1189457271063108</v>
+        <v>0.2523692875157755</v>
       </c>
       <c r="N218" t="n">
-        <v>0.01547697848563281</v>
+        <v>0.1107124883868714</v>
       </c>
       <c r="O218" t="n">
-        <v>0.1204919878975445</v>
+        <v>0.2526719139290921</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.01532940058375792</v>
+        <v>0.02476302829411999</v>
       </c>
       <c r="G219" t="n">
-        <v>0.1212795172302082</v>
+        <v>0.2526482718631793</v>
       </c>
       <c r="J219" t="n">
-        <v>0.03881779832099228</v>
+        <v>0.02787215699140544</v>
       </c>
       <c r="K219" t="n">
-        <v>0.120670534609349</v>
+        <v>0.2545365874015406</v>
       </c>
       <c r="L219" t="n">
-        <v>0.05674722218184042</v>
+        <v>0.06896607822491369</v>
       </c>
       <c r="M219" t="n">
-        <v>0.1197231501592932</v>
+        <v>0.2540187599831989</v>
       </c>
       <c r="N219" t="n">
-        <v>0.01532940058375792</v>
+        <v>0.110756947352257</v>
       </c>
       <c r="O219" t="n">
-        <v>0.1212795172302082</v>
+        <v>0.2543233643469293</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.01537908079866261</v>
+        <v>0.02377053533254406</v>
       </c>
       <c r="G220" t="n">
-        <v>0.1220670465628718</v>
+        <v>0.2542888450570961</v>
       </c>
       <c r="J220" t="n">
-        <v>0.03823383451766049</v>
+        <v>0.02788110668881816</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1214541095094097</v>
+        <v>0.2561894223846675</v>
       </c>
       <c r="L220" t="n">
-        <v>0.05663360114150801</v>
+        <v>0.06888781547151607</v>
       </c>
       <c r="M220" t="n">
-        <v>0.1205005732122757</v>
+        <v>0.2556682324506222</v>
       </c>
       <c r="N220" t="n">
-        <v>0.01537908079866261</v>
+        <v>0.110192233173709</v>
       </c>
       <c r="O220" t="n">
-        <v>0.1220670465628718</v>
+        <v>0.2559748147647665</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.01522607957687981</v>
+        <v>0.02477591344057944</v>
       </c>
       <c r="G221" t="n">
-        <v>0.1228545758955355</v>
+        <v>0.2559294182510128</v>
       </c>
       <c r="J221" t="n">
-        <v>0.03832686450964881</v>
+        <v>0.02768772643184111</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1222376844094704</v>
+        <v>0.2578422573677943</v>
       </c>
       <c r="L221" t="n">
-        <v>0.05640353116729802</v>
+        <v>0.06940376403171225</v>
       </c>
       <c r="M221" t="n">
-        <v>0.1212779962652581</v>
+        <v>0.2573177049180456</v>
       </c>
       <c r="N221" t="n">
-        <v>0.01522607957687981</v>
+        <v>0.1106182473016505</v>
       </c>
       <c r="O221" t="n">
-        <v>0.1228545758955355</v>
+        <v>0.2576262651826036</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.01487216113405594</v>
+        <v>0.02477914020772832</v>
       </c>
       <c r="G222" t="n">
-        <v>0.1236421052281992</v>
+        <v>0.2575699914449296</v>
       </c>
       <c r="J222" t="n">
-        <v>0.03799726115925253</v>
+        <v>0.02779199142471606</v>
       </c>
       <c r="K222" t="n">
-        <v>0.1230212593095311</v>
+        <v>0.2594950923509212</v>
       </c>
       <c r="L222" t="n">
-        <v>0.05605712796036993</v>
+        <v>0.06941386248518552</v>
       </c>
       <c r="M222" t="n">
-        <v>0.1220554193182405</v>
+        <v>0.258967177385469</v>
       </c>
       <c r="N222" t="n">
-        <v>0.01487216113405594</v>
+        <v>0.111134891186505</v>
       </c>
       <c r="O222" t="n">
-        <v>0.1236421052281992</v>
+        <v>0.2592777156004409</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.01491766965230283</v>
+        <v>0.02578018131353469</v>
       </c>
       <c r="G223" t="n">
-        <v>0.1244296345608629</v>
+        <v>0.2592105646388464</v>
       </c>
       <c r="J223" t="n">
-        <v>0.03844539732876667</v>
+        <v>0.02789387687168478</v>
       </c>
       <c r="K223" t="n">
-        <v>0.1238048342095918</v>
+        <v>0.2611479273340481</v>
       </c>
       <c r="L223" t="n">
-        <v>0.05519450722188329</v>
+        <v>0.06891804941161891</v>
       </c>
       <c r="M223" t="n">
-        <v>0.1228328423712229</v>
+        <v>0.2606166498528923</v>
       </c>
       <c r="N223" t="n">
-        <v>0.01491766965230283</v>
+        <v>0.1108420662786954</v>
       </c>
       <c r="O223" t="n">
-        <v>0.1244296345608629</v>
+        <v>0.260929166018278</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.01466260462908456</v>
+        <v>0.02574536313621784</v>
       </c>
       <c r="G224" t="n">
-        <v>0.1252171638935266</v>
+        <v>0.2608511378327631</v>
       </c>
       <c r="J224" t="n">
-        <v>0.03757164588048642</v>
+        <v>0.02777496587263115</v>
       </c>
       <c r="K224" t="n">
-        <v>0.1245884091096525</v>
+        <v>0.262800762317175</v>
       </c>
       <c r="L224" t="n">
-        <v>0.05421578465299792</v>
+        <v>0.06935955680408534</v>
       </c>
       <c r="M224" t="n">
-        <v>0.1236102654242053</v>
+        <v>0.2622661223203157</v>
       </c>
       <c r="N224" t="n">
-        <v>0.01466260462908456</v>
+        <v>0.1101594536057896</v>
       </c>
       <c r="O224" t="n">
-        <v>0.1252171638935266</v>
+        <v>0.2625806164361152</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.01450696556186523</v>
+        <v>0.02464817918658912</v>
       </c>
       <c r="G225" t="n">
-        <v>0.1260046932261903</v>
+        <v>0.2624917110266798</v>
       </c>
       <c r="J225" t="n">
-        <v>0.03767637967670695</v>
+        <v>0.02768831070218095</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1253719840097132</v>
+        <v>0.2644535973003019</v>
       </c>
       <c r="L225" t="n">
-        <v>0.05452107595487327</v>
+        <v>0.06873071540604134</v>
       </c>
       <c r="M225" t="n">
-        <v>0.1243876884771878</v>
+        <v>0.2639155947877391</v>
       </c>
       <c r="N225" t="n">
-        <v>0.01450696556186523</v>
+        <v>0.1100056681738725</v>
       </c>
       <c r="O225" t="n">
-        <v>0.1260046932261903</v>
+        <v>0.2642320668539525</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.01435075194810899</v>
+        <v>0.02349561578904775</v>
       </c>
       <c r="G226" t="n">
-        <v>0.126792222558854</v>
+        <v>0.2641322842205966</v>
       </c>
       <c r="J226" t="n">
-        <v>0.03735997157972346</v>
+        <v>0.02753859986994101</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1261555589097739</v>
+        <v>0.2661064322834288</v>
       </c>
       <c r="L226" t="n">
-        <v>0.05351049682866904</v>
+        <v>0.06884688589338783</v>
       </c>
       <c r="M226" t="n">
-        <v>0.1251651115301702</v>
+        <v>0.2655650672551624</v>
       </c>
       <c r="N226" t="n">
-        <v>0.01435075194810899</v>
+        <v>0.109002065397532</v>
       </c>
       <c r="O226" t="n">
-        <v>0.126792222558854</v>
+        <v>0.2658835172717897</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.01409396328527993</v>
+        <v>0.02329465926799301</v>
       </c>
       <c r="G227" t="n">
-        <v>0.1275797518915177</v>
+        <v>0.2657728574145133</v>
       </c>
       <c r="J227" t="n">
-        <v>0.03692279445183105</v>
+        <v>0.02743356328945538</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1269391338098346</v>
+        <v>0.2677592672665557</v>
       </c>
       <c r="L227" t="n">
-        <v>0.05338416297554466</v>
+        <v>0.06822721564345366</v>
       </c>
       <c r="M227" t="n">
-        <v>0.1259425345831526</v>
+        <v>0.2672145397225858</v>
       </c>
       <c r="N227" t="n">
-        <v>0.01409396328527993</v>
+        <v>0.1091793674551727</v>
       </c>
       <c r="O227" t="n">
-        <v>0.1275797518915177</v>
+        <v>0.2675349676896269</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.01413659907084218</v>
+        <v>0.0230522959478241</v>
       </c>
       <c r="G228" t="n">
-        <v>0.1283672812241814</v>
+        <v>0.2674134306084301</v>
       </c>
       <c r="J228" t="n">
-        <v>0.03736522115532492</v>
+        <v>0.02708093087426822</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1277227087098953</v>
+        <v>0.2694121022496826</v>
       </c>
       <c r="L228" t="n">
-        <v>0.05284219009665991</v>
+        <v>0.06729085203356758</v>
       </c>
       <c r="M228" t="n">
-        <v>0.126719957636135</v>
+        <v>0.2688640121900092</v>
       </c>
       <c r="N228" t="n">
-        <v>0.01413659907084218</v>
+        <v>0.1072682965251994</v>
       </c>
       <c r="O228" t="n">
-        <v>0.1283672812241814</v>
+        <v>0.2691864181074641</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.01387865880225984</v>
+        <v>0.02477551215294033</v>
       </c>
       <c r="G229" t="n">
-        <v>0.1291548105568451</v>
+        <v>0.2690540038023468</v>
       </c>
       <c r="J229" t="n">
-        <v>0.03638762455250022</v>
+        <v>0.02668843253792358</v>
       </c>
       <c r="K229" t="n">
-        <v>0.128506283609956</v>
+        <v>0.2710649372328094</v>
       </c>
       <c r="L229" t="n">
-        <v>0.05188469389317418</v>
+        <v>0.06635694244105855</v>
       </c>
       <c r="M229" t="n">
-        <v>0.1274973806891175</v>
+        <v>0.2705134846574325</v>
       </c>
       <c r="N229" t="n">
-        <v>0.01387865880225984</v>
+        <v>0.1066995747860167</v>
       </c>
       <c r="O229" t="n">
-        <v>0.1291548105568451</v>
+        <v>0.2708378685253013</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.01372014197699703</v>
+        <v>0.02347129420774092</v>
       </c>
       <c r="G230" t="n">
-        <v>0.1299423398895087</v>
+        <v>0.2706945769962636</v>
       </c>
       <c r="J230" t="n">
-        <v>0.03649037750565212</v>
+        <v>0.02656379819396558</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1292898585100168</v>
+        <v>0.2727177722159363</v>
       </c>
       <c r="L230" t="n">
-        <v>0.0514117900662473</v>
+        <v>0.06594463424325528</v>
       </c>
       <c r="M230" t="n">
-        <v>0.1282748037420999</v>
+        <v>0.2721629571248559</v>
       </c>
       <c r="N230" t="n">
-        <v>0.01372014197699703</v>
+        <v>0.1058039244160294</v>
       </c>
       <c r="O230" t="n">
-        <v>0.1299423398895087</v>
+        <v>0.2724893189431385</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.01346104809251786</v>
+        <v>0.02314662843662511</v>
       </c>
       <c r="G231" t="n">
-        <v>0.1307298692221724</v>
+        <v>0.2723351501901804</v>
       </c>
       <c r="J231" t="n">
-        <v>0.03637385287707576</v>
+        <v>0.02611475775593829</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1300734334100775</v>
+        <v>0.2743706071990633</v>
       </c>
       <c r="L231" t="n">
-        <v>0.05102359431703873</v>
+        <v>0.06487307481748661</v>
       </c>
       <c r="M231" t="n">
-        <v>0.1290522267950823</v>
+        <v>0.2738124295922793</v>
       </c>
       <c r="N231" t="n">
-        <v>0.01346104809251786</v>
+        <v>0.103912067593642</v>
       </c>
       <c r="O231" t="n">
-        <v>0.1307298692221724</v>
+        <v>0.2741407693609757</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.01350137664628644</v>
+        <v>0.02280850116399216</v>
       </c>
       <c r="G232" t="n">
-        <v>0.1315173985548361</v>
+        <v>0.2739757233840971</v>
       </c>
       <c r="J232" t="n">
-        <v>0.03563842352906627</v>
+        <v>0.02564904113738582</v>
       </c>
       <c r="K232" t="n">
-        <v>0.1308570083101382</v>
+        <v>0.2760234421821901</v>
       </c>
       <c r="L232" t="n">
-        <v>0.05032022234670808</v>
+        <v>0.0641614115410814</v>
       </c>
       <c r="M232" t="n">
-        <v>0.1298296498480647</v>
+        <v>0.2754619020597026</v>
       </c>
       <c r="N232" t="n">
-        <v>0.01350137664628644</v>
+        <v>0.1026547264972594</v>
       </c>
       <c r="O232" t="n">
-        <v>0.1315173985548361</v>
+        <v>0.2757922197788129</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.01334112713576689</v>
+        <v>0.02146389871424132</v>
       </c>
       <c r="G233" t="n">
-        <v>0.1323049278874998</v>
+        <v>0.2756162965780138</v>
       </c>
       <c r="J233" t="n">
-        <v>0.0353844623239189</v>
+        <v>0.02547437825185228</v>
       </c>
       <c r="K233" t="n">
-        <v>0.1316405832101989</v>
+        <v>0.277676277165317</v>
       </c>
       <c r="L233" t="n">
-        <v>0.05000178985641501</v>
+        <v>0.06322879179136842</v>
       </c>
       <c r="M233" t="n">
-        <v>0.1306070729010471</v>
+        <v>0.277111374527126</v>
       </c>
       <c r="N233" t="n">
-        <v>0.01334112713576689</v>
+        <v>0.1003626233052861</v>
       </c>
       <c r="O233" t="n">
-        <v>0.1323049278874998</v>
+        <v>0.2774436701966501</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.01308029905842333</v>
+        <v>0.02111980741177182</v>
       </c>
       <c r="G234" t="n">
-        <v>0.1330924572201635</v>
+        <v>0.2772568697719306</v>
       </c>
       <c r="J234" t="n">
-        <v>0.03531234212392878</v>
+        <v>0.02509849901288173</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1324241581102596</v>
+        <v>0.2793291121484439</v>
       </c>
       <c r="L234" t="n">
-        <v>0.0484684125473191</v>
+        <v>0.06229436294567656</v>
       </c>
       <c r="M234" t="n">
-        <v>0.1313844959540296</v>
+        <v>0.2787608469945494</v>
       </c>
       <c r="N234" t="n">
-        <v>0.01308029905842333</v>
+        <v>0.0989664801961268</v>
       </c>
       <c r="O234" t="n">
-        <v>0.1330924572201635</v>
+        <v>0.2790951206144873</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.01291889191171987</v>
+        <v>0.02178321358098294</v>
       </c>
       <c r="G235" t="n">
-        <v>0.1338799865528272</v>
+        <v>0.2788974429658473</v>
       </c>
       <c r="J235" t="n">
-        <v>0.034522435791391</v>
+        <v>0.0247291333340183</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1332077330103203</v>
+        <v>0.2809819471315708</v>
       </c>
       <c r="L235" t="n">
-        <v>0.04792020612057984</v>
+        <v>0.06107727238133459</v>
       </c>
       <c r="M235" t="n">
-        <v>0.132161919007012</v>
+        <v>0.2804103194619728</v>
       </c>
       <c r="N235" t="n">
-        <v>0.01291889191171987</v>
+        <v>0.09769701934818625</v>
       </c>
       <c r="O235" t="n">
-        <v>0.1338799865528272</v>
+        <v>0.2807465710323245</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.0127569051931206</v>
+        <v>0.02246110354627389</v>
       </c>
       <c r="G236" t="n">
-        <v>0.1346675158854909</v>
+        <v>0.2805380161597641</v>
       </c>
       <c r="J236" t="n">
-        <v>0.03431511618860078</v>
+        <v>0.02437401112880606</v>
       </c>
       <c r="K236" t="n">
-        <v>0.133991307910381</v>
+        <v>0.2826347821146977</v>
       </c>
       <c r="L236" t="n">
-        <v>0.04705728627735695</v>
+        <v>0.06069666747567135</v>
       </c>
       <c r="M236" t="n">
-        <v>0.1329393420599944</v>
+        <v>0.2820597919293961</v>
       </c>
       <c r="N236" t="n">
-        <v>0.0127569051931206</v>
+        <v>0.09618496293986911</v>
       </c>
       <c r="O236" t="n">
-        <v>0.1346675158854909</v>
+        <v>0.2823980214501617</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.01259433840008968</v>
+        <v>0.02016046363204396</v>
       </c>
       <c r="G237" t="n">
-        <v>0.1354550452181546</v>
+        <v>0.2821785893536808</v>
       </c>
       <c r="J237" t="n">
-        <v>0.03419075617785325</v>
+        <v>0.02384086231078911</v>
       </c>
       <c r="K237" t="n">
-        <v>0.1347748828104417</v>
+        <v>0.2842876170978245</v>
       </c>
       <c r="L237" t="n">
-        <v>0.04717976871881002</v>
+        <v>0.05987169560601568</v>
       </c>
       <c r="M237" t="n">
-        <v>0.1337167651129768</v>
+        <v>0.2837092643968195</v>
       </c>
       <c r="N237" t="n">
-        <v>0.01259433840008968</v>
+        <v>0.09536103314958</v>
       </c>
       <c r="O237" t="n">
-        <v>0.1354550452181546</v>
+        <v>0.2840494718679989</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.01243119103009117</v>
+        <v>0.02188499605285959</v>
       </c>
       <c r="G238" t="n">
-        <v>0.1362425745508183</v>
+        <v>0.2838191625475976</v>
       </c>
       <c r="J238" t="n">
-        <v>0.03324972862144362</v>
+        <v>0.02363633614498564</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1355584577105024</v>
+        <v>0.2859404520809514</v>
       </c>
       <c r="L238" t="n">
-        <v>0.04608776914609869</v>
+        <v>0.05881748251200197</v>
       </c>
       <c r="M238" t="n">
-        <v>0.1344941881659593</v>
+        <v>0.2853587368642428</v>
       </c>
       <c r="N238" t="n">
-        <v>0.01243119103009117</v>
+        <v>0.09365082415176573</v>
       </c>
       <c r="O238" t="n">
-        <v>0.1362425745508183</v>
+        <v>0.2857009222858361</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01226746258058922</v>
+        <v>0.01961359867798939</v>
       </c>
       <c r="G239" t="n">
-        <v>0.1370301038834819</v>
+        <v>0.2854597357415143</v>
       </c>
       <c r="J239" t="n">
-        <v>0.03329240638166703</v>
+        <v>0.02344070441100775</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1363420326105631</v>
+        <v>0.2875932870640783</v>
       </c>
       <c r="L239" t="n">
-        <v>0.04528140326038238</v>
+        <v>0.05808205437558092</v>
       </c>
       <c r="M239" t="n">
-        <v>0.1352716112189417</v>
+        <v>0.2870082093316662</v>
       </c>
       <c r="N239" t="n">
-        <v>0.01226746258058922</v>
+        <v>0.09287378310398059</v>
       </c>
       <c r="O239" t="n">
-        <v>0.1370301038834819</v>
+        <v>0.2873523727036733</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.01210315254904794</v>
+        <v>0.02034116643135318</v>
       </c>
       <c r="G240" t="n">
-        <v>0.1378176332161456</v>
+        <v>0.2871003089354311</v>
       </c>
       <c r="J240" t="n">
-        <v>0.03221916232081867</v>
+        <v>0.02314393954954801</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1371256075106238</v>
+        <v>0.2892461220472052</v>
       </c>
       <c r="L240" t="n">
-        <v>0.04476078676282091</v>
+        <v>0.05734381139291836</v>
       </c>
       <c r="M240" t="n">
-        <v>0.1360490342719241</v>
+        <v>0.2886576817990896</v>
       </c>
       <c r="N240" t="n">
-        <v>0.01210315254904794</v>
+        <v>0.09179223319297175</v>
       </c>
       <c r="O240" t="n">
-        <v>0.1378176332161456</v>
+        <v>0.2890038231215105</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01183826043293144</v>
+        <v>0.01906768276208939</v>
       </c>
       <c r="G241" t="n">
-        <v>0.1386051625488093</v>
+        <v>0.2887408821293478</v>
       </c>
       <c r="J241" t="n">
-        <v>0.03233036930119354</v>
+        <v>0.02264602324815453</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1379091824106845</v>
+        <v>0.2908989570303321</v>
       </c>
       <c r="L241" t="n">
-        <v>0.0441260353545736</v>
+        <v>0.05620270820316739</v>
       </c>
       <c r="M241" t="n">
-        <v>0.1368264573249065</v>
+        <v>0.2903071542665129</v>
       </c>
       <c r="N241" t="n">
-        <v>0.01183826043293144</v>
+        <v>0.08990610163675949</v>
       </c>
       <c r="O241" t="n">
-        <v>0.1386051625488093</v>
+        <v>0.2906552735393477</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01177278572970382</v>
+        <v>0.01879313111933645</v>
       </c>
       <c r="G242" t="n">
-        <v>0.139392691881473</v>
+        <v>0.2903814553232646</v>
       </c>
       <c r="J242" t="n">
-        <v>0.03132640018508703</v>
+        <v>0.02234693719437551</v>
       </c>
       <c r="K242" t="n">
-        <v>0.1386927573107453</v>
+        <v>0.292551792013459</v>
       </c>
       <c r="L242" t="n">
-        <v>0.04307726473680029</v>
+        <v>0.05545869944548104</v>
       </c>
       <c r="M242" t="n">
-        <v>0.137603880377889</v>
+        <v>0.2919566267339364</v>
       </c>
       <c r="N242" t="n">
-        <v>0.01177278572970382</v>
+        <v>0.08941531565336375</v>
       </c>
       <c r="O242" t="n">
-        <v>0.139392691881473</v>
+        <v>0.2923067239571849</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.01170672793682921</v>
+        <v>0.02051749495223278</v>
       </c>
       <c r="G243" t="n">
-        <v>0.1401802212141367</v>
+        <v>0.2920220285171813</v>
       </c>
       <c r="J243" t="n">
-        <v>0.03080762783479415</v>
+        <v>0.02224666307575907</v>
       </c>
       <c r="K243" t="n">
-        <v>0.1394763322108059</v>
+        <v>0.2942046269965858</v>
       </c>
       <c r="L243" t="n">
-        <v>0.04291459061066066</v>
+        <v>0.05481173975901246</v>
       </c>
       <c r="M243" t="n">
-        <v>0.1383813034308714</v>
+        <v>0.2936060992013597</v>
       </c>
       <c r="N243" t="n">
-        <v>0.01170672793682921</v>
+        <v>0.08811980246080459</v>
       </c>
       <c r="O243" t="n">
-        <v>0.1401802212141367</v>
+        <v>0.2939581743750221</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.01144008655177172</v>
+        <v>0.02024075770991678</v>
       </c>
       <c r="G244" t="n">
-        <v>0.1409677505468004</v>
+        <v>0.2936626017110981</v>
       </c>
       <c r="J244" t="n">
-        <v>0.03007442511261013</v>
+        <v>0.02184518257985341</v>
       </c>
       <c r="K244" t="n">
-        <v>0.1402599071108667</v>
+        <v>0.2958574619797127</v>
       </c>
       <c r="L244" t="n">
-        <v>0.04133812867731396</v>
+        <v>0.05436178378291454</v>
       </c>
       <c r="M244" t="n">
-        <v>0.1391587264838538</v>
+        <v>0.2952555716687831</v>
       </c>
       <c r="N244" t="n">
-        <v>0.01144008655177172</v>
+        <v>0.08701948927710212</v>
       </c>
       <c r="O244" t="n">
-        <v>0.1409677505468004</v>
+        <v>0.2956096247928593</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01137286107199546</v>
+        <v>0.01996290284152688</v>
       </c>
       <c r="G245" t="n">
-        <v>0.1417552798794641</v>
+        <v>0.2953031749050148</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02992716488083011</v>
+        <v>0.02154247739420669</v>
       </c>
       <c r="K245" t="n">
-        <v>0.1410434820109273</v>
+        <v>0.2975102969628396</v>
       </c>
       <c r="L245" t="n">
-        <v>0.04044799463792015</v>
+        <v>0.05350878615634047</v>
       </c>
       <c r="M245" t="n">
-        <v>0.1399361495368362</v>
+        <v>0.2969050441362064</v>
       </c>
       <c r="N245" t="n">
-        <v>0.01137286107199546</v>
+        <v>0.08551430332027649</v>
       </c>
       <c r="O245" t="n">
-        <v>0.1417552798794641</v>
+        <v>0.2972610752106966</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.01110505099496454</v>
+        <v>0.0176839137962015</v>
       </c>
       <c r="G246" t="n">
-        <v>0.1425428092121278</v>
+        <v>0.2969437480989316</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02966622000174921</v>
+        <v>0.02123852920636704</v>
       </c>
       <c r="K246" t="n">
-        <v>0.1418270569109881</v>
+        <v>0.2991631319459665</v>
       </c>
       <c r="L246" t="n">
-        <v>0.03984430419363849</v>
+        <v>0.05265270151844326</v>
       </c>
       <c r="M246" t="n">
-        <v>0.1407135725898186</v>
+        <v>0.2985545166036299</v>
       </c>
       <c r="N246" t="n">
-        <v>0.01110505099496454</v>
+        <v>0.08460417180834762</v>
       </c>
       <c r="O246" t="n">
-        <v>0.1425428092121278</v>
+        <v>0.2989125256285337</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01093665581814309</v>
+        <v>0.01840377402307908</v>
       </c>
       <c r="G247" t="n">
-        <v>0.1433303385447915</v>
+        <v>0.2985843212928483</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02869196333766263</v>
+        <v>0.02093331970388262</v>
       </c>
       <c r="K247" t="n">
-        <v>0.1426106318110488</v>
+        <v>0.3008159669290935</v>
       </c>
       <c r="L247" t="n">
-        <v>0.03882717304562888</v>
+        <v>0.05239348450837597</v>
       </c>
       <c r="M247" t="n">
-        <v>0.1414909956428011</v>
+        <v>0.3002039890710532</v>
       </c>
       <c r="N247" t="n">
-        <v>0.01093665581814309</v>
+        <v>0.08288902195933573</v>
       </c>
       <c r="O247" t="n">
-        <v>0.1433303385447915</v>
+        <v>0.3005639760463709</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.0108676750389952</v>
+        <v>0.01912246697129801</v>
       </c>
       <c r="G248" t="n">
-        <v>0.1441178678774551</v>
+        <v>0.3002248944867651</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02810476775086557</v>
+        <v>0.02072683057430165</v>
       </c>
       <c r="K248" t="n">
-        <v>0.1433942067111095</v>
+        <v>0.3024688019122203</v>
       </c>
       <c r="L248" t="n">
-        <v>0.03799671689505074</v>
+        <v>0.05133108976529169</v>
       </c>
       <c r="M248" t="n">
-        <v>0.1422684186957835</v>
+        <v>0.3018534615384765</v>
       </c>
       <c r="N248" t="n">
-        <v>0.0108676750389952</v>
+        <v>0.08176878099126073</v>
       </c>
       <c r="O248" t="n">
-        <v>0.1441178678774551</v>
+        <v>0.3022154264642081</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.010598108154985</v>
+        <v>0.01883997608999674</v>
       </c>
       <c r="G249" t="n">
-        <v>0.1449053972101189</v>
+        <v>0.3018654676806818</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02770500610365309</v>
+        <v>0.02021904350517222</v>
       </c>
       <c r="K249" t="n">
-        <v>0.1441777816111702</v>
+        <v>0.3041216368953472</v>
       </c>
       <c r="L249" t="n">
-        <v>0.03815305144306375</v>
+        <v>0.05016547192834339</v>
       </c>
       <c r="M249" t="n">
-        <v>0.1430458417487659</v>
+        <v>0.3035029340058999</v>
       </c>
       <c r="N249" t="n">
-        <v>0.010598108154985</v>
+        <v>0.08084337612214293</v>
       </c>
       <c r="O249" t="n">
-        <v>0.1449053972101189</v>
+        <v>0.3038668768820453</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01032795466357661</v>
+        <v>0.01755628482831367</v>
       </c>
       <c r="G250" t="n">
-        <v>0.1456929265427825</v>
+        <v>0.3035060408745986</v>
       </c>
       <c r="J250" t="n">
-        <v>0.02679305125832043</v>
+        <v>0.01990994018404255</v>
       </c>
       <c r="K250" t="n">
-        <v>0.1449613565112309</v>
+        <v>0.3057744718784741</v>
       </c>
       <c r="L250" t="n">
-        <v>0.03739629239082742</v>
+        <v>0.04949658563668421</v>
       </c>
       <c r="M250" t="n">
-        <v>0.1438232648017483</v>
+        <v>0.3051524064733233</v>
       </c>
       <c r="N250" t="n">
-        <v>0.01032795466357661</v>
+        <v>0.07961273457000217</v>
       </c>
       <c r="O250" t="n">
-        <v>0.1456929265427825</v>
+        <v>0.3055183272998825</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01025721406223413</v>
+        <v>0.01627137663538723</v>
       </c>
       <c r="G251" t="n">
-        <v>0.1464804558754462</v>
+        <v>0.3051466140685153</v>
       </c>
       <c r="J251" t="n">
-        <v>0.02636927607716275</v>
+        <v>0.01979950229846078</v>
       </c>
       <c r="K251" t="n">
-        <v>0.1457449314112916</v>
+        <v>0.307427306861601</v>
       </c>
       <c r="L251" t="n">
-        <v>0.03642655543950146</v>
+        <v>0.04932438552946714</v>
       </c>
       <c r="M251" t="n">
-        <v>0.1446006878547308</v>
+        <v>0.3068018789407467</v>
       </c>
       <c r="N251" t="n">
-        <v>0.01025721406223413</v>
+        <v>0.07837678355285876</v>
       </c>
       <c r="O251" t="n">
-        <v>0.1464804558754462</v>
+        <v>0.3071697777177197</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01018588584842167</v>
+        <v>0.01798523496035585</v>
       </c>
       <c r="G252" t="n">
-        <v>0.1472679852081099</v>
+        <v>0.3067871872624321</v>
       </c>
       <c r="J252" t="n">
-        <v>0.02563405342247513</v>
+        <v>0.01938771153597506</v>
       </c>
       <c r="K252" t="n">
-        <v>0.1465285063113523</v>
+        <v>0.3090801418447279</v>
       </c>
       <c r="L252" t="n">
-        <v>0.03474395629024535</v>
+        <v>0.04824882624584531</v>
       </c>
       <c r="M252" t="n">
-        <v>0.1453781109077132</v>
+        <v>0.30845135140817</v>
       </c>
       <c r="N252" t="n">
-        <v>0.01018588584842167</v>
+        <v>0.0769354502887325</v>
       </c>
       <c r="O252" t="n">
-        <v>0.1472679852081099</v>
+        <v>0.308821228135557</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.009913969519603355</v>
+        <v>0.01669784325235791</v>
       </c>
       <c r="G253" t="n">
-        <v>0.1480555145407736</v>
+        <v>0.3084277604563488</v>
       </c>
       <c r="J253" t="n">
-        <v>0.02518775615655283</v>
+        <v>0.01917454958413355</v>
       </c>
       <c r="K253" t="n">
-        <v>0.147312081211413</v>
+        <v>0.3107329768278547</v>
       </c>
       <c r="L253" t="n">
-        <v>0.03374861064421886</v>
+        <v>0.04736986242497168</v>
       </c>
       <c r="M253" t="n">
-        <v>0.1461555339606956</v>
+        <v>0.3101008238755934</v>
       </c>
       <c r="N253" t="n">
-        <v>0.009913969519603355</v>
+        <v>0.07638866199564365</v>
       </c>
       <c r="O253" t="n">
-        <v>0.1480555145407736</v>
+        <v>0.3104726785533942</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.009741464573243298</v>
+        <v>0.01640918496053188</v>
       </c>
       <c r="G254" t="n">
-        <v>0.1488430438734373</v>
+        <v>0.3100683336502656</v>
       </c>
       <c r="J254" t="n">
-        <v>0.02443075714169099</v>
+        <v>0.01875999813048444</v>
       </c>
       <c r="K254" t="n">
-        <v>0.1480956561114737</v>
+        <v>0.3123858118109816</v>
       </c>
       <c r="L254" t="n">
-        <v>0.03274063420258139</v>
+        <v>0.04648744870599944</v>
       </c>
       <c r="M254" t="n">
-        <v>0.1469329570136781</v>
+        <v>0.3117502963430168</v>
       </c>
       <c r="N254" t="n">
-        <v>0.009741464573243298</v>
+        <v>0.07403634589161218</v>
       </c>
       <c r="O254" t="n">
-        <v>0.1488430438734373</v>
+        <v>0.3121241289712313</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.0096683705068056</v>
+        <v>0.01511924353401617</v>
       </c>
       <c r="G255" t="n">
-        <v>0.149630573206101</v>
+        <v>0.3117089068441823</v>
       </c>
       <c r="J255" t="n">
-        <v>0.02336342924018472</v>
+        <v>0.01834403886257588</v>
       </c>
       <c r="K255" t="n">
-        <v>0.1488792310115344</v>
+        <v>0.3140386467941085</v>
       </c>
       <c r="L255" t="n">
-        <v>0.03202014266649267</v>
+        <v>0.04560153972808156</v>
       </c>
       <c r="M255" t="n">
-        <v>0.1477103800666605</v>
+        <v>0.3133997688104402</v>
       </c>
       <c r="N255" t="n">
-        <v>0.0096683705068056</v>
+        <v>0.07377842919465827</v>
       </c>
       <c r="O255" t="n">
-        <v>0.149630573206101</v>
+        <v>0.3137755793890685</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.009394686817754391</v>
+        <v>0.01482800242194919</v>
       </c>
       <c r="G256" t="n">
-        <v>0.1504181025387647</v>
+        <v>0.3133494800380991</v>
       </c>
       <c r="J256" t="n">
-        <v>0.02338614531432923</v>
+        <v>0.01802665346795601</v>
       </c>
       <c r="K256" t="n">
-        <v>0.1496628059115951</v>
+        <v>0.3156914817772354</v>
       </c>
       <c r="L256" t="n">
-        <v>0.03088725173711226</v>
+        <v>0.04541209013037109</v>
       </c>
       <c r="M256" t="n">
-        <v>0.1484878031196429</v>
+        <v>0.3150492412778635</v>
       </c>
       <c r="N256" t="n">
-        <v>0.009394686817754391</v>
+        <v>0.07261483912280198</v>
       </c>
       <c r="O256" t="n">
-        <v>0.1504181025387647</v>
+        <v>0.3154270298069058</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.009320413003553782</v>
+        <v>0.01553544507346936</v>
       </c>
       <c r="G257" t="n">
-        <v>0.1512056318714284</v>
+        <v>0.3149900532320158</v>
       </c>
       <c r="J257" t="n">
-        <v>0.02249927822641962</v>
+        <v>0.01790782363417304</v>
       </c>
       <c r="K257" t="n">
-        <v>0.1504463808116558</v>
+        <v>0.3173443167603623</v>
       </c>
       <c r="L257" t="n">
-        <v>0.02994207711559976</v>
+        <v>0.0440190545520211</v>
       </c>
       <c r="M257" t="n">
-        <v>0.1492652261726253</v>
+        <v>0.3166987137452869</v>
       </c>
       <c r="N257" t="n">
-        <v>0.009320413003553782</v>
+        <v>0.07034550289406333</v>
       </c>
       <c r="O257" t="n">
-        <v>0.1512056318714284</v>
+        <v>0.3170784802247429</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.009145548561667861</v>
+        <v>0.01624155493771511</v>
       </c>
       <c r="G258" t="n">
-        <v>0.151993161204092</v>
+        <v>0.3166306264259326</v>
       </c>
       <c r="J258" t="n">
-        <v>0.02180320083875112</v>
+        <v>0.01758753104877507</v>
       </c>
       <c r="K258" t="n">
-        <v>0.1512299557117166</v>
+        <v>0.3189971517434891</v>
       </c>
       <c r="L258" t="n">
-        <v>0.03008473450311472</v>
+        <v>0.04382238763218468</v>
       </c>
       <c r="M258" t="n">
-        <v>0.1500426492256077</v>
+        <v>0.3183481862127103</v>
       </c>
       <c r="N258" t="n">
-        <v>0.009145548561667861</v>
+        <v>0.06917034772646236</v>
       </c>
       <c r="O258" t="n">
-        <v>0.151993161204092</v>
+        <v>0.3187299306425802</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.008870092989560777</v>
+        <v>0.01394631546382485</v>
       </c>
       <c r="G259" t="n">
-        <v>0.1527806905367557</v>
+        <v>0.3182711996198493</v>
       </c>
       <c r="J259" t="n">
-        <v>0.02069828601361884</v>
+        <v>0.01706575739931031</v>
       </c>
       <c r="K259" t="n">
-        <v>0.1520135306117773</v>
+        <v>0.320649986726616</v>
       </c>
       <c r="L259" t="n">
-        <v>0.02851533960081687</v>
+        <v>0.04242204401001484</v>
       </c>
       <c r="M259" t="n">
-        <v>0.1508200722785902</v>
+        <v>0.3199976586801336</v>
       </c>
       <c r="N259" t="n">
-        <v>0.008870092989560777</v>
+        <v>0.0678893008380192</v>
       </c>
       <c r="O259" t="n">
-        <v>0.1527806905367557</v>
+        <v>0.3203813810604174</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.008594045784696636</v>
+        <v>0.01564971010093701</v>
       </c>
       <c r="G260" t="n">
-        <v>0.1535682198694194</v>
+        <v>0.3199117728137661</v>
       </c>
       <c r="J260" t="n">
-        <v>0.019984906613318</v>
+        <v>0.0167424843733269</v>
       </c>
       <c r="K260" t="n">
-        <v>0.152797105511838</v>
+        <v>0.3223028217097429</v>
       </c>
       <c r="L260" t="n">
-        <v>0.02803400810986567</v>
+        <v>0.04201797832466467</v>
       </c>
       <c r="M260" t="n">
-        <v>0.1515974953315726</v>
+        <v>0.321647131147557</v>
       </c>
       <c r="N260" t="n">
-        <v>0.008594045784696636</v>
+        <v>0.06670228944675399</v>
       </c>
       <c r="O260" t="n">
-        <v>0.1535682198694194</v>
+        <v>0.3220328314782546</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.008617406444539531</v>
+        <v>0.01335172229819</v>
       </c>
       <c r="G261" t="n">
-        <v>0.1543557492020831</v>
+        <v>0.3215523460076828</v>
       </c>
       <c r="J261" t="n">
-        <v>0.01946343550014368</v>
+        <v>0.016617693658373</v>
       </c>
       <c r="K261" t="n">
-        <v>0.1535806804118987</v>
+        <v>0.3239556566928698</v>
       </c>
       <c r="L261" t="n">
-        <v>0.02604085573142079</v>
+        <v>0.04111014521528722</v>
       </c>
       <c r="M261" t="n">
-        <v>0.152374918384555</v>
+        <v>0.3232966036149804</v>
       </c>
       <c r="N261" t="n">
-        <v>0.008617406444539531</v>
+        <v>0.06620924077068663</v>
       </c>
       <c r="O261" t="n">
-        <v>0.1543557492020831</v>
+        <v>0.3236842818960918</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.008340174466553593</v>
+        <v>0.01305233550472226</v>
       </c>
       <c r="G262" t="n">
-        <v>0.1551432785347468</v>
+        <v>0.3231929192015996</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0188342455363911</v>
+        <v>0.0161913669419968</v>
       </c>
       <c r="K262" t="n">
-        <v>0.1543642553119594</v>
+        <v>0.3256084916759967</v>
       </c>
       <c r="L262" t="n">
-        <v>0.02523599816664179</v>
+        <v>0.0401984993210355</v>
       </c>
       <c r="M262" t="n">
-        <v>0.1531523414375374</v>
+        <v>0.3249460760824037</v>
       </c>
       <c r="N262" t="n">
-        <v>0.008340174466553593</v>
+        <v>0.06491008202783738</v>
       </c>
       <c r="O262" t="n">
-        <v>0.1551432785347468</v>
+        <v>0.325335732313929</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.008062349348202935</v>
+        <v>0.0147515331696722</v>
       </c>
       <c r="G263" t="n">
-        <v>0.1559308078674105</v>
+        <v>0.3248334923955163</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01779770958435539</v>
+        <v>0.01586348591174642</v>
       </c>
       <c r="K263" t="n">
-        <v>0.1551478302120201</v>
+        <v>0.3272613266591236</v>
       </c>
       <c r="L263" t="n">
-        <v>0.02491955111668837</v>
+        <v>0.03938299528106262</v>
       </c>
       <c r="M263" t="n">
-        <v>0.1539297644905198</v>
+        <v>0.3265955485498271</v>
       </c>
       <c r="N263" t="n">
-        <v>0.008062349348202935</v>
+        <v>0.06350474043622617</v>
       </c>
       <c r="O263" t="n">
-        <v>0.1559308078674105</v>
+        <v>0.3269871827317662</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.008083930586951664</v>
+        <v>0.01344929874217823</v>
       </c>
       <c r="G264" t="n">
-        <v>0.1567183372000742</v>
+        <v>0.3264740655894331</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01735420050633174</v>
+        <v>0.01553403225517005</v>
       </c>
       <c r="K264" t="n">
-        <v>0.1559314051120808</v>
+        <v>0.3289141616422505</v>
       </c>
       <c r="L264" t="n">
-        <v>0.02349163028271994</v>
+        <v>0.03896358773452163</v>
       </c>
       <c r="M264" t="n">
-        <v>0.1547071875435023</v>
+        <v>0.3282450210172505</v>
       </c>
       <c r="N264" t="n">
-        <v>0.008083930586951664</v>
+        <v>0.06229314321387325</v>
       </c>
       <c r="O264" t="n">
-        <v>0.1567183372000742</v>
+        <v>0.3286386331496034</v>
       </c>
     </row>
     <row r="265" ht="15" customHeight="1"/>

--- a/prot/ООО Регионстрой/Трехосные_КД_ПП/1300.xlsx
+++ b/prot/ООО Регионстрой/Трехосные_КД_ПП/1300.xlsx
@@ -4884,7 +4884,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BF264"/>
+  <dimension ref="A1:BF464"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScale="70" zoomScaleNormal="40" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
@@ -9318,29 +9318,29 @@
         </is>
       </c>
       <c r="F66" s="170" t="n">
-        <v>0.0009287488047290057</v>
+        <v>0.000953905578923081</v>
       </c>
       <c r="G66" s="171" t="n">
-        <v>0.001640573193916749</v>
+        <v>0.0005210288593149759</v>
       </c>
       <c r="H66" s="171" t="n"/>
       <c r="J66" s="170" t="n">
-        <v>0.002972858691911551</v>
+        <v>0.001483991688495959</v>
       </c>
       <c r="K66" s="171" t="n">
-        <v>0.001652834983126887</v>
+        <v>0.0008503318964430508</v>
       </c>
       <c r="L66" s="172" t="n">
-        <v>0.008634424255389433</v>
+        <v>0.004467195453348421</v>
       </c>
       <c r="M66" s="170" t="n">
-        <v>0.001649472467423369</v>
+        <v>0.0008362145281029371</v>
       </c>
       <c r="N66" s="171" t="n">
-        <v>0.01621058668621039</v>
+        <v>0.007633981076934193</v>
       </c>
       <c r="O66" s="172" t="n">
-        <v>0.001651450417837203</v>
+        <v>0.0008337817488452753</v>
       </c>
       <c r="Q66" s="151" t="inlineStr">
         <is>
@@ -9358,29 +9358,29 @@
         <v>2</v>
       </c>
       <c r="F67" s="170" t="n">
-        <v>0.006197638667498021</v>
+        <v>0.001889742318134331</v>
       </c>
       <c r="G67" s="171" t="n">
-        <v>0.003870619024060873</v>
+        <v>0.001042057718629952</v>
       </c>
       <c r="H67" s="171" t="n"/>
       <c r="J67" s="170" t="n">
-        <v>0.005577136521501998</v>
+        <v>0.00290622064100951</v>
       </c>
       <c r="K67" s="171" t="n">
-        <v>0.003305669966253774</v>
+        <v>0.001700663792886102</v>
       </c>
       <c r="L67" s="172" t="n">
-        <v>0.0147403232286967</v>
+        <v>0.008955507192276613</v>
       </c>
       <c r="M67" s="170" t="n">
-        <v>0.00292247380680063</v>
+        <v>0.001672429056205874</v>
       </c>
       <c r="N67" s="171" t="n">
-        <v>0.03366590337626008</v>
+        <v>0.01614960919727471</v>
       </c>
       <c r="O67" s="172" t="n">
-        <v>0.004122629160383319</v>
+        <v>0.001667563497690551</v>
       </c>
       <c r="Q67" s="151" t="inlineStr">
         <is>
@@ -9400,29 +9400,29 @@
         </is>
       </c>
       <c r="F68" s="170" t="n">
-        <v>0.005381569558494302</v>
+        <v>0.002796928203201911</v>
       </c>
       <c r="G68" s="171" t="n">
-        <v>0.004921719581750248</v>
+        <v>0.001563086577944928</v>
       </c>
       <c r="H68" s="171" t="n"/>
       <c r="J68" s="170" t="n">
-        <v>0.007499999999999993</v>
+        <v>0.004535121660942103</v>
       </c>
       <c r="K68" s="171" t="n">
-        <v>0.004683984374999996</v>
+        <v>0.002550995689329153</v>
       </c>
       <c r="L68" s="172" t="n">
-        <v>0.01996385187385166</v>
+        <v>0.01438936315182296</v>
       </c>
       <c r="M68" s="170" t="n">
-        <v>0.004948417402270108</v>
+        <v>0.002799566029879106</v>
       </c>
       <c r="N68" s="171" t="n">
-        <v>0.03670811882711872</v>
+        <v>0.02277853582470518</v>
       </c>
       <c r="O68" s="172" t="n">
-        <v>0.004954351253511608</v>
+        <v>0.002501345246535826</v>
       </c>
       <c r="Q68" s="151" t="inlineStr">
         <is>
@@ -9447,29 +9447,29 @@
         </is>
       </c>
       <c r="F69" s="170" t="n">
-        <v>0.0080419682701472</v>
+        <v>0.003664881219693952</v>
       </c>
       <c r="G69" s="171" t="n">
-        <v>0.006562292775666997</v>
+        <v>0.002084115437259904</v>
       </c>
       <c r="H69" s="171" t="n"/>
       <c r="J69" s="170" t="n">
-        <v>0.009069598721608139</v>
+        <v>0.005639129551695217</v>
       </c>
       <c r="K69" s="171" t="n">
-        <v>0.006611339932507548</v>
+        <v>0.003401327585772203</v>
       </c>
       <c r="L69" s="172" t="n">
-        <v>0.02360990095610818</v>
+        <v>0.01607774068701368</v>
       </c>
       <c r="M69" s="170" t="n">
-        <v>0.006597889869693477</v>
+        <v>0.003344858112411748</v>
       </c>
       <c r="N69" s="171" t="n">
-        <v>0.04116266549052106</v>
+        <v>0.0314215098178427</v>
       </c>
       <c r="O69" s="172" t="n">
-        <v>0.006605801671348811</v>
+        <v>0.003634021259893439</v>
       </c>
       <c r="Q69" s="151" t="inlineStr">
         <is>
@@ -9490,56 +9490,56 @@
         <v>0.006197638667498021</v>
       </c>
       <c r="F70" s="170" t="n">
-        <v>0.008500280801339924</v>
+        <v>0.004483019353178595</v>
       </c>
       <c r="G70" s="171" t="n">
-        <v>0.008202865969583745</v>
+        <v>0.00260514429657488</v>
       </c>
       <c r="H70" s="171" t="n"/>
       <c r="J70" s="170" t="n">
-        <v>0.01052669752016193</v>
+        <v>0.006986679116670301</v>
       </c>
       <c r="K70" s="171" t="n">
-        <v>0.008264174915634435</v>
+        <v>0.004251659482215254</v>
       </c>
       <c r="L70" s="172" t="n">
-        <v>0.02629642524997039</v>
+        <v>0.01899890443168789</v>
       </c>
       <c r="M70" s="170" t="n">
-        <v>0.008247362337116846</v>
+        <v>0.004181072640514686</v>
       </c>
       <c r="N70" s="171" t="n">
-        <v>0.04443043854335232</v>
+        <v>0.03429597026959763</v>
       </c>
       <c r="O70" s="172" t="n">
-        <v>0.008257252089186014</v>
+        <v>0.004168908744226377</v>
       </c>
     </row>
     <row r="71">
       <c r="F71" s="170" t="n">
-        <v>0.01178658295088881</v>
+        <v>0.005240760589223993</v>
       </c>
       <c r="G71" s="171" t="n">
-        <v>0.009843439163500495</v>
+        <v>0.003126173155889856</v>
       </c>
       <c r="H71" s="171" t="n"/>
       <c r="J71" s="170" t="n">
-        <v>0.01141765500361058</v>
+        <v>0.007499999999999993</v>
       </c>
       <c r="K71" s="171" t="n">
-        <v>0.009917009898761322</v>
+        <v>0.004683984374999996</v>
       </c>
       <c r="L71" s="172" t="n">
-        <v>0.02951334573077477</v>
+        <v>0.02191382842434805</v>
       </c>
       <c r="M71" s="170" t="n">
-        <v>0.009896834804540216</v>
+        <v>0.005017287168617622</v>
       </c>
       <c r="N71" s="171" t="n">
-        <v>0.04794011344218752</v>
+        <v>0.03827938130341457</v>
       </c>
       <c r="O71" s="172" t="n">
-        <v>0.009908702507023217</v>
+        <v>0.005002690493071652</v>
       </c>
     </row>
     <row r="72">
@@ -9554,29 +9554,29 @@
         </is>
       </c>
       <c r="F72" s="170" t="n">
-        <v>0.01301504120174584</v>
+        <v>0.006197638667498021</v>
       </c>
       <c r="G72" s="171" t="n">
-        <v>0.01161185707218262</v>
+        <v>0.003870619024060873</v>
       </c>
       <c r="H72" s="171" t="n"/>
       <c r="J72" s="170" t="n">
-        <v>0.01251290879697961</v>
+        <v>0.00883437242146827</v>
       </c>
       <c r="K72" s="171" t="n">
-        <v>0.01156984488188821</v>
+        <v>0.005952323275101356</v>
       </c>
       <c r="L72" s="172" t="n">
-        <v>0.03205058337385772</v>
+        <v>0.0245376227819788</v>
       </c>
       <c r="M72" s="170" t="n">
-        <v>0.01154630727196358</v>
+        <v>0.005853501696720559</v>
       </c>
       <c r="N72" s="171" t="n">
-        <v>0.05102036564360157</v>
+        <v>0.04202923652082269</v>
       </c>
       <c r="O72" s="172" t="n">
-        <v>0.01156015292486042</v>
+        <v>0.005836472241916927</v>
       </c>
     </row>
     <row r="73">
@@ -9600,29 +9600,29 @@
         <v/>
       </c>
       <c r="F73" s="170" t="n">
-        <v>0.01200013184450271</v>
+        <v>0.006546621521334652</v>
       </c>
       <c r="G73" s="171" t="n">
-        <v>0.01312458555133399</v>
+        <v>0.004168230874519807</v>
       </c>
       <c r="H73" s="171" t="n"/>
       <c r="J73" s="170" t="n">
-        <v>0.01358289652529458</v>
+        <v>0.009634294457912779</v>
       </c>
       <c r="K73" s="171" t="n">
-        <v>0.0132226798650151</v>
+        <v>0.006802655171544407</v>
       </c>
       <c r="L73" s="172" t="n">
-        <v>0.03509600768737309</v>
+        <v>0.02708539762156476</v>
       </c>
       <c r="M73" s="170" t="n">
-        <v>0.01338281249999999</v>
+        <v>0.006689716224823497</v>
       </c>
       <c r="N73" s="171" t="n">
-        <v>0.05610983896043342</v>
+        <v>0.04581916105337291</v>
       </c>
       <c r="O73" s="172" t="n">
-        <v>0.01377642463235293</v>
+        <v>0.006670253990762202</v>
       </c>
     </row>
     <row r="74">
@@ -9637,29 +9637,29 @@
         </is>
       </c>
       <c r="F74" s="170" t="n">
-        <v>0.0140504508204195</v>
+        <v>0.007153761644650508</v>
       </c>
       <c r="G74" s="171" t="n">
-        <v>0.01476515874525074</v>
+        <v>0.004689259733834783</v>
       </c>
       <c r="H74" s="171" t="n"/>
       <c r="J74" s="170" t="n">
-        <v>0.01408217641431279</v>
+        <v>0.01017294961588831</v>
       </c>
       <c r="K74" s="171" t="n">
-        <v>0.01405195312499999</v>
+        <v>0.007652987067987458</v>
       </c>
       <c r="L74" s="172" t="n">
-        <v>0.03675420698190079</v>
+        <v>0.02947226306009054</v>
       </c>
       <c r="M74" s="170" t="n">
-        <v>0.01484525220681032</v>
+        <v>0.007525930752926434</v>
       </c>
       <c r="N74" s="171" t="n">
-        <v>0.05817304835937798</v>
+        <v>0.04932278003261614</v>
       </c>
       <c r="O74" s="172" t="n">
-        <v>0.01486305376053483</v>
+        <v>0.007504035739607477</v>
       </c>
     </row>
     <row r="75">
@@ -9681,29 +9681,29 @@
         </is>
       </c>
       <c r="F75" s="170" t="n">
-        <v>0.01607479322041418</v>
+        <v>0.007752855188724046</v>
       </c>
       <c r="G75" s="171" t="n">
-        <v>0.01640573193916749</v>
+        <v>0.00521028859314976</v>
       </c>
       <c r="H75" s="171" t="n"/>
       <c r="J75" s="170" t="n">
-        <v>0.01553280198950475</v>
+        <v>0.01096299715384735</v>
       </c>
       <c r="K75" s="171" t="n">
-        <v>0.01652834983126887</v>
+        <v>0.008503318964430509</v>
       </c>
       <c r="L75" s="172" t="n">
-        <v>0.03993844183930711</v>
+        <v>0.03151332921454084</v>
       </c>
       <c r="M75" s="170" t="n">
-        <v>0.01649472467423369</v>
+        <v>0.008362145281029371</v>
       </c>
       <c r="N75" s="171" t="n">
-        <v>0.06149057803073443</v>
+        <v>0.0519137185901033</v>
       </c>
       <c r="O75" s="172" t="n">
-        <v>0.01651450417837203</v>
+        <v>0.008337817488452753</v>
       </c>
     </row>
     <row r="76">
@@ -9723,29 +9723,29 @@
         <v>0</v>
       </c>
       <c r="F76" s="170" t="n">
-        <v>0.01606574494641441</v>
+        <v>0.008340192909002619</v>
       </c>
       <c r="G76" s="171" t="n">
-        <v>0.01804630513308424</v>
+        <v>0.005731317452464735</v>
       </c>
       <c r="H76" s="171" t="n"/>
       <c r="J76" s="170" t="n">
-        <v>0.0166907215552294</v>
+        <v>0.01151709633024242</v>
       </c>
       <c r="K76" s="171" t="n">
-        <v>0.01818118481439576</v>
+        <v>0.00935365086087356</v>
       </c>
       <c r="L76" s="172" t="n">
-        <v>0.0427193007143748</v>
+        <v>0.03372370620190021</v>
       </c>
       <c r="M76" s="170" t="n">
-        <v>0.01814419714165706</v>
+        <v>0.009198359809132308</v>
       </c>
       <c r="N76" s="171" t="n">
-        <v>0.06605621118269489</v>
+        <v>0.05610983896043342</v>
       </c>
       <c r="O76" s="172" t="n">
-        <v>0.01816595459620923</v>
+        <v>0.00927046239768735</v>
       </c>
     </row>
     <row r="77" ht="15" customHeight="1">
@@ -9760,28 +9760,28 @@
         </is>
       </c>
       <c r="F77" t="n">
-        <v>0.01801589190034786</v>
+        <v>0.00891206556093356</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01968687832700099</v>
+        <v>0.006252346311779711</v>
       </c>
       <c r="J77" t="n">
-        <v>0.01755058807615817</v>
+        <v>0.01214790640352603</v>
       </c>
       <c r="K77" t="n">
-        <v>0.01983401979752264</v>
+        <v>0.01020398275731661</v>
       </c>
       <c r="L77" t="n">
-        <v>0.04486634476474272</v>
+        <v>0.03509600768737309</v>
       </c>
       <c r="M77" t="n">
-        <v>0.01979366960908043</v>
+        <v>0.009754585469962046</v>
       </c>
       <c r="N77" t="n">
-        <v>0.07020025700955962</v>
+        <v>0.0578908095142518</v>
       </c>
       <c r="O77" t="n">
-        <v>0.01981740501404643</v>
+        <v>0.0100053809861433</v>
       </c>
     </row>
     <row r="78" ht="15" customHeight="1">
@@ -9800,28 +9800,28 @@
         <v/>
       </c>
       <c r="F78" t="n">
-        <v>0.01891781998414219</v>
+        <v>0.009464763899964181</v>
       </c>
       <c r="G78" t="n">
-        <v>0.02132745152091774</v>
+        <v>0.006773375171094688</v>
       </c>
       <c r="J78" t="n">
-        <v>0.01859829680881597</v>
+        <v>0.01276808663215069</v>
       </c>
       <c r="K78" t="n">
-        <v>0.02148685478064953</v>
+        <v>0.01105431465375966</v>
       </c>
       <c r="L78" t="n">
-        <v>0.0473491351480495</v>
+        <v>0.03692794192499893</v>
       </c>
       <c r="M78" t="n">
-        <v>0.0214431420765038</v>
+        <v>0.01087078886533818</v>
       </c>
       <c r="N78" t="n">
-        <v>0.07375302470562894</v>
+        <v>0.06107124359631205</v>
       </c>
       <c r="O78" t="n">
-        <v>0.02146885543188364</v>
+        <v>0.01083916273498858</v>
       </c>
     </row>
     <row r="79" ht="15" customHeight="1">
@@ -9842,28 +9842,28 @@
         <v/>
       </c>
       <c r="F79" t="n">
-        <v>0.01776411509972506</v>
+        <v>0.009994578681541855</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02296802471483449</v>
+        <v>0.007294404030409663</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0198197430097278</v>
+        <v>0.01349029627456894</v>
       </c>
       <c r="K79" t="n">
-        <v>0.02313968976377642</v>
+        <v>0.01190464655020271</v>
       </c>
       <c r="L79" t="n">
-        <v>0.04983723302193405</v>
+        <v>0.03935239878126492</v>
       </c>
       <c r="M79" t="n">
-        <v>0.02309261454392717</v>
+        <v>0.01170700339344112</v>
       </c>
       <c r="N79" t="n">
-        <v>0.07834482346520322</v>
+        <v>0.06469324099173651</v>
       </c>
       <c r="O79" t="n">
-        <v>0.02312030584972084</v>
+        <v>0.01167294448383385</v>
       </c>
     </row>
     <row r="80" ht="15" customHeight="1">
@@ -9873,28 +9873,28 @@
         </is>
       </c>
       <c r="F80" t="n">
-        <v>0.02054736314902411</v>
+        <v>0.01049780066111389</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02460859790875124</v>
+        <v>0.00781543288972464</v>
       </c>
       <c r="J80" t="n">
-        <v>0.02080082193541861</v>
+        <v>0.01408217641431279</v>
       </c>
       <c r="K80" t="n">
-        <v>0.0247925247469033</v>
+        <v>0.0125639417696447</v>
       </c>
       <c r="L80" t="n">
-        <v>0.05220019954403507</v>
+        <v>0.04119091254471285</v>
       </c>
       <c r="M80" t="n">
-        <v>0.02474208701135054</v>
+        <v>0.01254321792154406</v>
       </c>
       <c r="N80" t="n">
-        <v>0.08290596248258247</v>
+        <v>0.06674223061048973</v>
       </c>
       <c r="O80" t="n">
-        <v>0.02477175626755804</v>
+        <v>0.01250672623267913</v>
       </c>
     </row>
     <row r="81" ht="15" customHeight="1">
@@ -9910,28 +9910,28 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>0.02026015003396702</v>
+        <v>0.01097072059412762</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02624917110266799</v>
+        <v>0.008336461749039615</v>
       </c>
       <c r="J81" t="n">
-        <v>0.02152742884241336</v>
+        <v>0.01489327316139202</v>
       </c>
       <c r="K81" t="n">
-        <v>0.02644535973003019</v>
+        <v>0.01360531034308881</v>
       </c>
       <c r="L81" t="n">
-        <v>0.05510759587199129</v>
+        <v>0.04333483436719182</v>
       </c>
       <c r="M81" t="n">
-        <v>0.02639155947877391</v>
+        <v>0.01337943244964699</v>
       </c>
       <c r="N81" t="n">
-        <v>0.08656675095206728</v>
+        <v>0.07080364136253625</v>
       </c>
       <c r="O81" t="n">
-        <v>0.02642320668539525</v>
+        <v>0.0133405079815244</v>
       </c>
     </row>
     <row r="82" ht="15" customHeight="1">
@@ -9944,28 +9944,28 @@
         <v/>
       </c>
       <c r="F82" t="n">
-        <v>0.02089506165648145</v>
+        <v>0.01140962923603037</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02788974429658473</v>
+        <v>0.00885749060835459</v>
       </c>
       <c r="J82" t="n">
-        <v>0.02248545898723699</v>
+        <v>0.01558729446344755</v>
       </c>
       <c r="K82" t="n">
-        <v>0.02809819471315708</v>
+        <v>0.01445564223953186</v>
       </c>
       <c r="L82" t="n">
-        <v>0.05662898316344156</v>
+        <v>0.04477551540055072</v>
       </c>
       <c r="M82" t="n">
-        <v>0.02804103194619728</v>
+        <v>0.01421564697774993</v>
       </c>
       <c r="N82" t="n">
-        <v>0.08965749806795764</v>
+        <v>0.07276290215784059</v>
       </c>
       <c r="O82" t="n">
-        <v>0.02807465710323245</v>
+        <v>0.01417428973036968</v>
       </c>
     </row>
     <row r="83" ht="15" customHeight="1">
@@ -9975,28 +9975,28 @@
         </is>
       </c>
       <c r="F83" t="n">
-        <v>0.02244468391849504</v>
+        <v>0.01181081734226951</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02953031749050148</v>
+        <v>0.009378519467669566</v>
       </c>
       <c r="J83" t="n">
-        <v>0.02326080762641444</v>
+        <v>0.01630461303993641</v>
       </c>
       <c r="K83" t="n">
-        <v>0.02975102969628397</v>
+        <v>0.01530597413597492</v>
       </c>
       <c r="L83" t="n">
-        <v>0.05883392257602457</v>
+        <v>0.04730430679663866</v>
       </c>
       <c r="M83" t="n">
-        <v>0.02969050441362064</v>
+        <v>0.01505186150585287</v>
       </c>
       <c r="N83" t="n">
-        <v>0.09300851302455398</v>
+        <v>0.07630544190636734</v>
       </c>
       <c r="O83" t="n">
-        <v>0.02972610752106965</v>
+        <v>0.01500807147921495</v>
       </c>
     </row>
     <row r="84" ht="15" customHeight="1">
@@ -10011,28 +10011,28 @@
         </is>
       </c>
       <c r="F84" t="n">
-        <v>0.02090160272193545</v>
+        <v>0.01217057566829233</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03117089068441823</v>
+        <v>0.009899548326984543</v>
       </c>
       <c r="J84" t="n">
-        <v>0.02403937001647072</v>
+        <v>0.01704037444465134</v>
       </c>
       <c r="K84" t="n">
-        <v>0.03140386467941085</v>
+        <v>0.01615630603241797</v>
       </c>
       <c r="L84" t="n">
-        <v>0.06039197526737908</v>
+        <v>0.04881255970730464</v>
       </c>
       <c r="M84" t="n">
-        <v>0.03133997688104401</v>
+        <v>0.0158880760339558</v>
       </c>
       <c r="N84" t="n">
-        <v>0.09545010501615675</v>
+        <v>0.07941668951808101</v>
       </c>
       <c r="O84" t="n">
-        <v>0.03137755793890686</v>
+        <v>0.01584185322806023</v>
       </c>
     </row>
     <row r="85" ht="15" customHeight="1">
@@ -10051,28 +10051,28 @@
         <v/>
       </c>
       <c r="F85" t="n">
-        <v>0.02125892984408267</v>
+        <v>0.01248519496954621</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03281146387833498</v>
+        <v>0.01042057718629952</v>
       </c>
       <c r="J85" t="n">
-        <v>0.02460704141393075</v>
+        <v>0.01778972423138517</v>
       </c>
       <c r="K85" t="n">
-        <v>0.03305669966253774</v>
+        <v>0.01700663792886102</v>
       </c>
       <c r="L85" t="n">
-        <v>0.06147270239514388</v>
+        <v>0.05109162528439767</v>
       </c>
       <c r="M85" t="n">
-        <v>0.03298944934846738</v>
+        <v>0.01672429056205874</v>
       </c>
       <c r="N85" t="n">
-        <v>0.09791258323706581</v>
+        <v>0.08198207390294604</v>
       </c>
       <c r="O85" t="n">
-        <v>0.03302900835674406</v>
+        <v>0.01667563497690551</v>
       </c>
     </row>
     <row r="86" ht="15" customHeight="1">
@@ -10093,28 +10093,28 @@
         <v/>
       </c>
       <c r="F86" t="n">
-        <v>0.02256956633994091</v>
+        <v>0.01275096600147844</v>
       </c>
       <c r="G86" t="n">
-        <v>0.03445203707225173</v>
+        <v>0.01094160604561449</v>
       </c>
       <c r="J86" t="n">
-        <v>0.0249497170753195</v>
+        <v>0.01854780795393061</v>
       </c>
       <c r="K86" t="n">
-        <v>0.03470953464566463</v>
+        <v>0.01785696982530407</v>
       </c>
       <c r="L86" t="n">
-        <v>0.06224860075936581</v>
+        <v>0.05263285467976678</v>
       </c>
       <c r="M86" t="n">
-        <v>0.03463892181589075</v>
+        <v>0.01756050509016168</v>
       </c>
       <c r="N86" t="n">
-        <v>0.0994262568815818</v>
+        <v>0.08528702397092708</v>
       </c>
       <c r="O86" t="n">
-        <v>0.03468045877458126</v>
+        <v>0.01750941672575078</v>
       </c>
     </row>
     <row r="87" ht="15" customHeight="1">
@@ -10124,28 +10124,28 @@
         </is>
       </c>
       <c r="F87" t="n">
-        <v>0.02387103294551538</v>
+        <v>0.01301504120174584</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03609261026616848</v>
+        <v>0.01161185707218262</v>
       </c>
       <c r="J87" t="n">
-        <v>0.02539453742290408</v>
+        <v>0.01930977116608049</v>
       </c>
       <c r="K87" t="n">
-        <v>0.03636236962879151</v>
+        <v>0.01870730172174712</v>
       </c>
       <c r="L87" t="n">
-        <v>0.06358997176192166</v>
+        <v>0.05402759904526092</v>
       </c>
       <c r="M87" t="n">
-        <v>0.03628839428331412</v>
+        <v>0.01839671961826462</v>
       </c>
       <c r="N87" t="n">
-        <v>0.1013822056246338</v>
+        <v>0.0880169686319886</v>
       </c>
       <c r="O87" t="n">
-        <v>0.03633190919241847</v>
+        <v>0.01834319847459605</v>
       </c>
     </row>
     <row r="88" ht="15" customHeight="1">
@@ -10159,28 +10159,28 @@
       <c r="C88" s="139" t="n"/>
       <c r="D88" s="139" t="n"/>
       <c r="F88" t="n">
-        <v>0.02316128016733791</v>
+        <v>0.01313538755743306</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03773318346008523</v>
+        <v>0.01198366376424445</v>
       </c>
       <c r="J88" t="n">
-        <v>0.025526591751648</v>
+        <v>0.01997075942162752</v>
       </c>
       <c r="K88" t="n">
-        <v>0.0380152046119184</v>
+        <v>0.01955763361819017</v>
       </c>
       <c r="L88" t="n">
-        <v>0.06430612377717732</v>
+        <v>0.05606720953272923</v>
       </c>
       <c r="M88" t="n">
-        <v>0.03793786675073749</v>
+        <v>0.01923293414636755</v>
       </c>
       <c r="N88" t="n">
-        <v>0.1017978884384715</v>
+        <v>0.09105733679609518</v>
       </c>
       <c r="O88" t="n">
-        <v>0.03798335961025567</v>
+        <v>0.01917698022344133</v>
       </c>
     </row>
     <row r="89" ht="15" customHeight="1">
@@ -10193,4780 +10193,6180 @@
         <v/>
       </c>
       <c r="F89" t="n">
-        <v>0.02343825851194036</v>
+        <v>0.01330214919557064</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03937375665400198</v>
+        <v>0.01250469262355942</v>
       </c>
       <c r="J89" t="n">
-        <v>0.0258470346474997</v>
+        <v>0.0208259182743645</v>
       </c>
       <c r="K89" t="n">
-        <v>0.03966803959504529</v>
+        <v>0.02040796551463322</v>
       </c>
       <c r="L89" t="n">
-        <v>0.06479143977069166</v>
+        <v>0.05764303729402065</v>
       </c>
       <c r="M89" t="n">
-        <v>0.03958733921816086</v>
+        <v>0.02006914867447049</v>
       </c>
       <c r="N89" t="n">
-        <v>0.1028660535928158</v>
+        <v>0.09369355737321122</v>
       </c>
       <c r="O89" t="n">
-        <v>0.03963481002809287</v>
+        <v>0.02001076197228661</v>
       </c>
     </row>
     <row r="90" ht="15" customHeight="1">
       <c r="F90" t="n">
-        <v>0.02269991848585459</v>
+        <v>0.01346671065581674</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04101432984791873</v>
+        <v>0.0130257214828744</v>
       </c>
       <c r="J90" t="n">
-        <v>0.02625359847923961</v>
+        <v>0.02157039327808423</v>
       </c>
       <c r="K90" t="n">
-        <v>0.04132087457817217</v>
+        <v>0.02125829741107627</v>
       </c>
       <c r="L90" t="n">
-        <v>0.06544030270802356</v>
+        <v>0.05944643348098419</v>
       </c>
       <c r="M90" t="n">
-        <v>0.04123681168558423</v>
+        <v>0.02090536320257343</v>
       </c>
       <c r="N90" t="n">
-        <v>0.1046776884938663</v>
+        <v>0.09621105927330142</v>
       </c>
       <c r="O90" t="n">
-        <v>0.04128626044593007</v>
+        <v>0.02084454372113188</v>
       </c>
     </row>
     <row r="91" ht="15" customHeight="1">
       <c r="F91" t="n">
-        <v>0.02294421059561246</v>
+        <v>0.01362907170768397</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04265490304183548</v>
+        <v>0.01354675034218938</v>
       </c>
       <c r="J91" t="n">
-        <v>0.02664401561564811</v>
+        <v>0.02229932998657945</v>
       </c>
       <c r="K91" t="n">
-        <v>0.04297370956129906</v>
+        <v>0.02210862930751932</v>
       </c>
       <c r="L91" t="n">
-        <v>0.06624709555473185</v>
+        <v>0.06076874924546893</v>
       </c>
       <c r="M91" t="n">
-        <v>0.0428862841530076</v>
+        <v>0.02174157773067636</v>
       </c>
       <c r="N91" t="n">
-        <v>0.1052237805478227</v>
+        <v>0.09859527140633029</v>
       </c>
       <c r="O91" t="n">
-        <v>0.04293771086376728</v>
+        <v>0.02167832546997716</v>
       </c>
     </row>
     <row r="92" ht="15" customHeight="1">
       <c r="F92" t="n">
-        <v>0.02316908534774583</v>
+        <v>0.01378923212068496</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04429547623575223</v>
+        <v>0.01406777920150435</v>
       </c>
       <c r="J92" t="n">
-        <v>0.02691601842550562</v>
+        <v>0.02300787395364294</v>
       </c>
       <c r="K92" t="n">
-        <v>0.04462654454442595</v>
+        <v>0.02295896120396237</v>
       </c>
       <c r="L92" t="n">
-        <v>0.06690620127637548</v>
+        <v>0.06250133573932382</v>
       </c>
       <c r="M92" t="n">
-        <v>0.04453575662043097</v>
+        <v>0.0225777922587793</v>
       </c>
       <c r="N92" t="n">
-        <v>0.1069953171608847</v>
+        <v>0.1011316226822623</v>
       </c>
       <c r="O92" t="n">
-        <v>0.04458916128160448</v>
+        <v>0.02251210721882243</v>
       </c>
     </row>
     <row r="93" ht="15" customHeight="1">
       <c r="F93" t="n">
-        <v>0.02437249324878654</v>
+        <v>0.01394719166433232</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04593604942966898</v>
+        <v>0.01458880806081933</v>
       </c>
       <c r="J93" t="n">
-        <v>0.02696733927759254</v>
+        <v>0.02349117073306749</v>
       </c>
       <c r="K93" t="n">
-        <v>0.04627937952755283</v>
+        <v>0.02380929310040543</v>
       </c>
       <c r="L93" t="n">
-        <v>0.06751200283851322</v>
+        <v>0.06403554411439791</v>
       </c>
       <c r="M93" t="n">
-        <v>0.04618522908785434</v>
+        <v>0.02341400678688224</v>
       </c>
       <c r="N93" t="n">
-        <v>0.1080832857392521</v>
+        <v>0.103105542011062</v>
       </c>
       <c r="O93" t="n">
-        <v>0.04624061169944169</v>
+        <v>0.02334588896766771</v>
       </c>
     </row>
     <row r="94" ht="15" customHeight="1">
       <c r="F94" t="n">
-        <v>0.02355238480526644</v>
+        <v>0.01410295010813871</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04757662262358572</v>
+        <v>0.0151098369201343</v>
       </c>
       <c r="J94" t="n">
-        <v>0.02729571054068929</v>
+        <v>0.02414436587864585</v>
       </c>
       <c r="K94" t="n">
-        <v>0.04793221451067972</v>
+        <v>0.02465962499684847</v>
       </c>
       <c r="L94" t="n">
-        <v>0.06805888320670397</v>
+        <v>0.06466272552254021</v>
       </c>
       <c r="M94" t="n">
-        <v>0.04783470155527771</v>
+        <v>0.02425022131498518</v>
       </c>
       <c r="N94" t="n">
-        <v>0.1082786736891246</v>
+        <v>0.1047024583026939</v>
       </c>
       <c r="O94" t="n">
-        <v>0.04789206211727889</v>
+        <v>0.02417967071651298</v>
       </c>
     </row>
     <row r="95" ht="15" customHeight="1">
       <c r="F95" t="n">
-        <v>0.0237067105237174</v>
+        <v>0.01425650722161671</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04921719581750247</v>
+        <v>0.01563086577944928</v>
       </c>
       <c r="J95" t="n">
-        <v>0.02759886458357627</v>
+        <v>0.02486260494417081</v>
       </c>
       <c r="K95" t="n">
-        <v>0.04958504949380661</v>
+        <v>0.02550995689329152</v>
       </c>
       <c r="L95" t="n">
-        <v>0.06854122534650658</v>
+        <v>0.06587423111559976</v>
       </c>
       <c r="M95" t="n">
-        <v>0.04948417402270108</v>
+        <v>0.02508643584308811</v>
       </c>
       <c r="N95" t="n">
-        <v>0.1089724684167018</v>
+        <v>0.1067078004671225</v>
       </c>
       <c r="O95" t="n">
-        <v>0.04954351253511609</v>
+        <v>0.02501345246535826</v>
       </c>
     </row>
     <row r="96" ht="15" customHeight="1">
       <c r="F96" t="n">
-        <v>0.0248334209106713</v>
+        <v>0.01440786277427897</v>
       </c>
       <c r="G96" t="n">
-        <v>0.05085776901141922</v>
+        <v>0.01615189463876425</v>
       </c>
       <c r="J96" t="n">
-        <v>0.02757453377503387</v>
+        <v>0.02534103348343512</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0512378844769335</v>
+        <v>0.02636028878973458</v>
       </c>
       <c r="L96" t="n">
-        <v>0.06905341222347999</v>
+        <v>0.06706141204542557</v>
       </c>
       <c r="M96" t="n">
-        <v>0.05113364649012444</v>
+        <v>0.02592265037119105</v>
       </c>
       <c r="N96" t="n">
-        <v>0.1098556573281834</v>
+        <v>0.1073069974143123</v>
       </c>
       <c r="O96" t="n">
-        <v>0.05119496295295329</v>
+        <v>0.02584723421420353</v>
       </c>
     </row>
     <row r="97" ht="15" customHeight="1">
       <c r="F97" t="n">
-        <v>0.02593046647265995</v>
+        <v>0.01455701653563811</v>
       </c>
       <c r="G97" t="n">
-        <v>0.05249834220533597</v>
+        <v>0.01667292349807923</v>
       </c>
       <c r="J97" t="n">
-        <v>0.0278204504838425</v>
+        <v>0.02607479705023158</v>
       </c>
       <c r="K97" t="n">
-        <v>0.05289071946006038</v>
+        <v>0.02721062068617763</v>
       </c>
       <c r="L97" t="n">
-        <v>0.06958982680318296</v>
+        <v>0.06771561946386664</v>
       </c>
       <c r="M97" t="n">
-        <v>0.05278311895754782</v>
+        <v>0.02675886489929399</v>
       </c>
       <c r="N97" t="n">
-        <v>0.1106192278297692</v>
+        <v>0.1095854780542281</v>
       </c>
       <c r="O97" t="n">
-        <v>0.05284641337079049</v>
+        <v>0.02668101596304881</v>
       </c>
     </row>
     <row r="98" ht="15" customHeight="1">
       <c r="F98" t="n">
-        <v>0.02603008240349169</v>
+        <v>0.01470396827520675</v>
       </c>
       <c r="G98" t="n">
-        <v>0.05413891539925272</v>
+        <v>0.01719395235739421</v>
       </c>
       <c r="J98" t="n">
-        <v>0.0279343470787826</v>
+        <v>0.02635904119835293</v>
       </c>
       <c r="K98" t="n">
-        <v>0.05454355444318727</v>
+        <v>0.02806095258262067</v>
       </c>
       <c r="L98" t="n">
-        <v>0.0694448520511744</v>
+        <v>0.068528204522772</v>
       </c>
       <c r="M98" t="n">
-        <v>0.05443259142497119</v>
+        <v>0.02759507942739692</v>
       </c>
       <c r="N98" t="n">
-        <v>0.1114541673276587</v>
+        <v>0.1103286712968342</v>
       </c>
       <c r="O98" t="n">
-        <v>0.0544978637886277</v>
+        <v>0.02751479771189408</v>
       </c>
     </row>
     <row r="99" ht="15" customHeight="1">
       <c r="F99" t="n">
-        <v>0.02402736514786897</v>
+        <v>0.01484871776249752</v>
       </c>
       <c r="G99" t="n">
-        <v>0.05577948859316947</v>
+        <v>0.01771498121670918</v>
       </c>
       <c r="J99" t="n">
-        <v>0.02811395592863455</v>
+        <v>0.02688891148159199</v>
       </c>
       <c r="K99" t="n">
-        <v>0.05619638942631415</v>
+        <v>0.02891128447906373</v>
       </c>
       <c r="L99" t="n">
-        <v>0.0701920153747462</v>
+        <v>0.06909051837399066</v>
       </c>
       <c r="M99" t="n">
-        <v>0.05608206389239456</v>
+        <v>0.02843129395549986</v>
       </c>
       <c r="N99" t="n">
-        <v>0.1109514632280518</v>
+        <v>0.1104220060520951</v>
       </c>
       <c r="O99" t="n">
-        <v>0.0561493142064649</v>
+        <v>0.02834857946073936</v>
       </c>
     </row>
     <row r="100" ht="15" customHeight="1">
       <c r="F100" t="n">
-        <v>0.02602674969770311</v>
+        <v>0.01499126476702305</v>
       </c>
       <c r="G100" t="n">
-        <v>0.05742006178708622</v>
+        <v>0.01823601007602416</v>
       </c>
       <c r="J100" t="n">
-        <v>0.02816435282862557</v>
+        <v>0.02715955345374149</v>
       </c>
       <c r="K100" t="n">
-        <v>0.05784922440944105</v>
+        <v>0.02976161637550678</v>
       </c>
       <c r="L100" t="n">
-        <v>0.07008826641425819</v>
+        <v>0.06969391216937168</v>
       </c>
       <c r="M100" t="n">
-        <v>0.05773153635981792</v>
+        <v>0.0292675084836028</v>
       </c>
       <c r="N100" t="n">
-        <v>0.1122196779208668</v>
+        <v>0.1111509112299755</v>
       </c>
       <c r="O100" t="n">
-        <v>0.0578007646243021</v>
+        <v>0.02918236120958463</v>
       </c>
     </row>
     <row r="101" ht="15" customHeight="1">
       <c r="F101" t="n">
-        <v>0.02400748963613918</v>
+        <v>0.01513160905829594</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05906063498100297</v>
+        <v>0.01875703893533913</v>
       </c>
       <c r="J101" t="n">
-        <v>0.02816285023839191</v>
+        <v>0.02766611266859423</v>
       </c>
       <c r="K101" t="n">
-        <v>0.05950205939256793</v>
+        <v>0.03061194827194983</v>
       </c>
       <c r="L101" t="n">
-        <v>0.06967934397257555</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M101" t="n">
-        <v>0.05938100882724129</v>
+        <v>0.03010372301170574</v>
       </c>
       <c r="N101" t="n">
-        <v>0.1111088252200645</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="O101" t="n">
-        <v>0.0594522150421393</v>
+        <v>0.03001614295842991</v>
       </c>
     </row>
     <row r="102" ht="15" customHeight="1">
       <c r="F102" t="n">
-        <v>0.02497203045443189</v>
+        <v>0.01526975040582883</v>
       </c>
       <c r="G102" t="n">
-        <v>0.06070120817491972</v>
+        <v>0.01927806779465411</v>
       </c>
       <c r="J102" t="n">
-        <v>0.02814579778603209</v>
+        <v>0.02790373467994296</v>
       </c>
       <c r="K102" t="n">
-        <v>0.06115489437569482</v>
+        <v>0.03146228016839288</v>
       </c>
       <c r="L102" t="n">
-        <v>0.06952176913726812</v>
+        <v>0.0696920153747462</v>
       </c>
       <c r="M102" t="n">
-        <v>0.06103048129466466</v>
+        <v>0.03093993753980867</v>
       </c>
       <c r="N102" t="n">
-        <v>0.1114308806726252</v>
+        <v>0.1120196779208669</v>
       </c>
       <c r="O102" t="n">
-        <v>0.0611036654599765</v>
+        <v>0.03084992470727518</v>
       </c>
     </row>
     <row r="103" ht="15" customHeight="1">
       <c r="F103" t="n">
-        <v>0.02392145229474305</v>
+        <v>0.01540568857913436</v>
       </c>
       <c r="G103" t="n">
-        <v>0.06234178136883647</v>
+        <v>0.01979909665396909</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0279107049648131</v>
+        <v>0.02786756504158047</v>
       </c>
       <c r="K103" t="n">
-        <v>0.0628077293588217</v>
+        <v>0.03231261206483593</v>
       </c>
       <c r="L103" t="n">
-        <v>0.06982039395470799</v>
+        <v>0.0699920153747462</v>
       </c>
       <c r="M103" t="n">
-        <v>0.06267995376208803</v>
+        <v>0.03177615206791161</v>
       </c>
       <c r="N103" t="n">
-        <v>0.1113818205427519</v>
+        <v>0.1115196779208669</v>
       </c>
       <c r="O103" t="n">
-        <v>0.06275511587781371</v>
+        <v>0.03168370645612046</v>
       </c>
     </row>
     <row r="104" ht="15" customHeight="1">
       <c r="F104" t="n">
-        <v>0.02585683529923449</v>
+        <v>0.01553942334772513</v>
       </c>
       <c r="G104" t="n">
-        <v>0.06398235456275321</v>
+        <v>0.02032012551328406</v>
       </c>
       <c r="J104" t="n">
-        <v>0.02795876688178253</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K104" t="n">
-        <v>0.06446056434194858</v>
+        <v>0.03316294396127899</v>
       </c>
       <c r="L104" t="n">
-        <v>0.06917817876403193</v>
+        <v>0.06959201537474621</v>
       </c>
       <c r="M104" t="n">
-        <v>0.06432942622951139</v>
+        <v>0.03261236659601455</v>
       </c>
       <c r="N104" t="n">
-        <v>0.110666394727286</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O104" t="n">
-        <v>0.0644065662956509</v>
+        <v>0.03251748820496574</v>
       </c>
     </row>
     <row r="105" ht="15" customHeight="1">
       <c r="F105" t="n">
-        <v>0.02577925961006803</v>
+        <v>0.01567095448111377</v>
       </c>
       <c r="G105" t="n">
-        <v>0.06562292775666996</v>
+        <v>0.02084115437259904</v>
       </c>
       <c r="J105" t="n">
-        <v>0.02789117864398796</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K105" t="n">
-        <v>0.06611339932507548</v>
+        <v>0.03401327585772203</v>
       </c>
       <c r="L105" t="n">
-        <v>0.06939808390437668</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M105" t="n">
-        <v>0.06597889869693477</v>
+        <v>0.03344858112411749</v>
       </c>
       <c r="N105" t="n">
-        <v>0.1111893531230692</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="O105" t="n">
-        <v>0.06605801671348811</v>
+        <v>0.03335126995381101</v>
       </c>
     </row>
     <row r="106" ht="15" customHeight="1">
       <c r="F106" t="n">
-        <v>0.02468980536940549</v>
+        <v>0.0158002817488129</v>
       </c>
       <c r="G106" t="n">
-        <v>0.06726350095058671</v>
+        <v>0.02136218323191401</v>
       </c>
       <c r="J106" t="n">
-        <v>0.02790913535847697</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K106" t="n">
-        <v>0.06776623430820236</v>
+        <v>0.03486360775416508</v>
       </c>
       <c r="L106" t="n">
-        <v>0.06918306971487906</v>
+        <v>0.06989201537474621</v>
       </c>
       <c r="M106" t="n">
-        <v>0.06762837116435813</v>
+        <v>0.03428479565222042</v>
       </c>
       <c r="N106" t="n">
-        <v>0.1103554456269429</v>
+        <v>0.1114196779208668</v>
       </c>
       <c r="O106" t="n">
-        <v>0.06770946713132532</v>
+        <v>0.03418505170265629</v>
       </c>
     </row>
     <row r="107" ht="15" customHeight="1">
       <c r="F107" t="n">
-        <v>0.02558955271940872</v>
+        <v>0.01592740492033515</v>
       </c>
       <c r="G107" t="n">
-        <v>0.06890407414450346</v>
+        <v>0.02188321209122899</v>
       </c>
       <c r="J107" t="n">
-        <v>0.02761383213229715</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K107" t="n">
-        <v>0.06941906929132925</v>
+        <v>0.03571393965060814</v>
       </c>
       <c r="L107" t="n">
-        <v>0.06883609653467576</v>
+        <v>0.0699920153747462</v>
       </c>
       <c r="M107" t="n">
-        <v>0.06927784363178151</v>
+        <v>0.03512101018032335</v>
       </c>
       <c r="N107" t="n">
-        <v>0.1100694221357488</v>
+        <v>0.1119196779208668</v>
       </c>
       <c r="O107" t="n">
-        <v>0.06936091754916253</v>
+        <v>0.03501883345150156</v>
       </c>
     </row>
     <row r="108" ht="15" customHeight="1">
       <c r="F108" t="n">
-        <v>0.02347958180223953</v>
+        <v>0.01605232376519315</v>
       </c>
       <c r="G108" t="n">
-        <v>0.07054464733842021</v>
+        <v>0.02240424095054397</v>
       </c>
       <c r="J108" t="n">
-        <v>0.02770646407249608</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K108" t="n">
-        <v>0.07107190427445613</v>
+        <v>0.03656427154705119</v>
       </c>
       <c r="L108" t="n">
-        <v>0.06876012470290366</v>
+        <v>0.07009201537474621</v>
       </c>
       <c r="M108" t="n">
-        <v>0.07092731609920488</v>
+        <v>0.03595722470842629</v>
       </c>
       <c r="N108" t="n">
-        <v>0.1097360325463283</v>
+        <v>0.1121196779208669</v>
       </c>
       <c r="O108" t="n">
-        <v>0.07101236796699972</v>
+        <v>0.03585261520034683</v>
       </c>
     </row>
     <row r="109" ht="15" customHeight="1">
       <c r="F109" t="n">
-        <v>0.02436097276005977</v>
+        <v>0.01617503805289951</v>
       </c>
       <c r="G109" t="n">
-        <v>0.07218522053233696</v>
+        <v>0.02292526980985894</v>
       </c>
       <c r="J109" t="n">
-        <v>0.02758822628612134</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K109" t="n">
-        <v>0.07272473925758302</v>
+        <v>0.03741460344349424</v>
       </c>
       <c r="L109" t="n">
-        <v>0.06825811455869943</v>
+        <v>0.06979201537474619</v>
       </c>
       <c r="M109" t="n">
-        <v>0.07257678856662823</v>
+        <v>0.03679343923652923</v>
       </c>
       <c r="N109" t="n">
-        <v>0.1091600267555231</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="O109" t="n">
-        <v>0.07266381838483693</v>
+        <v>0.03668639694919211</v>
       </c>
     </row>
     <row r="110" ht="15" customHeight="1">
       <c r="F110" t="n">
-        <v>0.02523480573503122</v>
+        <v>0.01629554755296688</v>
       </c>
       <c r="G110" t="n">
-        <v>0.07382579372625371</v>
+        <v>0.02344629866917392</v>
       </c>
       <c r="J110" t="n">
-        <v>0.02736031388022053</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K110" t="n">
-        <v>0.0743775742407099</v>
+        <v>0.03826493533993729</v>
       </c>
       <c r="L110" t="n">
-        <v>0.06813302644119992</v>
+        <v>0.06959201537474621</v>
       </c>
       <c r="M110" t="n">
-        <v>0.07422626103405161</v>
+        <v>0.03762965376463217</v>
       </c>
       <c r="N110" t="n">
-        <v>0.1084461546601746</v>
+        <v>0.1116196779208669</v>
       </c>
       <c r="O110" t="n">
-        <v>0.07431526880267414</v>
+        <v>0.03752017869803739</v>
       </c>
     </row>
     <row r="111" ht="15" customHeight="1">
       <c r="F111" t="n">
-        <v>0.02510216086931575</v>
+        <v>0.01641385203490785</v>
       </c>
       <c r="G111" t="n">
-        <v>0.07546636692017046</v>
+        <v>0.02396732752848889</v>
       </c>
       <c r="J111" t="n">
-        <v>0.02722392196184123</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K111" t="n">
-        <v>0.0760304092238368</v>
+        <v>0.03911526723638034</v>
       </c>
       <c r="L111" t="n">
-        <v>0.06748782068954184</v>
+        <v>0.06959201537474621</v>
       </c>
       <c r="M111" t="n">
-        <v>0.07587573350147499</v>
+        <v>0.03846586829273511</v>
       </c>
       <c r="N111" t="n">
-        <v>0.1082991661571245</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O111" t="n">
-        <v>0.07596671922051133</v>
+        <v>0.03835396044688266</v>
       </c>
     </row>
     <row r="112" ht="15" customHeight="1">
       <c r="F112" t="n">
-        <v>0.02496411830507519</v>
+        <v>0.01652995126823507</v>
       </c>
       <c r="G112" t="n">
-        <v>0.07710694011408721</v>
+        <v>0.02448835638780387</v>
       </c>
       <c r="J112" t="n">
-        <v>0.026980245638031</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K112" t="n">
-        <v>0.07768324420696368</v>
+        <v>0.0399655991328234</v>
       </c>
       <c r="L112" t="n">
-        <v>0.06762545764286199</v>
+        <v>0.0696920153747462</v>
       </c>
       <c r="M112" t="n">
-        <v>0.07752520596889835</v>
+        <v>0.03930208282083805</v>
       </c>
       <c r="N112" t="n">
-        <v>0.1074238111432143</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="O112" t="n">
-        <v>0.07761816963834854</v>
+        <v>0.03918774219572794</v>
       </c>
     </row>
     <row r="113" ht="15" customHeight="1">
       <c r="F113" t="n">
-        <v>0.02382175818447133</v>
+        <v>0.01664384502246115</v>
       </c>
       <c r="G113" t="n">
-        <v>0.07874751330800396</v>
+        <v>0.02500938524711884</v>
       </c>
       <c r="J113" t="n">
-        <v>0.02703048001583747</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K113" t="n">
-        <v>0.07933607919009057</v>
+        <v>0.04081593102926644</v>
       </c>
       <c r="L113" t="n">
-        <v>0.06664889764029713</v>
+        <v>0.0696920153747462</v>
       </c>
       <c r="M113" t="n">
-        <v>0.07917467843632173</v>
+        <v>0.04013829734894098</v>
       </c>
       <c r="N113" t="n">
-        <v>0.1073248395152855</v>
+        <v>0.1112196779208668</v>
       </c>
       <c r="O113" t="n">
-        <v>0.07926962005618574</v>
+        <v>0.04002152394457321</v>
       </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="F114" t="n">
-        <v>0.02367616064966601</v>
+        <v>0.01675553306709871</v>
       </c>
       <c r="G114" t="n">
-        <v>0.08038808650192071</v>
+        <v>0.02553041410643382</v>
       </c>
       <c r="J114" t="n">
-        <v>0.02687582020230819</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K114" t="n">
-        <v>0.08098891417321745</v>
+        <v>0.04166626292570949</v>
       </c>
       <c r="L114" t="n">
-        <v>0.06676110102098406</v>
+        <v>0.0696920153747462</v>
       </c>
       <c r="M114" t="n">
-        <v>0.08082415090374509</v>
+        <v>0.04097451187704391</v>
       </c>
       <c r="N114" t="n">
-        <v>0.1070070011701799</v>
+        <v>0.1117196779208668</v>
       </c>
       <c r="O114" t="n">
-        <v>0.08092107047402294</v>
+        <v>0.04085530569341849</v>
       </c>
     </row>
     <row r="115" ht="15" customHeight="1">
       <c r="F115" t="n">
-        <v>0.02252840584282107</v>
+        <v>0.01686501517166041</v>
       </c>
       <c r="G115" t="n">
-        <v>0.08202865969583746</v>
+        <v>0.0260514429657488</v>
       </c>
       <c r="J115" t="n">
-        <v>0.02661746130449075</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K115" t="n">
-        <v>0.08264174915634434</v>
+        <v>0.04251659482215255</v>
       </c>
       <c r="L115" t="n">
-        <v>0.06646502812405947</v>
+        <v>0.0699920153747462</v>
       </c>
       <c r="M115" t="n">
-        <v>0.08247362337116845</v>
+        <v>0.04181072640514685</v>
       </c>
       <c r="N115" t="n">
-        <v>0.1058750460047386</v>
+        <v>0.1113196779208668</v>
       </c>
       <c r="O115" t="n">
-        <v>0.08257252089186014</v>
+        <v>0.04168908744226376</v>
       </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="F116" t="n">
-        <v>0.02337957390609833</v>
+        <v>0.01697229110565883</v>
       </c>
       <c r="G116" t="n">
-        <v>0.08366923288975421</v>
+        <v>0.02657247182506377</v>
       </c>
       <c r="J116" t="n">
-        <v>0.02655659842943274</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K116" t="n">
-        <v>0.08429458413947123</v>
+        <v>0.0433669267185956</v>
       </c>
       <c r="L116" t="n">
-        <v>0.06556363928866024</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M116" t="n">
-        <v>0.08412309583859183</v>
+        <v>0.04264694093324979</v>
       </c>
       <c r="N116" t="n">
-        <v>0.1049337239158036</v>
+        <v>0.1114196779208668</v>
       </c>
       <c r="O116" t="n">
-        <v>0.08422397130969735</v>
+        <v>0.04252286919110904</v>
       </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="F117" t="n">
-        <v>0.02323074498165962</v>
+        <v>0.0170773606386066</v>
       </c>
       <c r="G117" t="n">
-        <v>0.08530980608367096</v>
+        <v>0.02709350068437875</v>
       </c>
       <c r="J117" t="n">
-        <v>0.02619442668418173</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K117" t="n">
-        <v>0.08594741912259812</v>
+        <v>0.04421725861503865</v>
       </c>
       <c r="L117" t="n">
-        <v>0.06555989485392305</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M117" t="n">
-        <v>0.08577256830601521</v>
+        <v>0.04348315546135273</v>
       </c>
       <c r="N117" t="n">
-        <v>0.1044877848002162</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O117" t="n">
-        <v>0.08587542172753455</v>
+        <v>0.04335665093995431</v>
       </c>
     </row>
     <row r="118" ht="15" customHeight="1">
       <c r="F118" t="n">
-        <v>0.02408299921166677</v>
+        <v>0.01718022354001637</v>
       </c>
       <c r="G118" t="n">
-        <v>0.0869503792775877</v>
+        <v>0.02761452954369372</v>
       </c>
       <c r="J118" t="n">
-        <v>0.02603214117578533</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K118" t="n">
-        <v>0.087600254105725</v>
+        <v>0.04506759051148169</v>
       </c>
       <c r="L118" t="n">
-        <v>0.06515675515898472</v>
+        <v>0.06989201537474621</v>
       </c>
       <c r="M118" t="n">
-        <v>0.08742204077343856</v>
+        <v>0.04431936998945567</v>
       </c>
       <c r="N118" t="n">
-        <v>0.103441978554818</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O118" t="n">
-        <v>0.08752687214537175</v>
+        <v>0.04419043268879959</v>
       </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="F119" t="n">
-        <v>0.02193488379958698</v>
+        <v>0.01728087957940074</v>
       </c>
       <c r="G119" t="n">
-        <v>0.08859095247150446</v>
+        <v>0.0281355584030087</v>
       </c>
       <c r="J119" t="n">
-        <v>0.02597093701129112</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K119" t="n">
-        <v>0.08925308908885189</v>
+        <v>0.04591792240792475</v>
       </c>
       <c r="L119" t="n">
-        <v>0.064157180542982</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M119" t="n">
-        <v>0.08907151324086193</v>
+        <v>0.04515558451755861</v>
       </c>
       <c r="N119" t="n">
-        <v>0.1036010550764507</v>
+        <v>0.1115196779208669</v>
       </c>
       <c r="O119" t="n">
-        <v>0.08917832256320896</v>
+        <v>0.04502421443764486</v>
       </c>
     </row>
     <row r="120" ht="15" customHeight="1">
       <c r="F120" t="n">
-        <v>0.02176792966330589</v>
+        <v>0.01737932852627236</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0902315256654212</v>
+        <v>0.02865658726232368</v>
       </c>
       <c r="J120" t="n">
-        <v>0.02581014977537117</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K120" t="n">
-        <v>0.09090592407197877</v>
+        <v>0.0467682543043678</v>
       </c>
       <c r="L120" t="n">
-        <v>0.06374868818436336</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M120" t="n">
-        <v>0.09072098570828531</v>
+        <v>0.04599179904566154</v>
       </c>
       <c r="N120" t="n">
-        <v>0.1031564447134856</v>
+        <v>0.1121196779208669</v>
       </c>
       <c r="O120" t="n">
-        <v>0.09082977298104615</v>
+        <v>0.04585799618649013</v>
       </c>
     </row>
     <row r="121" ht="15" customHeight="1">
       <c r="F121" t="n">
-        <v>0.02258108658792213</v>
+        <v>0.01747557015014382</v>
       </c>
       <c r="G121" t="n">
-        <v>0.09187209885933796</v>
+        <v>0.02917761612163865</v>
       </c>
       <c r="J121" t="n">
-        <v>0.02552988065542067</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K121" t="n">
-        <v>0.09255875905510566</v>
+        <v>0.04761858620081085</v>
       </c>
       <c r="L121" t="n">
-        <v>0.06388327496725413</v>
+        <v>0.0699920153747462</v>
       </c>
       <c r="M121" t="n">
-        <v>0.09237045817570867</v>
+        <v>0.04682801357376448</v>
       </c>
       <c r="N121" t="n">
-        <v>0.1020273705530975</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O121" t="n">
-        <v>0.09248122339888337</v>
+        <v>0.04669177793533542</v>
       </c>
     </row>
     <row r="122" ht="15" customHeight="1">
       <c r="F122" t="n">
-        <v>0.02337787380571395</v>
+        <v>0.01756960422052777</v>
       </c>
       <c r="G122" t="n">
-        <v>0.0935126720532547</v>
+        <v>0.02969864498095363</v>
       </c>
       <c r="J122" t="n">
-        <v>0.02552750308574636</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K122" t="n">
-        <v>0.09421159403823255</v>
+        <v>0.0484689180972539</v>
       </c>
       <c r="L122" t="n">
-        <v>0.06326579805731644</v>
+        <v>0.0699920153747462</v>
       </c>
       <c r="M122" t="n">
-        <v>0.09401993064313205</v>
+        <v>0.04766422810186741</v>
       </c>
       <c r="N122" t="n">
-        <v>0.1008122091182926</v>
+        <v>0.1118196779208668</v>
       </c>
       <c r="O122" t="n">
-        <v>0.09413267381672057</v>
+        <v>0.04752555968418069</v>
       </c>
     </row>
     <row r="123" ht="15" customHeight="1">
       <c r="F123" t="n">
-        <v>0.02316181054895961</v>
+        <v>0.01766143050693682</v>
       </c>
       <c r="G123" t="n">
-        <v>0.09515324524717145</v>
+        <v>0.0302196738402686</v>
       </c>
       <c r="J123" t="n">
-        <v>0.02510691086796665</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K123" t="n">
-        <v>0.09586442902135944</v>
+        <v>0.04931924999369695</v>
       </c>
       <c r="L123" t="n">
-        <v>0.06230590259332278</v>
+        <v>0.06959201537474621</v>
       </c>
       <c r="M123" t="n">
-        <v>0.09566940311055541</v>
+        <v>0.04850044262997035</v>
       </c>
       <c r="N123" t="n">
-        <v>0.1004264361407605</v>
+        <v>0.1114196779208668</v>
       </c>
       <c r="O123" t="n">
-        <v>0.09578412423455777</v>
+        <v>0.04835934143302596</v>
       </c>
     </row>
     <row r="124" ht="15" customHeight="1">
       <c r="F124" t="n">
-        <v>0.02193641604993741</v>
+        <v>0.01775104877888361</v>
       </c>
       <c r="G124" t="n">
-        <v>0.0967938184410882</v>
+        <v>0.03074070269958358</v>
       </c>
       <c r="J124" t="n">
-        <v>0.02507199780369997</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K124" t="n">
-        <v>0.09751726400448632</v>
+        <v>0.05016958189014</v>
       </c>
       <c r="L124" t="n">
-        <v>0.06201323371404549</v>
+        <v>0.0699920153747462</v>
       </c>
       <c r="M124" t="n">
-        <v>0.09731887557797878</v>
+        <v>0.04933665715807328</v>
       </c>
       <c r="N124" t="n">
-        <v>0.09888552735219108</v>
+        <v>0.1114196779208668</v>
       </c>
       <c r="O124" t="n">
-        <v>0.09743557465239498</v>
+        <v>0.04919312318187125</v>
       </c>
     </row>
     <row r="125" ht="15" customHeight="1">
       <c r="F125" t="n">
-        <v>0.02170520954092558</v>
+        <v>0.01783845880588075</v>
       </c>
       <c r="G125" t="n">
-        <v>0.09843439163500495</v>
+        <v>0.03126173155889856</v>
       </c>
       <c r="J125" t="n">
-        <v>0.02482665769456471</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K125" t="n">
-        <v>0.09917009898761321</v>
+        <v>0.05101991378658305</v>
       </c>
       <c r="L125" t="n">
-        <v>0.06129743655825703</v>
+        <v>0.06979201537474619</v>
       </c>
       <c r="M125" t="n">
-        <v>0.09896834804540215</v>
+        <v>0.05017287168617622</v>
       </c>
       <c r="N125" t="n">
-        <v>0.09780495848427412</v>
+        <v>0.1113196779208668</v>
       </c>
       <c r="O125" t="n">
-        <v>0.09908702507023218</v>
+        <v>0.05002690493071651</v>
       </c>
     </row>
     <row r="126" ht="15" customHeight="1">
       <c r="F126" t="n">
-        <v>0.02147171025420239</v>
+        <v>0.01792366035744086</v>
       </c>
       <c r="G126" t="n">
-        <v>0.1000749648289217</v>
+        <v>0.03178276041821353</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02447478434217931</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K126" t="n">
-        <v>0.1008229339707401</v>
+        <v>0.0518702456830261</v>
       </c>
       <c r="L126" t="n">
-        <v>0.06106815626472972</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M126" t="n">
-        <v>0.1006178205128255</v>
+        <v>0.05100908621427916</v>
       </c>
       <c r="N126" t="n">
-        <v>0.09760020526869922</v>
+        <v>0.1115196779208669</v>
       </c>
       <c r="O126" t="n">
-        <v>0.1007384754880694</v>
+        <v>0.05086068667956179</v>
       </c>
     </row>
     <row r="127" ht="15" customHeight="1">
       <c r="F127" t="n">
-        <v>0.02023943742204615</v>
+        <v>0.01800665320307659</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1017155380228384</v>
+        <v>0.03230378927752851</v>
       </c>
       <c r="J127" t="n">
-        <v>0.02412027154816219</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K127" t="n">
-        <v>0.102475768953867</v>
+        <v>0.05272057757946916</v>
       </c>
       <c r="L127" t="n">
-        <v>0.06013503797223602</v>
+        <v>0.0699920153747462</v>
       </c>
       <c r="M127" t="n">
-        <v>0.1022672929802489</v>
+        <v>0.0518453007423821</v>
       </c>
       <c r="N127" t="n">
-        <v>0.09678674343715632</v>
+        <v>0.1112196779208668</v>
       </c>
       <c r="O127" t="n">
-        <v>0.1023899259059066</v>
+        <v>0.05169446842840706</v>
       </c>
     </row>
     <row r="128" ht="15" customHeight="1">
       <c r="F128" t="n">
-        <v>0.02201191027673507</v>
+        <v>0.01808743711230054</v>
       </c>
       <c r="G128" t="n">
-        <v>0.1033561112167552</v>
+        <v>0.03282481813684348</v>
       </c>
       <c r="J128" t="n">
-        <v>0.02386701311413179</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K128" t="n">
-        <v>0.1041286039369939</v>
+        <v>0.05357090947591221</v>
       </c>
       <c r="L128" t="n">
-        <v>0.05940772681954828</v>
+        <v>0.06979201537474619</v>
       </c>
       <c r="M128" t="n">
-        <v>0.1039167654476723</v>
+        <v>0.05268151527048504</v>
       </c>
       <c r="N128" t="n">
-        <v>0.0953800487213351</v>
+        <v>0.1117196779208668</v>
       </c>
       <c r="O128" t="n">
-        <v>0.1040413763237438</v>
+        <v>0.05252825017725234</v>
       </c>
     </row>
     <row r="129" ht="15" customHeight="1">
       <c r="F129" t="n">
-        <v>0.02179264805054746</v>
+        <v>0.01816601185462534</v>
       </c>
       <c r="G129" t="n">
-        <v>0.1049966844106719</v>
+        <v>0.03334584699615846</v>
       </c>
       <c r="J129" t="n">
-        <v>0.0237189028417065</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K129" t="n">
-        <v>0.1057814389201208</v>
+        <v>0.05442124137235525</v>
       </c>
       <c r="L129" t="n">
-        <v>0.058595867945439</v>
+        <v>0.06979201537474619</v>
       </c>
       <c r="M129" t="n">
-        <v>0.1055662379150956</v>
+        <v>0.05351772979858797</v>
       </c>
       <c r="N129" t="n">
-        <v>0.0940955968529254</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O129" t="n">
-        <v>0.105692826741581</v>
+        <v>0.05336203192609762</v>
       </c>
     </row>
     <row r="130" ht="15" customHeight="1">
       <c r="F130" t="n">
-        <v>0.01958221001375723</v>
+        <v>0.01824237719956361</v>
       </c>
       <c r="G130" t="n">
-        <v>0.1066372576045887</v>
+        <v>0.03386687585547344</v>
       </c>
       <c r="J130" t="n">
-        <v>0.02347983453250475</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K130" t="n">
-        <v>0.1074342739032476</v>
+        <v>0.0552715732687983</v>
       </c>
       <c r="L130" t="n">
-        <v>0.05800910648868052</v>
+        <v>0.0696920153747462</v>
       </c>
       <c r="M130" t="n">
-        <v>0.107215710382519</v>
+        <v>0.0543539443266909</v>
       </c>
       <c r="N130" t="n">
-        <v>0.09324886356361689</v>
+        <v>0.1115196779208669</v>
       </c>
       <c r="O130" t="n">
-        <v>0.1073442771594182</v>
+        <v>0.05419581367494289</v>
       </c>
     </row>
     <row r="131" ht="15" customHeight="1">
       <c r="F131" t="n">
-        <v>0.02135613815166713</v>
+        <v>0.01831653291662798</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1082778307985054</v>
+        <v>0.03438790471478841</v>
       </c>
       <c r="J131" t="n">
-        <v>0.02325040164797816</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K131" t="n">
-        <v>0.1090871088863745</v>
+        <v>0.05612190516524135</v>
       </c>
       <c r="L131" t="n">
-        <v>0.05733380971785373</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M131" t="n">
-        <v>0.1088651828499424</v>
+        <v>0.05519015885479385</v>
       </c>
       <c r="N131" t="n">
-        <v>0.09183373786554949</v>
+        <v>0.1119196779208668</v>
       </c>
       <c r="O131" t="n">
-        <v>0.1089957275772554</v>
+        <v>0.05502959542378816</v>
       </c>
     </row>
     <row r="132" ht="15" customHeight="1">
       <c r="F132" t="n">
-        <v>0.02011224588997754</v>
+        <v>0.01838847877533108</v>
       </c>
       <c r="G132" t="n">
-        <v>0.1099184039924222</v>
+        <v>0.03490893357410339</v>
       </c>
       <c r="J132" t="n">
-        <v>0.02300375437457289</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K132" t="n">
-        <v>0.1107399438695014</v>
+        <v>0.05697223706168441</v>
       </c>
       <c r="L132" t="n">
-        <v>0.05720592049702375</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M132" t="n">
-        <v>0.1105146553173657</v>
+        <v>0.05602637338289678</v>
       </c>
       <c r="N132" t="n">
-        <v>0.09194209389387903</v>
+        <v>0.1114196779208668</v>
       </c>
       <c r="O132" t="n">
-        <v>0.1106471779950926</v>
+        <v>0.05586337717263343</v>
       </c>
     </row>
     <row r="133" ht="15" customHeight="1">
       <c r="F133" t="n">
-        <v>0.01985557101072575</v>
+        <v>0.01845821454518552</v>
       </c>
       <c r="G133" t="n">
-        <v>0.1115589771863389</v>
+        <v>0.03542996243341836</v>
       </c>
       <c r="J133" t="n">
-        <v>0.02263761051189009</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K133" t="n">
-        <v>0.1123927788526283</v>
+        <v>0.05782256895812746</v>
       </c>
       <c r="L133" t="n">
-        <v>0.05653335410638452</v>
+        <v>0.0696920153747462</v>
       </c>
       <c r="M133" t="n">
-        <v>0.1121641277847891</v>
+        <v>0.05686258791099972</v>
       </c>
       <c r="N133" t="n">
-        <v>0.09087534836180572</v>
+        <v>0.1119196779208668</v>
       </c>
       <c r="O133" t="n">
-        <v>0.1122986284129298</v>
+        <v>0.05669715892147872</v>
       </c>
     </row>
     <row r="134" ht="15" customHeight="1">
       <c r="F134" t="n">
-        <v>0.01859115129594906</v>
+        <v>0.01852573999570394</v>
       </c>
       <c r="G134" t="n">
-        <v>0.1131995503802557</v>
+        <v>0.03595099129273334</v>
       </c>
       <c r="J134" t="n">
-        <v>0.02235754403808725</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K134" t="n">
-        <v>0.1140456138357552</v>
+        <v>0.0586729008545705</v>
       </c>
       <c r="L134" t="n">
-        <v>0.05602991756491418</v>
+        <v>0.0699920153747462</v>
       </c>
       <c r="M134" t="n">
-        <v>0.1138136002522125</v>
+        <v>0.05769880243910266</v>
       </c>
       <c r="N134" t="n">
-        <v>0.08955565478377692</v>
+        <v>0.1117196779208668</v>
       </c>
       <c r="O134" t="n">
-        <v>0.113950078830767</v>
+        <v>0.05753094067032399</v>
       </c>
     </row>
     <row r="135" ht="15" customHeight="1">
       <c r="F135" t="n">
-        <v>0.01932402452768477</v>
+        <v>0.01859105489639894</v>
       </c>
       <c r="G135" t="n">
-        <v>0.1148401235741724</v>
+        <v>0.03647202015204832</v>
       </c>
       <c r="J135" t="n">
-        <v>0.0220691289313218</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K135" t="n">
-        <v>0.1156984488188821</v>
+        <v>0.05952323275101357</v>
       </c>
       <c r="L135" t="n">
-        <v>0.05500941789159108</v>
+        <v>0.07009201537474621</v>
       </c>
       <c r="M135" t="n">
-        <v>0.1154630727196358</v>
+        <v>0.0585350169672056</v>
       </c>
       <c r="N135" t="n">
-        <v>0.08770516667424028</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O135" t="n">
-        <v>0.1156015292486042</v>
+        <v>0.05836472241916927</v>
       </c>
     </row>
     <row r="136" ht="15" customHeight="1">
       <c r="F136" t="n">
-        <v>0.0200592284879702</v>
+        <v>0.01865415901678317</v>
       </c>
       <c r="G136" t="n">
-        <v>0.1164806967680892</v>
+        <v>0.03699304901136329</v>
       </c>
       <c r="J136" t="n">
-        <v>0.02177793916975124</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K136" t="n">
-        <v>0.117351283802009</v>
+        <v>0.06037356464745661</v>
       </c>
       <c r="L136" t="n">
-        <v>0.05428566210539343</v>
+        <v>0.06989201537474621</v>
       </c>
       <c r="M136" t="n">
-        <v>0.1171125451870592</v>
+        <v>0.05937123149530853</v>
       </c>
       <c r="N136" t="n">
-        <v>0.08654603754764328</v>
+        <v>0.1116196779208669</v>
       </c>
       <c r="O136" t="n">
-        <v>0.1172529796664414</v>
+        <v>0.05919850416801455</v>
       </c>
     </row>
     <row r="137" ht="15" customHeight="1">
       <c r="F137" t="n">
-        <v>0.01880180095884263</v>
+        <v>0.01871505212636925</v>
       </c>
       <c r="G137" t="n">
-        <v>0.1181212699620059</v>
+        <v>0.03751407787067827</v>
       </c>
       <c r="J137" t="n">
-        <v>0.02148954873153298</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K137" t="n">
-        <v>0.1190041187851359</v>
+        <v>0.06122389654389966</v>
       </c>
       <c r="L137" t="n">
-        <v>0.05367245722529945</v>
+        <v>0.07009201537474621</v>
       </c>
       <c r="M137" t="n">
-        <v>0.1187620176544826</v>
+        <v>0.06020744602341147</v>
       </c>
       <c r="N137" t="n">
-        <v>0.0863004209184336</v>
+        <v>0.1118196779208668</v>
       </c>
       <c r="O137" t="n">
-        <v>0.1189044300842786</v>
+        <v>0.06003228591685981</v>
       </c>
     </row>
     <row r="138" ht="15" customHeight="1">
       <c r="F138" t="n">
-        <v>0.01755677972233937</v>
+        <v>0.01877373399466978</v>
       </c>
       <c r="G138" t="n">
-        <v>0.1197618431559227</v>
+        <v>0.03803510672999324</v>
       </c>
       <c r="J138" t="n">
-        <v>0.02120953159482453</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K138" t="n">
-        <v>0.1206569537682627</v>
+        <v>0.06207422844034271</v>
       </c>
       <c r="L138" t="n">
-        <v>0.0528836102702874</v>
+        <v>0.06959201537474621</v>
       </c>
       <c r="M138" t="n">
-        <v>0.120411490121906</v>
+        <v>0.0610436605515144</v>
       </c>
       <c r="N138" t="n">
-        <v>0.08489047030105845</v>
+        <v>0.1119196779208668</v>
       </c>
       <c r="O138" t="n">
-        <v>0.1205558805021158</v>
+        <v>0.06086606766570509</v>
       </c>
     </row>
     <row r="139" ht="15" customHeight="1">
       <c r="F139" t="n">
-        <v>0.01832920256049773</v>
+        <v>0.01883020439119742</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1214024163498394</v>
+        <v>0.03855613558930822</v>
       </c>
       <c r="J139" t="n">
-        <v>0.02114346173778332</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K139" t="n">
-        <v>0.1223097887513896</v>
+        <v>0.06292456033678576</v>
       </c>
       <c r="L139" t="n">
-        <v>0.05253292825933553</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M139" t="n">
-        <v>0.1220609625893293</v>
+        <v>0.06187987507961735</v>
       </c>
       <c r="N139" t="n">
-        <v>0.08403833920996573</v>
+        <v>0.1111196779208669</v>
       </c>
       <c r="O139" t="n">
-        <v>0.122207330919953</v>
+        <v>0.06169984941455037</v>
       </c>
     </row>
     <row r="140" ht="15" customHeight="1">
       <c r="F140" t="n">
-        <v>0.01712410725535501</v>
+        <v>0.01888446308546478</v>
       </c>
       <c r="G140" t="n">
-        <v>0.1230429895437562</v>
+        <v>0.0390771644486232</v>
       </c>
       <c r="J140" t="n">
-        <v>0.02069691313856684</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K140" t="n">
-        <v>0.1239626237345165</v>
+        <v>0.06377489223322881</v>
       </c>
       <c r="L140" t="n">
-        <v>0.05153421821142209</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M140" t="n">
-        <v>0.1237104350567527</v>
+        <v>0.06271608960772028</v>
       </c>
       <c r="N140" t="n">
-        <v>0.08216618115960272</v>
+        <v>0.1119196779208668</v>
       </c>
       <c r="O140" t="n">
-        <v>0.1238587813377902</v>
+        <v>0.06253363116339565</v>
       </c>
     </row>
     <row r="141" ht="15" customHeight="1">
       <c r="F141" t="n">
-        <v>0.01794653158894851</v>
+        <v>0.01893650984698446</v>
       </c>
       <c r="G141" t="n">
-        <v>0.1246835627376729</v>
+        <v>0.03959819330793817</v>
       </c>
       <c r="J141" t="n">
-        <v>0.02067545977533253</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K141" t="n">
-        <v>0.1256154587176434</v>
+        <v>0.06462522412967187</v>
       </c>
       <c r="L141" t="n">
-        <v>0.0508012871455254</v>
+        <v>0.0699920153747462</v>
       </c>
       <c r="M141" t="n">
-        <v>0.1253599075241761</v>
+        <v>0.06355230413582322</v>
       </c>
       <c r="N141" t="n">
-        <v>0.08139614966441711</v>
+        <v>0.1112196779208668</v>
       </c>
       <c r="O141" t="n">
-        <v>0.1255102317556274</v>
+        <v>0.06336741291224092</v>
       </c>
     </row>
     <row r="142" ht="15" customHeight="1">
       <c r="F142" t="n">
-        <v>0.01880151334331554</v>
+        <v>0.01898634444526912</v>
       </c>
       <c r="G142" t="n">
-        <v>0.1263241359315897</v>
+        <v>0.04011922216725314</v>
       </c>
       <c r="J142" t="n">
-        <v>0.02028467562623784</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K142" t="n">
-        <v>0.1272682937007703</v>
+        <v>0.06547555602611492</v>
       </c>
       <c r="L142" t="n">
-        <v>0.05064794208062354</v>
+        <v>0.0694920153747462</v>
       </c>
       <c r="M142" t="n">
-        <v>0.1270093799915994</v>
+        <v>0.06438851866392616</v>
       </c>
       <c r="N142" t="n">
-        <v>0.08135039823885637</v>
+        <v>0.1122196779208668</v>
       </c>
       <c r="O142" t="n">
-        <v>0.1271616821734646</v>
+        <v>0.0642011946610862</v>
       </c>
     </row>
     <row r="143" ht="15" customHeight="1">
       <c r="F143" t="n">
-        <v>0.0176940903004934</v>
+        <v>0.01903396664983135</v>
       </c>
       <c r="G143" t="n">
-        <v>0.1279647091255064</v>
+        <v>0.04064025102656812</v>
       </c>
       <c r="J143" t="n">
-        <v>0.02033013466944025</v>
+        <v>0.02796435282862557</v>
       </c>
       <c r="K143" t="n">
-        <v>0.1289211286838972</v>
+        <v>0.06632588792255797</v>
       </c>
       <c r="L143" t="n">
-        <v>0.05018799003569491</v>
+        <v>0.0701920153747462</v>
       </c>
       <c r="M143" t="n">
-        <v>0.1286588524590228</v>
+        <v>0.06522473319202909</v>
       </c>
       <c r="N143" t="n">
-        <v>0.08015108039736801</v>
+        <v>0.1118196779208668</v>
       </c>
       <c r="O143" t="n">
-        <v>0.1288131325913018</v>
+        <v>0.06503497640993147</v>
       </c>
     </row>
     <row r="144" ht="15" customHeight="1">
       <c r="F144" t="n">
-        <v>0.01662930024251939</v>
+        <v>0.01907937623018382</v>
       </c>
       <c r="G144" t="n">
-        <v>0.1296052823194232</v>
+        <v>0.0411612798858831</v>
       </c>
       <c r="J144" t="n">
-        <v>0.02011741088309721</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K144" t="n">
-        <v>0.1305739636670241</v>
+        <v>0.06717621981900102</v>
       </c>
       <c r="L144" t="n">
-        <v>0.05003523802971768</v>
+        <v>0.06979201537474619</v>
       </c>
       <c r="M144" t="n">
-        <v>0.1303083249264461</v>
+        <v>0.06606094772013203</v>
       </c>
       <c r="N144" t="n">
-        <v>0.08032034965439971</v>
+        <v>0.1119196779208668</v>
       </c>
       <c r="O144" t="n">
-        <v>0.130464583009139</v>
+        <v>0.06586875815877674</v>
       </c>
     </row>
     <row r="145" ht="15" customHeight="1">
       <c r="F145" t="n">
-        <v>0.0186116061525192</v>
+        <v>0.0191225729558391</v>
       </c>
       <c r="G145" t="n">
-        <v>0.1312458555133399</v>
+        <v>0.04168230874519808</v>
       </c>
       <c r="J145" t="n">
-        <v>0.0201520782453662</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K145" t="n">
-        <v>0.132226798650151</v>
+        <v>0.06802655171544407</v>
       </c>
       <c r="L145" t="n">
-        <v>0.04980349308167012</v>
+        <v>0.07009201537474621</v>
       </c>
       <c r="M145" t="n">
-        <v>0.1319577973938695</v>
+        <v>0.06689716224823497</v>
       </c>
       <c r="N145" t="n">
-        <v>0.07938035952439876</v>
+        <v>0.1118196779208668</v>
       </c>
       <c r="O145" t="n">
-        <v>0.1321160334269762</v>
+        <v>0.06670253990762202</v>
       </c>
     </row>
     <row r="146" ht="15" customHeight="1">
       <c r="F146" t="n">
-        <v>0.01661650873174326</v>
+        <v>0.01916355659630986</v>
       </c>
       <c r="G146" t="n">
-        <v>0.1328864287072567</v>
+        <v>0.04220333760451305</v>
       </c>
       <c r="J146" t="n">
-        <v>0.02003782854425704</v>
+        <v>0.02806435282862557</v>
       </c>
       <c r="K146" t="n">
-        <v>0.1338796336332778</v>
+        <v>0.06887688361188711</v>
       </c>
       <c r="L146" t="n">
-        <v>0.04979003112668109</v>
+        <v>0.0699920153747462</v>
       </c>
       <c r="M146" t="n">
-        <v>0.1336072698612929</v>
+        <v>0.06773337677633791</v>
       </c>
       <c r="N146" t="n">
-        <v>0.07943938815884644</v>
+        <v>0.1112196779208668</v>
       </c>
       <c r="O146" t="n">
-        <v>0.1337674838448134</v>
+        <v>0.06753632165646729</v>
       </c>
     </row>
     <row r="147" ht="15" customHeight="1">
       <c r="F147" t="n">
-        <v>0.01862854973839592</v>
+        <v>0.0192023269211087</v>
       </c>
       <c r="G147" t="n">
-        <v>0.1345270019011734</v>
+        <v>0.04272436646382802</v>
       </c>
       <c r="J147" t="n">
-        <v>0.02014414181170844</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K147" t="n">
-        <v>0.1355324686164047</v>
+        <v>0.06972721550833016</v>
       </c>
       <c r="L147" t="n">
-        <v>0.05001045661604611</v>
+        <v>0.069491523631348</v>
       </c>
       <c r="M147" t="n">
-        <v>0.1352567423287163</v>
+        <v>0.06856959130444083</v>
       </c>
       <c r="N147" t="n">
-        <v>0.07956764650279885</v>
+        <v>0.1115173452291668</v>
       </c>
       <c r="O147" t="n">
-        <v>0.1354189342626506</v>
+        <v>0.06837010340531258</v>
       </c>
     </row>
     <row r="148" ht="15" customHeight="1">
       <c r="F148" t="n">
-        <v>0.01664735899808818</v>
+        <v>0.01923888369974824</v>
       </c>
       <c r="G148" t="n">
-        <v>0.1361675750950902</v>
+        <v>0.043245395323143</v>
       </c>
       <c r="J148" t="n">
-        <v>0.01995824365780231</v>
+        <v>0.02816435282862557</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1371853035995316</v>
+        <v>0.07057754740477322</v>
       </c>
       <c r="L148" t="n">
-        <v>0.05004997215216023</v>
+        <v>0.06978724723571714</v>
       </c>
       <c r="M148" t="n">
-        <v>0.1369062147961397</v>
+        <v>0.06940580583254378</v>
       </c>
       <c r="N148" t="n">
-        <v>0.0798267264622135</v>
+        <v>0.1119081981911667</v>
       </c>
       <c r="O148" t="n">
-        <v>0.1370703846804879</v>
+        <v>0.06920388515415785</v>
       </c>
     </row>
     <row r="149" ht="15" customHeight="1">
       <c r="F149" t="n">
-        <v>0.01667256633643106</v>
+        <v>0.01927322670174113</v>
       </c>
       <c r="G149" t="n">
-        <v>0.1378081482890069</v>
+        <v>0.04376642418245798</v>
       </c>
       <c r="J149" t="n">
-        <v>0.0200797245086541</v>
+        <v>0.0280641033598059</v>
       </c>
       <c r="K149" t="n">
-        <v>0.1388381385826585</v>
+        <v>0.07142787930121627</v>
       </c>
       <c r="L149" t="n">
-        <v>0.0502075632002984</v>
+        <v>0.07017871361797878</v>
       </c>
       <c r="M149" t="n">
-        <v>0.138555687263563</v>
+        <v>0.07024202036064671</v>
       </c>
       <c r="N149" t="n">
-        <v>0.07971500020491873</v>
+        <v>0.1117923740523112</v>
       </c>
       <c r="O149" t="n">
-        <v>0.1387218350983251</v>
+        <v>0.07003766690300313</v>
       </c>
     </row>
     <row r="150" ht="15" customHeight="1">
       <c r="F150" t="n">
-        <v>0.01670380157903555</v>
+        <v>0.01930535569659998</v>
       </c>
       <c r="G150" t="n">
-        <v>0.1394487214829237</v>
+        <v>0.04428745304177296</v>
       </c>
       <c r="J150" t="n">
-        <v>0.0200081747903792</v>
+        <v>0.02796224016036171</v>
       </c>
       <c r="K150" t="n">
-        <v>0.1404909735657854</v>
+        <v>0.07227821119765931</v>
       </c>
       <c r="L150" t="n">
-        <v>0.05038221522573549</v>
+        <v>0.06966608981545</v>
       </c>
       <c r="M150" t="n">
-        <v>0.1402051597309864</v>
+        <v>0.07107823488874965</v>
       </c>
       <c r="N150" t="n">
-        <v>0.08023083989874263</v>
+        <v>0.1113701375399666</v>
       </c>
       <c r="O150" t="n">
-        <v>0.1403732855161622</v>
+        <v>0.0708714486518484</v>
       </c>
     </row>
     <row r="151" ht="15" customHeight="1">
       <c r="F151" t="n">
-        <v>0.01774069455151267</v>
+        <v>0.01933527045383739</v>
       </c>
       <c r="G151" t="n">
-        <v>0.1410892946768404</v>
+        <v>0.04480848190108793</v>
       </c>
       <c r="J151" t="n">
-        <v>0.02004318492909302</v>
+        <v>0.02815861582367682</v>
       </c>
       <c r="K151" t="n">
-        <v>0.1421438085489123</v>
+        <v>0.07312854309410238</v>
       </c>
       <c r="L151" t="n">
-        <v>0.04977291369374653</v>
+        <v>0.07014954286544786</v>
       </c>
       <c r="M151" t="n">
-        <v>0.1418546321984098</v>
+        <v>0.07191444941685259</v>
       </c>
       <c r="N151" t="n">
-        <v>0.07977261771151339</v>
+        <v>0.112041753381499</v>
       </c>
       <c r="O151" t="n">
-        <v>0.1420247359339994</v>
+        <v>0.07170523040069367</v>
       </c>
     </row>
     <row r="152" ht="15" customHeight="1">
       <c r="F152" t="n">
-        <v>0.01878287507947339</v>
+        <v>0.01936297074296602</v>
       </c>
       <c r="G152" t="n">
-        <v>0.1427298678707572</v>
+        <v>0.0453295107604029</v>
       </c>
       <c r="J152" t="n">
-        <v>0.02008434535091094</v>
+        <v>0.02805330082520067</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1437966435320392</v>
+        <v>0.07397887499054542</v>
       </c>
       <c r="L152" t="n">
-        <v>0.05057864406960641</v>
+        <v>0.06942923980528953</v>
       </c>
       <c r="M152" t="n">
-        <v>0.1435041046658331</v>
+        <v>0.07275066394495552</v>
       </c>
       <c r="N152" t="n">
-        <v>0.08073870581105935</v>
+        <v>0.1119074863042748</v>
       </c>
       <c r="O152" t="n">
-        <v>0.1436761863518367</v>
+        <v>0.07253901214953895</v>
       </c>
     </row>
     <row r="153" ht="15" customHeight="1">
       <c r="F153" t="n">
-        <v>0.01682997298852874</v>
+        <v>0.01938845633349847</v>
       </c>
       <c r="G153" t="n">
-        <v>0.1443704410646739</v>
+        <v>0.04585053961971788</v>
       </c>
       <c r="J153" t="n">
-        <v>0.02013124648194843</v>
+        <v>0.02814636564038277</v>
       </c>
       <c r="K153" t="n">
-        <v>0.145449478515166</v>
+        <v>0.07482920688698848</v>
       </c>
       <c r="L153" t="n">
-        <v>0.05029839181859008</v>
+        <v>0.06940534767229198</v>
       </c>
       <c r="M153" t="n">
-        <v>0.1451535771332565</v>
+        <v>0.07358687847305846</v>
       </c>
       <c r="N153" t="n">
-        <v>0.08092747636520875</v>
+        <v>0.1120676010356602</v>
       </c>
       <c r="O153" t="n">
-        <v>0.1453276367696739</v>
+        <v>0.07337279389838422</v>
       </c>
     </row>
     <row r="154" ht="15" customHeight="1">
       <c r="F154" t="n">
-        <v>0.0178816181042897</v>
+        <v>0.01941172699494739</v>
       </c>
       <c r="G154" t="n">
-        <v>0.1460110142585907</v>
+        <v>0.04637156847903286</v>
       </c>
       <c r="J154" t="n">
-        <v>0.02018347874832087</v>
+        <v>0.02803788074467252</v>
       </c>
       <c r="K154" t="n">
-        <v>0.1471023134982929</v>
+        <v>0.07567953878343152</v>
       </c>
       <c r="L154" t="n">
-        <v>0.05013114240597247</v>
+        <v>0.06937803350377234</v>
       </c>
       <c r="M154" t="n">
-        <v>0.1468030496006799</v>
+        <v>0.0744230930011614</v>
       </c>
       <c r="N154" t="n">
-        <v>0.08043730154178952</v>
+        <v>0.1118223623030216</v>
       </c>
       <c r="O154" t="n">
-        <v>0.146979087187511</v>
+        <v>0.0742065756472295</v>
       </c>
     </row>
     <row r="155" ht="15" customHeight="1">
       <c r="F155" t="n">
-        <v>0.01893744025236729</v>
+        <v>0.01943278249682537</v>
       </c>
       <c r="G155" t="n">
-        <v>0.1476515874525074</v>
+        <v>0.04689259733834784</v>
       </c>
       <c r="J155" t="n">
-        <v>0.02044063257614367</v>
+        <v>0.02792791661351944</v>
       </c>
       <c r="K155" t="n">
-        <v>0.1487551484814198</v>
+        <v>0.07652987067987457</v>
       </c>
       <c r="L155" t="n">
-        <v>0.05097588129702851</v>
+        <v>0.06994746433704771</v>
       </c>
       <c r="M155" t="n">
-        <v>0.1484525220681032</v>
+        <v>0.07525930752926434</v>
       </c>
       <c r="N155" t="n">
-        <v>0.08046655350863025</v>
+        <v>0.1113720348337251</v>
       </c>
       <c r="O155" t="n">
-        <v>0.1486305376053483</v>
+        <v>0.07504035739607477</v>
       </c>
     </row>
     <row r="156" ht="15" customHeight="1">
       <c r="F156" t="n">
-        <v>0.01899706925837251</v>
+        <v>0.01945162260864506</v>
       </c>
       <c r="G156" t="n">
-        <v>0.1492921606464242</v>
+        <v>0.04741362619766281</v>
       </c>
       <c r="J156" t="n">
-        <v>0.02050229839153225</v>
+        <v>0.02791654372237297</v>
       </c>
       <c r="K156" t="n">
-        <v>0.1504079834645467</v>
+        <v>0.07738020257631763</v>
       </c>
       <c r="L156" t="n">
-        <v>0.05113159395703315</v>
+        <v>0.07001380720943512</v>
       </c>
       <c r="M156" t="n">
-        <v>0.1501019945355266</v>
+        <v>0.07609552205736728</v>
       </c>
       <c r="N156" t="n">
-        <v>0.08171360443355891</v>
+        <v>0.111916883355137</v>
       </c>
       <c r="O156" t="n">
-        <v>0.1502819880231855</v>
+        <v>0.07587413914492006</v>
       </c>
     </row>
     <row r="157" ht="15" customHeight="1">
       <c r="F157" t="n">
-        <v>0.01906114337544437</v>
+        <v>0.01946824709991908</v>
       </c>
       <c r="G157" t="n">
-        <v>0.1509327338403409</v>
+        <v>0.04793465505697778</v>
       </c>
       <c r="J157" t="n">
-        <v>0.02036806662060203</v>
+        <v>0.02800383254668259</v>
       </c>
       <c r="K157" t="n">
-        <v>0.1520608184476736</v>
+        <v>0.07823053447276068</v>
       </c>
       <c r="L157" t="n">
-        <v>0.0509972658512613</v>
+        <v>0.06937722915825173</v>
       </c>
       <c r="M157" t="n">
-        <v>0.15175146700295</v>
+        <v>0.07693173658547021</v>
       </c>
       <c r="N157" t="n">
-        <v>0.08087682648440375</v>
+        <v>0.1108571725946237</v>
       </c>
       <c r="O157" t="n">
-        <v>0.1519334384410227</v>
+        <v>0.07670792089376532</v>
       </c>
     </row>
     <row r="158" ht="15" customHeight="1">
       <c r="F158" t="n">
-        <v>0.01716888065668556</v>
+        <v>0.01948265574016005</v>
       </c>
       <c r="G158" t="n">
-        <v>0.1525733070342577</v>
+        <v>0.04845568391629276</v>
       </c>
       <c r="J158" t="n">
-        <v>0.02064266121524096</v>
+        <v>0.02788985356189776</v>
       </c>
       <c r="K158" t="n">
-        <v>0.1537136534308005</v>
+        <v>0.07908086636920372</v>
       </c>
       <c r="L158" t="n">
-        <v>0.05080289368427537</v>
+        <v>0.06933789722081454</v>
       </c>
       <c r="M158" t="n">
-        <v>0.1534009394703733</v>
+        <v>0.07776795111357315</v>
       </c>
       <c r="N158" t="n">
-        <v>0.08138554459293723</v>
+        <v>0.1113931672795513</v>
       </c>
       <c r="O158" t="n">
-        <v>0.1535848888588599</v>
+        <v>0.07754170264261059</v>
       </c>
     </row>
     <row r="159" ht="15" customHeight="1">
       <c r="F159" t="n">
-        <v>0.01933248997384705</v>
+        <v>0.01949484829888059</v>
       </c>
       <c r="G159" t="n">
-        <v>0.1542138802281744</v>
+        <v>0.04897671277560774</v>
       </c>
       <c r="J159" t="n">
-        <v>0.02057399185459539</v>
+        <v>0.02787467724346793</v>
       </c>
       <c r="K159" t="n">
-        <v>0.1553664884139274</v>
+        <v>0.07993119826564679</v>
       </c>
       <c r="L159" t="n">
-        <v>0.05186347584872125</v>
+        <v>0.06969597843444067</v>
       </c>
       <c r="M159" t="n">
-        <v>0.1550504119377967</v>
+        <v>0.07860416564167609</v>
       </c>
       <c r="N159" t="n">
-        <v>0.08193103341462532</v>
+        <v>0.1115251321372863</v>
       </c>
       <c r="O159" t="n">
-        <v>0.1552363392766971</v>
+        <v>0.07837548439145588</v>
       </c>
     </row>
     <row r="160" ht="15" customHeight="1">
       <c r="F160" t="n">
-        <v>0.01754079665557274</v>
+        <v>0.01950482454559332</v>
       </c>
       <c r="G160" t="n">
-        <v>0.1558544534220912</v>
+        <v>0.04949774163492272</v>
       </c>
       <c r="J160" t="n">
-        <v>0.02086404139841048</v>
+        <v>0.02785837406684259</v>
       </c>
       <c r="K160" t="n">
-        <v>0.1570193233970543</v>
+        <v>0.08078153016208983</v>
       </c>
       <c r="L160" t="n">
-        <v>0.0522632486718998</v>
+        <v>0.06965163983644718</v>
       </c>
       <c r="M160" t="n">
-        <v>0.1566998844052201</v>
+        <v>0.07944038016977903</v>
       </c>
       <c r="N160" t="n">
-        <v>0.08310576753785714</v>
+        <v>0.1106533318951947</v>
       </c>
       <c r="O160" t="n">
-        <v>0.1568877896945343</v>
+        <v>0.07920926614030115</v>
       </c>
     </row>
     <row r="161" ht="15" customHeight="1">
       <c r="F161" t="n">
-        <v>0.01978262603050653</v>
+        <v>0.0195125842498109</v>
       </c>
       <c r="G161" t="n">
-        <v>0.1574950266160079</v>
+        <v>0.05001877049423769</v>
       </c>
       <c r="J161" t="n">
-        <v>0.02110044579965241</v>
+        <v>0.0279410145074712</v>
       </c>
       <c r="K161" t="n">
-        <v>0.1586721583801811</v>
+        <v>0.08163186205853289</v>
       </c>
       <c r="L161" t="n">
-        <v>0.05227158579912813</v>
+        <v>0.06950504846415123</v>
       </c>
       <c r="M161" t="n">
-        <v>0.1583493568726435</v>
+        <v>0.08027659469788195</v>
       </c>
       <c r="N161" t="n">
-        <v>0.08436060663827954</v>
+        <v>0.1105780312806429</v>
       </c>
       <c r="O161" t="n">
-        <v>0.1585392401123715</v>
+        <v>0.08004304788914643</v>
       </c>
     </row>
     <row r="162" ht="15" customHeight="1">
       <c r="F162" t="n">
-        <v>0.02004680342729229</v>
+        <v>0.0195181271810459</v>
       </c>
       <c r="G162" t="n">
-        <v>0.1591355998099246</v>
+        <v>0.05053979935355266</v>
       </c>
       <c r="J162" t="n">
-        <v>0.02137084101128718</v>
+        <v>0.0278226690408032</v>
       </c>
       <c r="K162" t="n">
-        <v>0.160324993363308</v>
+        <v>0.08248219395497593</v>
       </c>
       <c r="L162" t="n">
-        <v>0.05355786087572342</v>
+        <v>0.06975637135486981</v>
       </c>
       <c r="M162" t="n">
-        <v>0.1599988293400668</v>
+        <v>0.08111280922598489</v>
       </c>
       <c r="N162" t="n">
-        <v>0.08544641039153927</v>
+        <v>0.1103994950209971</v>
       </c>
       <c r="O162" t="n">
-        <v>0.1601906905302087</v>
+        <v>0.0808768296379917</v>
       </c>
     </row>
     <row r="163" ht="15" customHeight="1">
       <c r="F163" t="n">
-        <v>0.01832215417457397</v>
+        <v>0.01952145310881098</v>
       </c>
       <c r="G163" t="n">
-        <v>0.1607761730038414</v>
+        <v>0.05106082821286764</v>
       </c>
       <c r="J163" t="n">
-        <v>0.02156286298628095</v>
+        <v>0.02790340814228809</v>
       </c>
       <c r="K163" t="n">
-        <v>0.1619778283464349</v>
+        <v>0.08333252585141898</v>
       </c>
       <c r="L163" t="n">
-        <v>0.05369144754700281</v>
+        <v>0.06960577554592001</v>
       </c>
       <c r="M163" t="n">
-        <v>0.1616483018074902</v>
+        <v>0.08194902375408783</v>
       </c>
       <c r="N163" t="n">
-        <v>0.08611403847328297</v>
+        <v>0.1107179878436237</v>
       </c>
       <c r="O163" t="n">
-        <v>0.1618421409480459</v>
+        <v>0.08171061138683698</v>
       </c>
     </row>
     <row r="164" ht="15" customHeight="1">
       <c r="F164" t="n">
-        <v>0.01959750360099543</v>
+        <v>0.01952256180261877</v>
       </c>
       <c r="G164" t="n">
-        <v>0.1624167461977582</v>
+        <v>0.05158185707218262</v>
       </c>
       <c r="J164" t="n">
-        <v>0.02196414767759984</v>
+        <v>0.02798330228737533</v>
       </c>
       <c r="K164" t="n">
-        <v>0.1636306633295618</v>
+        <v>0.08418285774786204</v>
       </c>
       <c r="L164" t="n">
-        <v>0.05464171945828342</v>
+        <v>0.06895342807461896</v>
       </c>
       <c r="M164" t="n">
-        <v>0.1632977742749135</v>
+        <v>0.08278523828219077</v>
       </c>
       <c r="N164" t="n">
-        <v>0.08761435055915762</v>
+        <v>0.1108337744758889</v>
       </c>
       <c r="O164" t="n">
-        <v>0.1634935913658831</v>
+        <v>0.08254439313568225</v>
       </c>
     </row>
     <row r="165" ht="15" customHeight="1">
       <c r="F165" t="n">
-        <v>0.01986167703520056</v>
+        <v>0.01952256180261876</v>
       </c>
       <c r="G165" t="n">
-        <v>0.1640573193916749</v>
+        <v>0.05158185707218262</v>
       </c>
       <c r="J165" t="n">
-        <v>0.02216233103820991</v>
+        <v>0.02786242195151435</v>
       </c>
       <c r="K165" t="n">
-        <v>0.1652834983126887</v>
+        <v>0.08503318964430509</v>
       </c>
       <c r="L165" t="n">
-        <v>0.05547805025488239</v>
+        <v>0.06909949597828371</v>
       </c>
       <c r="M165" t="n">
-        <v>0.1649472467423369</v>
+        <v>0.08362145281029371</v>
       </c>
       <c r="N165" t="n">
-        <v>0.08869820632480996</v>
+        <v>0.1108471196451589</v>
       </c>
       <c r="O165" t="n">
-        <v>0.1651450417837203</v>
+        <v>0.08337817488452752</v>
       </c>
     </row>
     <row r="166" ht="15" customHeight="1">
       <c r="F166" t="n">
-        <v>0.02010349980583327</v>
+        <v>0.01906983105390182</v>
       </c>
       <c r="G166" t="n">
-        <v>0.1656978925855916</v>
+        <v>0.05158158854371861</v>
       </c>
       <c r="J166" t="n">
-        <v>0.02254504902107732</v>
+        <v>0.02784083761015466</v>
       </c>
       <c r="K166" t="n">
-        <v>0.1669363332958156</v>
+        <v>0.08588352154074813</v>
       </c>
       <c r="L166" t="n">
-        <v>0.0563698135821169</v>
+        <v>0.06954414629423133</v>
       </c>
       <c r="M166" t="n">
-        <v>0.1665967192097603</v>
+        <v>0.08445766733839664</v>
       </c>
       <c r="N166" t="n">
-        <v>0.08991646544588672</v>
+        <v>0.1110582880788001</v>
       </c>
       <c r="O166" t="n">
-        <v>0.1667964922015575</v>
+        <v>0.0842119566333728</v>
       </c>
     </row>
     <row r="167" ht="15" customHeight="1">
       <c r="F167" t="n">
-        <v>0.02131251938413761</v>
+        <v>0.01862234092890586</v>
       </c>
       <c r="G167" t="n">
-        <v>0.1673384657795084</v>
+        <v>0.05158132001525459</v>
       </c>
       <c r="J167" t="n">
-        <v>0.02279993757916812</v>
+        <v>0.02771861973874569</v>
       </c>
       <c r="K167" t="n">
-        <v>0.1685891682789425</v>
+        <v>0.0867338534371912</v>
       </c>
       <c r="L167" t="n">
-        <v>0.05648638308530404</v>
+        <v>0.06888754605977895</v>
       </c>
       <c r="M167" t="n">
-        <v>0.1682461916771837</v>
+        <v>0.08529388186649958</v>
       </c>
       <c r="N167" t="n">
-        <v>0.09061998759803469</v>
+        <v>0.1107675445041787</v>
       </c>
       <c r="O167" t="n">
-        <v>0.1684479426193947</v>
+        <v>0.08504573838221807</v>
       </c>
     </row>
     <row r="168" ht="15" customHeight="1">
       <c r="F168" t="n">
-        <v>0.02050531464043853</v>
+        <v>0.0181806435852248</v>
       </c>
       <c r="G168" t="n">
-        <v>0.1689790389734252</v>
+        <v>0.05158105148679058</v>
       </c>
       <c r="J168" t="n">
-        <v>0.02301945832441535</v>
+        <v>0.02769583881273692</v>
       </c>
       <c r="K168" t="n">
-        <v>0.1702420032620694</v>
+        <v>0.08758418533363424</v>
       </c>
       <c r="L168" t="n">
-        <v>0.05722158340174452</v>
+        <v>0.06932986231224361</v>
       </c>
       <c r="M168" t="n">
-        <v>0.169895664144607</v>
+        <v>0.08613009639460252</v>
       </c>
       <c r="N168" t="n">
-        <v>0.09218615179731882</v>
+        <v>0.110675153648661</v>
       </c>
       <c r="O168" t="n">
-        <v>0.1700993930372319</v>
+        <v>0.08587952013106334</v>
       </c>
     </row>
     <row r="169" ht="15" customHeight="1">
       <c r="F169" t="n">
-        <v>0.02069333940680716</v>
+        <v>0.01774529118041387</v>
       </c>
       <c r="G169" t="n">
-        <v>0.1706196121673419</v>
+        <v>0.05158078295832656</v>
       </c>
       <c r="J169" t="n">
-        <v>0.02332809279450082</v>
+        <v>0.02777256530757784</v>
       </c>
       <c r="K169" t="n">
-        <v>0.1718948382451962</v>
+        <v>0.08843451723007729</v>
       </c>
       <c r="L169" t="n">
-        <v>0.05783793687505212</v>
+        <v>0.06867126208894242</v>
       </c>
       <c r="M169" t="n">
-        <v>0.1715451366120304</v>
+        <v>0.08696631092270546</v>
       </c>
       <c r="N169" t="n">
-        <v>0.09281506048881577</v>
+        <v>0.1107813802396133</v>
       </c>
       <c r="O169" t="n">
-        <v>0.1717508434550691</v>
+        <v>0.08671330187990862</v>
       </c>
     </row>
     <row r="170" ht="15" customHeight="1">
       <c r="F170" t="n">
-        <v>0.02187694817745221</v>
+        <v>0.01731683587206649</v>
       </c>
       <c r="G170" t="n">
-        <v>0.1722601853612586</v>
+        <v>0.05158051442986254</v>
       </c>
       <c r="J170" t="n">
-        <v>0.02343160107150252</v>
+        <v>0.02774886969871787</v>
       </c>
       <c r="K170" t="n">
-        <v>0.1735476732283231</v>
+        <v>0.08928484912652034</v>
       </c>
       <c r="L170" t="n">
-        <v>0.05864175478367298</v>
+        <v>0.06911191242719242</v>
       </c>
       <c r="M170" t="n">
-        <v>0.1731946090794538</v>
+        <v>0.0878025254508084</v>
       </c>
       <c r="N170" t="n">
-        <v>0.09282370244597143</v>
+        <v>0.1103864890044017</v>
       </c>
       <c r="O170" t="n">
-        <v>0.1734022938729063</v>
+        <v>0.08754708362875391</v>
       </c>
     </row>
     <row r="171" ht="15" customHeight="1">
       <c r="F171" t="n">
-        <v>0.02205649544658244</v>
+        <v>0.01689582981773845</v>
       </c>
       <c r="G171" t="n">
-        <v>0.1739007585551754</v>
+        <v>0.05158024590139852</v>
       </c>
       <c r="J171" t="n">
-        <v>0.02363037538020543</v>
+        <v>0.02782482246160652</v>
       </c>
       <c r="K171" t="n">
-        <v>0.17520050821145</v>
+        <v>0.09013518102296339</v>
       </c>
       <c r="L171" t="n">
-        <v>0.05863400868775637</v>
+        <v>0.06875198036431071</v>
       </c>
       <c r="M171" t="n">
-        <v>0.1748440815468771</v>
+        <v>0.08863873997891134</v>
       </c>
       <c r="N171" t="n">
-        <v>0.09441363654777596</v>
+        <v>0.1101907446703926</v>
       </c>
       <c r="O171" t="n">
-        <v>0.1750537442907435</v>
+        <v>0.08838086537759918</v>
       </c>
     </row>
     <row r="172" ht="15" customHeight="1">
       <c r="F172" t="n">
-        <v>0.02223233570840665</v>
+        <v>0.01648282517502254</v>
       </c>
       <c r="G172" t="n">
-        <v>0.1755413317490922</v>
+        <v>0.0515799773729345</v>
       </c>
       <c r="J172" t="n">
-        <v>0.0238248079453946</v>
+        <v>0.02760049407169321</v>
       </c>
       <c r="K172" t="n">
-        <v>0.1768533431945769</v>
+        <v>0.09098551291940644</v>
       </c>
       <c r="L172" t="n">
-        <v>0.05921567014745149</v>
+        <v>0.06859163293761442</v>
       </c>
       <c r="M172" t="n">
-        <v>0.1764935540143005</v>
+        <v>0.08947495450701426</v>
       </c>
       <c r="N172" t="n">
-        <v>0.0943864216732197</v>
+        <v>0.1099944119649524</v>
       </c>
       <c r="O172" t="n">
-        <v>0.1767051947085807</v>
+        <v>0.08921464712644445</v>
       </c>
     </row>
     <row r="173" ht="15" customHeight="1">
       <c r="F173" t="n">
-        <v>0.02040482345713356</v>
+        <v>0.01607837410147524</v>
       </c>
       <c r="G173" t="n">
-        <v>0.1771819049430089</v>
+        <v>0.05157970884447048</v>
       </c>
       <c r="J173" t="n">
-        <v>0.02401529099185504</v>
+        <v>0.02757595500442743</v>
       </c>
       <c r="K173" t="n">
-        <v>0.1785061781777038</v>
+        <v>0.0918358448158495</v>
       </c>
       <c r="L173" t="n">
-        <v>0.05988771072290766</v>
+        <v>0.06913088966238548</v>
       </c>
       <c r="M173" t="n">
-        <v>0.1781430264817239</v>
+        <v>0.09031116903511721</v>
       </c>
       <c r="N173" t="n">
-        <v>0.0955436167012928</v>
+        <v>0.1104956743949336</v>
       </c>
       <c r="O173" t="n">
-        <v>0.1783566451264179</v>
+        <v>0.09004842887528973</v>
       </c>
     </row>
     <row r="174" ht="15" customHeight="1">
       <c r="F174" t="n">
-        <v>0.02057431318697194</v>
+        <v>0.0156830287546886</v>
       </c>
       <c r="G174" t="n">
-        <v>0.1788224781369256</v>
+        <v>0.05157944031600647</v>
       </c>
       <c r="J174" t="n">
-        <v>0.02430221674437177</v>
+        <v>0.02765127573525865</v>
       </c>
       <c r="K174" t="n">
-        <v>0.1801590131608307</v>
+        <v>0.09268617671229254</v>
       </c>
       <c r="L174" t="n">
-        <v>0.06045110197427406</v>
+        <v>0.06846006160913751</v>
       </c>
       <c r="M174" t="n">
-        <v>0.1797924989491472</v>
+        <v>0.09114738356322014</v>
       </c>
       <c r="N174" t="n">
-        <v>0.09678678051098544</v>
+        <v>0.1095763036847968</v>
       </c>
       <c r="O174" t="n">
-        <v>0.1800080955442551</v>
+        <v>0.090882210624135</v>
       </c>
     </row>
     <row r="175" ht="15" customHeight="1">
       <c r="F175" t="n">
-        <v>0.02274115939213055</v>
+        <v>0.01529734129221987</v>
       </c>
       <c r="G175" t="n">
-        <v>0.1804630513308424</v>
+        <v>0.05157917178754245</v>
       </c>
       <c r="J175" t="n">
-        <v>0.02438597742772981</v>
+        <v>0.02762522531879212</v>
       </c>
       <c r="K175" t="n">
-        <v>0.1818118481439575</v>
+        <v>0.09353650860873559</v>
       </c>
       <c r="L175" t="n">
-        <v>0.0604068154616999</v>
+        <v>0.06867447501386695</v>
       </c>
       <c r="M175" t="n">
-        <v>0.1814419714165706</v>
+        <v>0.09198359809132309</v>
       </c>
       <c r="N175" t="n">
-        <v>0.097217471981288</v>
+        <v>0.1094341979076661</v>
       </c>
       <c r="O175" t="n">
-        <v>0.1816595459620923</v>
+        <v>0.09171599237298027</v>
       </c>
     </row>
     <row r="176" ht="15" customHeight="1">
       <c r="F176" t="n">
-        <v>0.02090571656681815</v>
+        <v>0.01492186387166031</v>
       </c>
       <c r="G176" t="n">
-        <v>0.1821036245247591</v>
+        <v>0.05157890325907843</v>
       </c>
       <c r="J176" t="n">
-        <v>0.02466696526671419</v>
+        <v>0.027693191931059</v>
       </c>
       <c r="K176" t="n">
-        <v>0.1834646831270844</v>
+        <v>0.09438684050517865</v>
       </c>
       <c r="L176" t="n">
-        <v>0.06115582274533451</v>
+        <v>0.06867586736329381</v>
       </c>
       <c r="M176" t="n">
-        <v>0.183091443883994</v>
+        <v>0.09281981261942601</v>
       </c>
       <c r="N176" t="n">
-        <v>0.09823724999119055</v>
+        <v>0.1097721107014192</v>
       </c>
       <c r="O176" t="n">
-        <v>0.1833109963799295</v>
+        <v>0.09254977412182556</v>
       </c>
     </row>
     <row r="177" ht="15" customHeight="1">
       <c r="F177" t="n">
-        <v>0.0210683392052435</v>
+        <v>0.01455714865056801</v>
       </c>
       <c r="G177" t="n">
-        <v>0.1837441977186759</v>
+        <v>0.05157863473061441</v>
       </c>
       <c r="J177" t="n">
-        <v>0.02464557248610991</v>
+        <v>0.02755540587062934</v>
       </c>
       <c r="K177" t="n">
-        <v>0.1851175181102113</v>
+        <v>0.0952371724016217</v>
       </c>
       <c r="L177" t="n">
-        <v>0.0615990953853271</v>
+        <v>0.06876597614413815</v>
       </c>
       <c r="M177" t="n">
-        <v>0.1847409163514173</v>
+        <v>0.09365602714752895</v>
       </c>
       <c r="N177" t="n">
-        <v>0.09904767341968351</v>
+        <v>0.1092927957039339</v>
       </c>
       <c r="O177" t="n">
-        <v>0.1849624467977667</v>
+        <v>0.09338355587067083</v>
       </c>
     </row>
     <row r="178" ht="15" customHeight="1">
       <c r="F178" t="n">
-        <v>0.02122938180161536</v>
+        <v>0.0142037477865333</v>
       </c>
       <c r="G178" t="n">
-        <v>0.1853847709125926</v>
+        <v>0.0515783662021504</v>
       </c>
       <c r="J178" t="n">
-        <v>0.02482219131070201</v>
+        <v>0.02761260020817062</v>
       </c>
       <c r="K178" t="n">
-        <v>0.1867703530933382</v>
+        <v>0.09608750429806474</v>
       </c>
       <c r="L178" t="n">
-        <v>0.06173760494182687</v>
+        <v>0.0685465388431199</v>
       </c>
       <c r="M178" t="n">
-        <v>0.1863903888188407</v>
+        <v>0.09449224167563189</v>
       </c>
       <c r="N178" t="n">
-        <v>0.09965030114575685</v>
+        <v>0.1085990065530879</v>
       </c>
       <c r="O178" t="n">
-        <v>0.1866138972156039</v>
+        <v>0.0942173376195161</v>
       </c>
     </row>
     <row r="179" ht="15" customHeight="1">
       <c r="F179" t="n">
-        <v>0.02339543362885276</v>
+        <v>0.01386221343711529</v>
       </c>
       <c r="G179" t="n">
-        <v>0.1870253441065094</v>
+        <v>0.05157809767368638</v>
       </c>
       <c r="J179" t="n">
-        <v>0.02509803512257135</v>
+        <v>0.02746550801435037</v>
       </c>
       <c r="K179" t="n">
-        <v>0.1884231880764651</v>
+        <v>0.0969378361945078</v>
       </c>
       <c r="L179" t="n">
-        <v>0.06267711701554371</v>
+        <v>0.06831929294695899</v>
       </c>
       <c r="M179" t="n">
-        <v>0.1880398612862641</v>
+        <v>0.09532845620373483</v>
       </c>
       <c r="N179" t="n">
-        <v>0.09985156299567555</v>
+        <v>0.1093934968867589</v>
       </c>
       <c r="O179" t="n">
-        <v>0.1882653476334411</v>
+        <v>0.09505111936836137</v>
       </c>
     </row>
     <row r="180" ht="15" customHeight="1">
       <c r="F180" t="n">
-        <v>0.0235702601516665</v>
+        <v>0.01353309775990325</v>
       </c>
       <c r="G180" t="n">
-        <v>0.1886659173004261</v>
+        <v>0.05157782914522237</v>
       </c>
       <c r="J180" t="n">
-        <v>0.02538332459391034</v>
+        <v>0.02741486235983608</v>
       </c>
       <c r="K180" t="n">
-        <v>0.190076023059592</v>
+        <v>0.09778816809095085</v>
       </c>
       <c r="L180" t="n">
-        <v>0.06294222151769774</v>
+        <v>0.06778597594237548</v>
       </c>
       <c r="M180" t="n">
-        <v>0.1896893337536874</v>
+        <v>0.09616467073183776</v>
       </c>
       <c r="N180" t="n">
-        <v>0.1002921265183934</v>
+        <v>0.1091790203428245</v>
       </c>
       <c r="O180" t="n">
-        <v>0.1899167980512783</v>
+        <v>0.09588490111720666</v>
       </c>
     </row>
     <row r="181" ht="15" customHeight="1">
       <c r="F181" t="n">
-        <v>0.0227477899920727</v>
+        <v>0.01321695291245736</v>
       </c>
       <c r="G181" t="n">
-        <v>0.1903064904943429</v>
+        <v>0.05157756061675835</v>
       </c>
       <c r="J181" t="n">
-        <v>0.02557578164401163</v>
+        <v>0.02736139631529524</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1917288580427189</v>
+        <v>0.09863849998739389</v>
       </c>
       <c r="L181" t="n">
-        <v>0.06332225876081971</v>
+        <v>0.0681483253160893</v>
       </c>
       <c r="M181" t="n">
-        <v>0.1913388062211108</v>
+        <v>0.0970008852599407</v>
       </c>
       <c r="N181" t="n">
-        <v>0.1015593152319821</v>
+        <v>0.1080583305591625</v>
       </c>
       <c r="O181" t="n">
-        <v>0.1915682484691155</v>
+        <v>0.09671868286605192</v>
       </c>
     </row>
     <row r="182" ht="15" customHeight="1">
       <c r="F182" t="n">
-        <v>0.02292193356479636</v>
+        <v>0.0129143310523658</v>
       </c>
       <c r="G182" t="n">
-        <v>0.1919470636882596</v>
+        <v>0.05157729208829433</v>
       </c>
       <c r="J182" t="n">
-        <v>0.02556866854284653</v>
+        <v>0.02730584295139538</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1933816930258458</v>
+        <v>0.09948883188383695</v>
       </c>
       <c r="L182" t="n">
-        <v>0.06430053905511379</v>
+        <v>0.06800807855482041</v>
       </c>
       <c r="M182" t="n">
-        <v>0.1929882786885342</v>
+        <v>0.09783709978804364</v>
       </c>
       <c r="N182" t="n">
-        <v>0.1027263503448287</v>
+        <v>0.1084341811736508</v>
       </c>
       <c r="O182" t="n">
-        <v>0.1932196988869527</v>
+        <v>0.09755246461489719</v>
       </c>
     </row>
     <row r="183" ht="15" customHeight="1">
       <c r="F183" t="n">
-        <v>0.02408660128456246</v>
+        <v>0.01262578433719599</v>
       </c>
       <c r="G183" t="n">
-        <v>0.1935876368821764</v>
+        <v>0.05157702355983031</v>
       </c>
       <c r="J183" t="n">
-        <v>0.02585524756038633</v>
+        <v>0.02734893533880398</v>
       </c>
       <c r="K183" t="n">
-        <v>0.1950345280089726</v>
+        <v>0.10033916378028</v>
       </c>
       <c r="L183" t="n">
-        <v>0.06466037271078409</v>
+        <v>0.06736697314528889</v>
       </c>
       <c r="M183" t="n">
-        <v>0.1946377511559576</v>
+        <v>0.09867331431614657</v>
       </c>
       <c r="N183" t="n">
-        <v>0.1030664530653199</v>
+        <v>0.1078093258241669</v>
       </c>
       <c r="O183" t="n">
-        <v>0.19487114930479</v>
+        <v>0.09838624636374249</v>
       </c>
     </row>
     <row r="184" ht="15" customHeight="1">
       <c r="F184" t="n">
-        <v>0.02223570356609599</v>
+        <v>0.01235186492451658</v>
       </c>
       <c r="G184" t="n">
-        <v>0.1952282100760931</v>
+        <v>0.05157675503136629</v>
       </c>
       <c r="J184" t="n">
-        <v>0.02612878096660229</v>
+        <v>0.02709140654818853</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1966873629920995</v>
+        <v>0.1011894956767231</v>
       </c>
       <c r="L184" t="n">
-        <v>0.06488507003803473</v>
+        <v>0.06732674657421459</v>
       </c>
       <c r="M184" t="n">
-        <v>0.1962872236233809</v>
+        <v>0.09950952884424952</v>
       </c>
       <c r="N184" t="n">
-        <v>0.1034528446018425</v>
+        <v>0.1078865181485887</v>
       </c>
       <c r="O184" t="n">
-        <v>0.1965225997226271</v>
+        <v>0.09922002811258776</v>
       </c>
     </row>
     <row r="185" ht="15" customHeight="1">
       <c r="F185" t="n">
-        <v>0.02236315082412197</v>
+        <v>0.01209312497191393</v>
       </c>
       <c r="G185" t="n">
-        <v>0.1968687832700099</v>
+        <v>0.05157648650290228</v>
       </c>
       <c r="J185" t="n">
-        <v>0.02618253103146566</v>
+        <v>0.02703398965021657</v>
       </c>
       <c r="K185" t="n">
-        <v>0.1983401979752264</v>
+        <v>0.1020398275731661</v>
       </c>
       <c r="L185" t="n">
-        <v>0.06545794134706998</v>
+        <v>0.06738913632831761</v>
       </c>
       <c r="M185" t="n">
-        <v>0.1979366960908043</v>
+        <v>0.1003457433723524</v>
       </c>
       <c r="N185" t="n">
-        <v>0.1036587461627835</v>
+        <v>0.1073685117847937</v>
       </c>
       <c r="O185" t="n">
-        <v>0.1981740501404644</v>
+        <v>0.100053809861433</v>
       </c>
     </row>
     <row r="186" ht="15" customHeight="1">
       <c r="F186" t="n">
-        <v>0.02446285347336537</v>
+        <v>0.01185011663695124</v>
       </c>
       <c r="G186" t="n">
-        <v>0.1985093564639266</v>
+        <v>0.05157621797443826</v>
       </c>
       <c r="J186" t="n">
-        <v>0.02640976002494778</v>
+        <v>0.02717741771555558</v>
       </c>
       <c r="K186" t="n">
-        <v>0.1999930329583533</v>
+        <v>0.1028901594696092</v>
       </c>
       <c r="L186" t="n">
-        <v>0.06526229694809391</v>
+        <v>0.06735587989431782</v>
       </c>
       <c r="M186" t="n">
-        <v>0.1995861685582277</v>
+        <v>0.1011819579004554</v>
       </c>
       <c r="N186" t="n">
-        <v>0.1044573789565296</v>
+        <v>0.1079580603706599</v>
       </c>
       <c r="O186" t="n">
-        <v>0.1998255005583015</v>
+        <v>0.1008875916102783</v>
       </c>
     </row>
     <row r="187" ht="15" customHeight="1">
       <c r="F187" t="n">
-        <v>0.024532832238384</v>
+        <v>0.01162339207721354</v>
       </c>
       <c r="G187" t="n">
-        <v>0.2001499296578434</v>
+        <v>0.05157594944597425</v>
       </c>
       <c r="J187" t="n">
-        <v>0.02640373021701987</v>
+        <v>0.02692242381487306</v>
       </c>
       <c r="K187" t="n">
-        <v>0.2016458679414802</v>
+        <v>0.1037404913660522</v>
       </c>
       <c r="L187" t="n">
-        <v>0.06598159908722559</v>
+        <v>0.0674287147589353</v>
       </c>
       <c r="M187" t="n">
-        <v>0.2012356410256511</v>
+        <v>0.1020181724285583</v>
       </c>
       <c r="N187" t="n">
-        <v>0.1053219641914678</v>
+        <v>0.1077579175440648</v>
       </c>
       <c r="O187" t="n">
-        <v>0.2014769509761388</v>
+        <v>0.1017213733591236</v>
       </c>
     </row>
     <row r="188" ht="15" customHeight="1">
       <c r="F188" t="n">
-        <v>0.02259663230638794</v>
+        <v>0.01141350345026543</v>
       </c>
       <c r="G188" t="n">
-        <v>0.2017905028517601</v>
+        <v>0.05157568091751023</v>
       </c>
       <c r="J188" t="n">
-        <v>0.02657434465121918</v>
+        <v>0.02696974101883651</v>
       </c>
       <c r="K188" t="n">
-        <v>0.2032987029246071</v>
+        <v>0.1045908232624953</v>
       </c>
       <c r="L188" t="n">
-        <v>0.0660561443715281</v>
+        <v>0.06660937840888992</v>
       </c>
       <c r="M188" t="n">
-        <v>0.2028851134930744</v>
+        <v>0.1028543869566613</v>
       </c>
       <c r="N188" t="n">
-        <v>0.1058020133969012</v>
+        <v>0.1066708369428861</v>
       </c>
       <c r="O188" t="n">
-        <v>0.2031284013939759</v>
+        <v>0.1025551551079689</v>
       </c>
     </row>
     <row r="189" ht="15" customHeight="1">
       <c r="F189" t="n">
-        <v>0.02365902057993397</v>
+        <v>0.01122100291369049</v>
       </c>
       <c r="G189" t="n">
-        <v>0.2034310760456769</v>
+        <v>0.05157541238904621</v>
       </c>
       <c r="J189" t="n">
-        <v>0.02644322423862991</v>
+        <v>0.02682010239811343</v>
       </c>
       <c r="K189" t="n">
-        <v>0.204951537907734</v>
+        <v>0.1054411551589383</v>
       </c>
       <c r="L189" t="n">
-        <v>0.06582686641956356</v>
+        <v>0.06689960833090183</v>
       </c>
       <c r="M189" t="n">
-        <v>0.2045345859604978</v>
+        <v>0.1036906014847642</v>
       </c>
       <c r="N189" t="n">
-        <v>0.1053758411271014</v>
+        <v>0.1065995722050018</v>
       </c>
       <c r="O189" t="n">
-        <v>0.2047798518118132</v>
+        <v>0.1033889368568141</v>
       </c>
     </row>
     <row r="190" ht="15" customHeight="1">
       <c r="F190" t="n">
-        <v>0.02471997464852426</v>
+        <v>0.01104418798162563</v>
       </c>
       <c r="G190" t="n">
-        <v>0.2050716492395936</v>
+        <v>0.05157514386058219</v>
       </c>
       <c r="J190" t="n">
-        <v>0.02661054254015618</v>
+        <v>0.02687424102337134</v>
       </c>
       <c r="K190" t="n">
-        <v>0.2066043728908609</v>
+        <v>0.1062914870553814</v>
       </c>
       <c r="L190" t="n">
-        <v>0.06619370381101522</v>
+        <v>0.06640114201169081</v>
       </c>
       <c r="M190" t="n">
-        <v>0.2061840584279211</v>
+        <v>0.1045268160128671</v>
       </c>
       <c r="N190" t="n">
-        <v>0.1064434522006711</v>
+        <v>0.1070468769682894</v>
       </c>
       <c r="O190" t="n">
-        <v>0.2064313022296504</v>
+        <v>0.1042227186056594</v>
       </c>
     </row>
     <row r="191" ht="15" customHeight="1">
       <c r="F191" t="n">
-        <v>0.02377947210166097</v>
+        <v>0.01087008295107905</v>
       </c>
       <c r="G191" t="n">
-        <v>0.2067122224335104</v>
+        <v>0.05157487533211818</v>
       </c>
       <c r="J191" t="n">
-        <v>0.02677627476003977</v>
+        <v>0.02693288996527772</v>
       </c>
       <c r="K191" t="n">
-        <v>0.2082572078739877</v>
+        <v>0.1071418189518244</v>
       </c>
       <c r="L191" t="n">
-        <v>0.06615659512556621</v>
+        <v>0.066515716937977</v>
       </c>
       <c r="M191" t="n">
-        <v>0.2078335308953445</v>
+        <v>0.1053630305409701</v>
       </c>
       <c r="N191" t="n">
-        <v>0.106204748068033</v>
+        <v>0.1069155048706266</v>
       </c>
       <c r="O191" t="n">
-        <v>0.2080827526474876</v>
+        <v>0.1050565003545047</v>
       </c>
     </row>
     <row r="192" ht="15" customHeight="1">
       <c r="F192" t="n">
-        <v>0.02383749052884627</v>
+        <v>0.01069698533618865</v>
       </c>
       <c r="G192" t="n">
-        <v>0.2083527956274271</v>
+        <v>0.05157460680365416</v>
       </c>
       <c r="J192" t="n">
-        <v>0.02674039610252239</v>
+        <v>0.02669678229450007</v>
       </c>
       <c r="K192" t="n">
-        <v>0.2099100428571146</v>
+        <v>0.1079921508482675</v>
       </c>
       <c r="L192" t="n">
-        <v>0.06681547894289966</v>
+        <v>0.06664507059648031</v>
       </c>
       <c r="M192" t="n">
-        <v>0.2094830033627679</v>
+        <v>0.106199245069073</v>
       </c>
       <c r="N192" t="n">
-        <v>0.1068596301796108</v>
+        <v>0.1068082095498913</v>
       </c>
       <c r="O192" t="n">
-        <v>0.2097342030653248</v>
+        <v>0.10589028210335</v>
       </c>
     </row>
     <row r="193" ht="15" customHeight="1">
       <c r="F193" t="n">
-        <v>0.02289400751958231</v>
+        <v>0.01052544729453642</v>
       </c>
       <c r="G193" t="n">
-        <v>0.2099933688213439</v>
+        <v>0.05157433827519015</v>
       </c>
       <c r="J193" t="n">
-        <v>0.02670288177184584</v>
+        <v>0.02666665108170591</v>
       </c>
       <c r="K193" t="n">
-        <v>0.2115628778402415</v>
+        <v>0.1088424827447105</v>
       </c>
       <c r="L193" t="n">
-        <v>0.06637029384269869</v>
+        <v>0.06688691855007078</v>
       </c>
       <c r="M193" t="n">
-        <v>0.2111324758301913</v>
+        <v>0.1070354595971759</v>
       </c>
       <c r="N193" t="n">
-        <v>0.1065079999858275</v>
+        <v>0.1069170014795075</v>
       </c>
       <c r="O193" t="n">
-        <v>0.211385653483162</v>
+        <v>0.1067240638521952</v>
       </c>
     </row>
     <row r="194" ht="15" customHeight="1">
       <c r="F194" t="n">
-        <v>0.02394900066337128</v>
+        <v>0.01035602098368935</v>
       </c>
       <c r="G194" t="n">
-        <v>0.2116339420152606</v>
+        <v>0.05157406974672613</v>
       </c>
       <c r="J194" t="n">
-        <v>0.02676370697225187</v>
+        <v>0.0266423351588696</v>
       </c>
       <c r="K194" t="n">
-        <v>0.2132157128233684</v>
+        <v>0.1096928146411536</v>
       </c>
       <c r="L194" t="n">
-        <v>0.06682097840464654</v>
+        <v>0.06673117280845964</v>
       </c>
       <c r="M194" t="n">
-        <v>0.2127819482976146</v>
+        <v>0.1078716741252789</v>
       </c>
       <c r="N194" t="n">
-        <v>0.1066497589371063</v>
+        <v>0.1068287187779223</v>
       </c>
       <c r="O194" t="n">
-        <v>0.2130371039009992</v>
+        <v>0.1075578456010405</v>
       </c>
     </row>
     <row r="195" ht="15" customHeight="1">
       <c r="F195" t="n">
-        <v>0.02300244754971532</v>
+        <v>0.01018925856122926</v>
       </c>
       <c r="G195" t="n">
-        <v>0.2132745152091774</v>
+        <v>0.05157380121826211</v>
       </c>
       <c r="J195" t="n">
-        <v>0.02702284690798228</v>
+        <v>0.02661946311714496</v>
       </c>
       <c r="K195" t="n">
-        <v>0.2148685478064953</v>
+        <v>0.1105431465375966</v>
       </c>
       <c r="L195" t="n">
-        <v>0.06736747120842629</v>
+        <v>0.06657718391946596</v>
       </c>
       <c r="M195" t="n">
-        <v>0.214431420765038</v>
+        <v>0.1087078886533818</v>
       </c>
       <c r="N195" t="n">
-        <v>0.1072848084838706</v>
+        <v>0.1058432105081826</v>
       </c>
       <c r="O195" t="n">
-        <v>0.2146885543188364</v>
+        <v>0.1083916273498858</v>
       </c>
     </row>
     <row r="196" ht="15" customHeight="1">
       <c r="F196" t="n">
-        <v>0.02305432576811659</v>
+        <v>0.01002571218472337</v>
       </c>
       <c r="G196" t="n">
-        <v>0.2149150884030941</v>
+        <v>0.05157353268979809</v>
       </c>
       <c r="J196" t="n">
-        <v>0.02688027678327877</v>
+        <v>0.02679732381965642</v>
       </c>
       <c r="K196" t="n">
-        <v>0.2165213827896222</v>
+        <v>0.1113934784340397</v>
       </c>
       <c r="L196" t="n">
-        <v>0.06680971083372117</v>
+        <v>0.06622489620725219</v>
       </c>
       <c r="M196" t="n">
-        <v>0.2160808932324614</v>
+        <v>0.1095441031814847</v>
       </c>
       <c r="N196" t="n">
-        <v>0.1076130500765435</v>
+        <v>0.1066603884330122</v>
       </c>
       <c r="O196" t="n">
-        <v>0.2163400047366736</v>
+        <v>0.1092254090987311</v>
       </c>
     </row>
     <row r="197" ht="15" customHeight="1">
       <c r="F197" t="n">
-        <v>0.02310461290807727</v>
+        <v>0.009865934011753223</v>
       </c>
       <c r="G197" t="n">
-        <v>0.2165556615970109</v>
+        <v>0.05157326416133407</v>
       </c>
       <c r="J197" t="n">
-        <v>0.02713597180238317</v>
+        <v>0.02677589377596633</v>
       </c>
       <c r="K197" t="n">
-        <v>0.2181742177727491</v>
+        <v>0.1122438103304827</v>
       </c>
       <c r="L197" t="n">
-        <v>0.06694763586021421</v>
+        <v>0.06597425399598059</v>
       </c>
       <c r="M197" t="n">
-        <v>0.2177303656998847</v>
+        <v>0.1103803177095877</v>
       </c>
       <c r="N197" t="n">
-        <v>0.1079343851655484</v>
+        <v>0.106180164315135</v>
       </c>
       <c r="O197" t="n">
-        <v>0.2179914551545108</v>
+        <v>0.1100591908475763</v>
       </c>
     </row>
     <row r="198" ht="15" customHeight="1">
       <c r="F198" t="n">
-        <v>0.02515328655909951</v>
+        <v>0.009710476199889677</v>
       </c>
       <c r="G198" t="n">
-        <v>0.2181962347909276</v>
+        <v>0.05157299563287006</v>
       </c>
       <c r="J198" t="n">
-        <v>0.0269899071695372</v>
+        <v>0.026755149495637</v>
       </c>
       <c r="K198" t="n">
-        <v>0.2198270527558759</v>
+        <v>0.1130941422269258</v>
       </c>
       <c r="L198" t="n">
-        <v>0.06708118486758868</v>
+        <v>0.06652520160981351</v>
       </c>
       <c r="M198" t="n">
-        <v>0.2193798381673081</v>
+        <v>0.1112165322376906</v>
       </c>
       <c r="N198" t="n">
-        <v>0.1073487152013083</v>
+        <v>0.1059024499172748</v>
       </c>
       <c r="O198" t="n">
-        <v>0.219642905572348</v>
+        <v>0.1108929725964216</v>
       </c>
     </row>
     <row r="199" ht="15" customHeight="1">
       <c r="F199" t="n">
-        <v>0.02420032431068549</v>
+        <v>0.009559890906703943</v>
       </c>
       <c r="G199" t="n">
-        <v>0.2198368079848444</v>
+        <v>0.05157272710440604</v>
       </c>
       <c r="J199" t="n">
-        <v>0.02704205808898263</v>
+        <v>0.02673506748823075</v>
       </c>
       <c r="K199" t="n">
-        <v>0.2214798877390028</v>
+        <v>0.1139444741233688</v>
       </c>
       <c r="L199" t="n">
-        <v>0.06781029643552766</v>
+        <v>0.0662776833729132</v>
       </c>
       <c r="M199" t="n">
-        <v>0.2210293106347315</v>
+        <v>0.1120527467657936</v>
       </c>
       <c r="N199" t="n">
-        <v>0.1079559416342467</v>
+        <v>0.1056271570021555</v>
       </c>
       <c r="O199" t="n">
-        <v>0.2212943559901852</v>
+        <v>0.1117267543452669</v>
       </c>
     </row>
     <row r="200" ht="15" customHeight="1">
       <c r="F200" t="n">
-        <v>0.02524570375233736</v>
+        <v>0.009414730289777018</v>
       </c>
       <c r="G200" t="n">
-        <v>0.2214773811787611</v>
+        <v>0.05157245857594202</v>
       </c>
       <c r="J200" t="n">
-        <v>0.02709239976496125</v>
+        <v>0.02661562426330995</v>
       </c>
       <c r="K200" t="n">
-        <v>0.2231327227221297</v>
+        <v>0.1147948060198119</v>
       </c>
       <c r="L200" t="n">
-        <v>0.06783490914371432</v>
+        <v>0.06633164360944199</v>
       </c>
       <c r="M200" t="n">
-        <v>0.2226787831021548</v>
+        <v>0.1128889612938965</v>
       </c>
       <c r="N200" t="n">
-        <v>0.1081559659147867</v>
+        <v>0.1055541973325009</v>
       </c>
       <c r="O200" t="n">
-        <v>0.2229458064080224</v>
+        <v>0.1125605360941122</v>
       </c>
     </row>
     <row r="201" ht="15" customHeight="1">
       <c r="F201" t="n">
-        <v>0.02428940247355727</v>
+        <v>0.009275546506677043</v>
       </c>
       <c r="G201" t="n">
-        <v>0.2231179543726779</v>
+        <v>0.051572190047478</v>
       </c>
       <c r="J201" t="n">
-        <v>0.02734090740171483</v>
+        <v>0.02669679633043691</v>
       </c>
       <c r="K201" t="n">
-        <v>0.2247855577052566</v>
+        <v>0.1156451379162549</v>
       </c>
       <c r="L201" t="n">
-        <v>0.06775496157183183</v>
+        <v>0.06648702664356232</v>
       </c>
       <c r="M201" t="n">
-        <v>0.2243282555695782</v>
+        <v>0.1137251758219994</v>
       </c>
       <c r="N201" t="n">
-        <v>0.1085486894933515</v>
+        <v>0.1057834826710348</v>
       </c>
       <c r="O201" t="n">
-        <v>0.2245972568258596</v>
+        <v>0.1133943178429574</v>
       </c>
     </row>
     <row r="202" ht="15" customHeight="1">
       <c r="F202" t="n">
-        <v>0.02433139806384744</v>
+        <v>0.009142891714984544</v>
       </c>
       <c r="G202" t="n">
-        <v>0.2247585275665946</v>
+        <v>0.05157192151901399</v>
       </c>
       <c r="J202" t="n">
-        <v>0.02718755620348508</v>
+        <v>0.02667856019917397</v>
       </c>
       <c r="K202" t="n">
-        <v>0.2264383926883835</v>
+        <v>0.116495469812698</v>
       </c>
       <c r="L202" t="n">
-        <v>0.06787039229956332</v>
+        <v>0.06624377679943635</v>
       </c>
       <c r="M202" t="n">
-        <v>0.2259777280370016</v>
+        <v>0.1145613903501024</v>
       </c>
       <c r="N202" t="n">
-        <v>0.1081340138203644</v>
+        <v>0.1060149247804812</v>
       </c>
       <c r="O202" t="n">
-        <v>0.2262487072436968</v>
+        <v>0.1142280995918027</v>
       </c>
     </row>
     <row r="203" ht="15" customHeight="1">
       <c r="F203" t="n">
-        <v>0.02337166811270996</v>
+        <v>0.009017318072268181</v>
       </c>
       <c r="G203" t="n">
-        <v>0.2263991007605114</v>
+        <v>0.05157165299054997</v>
       </c>
       <c r="J203" t="n">
-        <v>0.02723232137451383</v>
+        <v>0.02656089237908346</v>
       </c>
       <c r="K203" t="n">
-        <v>0.2280912276715104</v>
+        <v>0.117345801709141</v>
       </c>
       <c r="L203" t="n">
-        <v>0.06808113990659198</v>
+        <v>0.06610183840122655</v>
       </c>
       <c r="M203" t="n">
-        <v>0.2276272005044249</v>
+        <v>0.1153976048782053</v>
       </c>
       <c r="N203" t="n">
-        <v>0.1087118403462486</v>
+        <v>0.1054484354235639</v>
       </c>
       <c r="O203" t="n">
-        <v>0.227900157661534</v>
+        <v>0.115061881340648</v>
       </c>
     </row>
     <row r="204" ht="15" customHeight="1">
       <c r="F204" t="n">
-        <v>0.02341019020964705</v>
+        <v>0.008899377736107883</v>
       </c>
       <c r="G204" t="n">
-        <v>0.2280396739544281</v>
+        <v>0.05157138446208596</v>
       </c>
       <c r="J204" t="n">
-        <v>0.02747517811904279</v>
+        <v>0.02664376937972772</v>
       </c>
       <c r="K204" t="n">
-        <v>0.2297440626546373</v>
+        <v>0.1181961336055841</v>
       </c>
       <c r="L204" t="n">
-        <v>0.06818714297260092</v>
+        <v>0.06586115577309509</v>
       </c>
       <c r="M204" t="n">
-        <v>0.2292766729718483</v>
+        <v>0.1162338194063083</v>
       </c>
       <c r="N204" t="n">
-        <v>0.1093820705214273</v>
+        <v>0.1051839263630068</v>
       </c>
       <c r="O204" t="n">
-        <v>0.2295516080793712</v>
+        <v>0.1158956630894933</v>
       </c>
     </row>
     <row r="205" ht="15" customHeight="1">
       <c r="F205" t="n">
-        <v>0.02544694194416084</v>
+        <v>0.008789622864072991</v>
       </c>
       <c r="G205" t="n">
-        <v>0.2296802471483449</v>
+        <v>0.05157111593362194</v>
       </c>
       <c r="J205" t="n">
-        <v>0.02731610164131375</v>
+        <v>0.02662716771066907</v>
       </c>
       <c r="K205" t="n">
-        <v>0.2313968976377642</v>
+        <v>0.1190464655020271</v>
       </c>
       <c r="L205" t="n">
-        <v>0.06818834007727326</v>
+        <v>0.06582167323920438</v>
       </c>
       <c r="M205" t="n">
-        <v>0.2309261454392717</v>
+        <v>0.1170700339344112</v>
       </c>
       <c r="N205" t="n">
-        <v>0.1094446057963239</v>
+        <v>0.1051213093615336</v>
       </c>
       <c r="O205" t="n">
-        <v>0.2312030584972084</v>
+        <v>0.1167294448383385</v>
       </c>
     </row>
     <row r="206" ht="15" customHeight="1">
       <c r="F206" t="n">
-        <v>0.02348190090575349</v>
+        <v>0.008688605613742705</v>
       </c>
       <c r="G206" t="n">
-        <v>0.2313208203422616</v>
+        <v>0.05157084740515792</v>
       </c>
       <c r="J206" t="n">
-        <v>0.02745506714556847</v>
+        <v>0.02661106388146986</v>
       </c>
       <c r="K206" t="n">
-        <v>0.2330497326208911</v>
+        <v>0.1198967973984702</v>
       </c>
       <c r="L206" t="n">
-        <v>0.06838466980029229</v>
+        <v>0.06578333512371673</v>
       </c>
       <c r="M206" t="n">
-        <v>0.2325756179066951</v>
+        <v>0.1179062484625141</v>
       </c>
       <c r="N206" t="n">
-        <v>0.1091993476213615</v>
+        <v>0.1050604961818682</v>
       </c>
       <c r="O206" t="n">
-        <v>0.2328545089150456</v>
+        <v>0.1175632265871838</v>
       </c>
     </row>
     <row r="207" ht="15" customHeight="1">
       <c r="F207" t="n">
-        <v>0.0245150446839272</v>
+        <v>0.008596878142687107</v>
       </c>
       <c r="G207" t="n">
-        <v>0.2329613935361784</v>
+        <v>0.0515705788766939</v>
       </c>
       <c r="J207" t="n">
-        <v>0.02759204983604875</v>
+        <v>0.02659543440169242</v>
       </c>
       <c r="K207" t="n">
-        <v>0.2347025676040179</v>
+        <v>0.1207471292949132</v>
       </c>
       <c r="L207" t="n">
-        <v>0.068576070721341</v>
+        <v>0.06594608575079444</v>
       </c>
       <c r="M207" t="n">
-        <v>0.2342250903741184</v>
+        <v>0.1187424629906171</v>
       </c>
       <c r="N207" t="n">
-        <v>0.1096461974469634</v>
+        <v>0.1053013985867347</v>
       </c>
       <c r="O207" t="n">
-        <v>0.2345059593328828</v>
+        <v>0.1183970083360291</v>
       </c>
     </row>
     <row r="208" ht="15" customHeight="1">
       <c r="F208" t="n">
-        <v>0.02354635086818409</v>
+        <v>0.008514992608484623</v>
       </c>
       <c r="G208" t="n">
-        <v>0.2346019667300951</v>
+        <v>0.05157031034822988</v>
       </c>
       <c r="J208" t="n">
-        <v>0.02762702491699631</v>
+        <v>0.02658025578089905</v>
       </c>
       <c r="K208" t="n">
-        <v>0.2363554025871448</v>
+        <v>0.1215974611913563</v>
       </c>
       <c r="L208" t="n">
-        <v>0.06826248142010266</v>
+        <v>0.06610986944459982</v>
       </c>
       <c r="M208" t="n">
-        <v>0.2358745628415418</v>
+        <v>0.11957867751872</v>
       </c>
       <c r="N208" t="n">
-        <v>0.1098850567235527</v>
+        <v>0.1050439283388566</v>
       </c>
       <c r="O208" t="n">
-        <v>0.23615740975072</v>
+        <v>0.1192307900848744</v>
       </c>
     </row>
     <row r="209" ht="15" customHeight="1">
       <c r="F209" t="n">
-        <v>0.02557579704802635</v>
+        <v>0.008443501168706166</v>
       </c>
       <c r="G209" t="n">
-        <v>0.2362425399240119</v>
+        <v>0.05157004181976586</v>
       </c>
       <c r="J209" t="n">
-        <v>0.0274599675926529</v>
+        <v>0.02656550452865214</v>
       </c>
       <c r="K209" t="n">
-        <v>0.2380082375702717</v>
+        <v>0.1224477930877993</v>
       </c>
       <c r="L209" t="n">
-        <v>0.06834384047626033</v>
+        <v>0.06607463052929524</v>
       </c>
       <c r="M209" t="n">
-        <v>0.2375240353089652</v>
+        <v>0.1204148920468229</v>
       </c>
       <c r="N209" t="n">
-        <v>0.1091158269015529</v>
+        <v>0.1053879972009579</v>
       </c>
       <c r="O209" t="n">
-        <v>0.2378088601685572</v>
+        <v>0.1200645718337196</v>
       </c>
     </row>
     <row r="210" ht="15" customHeight="1">
       <c r="F210" t="n">
-        <v>0.02560336081295616</v>
+        <v>0.00838295598092928</v>
       </c>
       <c r="G210" t="n">
-        <v>0.2378831131179286</v>
+        <v>0.05156977329130185</v>
       </c>
       <c r="J210" t="n">
-        <v>0.02759085306726035</v>
+        <v>0.02655115715451398</v>
       </c>
       <c r="K210" t="n">
-        <v>0.2396610725533986</v>
+        <v>0.1232981249842424</v>
       </c>
       <c r="L210" t="n">
-        <v>0.06882008646949722</v>
+        <v>0.06594031332904293</v>
       </c>
       <c r="M210" t="n">
-        <v>0.2391735077763885</v>
+        <v>0.1212511065749259</v>
       </c>
       <c r="N210" t="n">
-        <v>0.1095384094313869</v>
+        <v>0.1048335169357625</v>
       </c>
       <c r="O210" t="n">
-        <v>0.2394603105863944</v>
+        <v>0.1208983535825649</v>
       </c>
     </row>
     <row r="211" ht="15" customHeight="1">
       <c r="F211" t="n">
-        <v>0.02462901975247563</v>
+        <v>0.008333909202725816</v>
       </c>
       <c r="G211" t="n">
-        <v>0.2395236863118454</v>
+        <v>0.05156950476283783</v>
       </c>
       <c r="J211" t="n">
-        <v>0.02751965654506035</v>
+        <v>0.02643719016804691</v>
       </c>
       <c r="K211" t="n">
-        <v>0.2413139075365255</v>
+        <v>0.1241484568806854</v>
       </c>
       <c r="L211" t="n">
-        <v>0.06879115797949648</v>
+        <v>0.06540686216800526</v>
       </c>
       <c r="M211" t="n">
-        <v>0.2408229802438119</v>
+        <v>0.1220873211030288</v>
       </c>
       <c r="N211" t="n">
-        <v>0.1094527057634783</v>
+        <v>0.1055803993059942</v>
       </c>
       <c r="O211" t="n">
-        <v>0.2411117610042316</v>
+        <v>0.1217321353314102</v>
       </c>
     </row>
     <row r="212" ht="15" customHeight="1">
       <c r="F212" t="n">
-        <v>0.02465275145608698</v>
+        <v>0.008296912991672317</v>
       </c>
       <c r="G212" t="n">
-        <v>0.2411642595057621</v>
+        <v>0.05156923623437382</v>
       </c>
       <c r="J212" t="n">
-        <v>0.02754635323029472</v>
+        <v>0.02652358007881329</v>
       </c>
       <c r="K212" t="n">
-        <v>0.2429667425196524</v>
+        <v>0.1249987887771285</v>
       </c>
       <c r="L212" t="n">
-        <v>0.06895699358594126</v>
+        <v>0.0655742213703446</v>
       </c>
       <c r="M212" t="n">
-        <v>0.2424724527112352</v>
+        <v>0.1229235356311317</v>
       </c>
       <c r="N212" t="n">
-        <v>0.11015861734825</v>
+        <v>0.1056285560743769</v>
       </c>
       <c r="O212" t="n">
-        <v>0.2427632114220688</v>
+        <v>0.1225659170802555</v>
       </c>
     </row>
     <row r="213" ht="15" customHeight="1">
       <c r="F213" t="n">
-        <v>0.02567453351329233</v>
+        <v>0.008272519505341677</v>
       </c>
       <c r="G213" t="n">
-        <v>0.2428048326996789</v>
+        <v>0.0515689677059098</v>
       </c>
       <c r="J213" t="n">
-        <v>0.02767091832720521</v>
+        <v>0.02651030339637542</v>
       </c>
       <c r="K213" t="n">
-        <v>0.2446195775027793</v>
+        <v>0.1258491206735715</v>
       </c>
       <c r="L213" t="n">
-        <v>0.06871753186851468</v>
+        <v>0.06534233526022318</v>
       </c>
       <c r="M213" t="n">
-        <v>0.2441219251786586</v>
+        <v>0.1237597501592347</v>
       </c>
       <c r="N213" t="n">
-        <v>0.1097560456361255</v>
+        <v>0.1051778990036343</v>
       </c>
       <c r="O213" t="n">
-        <v>0.244414661839906</v>
+        <v>0.1233996988291007</v>
       </c>
     </row>
     <row r="214" ht="15" customHeight="1">
       <c r="F214" t="n">
-        <v>0.02469434351359388</v>
+        <v>0.008261280901309377</v>
       </c>
       <c r="G214" t="n">
-        <v>0.2444454058935956</v>
+        <v>0.05156869917744578</v>
       </c>
       <c r="J214" t="n">
-        <v>0.02769332704003359</v>
+        <v>0.02629733663029564</v>
       </c>
       <c r="K214" t="n">
-        <v>0.2462724124859061</v>
+        <v>0.1266994525700146</v>
       </c>
       <c r="L214" t="n">
-        <v>0.06877271140689994</v>
+        <v>0.06531114816180342</v>
       </c>
       <c r="M214" t="n">
-        <v>0.245771397646082</v>
+        <v>0.1245959646873376</v>
       </c>
       <c r="N214" t="n">
-        <v>0.1105448920775279</v>
+        <v>0.1050283398564905</v>
       </c>
       <c r="O214" t="n">
-        <v>0.2460661122577432</v>
+        <v>0.124233480577946</v>
       </c>
     </row>
     <row r="215" ht="15" customHeight="1">
       <c r="F215" t="n">
-        <v>0.02571215904649376</v>
+        <v>0.008261280901309377</v>
       </c>
       <c r="G215" t="n">
-        <v>0.2460859790875124</v>
+        <v>0.05156869917744578</v>
       </c>
       <c r="J215" t="n">
-        <v>0.0276135545730216</v>
+        <v>0.02628465629013631</v>
       </c>
       <c r="K215" t="n">
-        <v>0.247925247469033</v>
+        <v>0.1275497844664576</v>
       </c>
       <c r="L215" t="n">
-        <v>0.06922247078078014</v>
+        <v>0.06528060439924752</v>
       </c>
       <c r="M215" t="n">
-        <v>0.2474208701135054</v>
+        <v>0.1254321792154406</v>
       </c>
       <c r="N215" t="n">
-        <v>0.1101250581228805</v>
+        <v>0.1046797903956692</v>
       </c>
       <c r="O215" t="n">
-        <v>0.2477175626755805</v>
+        <v>0.1250672623267913</v>
       </c>
     </row>
     <row r="216" ht="15" customHeight="1">
       <c r="F216" t="n">
-        <v>0.02372795770149414</v>
+        <v>0.008000405381942223</v>
       </c>
       <c r="G216" t="n">
-        <v>0.2477265522814291</v>
+        <v>0.05153639489801396</v>
       </c>
       <c r="J216" t="n">
-        <v>0.02773157613041102</v>
+        <v>0.02627223888545974</v>
       </c>
       <c r="K216" t="n">
-        <v>0.2495780824521599</v>
+        <v>0.1284001163629007</v>
       </c>
       <c r="L216" t="n">
-        <v>0.06866674856983848</v>
+        <v>0.0659506482967179</v>
       </c>
       <c r="M216" t="n">
-        <v>0.2490703425809287</v>
+        <v>0.1262683937435435</v>
       </c>
       <c r="N216" t="n">
-        <v>0.1098964452226064</v>
+        <v>0.1043321623838943</v>
       </c>
       <c r="O216" t="n">
-        <v>0.2493690130934176</v>
+        <v>0.1259010440756366</v>
       </c>
     </row>
     <row r="217" ht="15" customHeight="1">
       <c r="F217" t="n">
-        <v>0.02374171706809721</v>
+        <v>0.00774274999214427</v>
       </c>
       <c r="G217" t="n">
-        <v>0.2493671254753459</v>
+        <v>0.05150409061858213</v>
       </c>
       <c r="J217" t="n">
-        <v>0.02784736691644364</v>
+        <v>0.02636006092582827</v>
       </c>
       <c r="K217" t="n">
-        <v>0.2512309174352868</v>
+        <v>0.1292504482593437</v>
       </c>
       <c r="L217" t="n">
-        <v>0.06900548335375803</v>
+        <v>0.06572122417837678</v>
       </c>
       <c r="M217" t="n">
-        <v>0.2507198150483521</v>
+        <v>0.1271046082716464</v>
       </c>
       <c r="N217" t="n">
-        <v>0.110858954827129</v>
+        <v>0.1050853675838895</v>
       </c>
       <c r="O217" t="n">
-        <v>0.2510204635112548</v>
+        <v>0.1267348258244818</v>
       </c>
     </row>
     <row r="218" ht="15" customHeight="1">
       <c r="F218" t="n">
-        <v>0.02575341473580511</v>
+        <v>0.007488980022242214</v>
       </c>
       <c r="G218" t="n">
-        <v>0.2510076986692626</v>
+        <v>0.0514717863391503</v>
       </c>
       <c r="J218" t="n">
-        <v>0.0277609021353612</v>
+        <v>0.02644809892080423</v>
       </c>
       <c r="K218" t="n">
-        <v>0.2528837524184137</v>
+        <v>0.1301007801557868</v>
       </c>
       <c r="L218" t="n">
-        <v>0.06913861371222213</v>
+        <v>0.06529227636838658</v>
       </c>
       <c r="M218" t="n">
-        <v>0.2523692875157755</v>
+        <v>0.1279408227997494</v>
       </c>
       <c r="N218" t="n">
-        <v>0.1107124883868714</v>
+        <v>0.1048393177583789</v>
       </c>
       <c r="O218" t="n">
-        <v>0.2526719139290921</v>
+        <v>0.1275686075733271</v>
       </c>
     </row>
     <row r="219" ht="15" customHeight="1">
       <c r="F219" t="n">
-        <v>0.02476302829411999</v>
+        <v>0.007239760762562567</v>
       </c>
       <c r="G219" t="n">
-        <v>0.2526482718631793</v>
+        <v>0.05143948205971848</v>
       </c>
       <c r="J219" t="n">
-        <v>0.02787215699140544</v>
+        <v>0.02643632937994993</v>
       </c>
       <c r="K219" t="n">
-        <v>0.2545365874015406</v>
+        <v>0.1309511120522298</v>
       </c>
       <c r="L219" t="n">
-        <v>0.06896607822491369</v>
+        <v>0.06586374919090951</v>
       </c>
       <c r="M219" t="n">
-        <v>0.2540187599831989</v>
+        <v>0.1287770373278523</v>
       </c>
       <c r="N219" t="n">
-        <v>0.110756947352257</v>
+        <v>0.1051939246700862</v>
       </c>
       <c r="O219" t="n">
-        <v>0.2543233643469293</v>
+        <v>0.1284023893221724</v>
       </c>
     </row>
     <row r="220" ht="15" customHeight="1">
       <c r="F220" t="n">
-        <v>0.02377053533254406</v>
+        <v>0.006995757503431871</v>
       </c>
       <c r="G220" t="n">
-        <v>0.2542888450570961</v>
+        <v>0.05140717778028665</v>
       </c>
       <c r="J220" t="n">
-        <v>0.02788110668881816</v>
+        <v>0.02642472881282774</v>
       </c>
       <c r="K220" t="n">
-        <v>0.2561894223846675</v>
+        <v>0.1318014439486729</v>
       </c>
       <c r="L220" t="n">
-        <v>0.06888781547151607</v>
+        <v>0.06553558697010803</v>
       </c>
       <c r="M220" t="n">
-        <v>0.2556682324506222</v>
+        <v>0.1296132518559553</v>
       </c>
       <c r="N220" t="n">
-        <v>0.110192233173709</v>
+        <v>0.1052491000817352</v>
       </c>
       <c r="O220" t="n">
-        <v>0.2559748147647665</v>
+        <v>0.1292361710710177</v>
       </c>
     </row>
     <row r="221" ht="15" customHeight="1">
       <c r="F221" t="n">
-        <v>0.02477591344057944</v>
+        <v>0.006757635535176783</v>
       </c>
       <c r="G221" t="n">
-        <v>0.2559294182510128</v>
+        <v>0.05137487350085483</v>
       </c>
       <c r="J221" t="n">
-        <v>0.02768772643184111</v>
+        <v>0.02631327372899998</v>
       </c>
       <c r="K221" t="n">
-        <v>0.2578422573677943</v>
+        <v>0.1326517758451159</v>
       </c>
       <c r="L221" t="n">
-        <v>0.06940376403171225</v>
+        <v>0.06540773403014433</v>
       </c>
       <c r="M221" t="n">
-        <v>0.2573177049180456</v>
+        <v>0.1304494663840582</v>
       </c>
       <c r="N221" t="n">
-        <v>0.1106182473016505</v>
+        <v>0.10460475575605</v>
       </c>
       <c r="O221" t="n">
-        <v>0.2576262651826036</v>
+        <v>0.1300699528198629</v>
       </c>
     </row>
     <row r="222" ht="15" customHeight="1">
       <c r="F222" t="n">
-        <v>0.02477914020772832</v>
+        <v>0.00652606014812384</v>
       </c>
       <c r="G222" t="n">
-        <v>0.2575699914449296</v>
+        <v>0.05134256922142301</v>
       </c>
       <c r="J222" t="n">
-        <v>0.02779199142471606</v>
+        <v>0.02620194063802898</v>
       </c>
       <c r="K222" t="n">
-        <v>0.2594950923509212</v>
+        <v>0.133502107741559</v>
       </c>
       <c r="L222" t="n">
-        <v>0.06941386248518552</v>
+        <v>0.06558013469518079</v>
       </c>
       <c r="M222" t="n">
-        <v>0.258967177385469</v>
+        <v>0.1312856809121611</v>
       </c>
       <c r="N222" t="n">
-        <v>0.111134891186505</v>
+        <v>0.1043608034557542</v>
       </c>
       <c r="O222" t="n">
-        <v>0.2592777156004409</v>
+        <v>0.1309037345687082</v>
       </c>
     </row>
     <row r="223" ht="15" customHeight="1">
       <c r="F223" t="n">
-        <v>0.02578018131353469</v>
+        <v>0.006301696632599579</v>
       </c>
       <c r="G223" t="n">
-        <v>0.2592105646388464</v>
+        <v>0.05131026494199118</v>
       </c>
       <c r="J223" t="n">
-        <v>0.02789387687168478</v>
+        <v>0.02619070604947707</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2611479273340481</v>
+        <v>0.134352439638002</v>
       </c>
       <c r="L223" t="n">
-        <v>0.06891804941161891</v>
+        <v>0.06515273328937976</v>
       </c>
       <c r="M223" t="n">
-        <v>0.2606166498528923</v>
+        <v>0.1321218954402641</v>
       </c>
       <c r="N223" t="n">
-        <v>0.1108420662786954</v>
+        <v>0.1047171549435718</v>
       </c>
       <c r="O223" t="n">
-        <v>0.260929166018278</v>
+        <v>0.1317375163175535</v>
       </c>
     </row>
     <row r="224" ht="15" customHeight="1">
       <c r="F224" t="n">
-        <v>0.02574536313621784</v>
+        <v>0.006085210278930657</v>
       </c>
       <c r="G224" t="n">
-        <v>0.2608511378327631</v>
+        <v>0.05127796066255935</v>
       </c>
       <c r="J224" t="n">
-        <v>0.02777496587263115</v>
+        <v>0.0261795464729066</v>
       </c>
       <c r="K224" t="n">
-        <v>0.262800762317175</v>
+        <v>0.1352027715344451</v>
       </c>
       <c r="L224" t="n">
-        <v>0.06935955680408534</v>
+        <v>0.06502547413690343</v>
       </c>
       <c r="M224" t="n">
-        <v>0.2622661223203157</v>
+        <v>0.132958109968367</v>
       </c>
       <c r="N224" t="n">
-        <v>0.1101594536057896</v>
+        <v>0.1041737219822266</v>
       </c>
       <c r="O224" t="n">
-        <v>0.2625806164361152</v>
+        <v>0.1325712980663988</v>
       </c>
     </row>
     <row r="225" ht="15" customHeight="1">
       <c r="F225" t="n">
-        <v>0.02464817918658912</v>
+        <v>0.00587726637744361</v>
       </c>
       <c r="G225" t="n">
-        <v>0.2624917110266798</v>
+        <v>0.05124565638312753</v>
       </c>
       <c r="J225" t="n">
-        <v>0.02768831070218095</v>
+        <v>0.02626843841787989</v>
       </c>
       <c r="K225" t="n">
-        <v>0.2644535973003019</v>
+        <v>0.1360531034308881</v>
       </c>
       <c r="L225" t="n">
-        <v>0.06873071540604134</v>
+        <v>0.06509830156191432</v>
       </c>
       <c r="M225" t="n">
-        <v>0.2639155947877391</v>
+        <v>0.1337943244964699</v>
       </c>
       <c r="N225" t="n">
-        <v>0.1100056681738725</v>
+        <v>0.1043304163344424</v>
       </c>
       <c r="O225" t="n">
-        <v>0.2642320668539525</v>
+        <v>0.133405079815244</v>
       </c>
     </row>
     <row r="226" ht="15" customHeight="1">
       <c r="F226" t="n">
-        <v>0.02349561578904775</v>
+        <v>0.005678530218464976</v>
       </c>
       <c r="G226" t="n">
-        <v>0.2641322842205966</v>
+        <v>0.0512133521036957</v>
       </c>
       <c r="J226" t="n">
-        <v>0.02753859986994101</v>
+        <v>0.02615735839395929</v>
       </c>
       <c r="K226" t="n">
-        <v>0.2661064322834288</v>
+        <v>0.1369034353273312</v>
       </c>
       <c r="L226" t="n">
-        <v>0.06884688589338783</v>
+        <v>0.06507115988857456</v>
       </c>
       <c r="M226" t="n">
-        <v>0.2655650672551624</v>
+        <v>0.1346305390245729</v>
       </c>
       <c r="N226" t="n">
-        <v>0.109002065397532</v>
+        <v>0.1048871497629431</v>
       </c>
       <c r="O226" t="n">
-        <v>0.2658835172717897</v>
+        <v>0.1342388615640893</v>
       </c>
     </row>
     <row r="227" ht="15" customHeight="1">
       <c r="F227" t="n">
-        <v>0.02329465926799301</v>
+        <v>0.005489667092321411</v>
       </c>
       <c r="G227" t="n">
-        <v>0.2657728574145133</v>
+        <v>0.05118104782426388</v>
       </c>
       <c r="J227" t="n">
-        <v>0.02743356328945538</v>
+        <v>0.02614628291070709</v>
       </c>
       <c r="K227" t="n">
-        <v>0.2677592672665557</v>
+        <v>0.1377537672237742</v>
       </c>
       <c r="L227" t="n">
-        <v>0.06822721564345366</v>
+        <v>0.06544399344104657</v>
       </c>
       <c r="M227" t="n">
-        <v>0.2672145397225858</v>
+        <v>0.1354667535526758</v>
       </c>
       <c r="N227" t="n">
-        <v>0.1091793674551727</v>
+        <v>0.1049438340304526</v>
       </c>
       <c r="O227" t="n">
-        <v>0.2675349676896269</v>
+        <v>0.1350726433129346</v>
       </c>
     </row>
     <row r="228" ht="15" customHeight="1">
       <c r="F228" t="n">
-        <v>0.0230522959478241</v>
+        <v>0.005311342289339445</v>
       </c>
       <c r="G228" t="n">
-        <v>0.2674134306084301</v>
+        <v>0.05114874354483206</v>
       </c>
       <c r="J228" t="n">
-        <v>0.02708093087426822</v>
+        <v>0.02613518847768566</v>
       </c>
       <c r="K228" t="n">
-        <v>0.2694121022496826</v>
+        <v>0.1386040991202173</v>
       </c>
       <c r="L228" t="n">
-        <v>0.06729085203356758</v>
+        <v>0.06551674654349263</v>
       </c>
       <c r="M228" t="n">
-        <v>0.2688640121900092</v>
+        <v>0.1363029680807787</v>
       </c>
       <c r="N228" t="n">
-        <v>0.1072682965251994</v>
+        <v>0.1039003808996947</v>
       </c>
       <c r="O228" t="n">
-        <v>0.2691864181074641</v>
+        <v>0.1359064250617799</v>
       </c>
     </row>
     <row r="229" ht="15" customHeight="1">
       <c r="F229" t="n">
-        <v>0.02477551215294033</v>
+        <v>0.005144221099845629</v>
       </c>
       <c r="G229" t="n">
-        <v>0.2690540038023468</v>
+        <v>0.05111643926540023</v>
       </c>
       <c r="J229" t="n">
-        <v>0.02668843253792358</v>
+        <v>0.02622405160445734</v>
       </c>
       <c r="K229" t="n">
-        <v>0.2710649372328094</v>
+        <v>0.1394544310166603</v>
       </c>
       <c r="L229" t="n">
-        <v>0.06635694244105855</v>
+        <v>0.06488936352007507</v>
       </c>
       <c r="M229" t="n">
-        <v>0.2705134846574325</v>
+        <v>0.1371391826088817</v>
       </c>
       <c r="N229" t="n">
-        <v>0.1066995747860167</v>
+        <v>0.1040567021333932</v>
       </c>
       <c r="O229" t="n">
-        <v>0.2708378685253013</v>
+        <v>0.1367402068106252</v>
       </c>
     </row>
     <row r="230" ht="15" customHeight="1">
       <c r="F230" t="n">
-        <v>0.02347129420774092</v>
+        <v>0.004988968814166606</v>
       </c>
       <c r="G230" t="n">
-        <v>0.2706945769962636</v>
+        <v>0.0510841349859684</v>
       </c>
       <c r="J230" t="n">
-        <v>0.02656379819396558</v>
+        <v>0.02611284880058444</v>
       </c>
       <c r="K230" t="n">
-        <v>0.2727177722159363</v>
+        <v>0.1403047629131034</v>
       </c>
       <c r="L230" t="n">
-        <v>0.06594463424325528</v>
+        <v>0.06536178869495621</v>
       </c>
       <c r="M230" t="n">
-        <v>0.2721629571248559</v>
+        <v>0.1379753971369846</v>
       </c>
       <c r="N230" t="n">
-        <v>0.1058039244160294</v>
+        <v>0.1039127094942721</v>
       </c>
       <c r="O230" t="n">
-        <v>0.2724893189431385</v>
+        <v>0.1375739885594704</v>
       </c>
     </row>
     <row r="231" ht="15" customHeight="1">
       <c r="F231" t="n">
-        <v>0.02314662843662511</v>
+        <v>0.004846250722628918</v>
       </c>
       <c r="G231" t="n">
-        <v>0.2723351501901804</v>
+        <v>0.05105183070653658</v>
       </c>
       <c r="J231" t="n">
-        <v>0.02611475775593829</v>
+        <v>0.0263015565756293</v>
       </c>
       <c r="K231" t="n">
-        <v>0.2743706071990633</v>
+        <v>0.1411550948095464</v>
       </c>
       <c r="L231" t="n">
-        <v>0.06487307481748661</v>
+        <v>0.06513396639229838</v>
       </c>
       <c r="M231" t="n">
-        <v>0.2738124295922793</v>
+        <v>0.1388116116650876</v>
       </c>
       <c r="N231" t="n">
-        <v>0.103912067593642</v>
+        <v>0.1038683147450551</v>
       </c>
       <c r="O231" t="n">
-        <v>0.2741407693609757</v>
+        <v>0.1384077703083157</v>
       </c>
     </row>
     <row r="232" ht="15" customHeight="1">
       <c r="F232" t="n">
-        <v>0.02280850116399216</v>
+        <v>0.004716732115559119</v>
       </c>
       <c r="G232" t="n">
-        <v>0.2739757233840971</v>
+        <v>0.05101952642710475</v>
       </c>
       <c r="J232" t="n">
-        <v>0.02564904113738582</v>
+        <v>0.02629015143915427</v>
       </c>
       <c r="K232" t="n">
-        <v>0.2760234421821901</v>
+        <v>0.1420054267059895</v>
       </c>
       <c r="L232" t="n">
-        <v>0.0641614115410814</v>
+        <v>0.06520584799707024</v>
       </c>
       <c r="M232" t="n">
-        <v>0.2754619020597026</v>
+        <v>0.1396478261931905</v>
       </c>
       <c r="N232" t="n">
-        <v>0.1026547264972594</v>
+        <v>0.1036234587338858</v>
       </c>
       <c r="O232" t="n">
-        <v>0.2757922197788129</v>
+        <v>0.139241552057161</v>
       </c>
     </row>
     <row r="233" ht="15" customHeight="1">
       <c r="F233" t="n">
-        <v>0.02146389871424132</v>
+        <v>0.004601078283283828</v>
       </c>
       <c r="G233" t="n">
-        <v>0.2756162965780138</v>
+        <v>0.05098722214767293</v>
       </c>
       <c r="J233" t="n">
-        <v>0.02547437825185228</v>
+        <v>0.02627865795432616</v>
       </c>
       <c r="K233" t="n">
-        <v>0.277676277165317</v>
+        <v>0.1428557586024325</v>
       </c>
       <c r="L233" t="n">
-        <v>0.06322879179136842</v>
+        <v>0.06537776441815502</v>
       </c>
       <c r="M233" t="n">
-        <v>0.277111374527126</v>
+        <v>0.1404840407212934</v>
       </c>
       <c r="N233" t="n">
-        <v>0.1003626233052861</v>
+        <v>0.1045787259719916</v>
       </c>
       <c r="O233" t="n">
-        <v>0.2774436701966501</v>
+        <v>0.1400753338060063</v>
       </c>
     </row>
     <row r="234" ht="15" customHeight="1">
       <c r="F234" t="n">
-        <v>0.02111980741177182</v>
+        <v>0.004499954516129605</v>
       </c>
       <c r="G234" t="n">
-        <v>0.2772568697719306</v>
+        <v>0.05095491786824111</v>
       </c>
       <c r="J234" t="n">
-        <v>0.02509849901288173</v>
+        <v>0.0260672472952623</v>
       </c>
       <c r="K234" t="n">
-        <v>0.2793291121484439</v>
+        <v>0.1437060904988756</v>
       </c>
       <c r="L234" t="n">
-        <v>0.06229436294567656</v>
+        <v>0.06474992478267816</v>
       </c>
       <c r="M234" t="n">
-        <v>0.2787608469945494</v>
+        <v>0.1413202552493964</v>
       </c>
       <c r="N234" t="n">
-        <v>0.0989664801961268</v>
+        <v>0.1043343816419864</v>
       </c>
       <c r="O234" t="n">
-        <v>0.2790951206144873</v>
+        <v>0.1409091155548515</v>
       </c>
     </row>
     <row r="235" ht="15" customHeight="1">
       <c r="F235" t="n">
-        <v>0.02178321358098294</v>
+        <v>0.004414026104423006</v>
       </c>
       <c r="G235" t="n">
-        <v>0.2788974429658473</v>
+        <v>0.05092261358880928</v>
       </c>
       <c r="J235" t="n">
-        <v>0.0247291333340183</v>
+        <v>0.02625593884005853</v>
       </c>
       <c r="K235" t="n">
-        <v>0.2809819471315708</v>
+        <v>0.1445564223953186</v>
       </c>
       <c r="L235" t="n">
-        <v>0.06107727238133459</v>
+        <v>0.06532233392224573</v>
       </c>
       <c r="M235" t="n">
-        <v>0.2804103194619728</v>
+        <v>0.1421564697774993</v>
       </c>
       <c r="N235" t="n">
-        <v>0.09769701934818625</v>
+        <v>0.1039904334011911</v>
       </c>
       <c r="O235" t="n">
-        <v>0.2807465710323245</v>
+        <v>0.1417428973036968</v>
       </c>
     </row>
     <row r="236" ht="15" customHeight="1">
       <c r="F236" t="n">
-        <v>0.02246110354627389</v>
+        <v>0.00434395833849064</v>
       </c>
       <c r="G236" t="n">
-        <v>0.2805380161597641</v>
+        <v>0.05089030930937746</v>
       </c>
       <c r="J236" t="n">
-        <v>0.02437401112880606</v>
+        <v>0.02624473462723897</v>
       </c>
       <c r="K236" t="n">
-        <v>0.2826347821146977</v>
+        <v>0.1454067542917617</v>
       </c>
       <c r="L236" t="n">
-        <v>0.06069666747567135</v>
+        <v>0.06499499666846373</v>
       </c>
       <c r="M236" t="n">
-        <v>0.2820597919293961</v>
+        <v>0.1429926843056022</v>
       </c>
       <c r="N236" t="n">
-        <v>0.09618496293986911</v>
+        <v>0.1034468889069267</v>
       </c>
       <c r="O236" t="n">
-        <v>0.2823980214501617</v>
+        <v>0.1425766790525421</v>
       </c>
     </row>
     <row r="237" ht="15" customHeight="1">
       <c r="F237" t="n">
-        <v>0.02016046363204396</v>
+        <v>0.004290416508659071</v>
       </c>
       <c r="G237" t="n">
-        <v>0.2821785893536808</v>
+        <v>0.05085800502994563</v>
       </c>
       <c r="J237" t="n">
-        <v>0.02384086231078911</v>
+        <v>0.02603363669532782</v>
       </c>
       <c r="K237" t="n">
-        <v>0.2842876170978245</v>
+        <v>0.1462570861882048</v>
       </c>
       <c r="L237" t="n">
-        <v>0.05987169560601568</v>
+        <v>0.06466791785293827</v>
       </c>
       <c r="M237" t="n">
-        <v>0.2837092643968195</v>
+        <v>0.1438288988337052</v>
       </c>
       <c r="N237" t="n">
-        <v>0.09536103314958</v>
+        <v>0.1041037558165139</v>
       </c>
       <c r="O237" t="n">
-        <v>0.2840494718679989</v>
+        <v>0.1434104608013873</v>
       </c>
     </row>
     <row r="238" ht="15" customHeight="1">
       <c r="F238" t="n">
-        <v>0.02188499605285959</v>
+        <v>0.004254065905254859</v>
       </c>
       <c r="G238" t="n">
-        <v>0.2838191625475976</v>
+        <v>0.0508257007505138</v>
       </c>
       <c r="J238" t="n">
-        <v>0.02363633614498564</v>
+        <v>0.02612264708284924</v>
       </c>
       <c r="K238" t="n">
-        <v>0.2859404520809514</v>
+        <v>0.1471074180846478</v>
       </c>
       <c r="L238" t="n">
-        <v>0.05881748251200197</v>
+        <v>0.06464110230727541</v>
       </c>
       <c r="M238" t="n">
-        <v>0.2853587368642428</v>
+        <v>0.1446651133618081</v>
       </c>
       <c r="N238" t="n">
-        <v>0.09365082415176573</v>
+        <v>0.103461041787274</v>
       </c>
       <c r="O238" t="n">
-        <v>0.2857009222858361</v>
+        <v>0.1442442425502326</v>
       </c>
     </row>
     <row r="239" ht="15" customHeight="1">
       <c r="F239" t="n">
-        <v>0.01961359867798939</v>
+        <v>0.004235571818604615</v>
       </c>
       <c r="G239" t="n">
-        <v>0.2854597357415143</v>
+        <v>0.05079339647108198</v>
       </c>
       <c r="J239" t="n">
-        <v>0.02344070441100775</v>
+        <v>0.02611176782832739</v>
       </c>
       <c r="K239" t="n">
-        <v>0.2875932870640783</v>
+        <v>0.1479577499810908</v>
       </c>
       <c r="L239" t="n">
-        <v>0.05808205437558092</v>
+        <v>0.06471455486308117</v>
       </c>
       <c r="M239" t="n">
-        <v>0.2870082093316662</v>
+        <v>0.145501327889911</v>
       </c>
       <c r="N239" t="n">
-        <v>0.09287378310398059</v>
+        <v>0.1044187544765277</v>
       </c>
       <c r="O239" t="n">
-        <v>0.2873523727036733</v>
+        <v>0.1450780242990779</v>
       </c>
     </row>
     <row r="240" ht="15" customHeight="1">
       <c r="F240" t="n">
-        <v>0.02034116643135318</v>
+        <v>0.004233235389736321</v>
       </c>
       <c r="G240" t="n">
-        <v>0.2871003089354311</v>
+        <v>0.05076109219165015</v>
       </c>
       <c r="J240" t="n">
-        <v>0.02314393954954801</v>
+        <v>0.02620100097028642</v>
       </c>
       <c r="K240" t="n">
-        <v>0.2892461220472052</v>
+        <v>0.1488080818775339</v>
       </c>
       <c r="L240" t="n">
-        <v>0.05734381139291836</v>
+        <v>0.06468828035196153</v>
       </c>
       <c r="M240" t="n">
-        <v>0.2886576817990896</v>
+        <v>0.146337542418014</v>
       </c>
       <c r="N240" t="n">
-        <v>0.09179223319297175</v>
+        <v>0.1039769015415959</v>
       </c>
       <c r="O240" t="n">
-        <v>0.2890038231215105</v>
+        <v>0.1459118060479232</v>
       </c>
     </row>
     <row r="241" ht="15" customHeight="1">
       <c r="F241" t="n">
-        <v>0.01906768276208939</v>
+        <v>0.004233404843359559</v>
       </c>
       <c r="G241" t="n">
-        <v>0.2887408821293478</v>
+        <v>0.05072878791221833</v>
       </c>
       <c r="J241" t="n">
-        <v>0.02264602324815453</v>
+        <v>0.02619034854725054</v>
       </c>
       <c r="K241" t="n">
-        <v>0.2908989570303321</v>
+        <v>0.149658413773977</v>
       </c>
       <c r="L241" t="n">
-        <v>0.05620270820316739</v>
+        <v>0.06466228360552262</v>
       </c>
       <c r="M241" t="n">
-        <v>0.2903071542665129</v>
+        <v>0.1471737569461169</v>
       </c>
       <c r="N241" t="n">
-        <v>0.08990610163675949</v>
+        <v>0.1032354906397996</v>
       </c>
       <c r="O241" t="n">
-        <v>0.2906552735393477</v>
+        <v>0.1467455877967684</v>
       </c>
     </row>
     <row r="242" ht="15" customHeight="1">
       <c r="F242" t="n">
-        <v>0.01879313111933645</v>
+        <v>0.004234043553170232</v>
       </c>
       <c r="G242" t="n">
-        <v>0.2903814553232646</v>
+        <v>0.0506964836327865</v>
       </c>
       <c r="J242" t="n">
-        <v>0.02234693719437551</v>
+        <v>0.02617981259774388</v>
       </c>
       <c r="K242" t="n">
-        <v>0.292551792013459</v>
+        <v>0.15050874567042</v>
       </c>
       <c r="L242" t="n">
-        <v>0.05545869944548104</v>
+        <v>0.06523656945537043</v>
       </c>
       <c r="M242" t="n">
-        <v>0.2919566267339364</v>
+        <v>0.1480099714742199</v>
       </c>
       <c r="N242" t="n">
-        <v>0.08941531565336375</v>
+        <v>0.1035945294284596</v>
       </c>
       <c r="O242" t="n">
-        <v>0.2923067239571849</v>
+        <v>0.1475793695456137</v>
       </c>
     </row>
     <row r="243" ht="15" customHeight="1">
       <c r="F243" t="n">
-        <v>0.02051749495223278</v>
+        <v>0.004235464356626625</v>
       </c>
       <c r="G243" t="n">
-        <v>0.2920220285171813</v>
+        <v>0.05066417935335468</v>
       </c>
       <c r="J243" t="n">
-        <v>0.02224666307575907</v>
+        <v>0.02606939516029061</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2942046269965858</v>
+        <v>0.151359077566863</v>
       </c>
       <c r="L243" t="n">
-        <v>0.05481173975901246</v>
+        <v>0.06481114273311103</v>
       </c>
       <c r="M243" t="n">
-        <v>0.2936060992013597</v>
+        <v>0.1488461860023228</v>
       </c>
       <c r="N243" t="n">
-        <v>0.08811980246080459</v>
+        <v>0.1041540255648971</v>
       </c>
       <c r="O243" t="n">
-        <v>0.2939581743750221</v>
+        <v>0.148413151294459</v>
       </c>
     </row>
     <row r="244" ht="15" customHeight="1">
       <c r="F244" t="n">
-        <v>0.02024075770991678</v>
+        <v>0.004237980091187019</v>
       </c>
       <c r="G244" t="n">
-        <v>0.2936626017110981</v>
+        <v>0.05063187507392285</v>
       </c>
       <c r="J244" t="n">
-        <v>0.02184518257985341</v>
+        <v>0.02605909827341493</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2958574619797127</v>
+        <v>0.1522094094633061</v>
       </c>
       <c r="L244" t="n">
-        <v>0.05436178378291454</v>
+        <v>0.06518600827035051</v>
       </c>
       <c r="M244" t="n">
-        <v>0.2952555716687831</v>
+        <v>0.1496824005304257</v>
       </c>
       <c r="N244" t="n">
-        <v>0.08701948927710212</v>
+        <v>0.1034139867064327</v>
       </c>
       <c r="O244" t="n">
-        <v>0.2956096247928593</v>
+        <v>0.1492469330433043</v>
       </c>
     </row>
     <row r="245" ht="15" customHeight="1">
       <c r="F245" t="n">
-        <v>0.01996290284152688</v>
+        <v>0.004241903594309718</v>
       </c>
       <c r="G245" t="n">
-        <v>0.2953031749050148</v>
+        <v>0.05059957079449103</v>
       </c>
       <c r="J245" t="n">
-        <v>0.02154247739420669</v>
+        <v>0.02594892397564097</v>
       </c>
       <c r="K245" t="n">
-        <v>0.2975102969628396</v>
+        <v>0.1530597413597491</v>
       </c>
       <c r="L245" t="n">
-        <v>0.05350878615634047</v>
+        <v>0.0644611708986948</v>
       </c>
       <c r="M245" t="n">
-        <v>0.2969050441362064</v>
+        <v>0.1505186150585287</v>
       </c>
       <c r="N245" t="n">
-        <v>0.08551430332027649</v>
+        <v>0.1041744205103875</v>
       </c>
       <c r="O245" t="n">
-        <v>0.2972610752106966</v>
+        <v>0.1500807147921495</v>
       </c>
     </row>
     <row r="246" ht="15" customHeight="1">
       <c r="F246" t="n">
-        <v>0.0176839137962015</v>
+        <v>0.004247547703452995</v>
       </c>
       <c r="G246" t="n">
-        <v>0.2969437480989316</v>
+        <v>0.0505672665150592</v>
       </c>
       <c r="J246" t="n">
-        <v>0.02123852920636704</v>
+        <v>0.02593887430549291</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2991631319459665</v>
+        <v>0.1539100732561922</v>
       </c>
       <c r="L246" t="n">
-        <v>0.05265270151844326</v>
+        <v>0.06473663544975006</v>
       </c>
       <c r="M246" t="n">
-        <v>0.2985545166036299</v>
+        <v>0.1513548295866316</v>
       </c>
       <c r="N246" t="n">
-        <v>0.08460417180834762</v>
+        <v>0.1035353346340824</v>
       </c>
       <c r="O246" t="n">
-        <v>0.2989125256285337</v>
+        <v>0.1509144965409948</v>
       </c>
     </row>
     <row r="247" ht="15" customHeight="1">
       <c r="F247" t="n">
-        <v>0.01840377402307908</v>
+        <v>0.004255225256075142</v>
       </c>
       <c r="G247" t="n">
-        <v>0.2985843212928483</v>
+        <v>0.05053496223562738</v>
       </c>
       <c r="J247" t="n">
-        <v>0.02093331970388262</v>
+        <v>0.02602895130149492</v>
       </c>
       <c r="K247" t="n">
-        <v>0.3008159669290935</v>
+        <v>0.1547604051526353</v>
       </c>
       <c r="L247" t="n">
-        <v>0.05239348450837597</v>
+        <v>0.06501240675512227</v>
       </c>
       <c r="M247" t="n">
-        <v>0.3002039890710532</v>
+        <v>0.1521910441147346</v>
       </c>
       <c r="N247" t="n">
-        <v>0.08288902195933573</v>
+        <v>0.1033967367348384</v>
       </c>
       <c r="O247" t="n">
-        <v>0.3005639760463709</v>
+        <v>0.1517482782898401</v>
       </c>
     </row>
     <row r="248" ht="15" customHeight="1">
       <c r="F248" t="n">
-        <v>0.01912246697129801</v>
+        <v>0.004265249089634451</v>
       </c>
       <c r="G248" t="n">
-        <v>0.3002248944867651</v>
+        <v>0.05050265795619555</v>
       </c>
       <c r="J248" t="n">
-        <v>0.02072683057430165</v>
+        <v>0.02601915700217115</v>
       </c>
       <c r="K248" t="n">
-        <v>0.3024688019122203</v>
+        <v>0.1556107370490783</v>
       </c>
       <c r="L248" t="n">
-        <v>0.05133108976529169</v>
+        <v>0.06478848964641751</v>
       </c>
       <c r="M248" t="n">
-        <v>0.3018534615384765</v>
+        <v>0.1530272586428375</v>
       </c>
       <c r="N248" t="n">
-        <v>0.08176878099126073</v>
+        <v>0.1036586344699762</v>
       </c>
       <c r="O248" t="n">
-        <v>0.3022154264642081</v>
+        <v>0.1525820600386854</v>
       </c>
     </row>
     <row r="249" ht="15" customHeight="1">
       <c r="F249" t="n">
-        <v>0.01883997608999674</v>
+        <v>0.004277932041589202</v>
       </c>
       <c r="G249" t="n">
-        <v>0.3018654676806818</v>
+        <v>0.05047035367676372</v>
       </c>
       <c r="J249" t="n">
-        <v>0.02021904350517222</v>
+        <v>0.0259094934460458</v>
       </c>
       <c r="K249" t="n">
-        <v>0.3041216368953472</v>
+        <v>0.1564610689455214</v>
       </c>
       <c r="L249" t="n">
-        <v>0.05016547192834339</v>
+        <v>0.0644648889552418</v>
       </c>
       <c r="M249" t="n">
-        <v>0.3035029340058999</v>
+        <v>0.1538634731709404</v>
       </c>
       <c r="N249" t="n">
-        <v>0.08084337612214293</v>
+        <v>0.1036210354968169</v>
       </c>
       <c r="O249" t="n">
-        <v>0.3038668768820453</v>
+        <v>0.1534158417875306</v>
       </c>
     </row>
     <row r="250" ht="15" customHeight="1">
       <c r="F250" t="n">
-        <v>0.01755628482831367</v>
+        <v>0.004293586949397694</v>
       </c>
       <c r="G250" t="n">
-        <v>0.3035060408745986</v>
+        <v>0.0504380493973319</v>
       </c>
       <c r="J250" t="n">
-        <v>0.01990994018404255</v>
+        <v>0.02599996267164302</v>
       </c>
       <c r="K250" t="n">
-        <v>0.3057744718784741</v>
+        <v>0.1573114008419644</v>
       </c>
       <c r="L250" t="n">
-        <v>0.04949658563668421</v>
+        <v>0.06444160951320116</v>
       </c>
       <c r="M250" t="n">
-        <v>0.3051524064733233</v>
+        <v>0.1546996876990434</v>
       </c>
       <c r="N250" t="n">
-        <v>0.07961273457000217</v>
+        <v>0.1035839474726815</v>
       </c>
       <c r="O250" t="n">
-        <v>0.3055183272998825</v>
+        <v>0.1542496235363759</v>
       </c>
     </row>
     <row r="251" ht="15" customHeight="1">
       <c r="F251" t="n">
-        <v>0.01627137663538723</v>
+        <v>0.004312526650518213</v>
       </c>
       <c r="G251" t="n">
-        <v>0.3051466140685153</v>
+        <v>0.05040574511790007</v>
       </c>
       <c r="J251" t="n">
-        <v>0.01979950229846078</v>
+        <v>0.02609056671748697</v>
       </c>
       <c r="K251" t="n">
-        <v>0.307427306861601</v>
+        <v>0.1581617327384074</v>
       </c>
       <c r="L251" t="n">
-        <v>0.04932438552946714</v>
+        <v>0.0649186561519017</v>
       </c>
       <c r="M251" t="n">
-        <v>0.3068018789407467</v>
+        <v>0.1555359022271463</v>
       </c>
       <c r="N251" t="n">
-        <v>0.07837678355285876</v>
+        <v>0.1028473780548907</v>
       </c>
       <c r="O251" t="n">
-        <v>0.3071697777177197</v>
+        <v>0.1550834052852212</v>
       </c>
     </row>
     <row r="252" ht="15" customHeight="1">
       <c r="F252" t="n">
-        <v>0.01798523496035585</v>
+        <v>0.004335063982409036</v>
       </c>
       <c r="G252" t="n">
-        <v>0.3067871872624321</v>
+        <v>0.05037344083846825</v>
       </c>
       <c r="J252" t="n">
-        <v>0.01938771153597506</v>
+        <v>0.02588130762210181</v>
       </c>
       <c r="K252" t="n">
-        <v>0.3090801418447279</v>
+        <v>0.1590120646348505</v>
       </c>
       <c r="L252" t="n">
-        <v>0.04824882624584531</v>
+        <v>0.06449603370294943</v>
       </c>
       <c r="M252" t="n">
-        <v>0.30845135140817</v>
+        <v>0.1563721167552492</v>
       </c>
       <c r="N252" t="n">
-        <v>0.0769354502887325</v>
+        <v>0.1037113349007656</v>
       </c>
       <c r="O252" t="n">
-        <v>0.308821228135557</v>
+        <v>0.1559171870340665</v>
       </c>
     </row>
     <row r="253" ht="15" customHeight="1">
       <c r="F253" t="n">
-        <v>0.01669784325235791</v>
+        <v>0.004361511782528457</v>
       </c>
       <c r="G253" t="n">
-        <v>0.3084277604563488</v>
+        <v>0.05034113655903643</v>
       </c>
       <c r="J253" t="n">
-        <v>0.01917454958413355</v>
+        <v>0.02597218742401174</v>
       </c>
       <c r="K253" t="n">
-        <v>0.3107329768278547</v>
+        <v>0.1598623965312936</v>
       </c>
       <c r="L253" t="n">
-        <v>0.04736986242497168</v>
+        <v>0.06497374699795036</v>
       </c>
       <c r="M253" t="n">
-        <v>0.3101008238755934</v>
+        <v>0.1572083312833522</v>
       </c>
       <c r="N253" t="n">
-        <v>0.07638866199564365</v>
+        <v>0.103875825667627</v>
       </c>
       <c r="O253" t="n">
-        <v>0.3104726785533942</v>
+        <v>0.1567509687829118</v>
       </c>
     </row>
     <row r="254" ht="15" customHeight="1">
       <c r="F254" t="n">
-        <v>0.01640918496053188</v>
+        <v>0.004392182888334775</v>
       </c>
       <c r="G254" t="n">
-        <v>0.3100683336502656</v>
+        <v>0.0503088322796046</v>
       </c>
       <c r="J254" t="n">
-        <v>0.01875999813048444</v>
+        <v>0.02606320816174089</v>
       </c>
       <c r="K254" t="n">
-        <v>0.3123858118109816</v>
+        <v>0.1607127284277366</v>
       </c>
       <c r="L254" t="n">
-        <v>0.04648744870599944</v>
+        <v>0.06455180086851059</v>
       </c>
       <c r="M254" t="n">
-        <v>0.3117502963430168</v>
+        <v>0.1580445458114551</v>
       </c>
       <c r="N254" t="n">
-        <v>0.07403634589161218</v>
+        <v>0.1030408580127959</v>
       </c>
       <c r="O254" t="n">
-        <v>0.3121241289712313</v>
+        <v>0.157584750531757</v>
       </c>
     </row>
     <row r="255" ht="15" customHeight="1">
       <c r="F255" t="n">
-        <v>0.01511924353401617</v>
+        <v>0.004427390137286255</v>
       </c>
       <c r="G255" t="n">
-        <v>0.3117089068441823</v>
+        <v>0.05027652800017277</v>
       </c>
       <c r="J255" t="n">
-        <v>0.01834403886257588</v>
+        <v>0.02605437187381344</v>
       </c>
       <c r="K255" t="n">
-        <v>0.3140386467941085</v>
+        <v>0.1615630603241797</v>
       </c>
       <c r="L255" t="n">
-        <v>0.04560153972808156</v>
+        <v>0.06483020014623619</v>
       </c>
       <c r="M255" t="n">
-        <v>0.3133997688104402</v>
+        <v>0.1588807603395581</v>
       </c>
       <c r="N255" t="n">
-        <v>0.07377842919465827</v>
+        <v>0.1031064395935933</v>
       </c>
       <c r="O255" t="n">
-        <v>0.3137755793890685</v>
+        <v>0.1584185322806023</v>
       </c>
     </row>
     <row r="256" ht="15" customHeight="1">
       <c r="F256" t="n">
-        <v>0.01482800242194919</v>
+        <v>0.00446744636684121</v>
       </c>
       <c r="G256" t="n">
-        <v>0.3133494800380991</v>
+        <v>0.05024422372074095</v>
       </c>
       <c r="J256" t="n">
-        <v>0.01802665346795601</v>
+        <v>0.02584568059875354</v>
       </c>
       <c r="K256" t="n">
-        <v>0.3156914817772354</v>
+        <v>0.1624133922206227</v>
       </c>
       <c r="L256" t="n">
-        <v>0.04541209013037109</v>
+        <v>0.06480894966273312</v>
       </c>
       <c r="M256" t="n">
-        <v>0.3150492412778635</v>
+        <v>0.159716974867661</v>
       </c>
       <c r="N256" t="n">
-        <v>0.07261483912280198</v>
+        <v>0.1034725780673398</v>
       </c>
       <c r="O256" t="n">
-        <v>0.3154270298069058</v>
+        <v>0.1592523140294476</v>
       </c>
     </row>
     <row r="257" ht="15" customHeight="1">
       <c r="F257" t="n">
-        <v>0.01553544507346936</v>
+        <v>0.004512664414457905</v>
       </c>
       <c r="G257" t="n">
-        <v>0.3149900532320158</v>
+        <v>0.05021191944130912</v>
       </c>
       <c r="J257" t="n">
-        <v>0.01790782363417304</v>
+        <v>0.02583713637508542</v>
       </c>
       <c r="K257" t="n">
-        <v>0.3173443167603623</v>
+        <v>0.1632637241170658</v>
       </c>
       <c r="L257" t="n">
-        <v>0.0440190545520211</v>
+        <v>0.06428805424960748</v>
       </c>
       <c r="M257" t="n">
-        <v>0.3166987137452869</v>
+        <v>0.1605531893957639</v>
       </c>
       <c r="N257" t="n">
-        <v>0.07034550289406333</v>
+        <v>0.1033392810913568</v>
       </c>
       <c r="O257" t="n">
-        <v>0.3170784802247429</v>
+        <v>0.1600860957782929</v>
       </c>
     </row>
     <row r="258" ht="15" customHeight="1">
       <c r="F258" t="n">
-        <v>0.01624155493771511</v>
+        <v>0.004563357117594646</v>
       </c>
       <c r="G258" t="n">
-        <v>0.3166306264259326</v>
+        <v>0.0501796151618773</v>
       </c>
       <c r="J258" t="n">
-        <v>0.01758753104877507</v>
+        <v>0.02582874124133319</v>
       </c>
       <c r="K258" t="n">
-        <v>0.3189971517434891</v>
+        <v>0.1641140560135088</v>
       </c>
       <c r="L258" t="n">
-        <v>0.04382238763218468</v>
+        <v>0.0643675187384653</v>
       </c>
       <c r="M258" t="n">
-        <v>0.3183481862127103</v>
+        <v>0.1613894039238669</v>
       </c>
       <c r="N258" t="n">
-        <v>0.06917034772646236</v>
+        <v>0.1026065563229649</v>
       </c>
       <c r="O258" t="n">
-        <v>0.3187299306425802</v>
+        <v>0.1609198775271381</v>
       </c>
     </row>
     <row r="259" ht="15" customHeight="1">
       <c r="F259" t="n">
-        <v>0.01394631546382485</v>
+        <v>0.004619837313709706</v>
       </c>
       <c r="G259" t="n">
-        <v>0.3182711996198493</v>
+        <v>0.05014731088244548</v>
       </c>
       <c r="J259" t="n">
-        <v>0.01706575739931031</v>
+        <v>0.02582049723602101</v>
       </c>
       <c r="K259" t="n">
-        <v>0.320649986726616</v>
+        <v>0.1649643879099519</v>
       </c>
       <c r="L259" t="n">
-        <v>0.04242204401001484</v>
+        <v>0.06444734796091259</v>
       </c>
       <c r="M259" t="n">
-        <v>0.3199976586801336</v>
+        <v>0.1622256184519698</v>
       </c>
       <c r="N259" t="n">
-        <v>0.0678893008380192</v>
+        <v>0.103074411419485</v>
       </c>
       <c r="O259" t="n">
-        <v>0.3203813810604174</v>
+        <v>0.1617536592759834</v>
       </c>
     </row>
     <row r="260" ht="15" customHeight="1">
       <c r="F260" t="n">
-        <v>0.01564971010093701</v>
+        <v>0.004682417840261383</v>
       </c>
       <c r="G260" t="n">
-        <v>0.3199117728137661</v>
+        <v>0.05011500660301365</v>
       </c>
       <c r="J260" t="n">
-        <v>0.0167424843733269</v>
+        <v>0.0259124063976731</v>
       </c>
       <c r="K260" t="n">
-        <v>0.3223028217097429</v>
+        <v>0.1658147198063949</v>
       </c>
       <c r="L260" t="n">
-        <v>0.04201797832466467</v>
+        <v>0.06422754674855546</v>
       </c>
       <c r="M260" t="n">
-        <v>0.321647131147557</v>
+        <v>0.1630618329800727</v>
       </c>
       <c r="N260" t="n">
-        <v>0.06670228944675399</v>
+        <v>0.1027428540382382</v>
       </c>
       <c r="O260" t="n">
-        <v>0.3220328314782546</v>
+        <v>0.1625874410248287</v>
       </c>
     </row>
     <row r="261" ht="15" customHeight="1">
       <c r="F261" t="n">
-        <v>0.01335172229819</v>
+        <v>0.004751411534707956</v>
       </c>
       <c r="G261" t="n">
-        <v>0.3215523460076828</v>
+        <v>0.05008270232358183</v>
       </c>
       <c r="J261" t="n">
-        <v>0.016617693658373</v>
+        <v>0.02580447076481358</v>
       </c>
       <c r="K261" t="n">
-        <v>0.3239556566928698</v>
+        <v>0.166665051702838</v>
       </c>
       <c r="L261" t="n">
-        <v>0.04111014521528722</v>
+        <v>0.06410811993299995</v>
       </c>
       <c r="M261" t="n">
-        <v>0.3232966036149804</v>
+        <v>0.1638980475081757</v>
       </c>
       <c r="N261" t="n">
-        <v>0.06620924077068663</v>
+        <v>0.1029118918365454</v>
       </c>
       <c r="O261" t="n">
-        <v>0.3236842818960918</v>
+        <v>0.163421222773674</v>
       </c>
     </row>
     <row r="262" ht="15" customHeight="1">
       <c r="F262" t="n">
-        <v>0.01305233550472226</v>
+        <v>0.004827131234507731</v>
       </c>
       <c r="G262" t="n">
-        <v>0.3231929192015996</v>
+        <v>0.05005039804415</v>
       </c>
       <c r="J262" t="n">
-        <v>0.0161913669419968</v>
+        <v>0.0257966923759666</v>
       </c>
       <c r="K262" t="n">
-        <v>0.3256084916759967</v>
+        <v>0.167515383599281</v>
       </c>
       <c r="L262" t="n">
-        <v>0.0401984993210355</v>
+        <v>0.06458907234585207</v>
       </c>
       <c r="M262" t="n">
-        <v>0.3249460760824037</v>
+        <v>0.1647342620362786</v>
       </c>
       <c r="N262" t="n">
-        <v>0.06491008202783738</v>
+        <v>0.1034815324717274</v>
       </c>
       <c r="O262" t="n">
-        <v>0.325335732313929</v>
+        <v>0.1642550045225192</v>
       </c>
     </row>
     <row r="263" ht="15" customHeight="1">
       <c r="F263" t="n">
-        <v>0.0147515331696722</v>
+        <v>0.004909889777118995</v>
       </c>
       <c r="G263" t="n">
-        <v>0.3248334923955163</v>
+        <v>0.05001809376471817</v>
       </c>
       <c r="J263" t="n">
-        <v>0.01586348591174642</v>
+        <v>0.02598907326965641</v>
       </c>
       <c r="K263" t="n">
-        <v>0.3272613266591236</v>
+        <v>0.1683657154957241</v>
       </c>
       <c r="L263" t="n">
-        <v>0.03938299528106262</v>
+        <v>0.06467040881871786</v>
       </c>
       <c r="M263" t="n">
-        <v>0.3265955485498271</v>
+        <v>0.1655704765643815</v>
       </c>
       <c r="N263" t="n">
-        <v>0.06350474043622617</v>
+        <v>0.1026517836011052</v>
       </c>
       <c r="O263" t="n">
-        <v>0.3269871827317662</v>
+        <v>0.1650887862713645</v>
       </c>
     </row>
     <row r="264" ht="15" customHeight="1">
       <c r="F264" t="n">
-        <v>0.01344929874217823</v>
+        <v>0.004999999999999998</v>
       </c>
       <c r="G264" t="n">
-        <v>0.3264740655894331</v>
+        <v>0.04998578948528635</v>
       </c>
       <c r="J264" t="n">
-        <v>0.01553403225517005</v>
+        <v>0.0259816154844071</v>
       </c>
       <c r="K264" t="n">
-        <v>0.3289141616422505</v>
+        <v>0.1692160473921671</v>
       </c>
       <c r="L264" t="n">
-        <v>0.03896358773452163</v>
+        <v>0.06415213418320337</v>
       </c>
       <c r="M264" t="n">
-        <v>0.3282450210172505</v>
+        <v>0.1664066910924845</v>
       </c>
       <c r="N264" t="n">
-        <v>0.06229314321387325</v>
+        <v>0.1027226528819997</v>
       </c>
       <c r="O264" t="n">
-        <v>0.3286386331496034</v>
-      </c>
-    </row>
-    <row r="265" ht="15" customHeight="1"/>
-    <row r="266" ht="15" customHeight="1"/>
-    <row r="267" ht="15" customHeight="1"/>
-    <row r="268" ht="15" customHeight="1"/>
-    <row r="269" ht="15" customHeight="1"/>
-    <row r="270" ht="15" customHeight="1"/>
-    <row r="271" ht="15" customHeight="1"/>
-    <row r="272" ht="15" customHeight="1"/>
-    <row r="273" ht="15" customHeight="1"/>
-    <row r="274" ht="15" customHeight="1"/>
-    <row r="275" ht="15" customHeight="1"/>
-    <row r="276" ht="15" customHeight="1"/>
-    <row r="277" ht="15" customHeight="1"/>
-    <row r="278" ht="15" customHeight="1"/>
-    <row r="279" ht="15" customHeight="1"/>
-    <row r="280" ht="15" customHeight="1"/>
-    <row r="281" ht="15" customHeight="1"/>
-    <row r="282" ht="15" customHeight="1"/>
-    <row r="283" ht="15" customHeight="1"/>
-    <row r="284" ht="15" customHeight="1"/>
-    <row r="285" ht="15" customHeight="1"/>
-    <row r="286" ht="15" customHeight="1"/>
-    <row r="287" ht="15" customHeight="1"/>
-    <row r="288" ht="15" customHeight="1"/>
-    <row r="289" ht="15" customHeight="1"/>
-    <row r="290" ht="15" customHeight="1"/>
-    <row r="291" ht="15" customHeight="1"/>
-    <row r="292" ht="15" customHeight="1"/>
-    <row r="293" ht="15" customHeight="1"/>
-    <row r="294" ht="15" customHeight="1"/>
-    <row r="295" ht="15" customHeight="1"/>
-    <row r="296" ht="15" customHeight="1"/>
-    <row r="297" ht="15" customHeight="1"/>
-    <row r="298" ht="15" customHeight="1"/>
-    <row r="299" ht="15" customHeight="1"/>
-    <row r="300" ht="15" customHeight="1"/>
-    <row r="301" ht="15" customHeight="1"/>
-    <row r="302" ht="15" customHeight="1"/>
-    <row r="303" ht="15" customHeight="1"/>
-    <row r="304" ht="15" customHeight="1"/>
-    <row r="305" ht="15" customHeight="1"/>
-    <row r="306" ht="15" customHeight="1"/>
-    <row r="307" ht="15" customHeight="1"/>
-    <row r="308" ht="15" customHeight="1"/>
-    <row r="309" ht="15" customHeight="1"/>
-    <row r="310" ht="15" customHeight="1"/>
-    <row r="311" ht="15" customHeight="1"/>
-    <row r="312" ht="15" customHeight="1"/>
-    <row r="313" ht="15" customHeight="1"/>
-    <row r="314" ht="15" customHeight="1"/>
-    <row r="315" ht="15" customHeight="1"/>
-    <row r="316" ht="15" customHeight="1"/>
-    <row r="317" ht="15" customHeight="1"/>
-    <row r="318" ht="15" customHeight="1"/>
-    <row r="319" ht="15" customHeight="1"/>
-    <row r="320" ht="15" customHeight="1"/>
-    <row r="321" ht="15" customHeight="1"/>
-    <row r="322" ht="15" customHeight="1"/>
-    <row r="323" ht="15" customHeight="1"/>
-    <row r="324" ht="15" customHeight="1"/>
-    <row r="325" ht="15" customHeight="1"/>
-    <row r="326" ht="15" customHeight="1"/>
-    <row r="327" ht="15" customHeight="1"/>
-    <row r="328" ht="15" customHeight="1"/>
-    <row r="329" ht="15" customHeight="1"/>
-    <row r="330" ht="15" customHeight="1"/>
-    <row r="331" ht="15" customHeight="1"/>
-    <row r="332" ht="15" customHeight="1"/>
-    <row r="333" ht="15" customHeight="1"/>
-    <row r="334" ht="15" customHeight="1"/>
-    <row r="335" ht="15" customHeight="1"/>
-    <row r="336" ht="15" customHeight="1"/>
-    <row r="337" ht="15" customHeight="1"/>
-    <row r="338" ht="15" customHeight="1"/>
-    <row r="339" ht="15" customHeight="1"/>
-    <row r="340" ht="15" customHeight="1"/>
-    <row r="341" ht="15" customHeight="1"/>
-    <row r="342" ht="15" customHeight="1"/>
-    <row r="343" ht="15" customHeight="1"/>
-    <row r="344" ht="15" customHeight="1"/>
-    <row r="345" ht="15" customHeight="1"/>
-    <row r="346" ht="15" customHeight="1"/>
-    <row r="347" ht="15" customHeight="1"/>
-    <row r="348" ht="15" customHeight="1"/>
-    <row r="349" ht="15" customHeight="1"/>
-    <row r="350" ht="15" customHeight="1"/>
-    <row r="351" ht="15" customHeight="1"/>
-    <row r="352" ht="15" customHeight="1"/>
-    <row r="353" ht="15" customHeight="1"/>
-    <row r="354" ht="15" customHeight="1"/>
-    <row r="355" ht="15" customHeight="1"/>
-    <row r="356" ht="15" customHeight="1"/>
-    <row r="357" ht="15" customHeight="1"/>
-    <row r="358" ht="15" customHeight="1"/>
-    <row r="359" ht="15" customHeight="1"/>
-    <row r="360" ht="15" customHeight="1"/>
-    <row r="361" ht="15" customHeight="1"/>
-    <row r="362" ht="15" customHeight="1"/>
-    <row r="363" ht="15" customHeight="1"/>
-    <row r="364" ht="15" customHeight="1"/>
-    <row r="365" ht="15" customHeight="1"/>
-    <row r="366" ht="15" customHeight="1"/>
-    <row r="367" ht="15" customHeight="1"/>
-    <row r="368" ht="15" customHeight="1"/>
-    <row r="369" ht="15" customHeight="1"/>
-    <row r="370" ht="15" customHeight="1"/>
-    <row r="371" ht="15" customHeight="1"/>
-    <row r="372" ht="15" customHeight="1"/>
-    <row r="373" ht="15" customHeight="1"/>
-    <row r="374" ht="15" customHeight="1"/>
-    <row r="375" ht="15" customHeight="1"/>
-    <row r="376" ht="15" customHeight="1"/>
-    <row r="377" ht="15" customHeight="1"/>
-    <row r="378" ht="15" customHeight="1"/>
-    <row r="379" ht="15" customHeight="1"/>
-    <row r="380" ht="15" customHeight="1"/>
-    <row r="381" ht="15" customHeight="1"/>
-    <row r="382" ht="15" customHeight="1"/>
-    <row r="383" ht="15" customHeight="1"/>
-    <row r="384" ht="15" customHeight="1"/>
-    <row r="385" ht="15" customHeight="1"/>
-    <row r="386" ht="15" customHeight="1"/>
-    <row r="387" ht="15" customHeight="1"/>
-    <row r="388" ht="15" customHeight="1"/>
-    <row r="389" ht="15" customHeight="1"/>
-    <row r="390" ht="15" customHeight="1"/>
-    <row r="391" ht="15" customHeight="1"/>
-    <row r="392" ht="15" customHeight="1"/>
-    <row r="393" ht="15" customHeight="1"/>
-    <row r="394" ht="15" customHeight="1"/>
-    <row r="395" ht="15" customHeight="1"/>
-    <row r="396" ht="15" customHeight="1"/>
-    <row r="397" ht="15" customHeight="1"/>
-    <row r="398" ht="15" customHeight="1"/>
-    <row r="399" ht="15" customHeight="1"/>
-    <row r="400" ht="15" customHeight="1"/>
-    <row r="401" ht="15" customHeight="1"/>
-    <row r="402" ht="15" customHeight="1"/>
-    <row r="403" ht="15" customHeight="1"/>
-    <row r="404" ht="15" customHeight="1"/>
-    <row r="405" ht="15" customHeight="1"/>
-    <row r="406" ht="15" customHeight="1"/>
-    <row r="407" ht="15" customHeight="1"/>
-    <row r="408" ht="15" customHeight="1"/>
-    <row r="409" ht="15" customHeight="1"/>
-    <row r="410" ht="15" customHeight="1"/>
-    <row r="411" ht="15" customHeight="1"/>
-    <row r="412" ht="15" customHeight="1"/>
-    <row r="413" ht="15" customHeight="1"/>
-    <row r="414" ht="15" customHeight="1"/>
-    <row r="415" ht="15" customHeight="1"/>
-    <row r="416" ht="15" customHeight="1"/>
-    <row r="417" ht="15" customHeight="1"/>
-    <row r="418" ht="15" customHeight="1"/>
-    <row r="419" ht="15" customHeight="1"/>
-    <row r="420" ht="15" customHeight="1"/>
-    <row r="421" ht="15" customHeight="1"/>
-    <row r="422" ht="15" customHeight="1"/>
-    <row r="423" ht="15" customHeight="1"/>
-    <row r="424" ht="15" customHeight="1"/>
-    <row r="425" ht="15" customHeight="1"/>
-    <row r="426" ht="15" customHeight="1"/>
-    <row r="427" ht="15" customHeight="1"/>
-    <row r="428" ht="15" customHeight="1"/>
-    <row r="429" ht="15" customHeight="1"/>
-    <row r="430" ht="15" customHeight="1"/>
-    <row r="431" ht="15" customHeight="1"/>
-    <row r="432" ht="15" customHeight="1"/>
-    <row r="433" ht="15" customHeight="1"/>
-    <row r="434" ht="15" customHeight="1"/>
-    <row r="435" ht="15" customHeight="1"/>
-    <row r="436" ht="15" customHeight="1"/>
-    <row r="437" ht="15" customHeight="1"/>
-    <row r="438" ht="15" customHeight="1"/>
-    <row r="439" ht="15" customHeight="1"/>
-    <row r="440" ht="15" customHeight="1"/>
-    <row r="441" ht="15" customHeight="1"/>
-    <row r="442" ht="15" customHeight="1"/>
-    <row r="443" ht="15" customHeight="1"/>
-    <row r="444" ht="15" customHeight="1"/>
-    <row r="445" ht="15" customHeight="1"/>
-    <row r="446" ht="15" customHeight="1"/>
-    <row r="447" ht="15" customHeight="1"/>
-    <row r="448" ht="15" customHeight="1"/>
-    <row r="449" ht="15" customHeight="1"/>
-    <row r="450" ht="15" customHeight="1"/>
-    <row r="451" ht="15" customHeight="1"/>
-    <row r="452" ht="15" customHeight="1"/>
-    <row r="453" ht="15" customHeight="1"/>
-    <row r="454" ht="15" customHeight="1"/>
-    <row r="455" ht="15" customHeight="1"/>
-    <row r="456" ht="15" customHeight="1"/>
-    <row r="457" ht="15" customHeight="1"/>
-    <row r="458" ht="15" customHeight="1"/>
-    <row r="459" ht="15" customHeight="1"/>
-    <row r="460" ht="15" customHeight="1"/>
-    <row r="461" ht="15" customHeight="1"/>
-    <row r="462" ht="15" customHeight="1"/>
-    <row r="463" ht="15" customHeight="1"/>
-    <row r="464" ht="15" customHeight="1"/>
+        <v>0.1659225680202098</v>
+      </c>
+    </row>
+    <row r="265" ht="15" customHeight="1">
+      <c r="F265" t="n">
+        <v>0.004999999999999998</v>
+      </c>
+      <c r="G265" t="n">
+        <v>0.04997263159054951</v>
+      </c>
+    </row>
+    <row r="266" ht="15" customHeight="1">
+      <c r="F266" t="n">
+        <v>0.00531321095877909</v>
+      </c>
+      <c r="G266" t="n">
+        <v>0.04997290011901352</v>
+      </c>
+    </row>
+    <row r="267" ht="15" customHeight="1">
+      <c r="F267" t="n">
+        <v>0.005623520693985987</v>
+      </c>
+      <c r="G267" t="n">
+        <v>0.04997316864747754</v>
+      </c>
+    </row>
+    <row r="268" ht="15" customHeight="1">
+      <c r="F268" t="n">
+        <v>0.005930850989404379</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0.04997343717594156</v>
+      </c>
+    </row>
+    <row r="269" ht="15" customHeight="1">
+      <c r="F269" t="n">
+        <v>0.006235123628844839</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0.04997370570440558</v>
+      </c>
+    </row>
+    <row r="270" ht="15" customHeight="1">
+      <c r="F270" t="n">
+        <v>0.006536260396091315</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0.04997397423286959</v>
+      </c>
+    </row>
+    <row r="271" ht="15" customHeight="1">
+      <c r="F271" t="n">
+        <v>0.00683418307495412</v>
+      </c>
+      <c r="G271" t="n">
+        <v>0.04997424276133361</v>
+      </c>
+    </row>
+    <row r="272" ht="15" customHeight="1">
+      <c r="F272" t="n">
+        <v>0.00712881344921748</v>
+      </c>
+      <c r="G272" t="n">
+        <v>0.04997451128979763</v>
+      </c>
+    </row>
+    <row r="273" ht="15" customHeight="1">
+      <c r="F273" t="n">
+        <v>0.00742007330269142</v>
+      </c>
+      <c r="G273" t="n">
+        <v>0.04997477981826165</v>
+      </c>
+    </row>
+    <row r="274" ht="15" customHeight="1">
+      <c r="F274" t="n">
+        <v>0.007707884419160455</v>
+      </c>
+      <c r="G274" t="n">
+        <v>0.04997504834672566</v>
+      </c>
+    </row>
+    <row r="275" ht="15" customHeight="1">
+      <c r="F275" t="n">
+        <v>0.007992168582434296</v>
+      </c>
+      <c r="G275" t="n">
+        <v>0.04997531687518968</v>
+      </c>
+    </row>
+    <row r="276" ht="15" customHeight="1">
+      <c r="F276" t="n">
+        <v>0.008272847576297794</v>
+      </c>
+      <c r="G276" t="n">
+        <v>0.0499755854036537</v>
+      </c>
+    </row>
+    <row r="277" ht="15" customHeight="1">
+      <c r="F277" t="n">
+        <v>0.008549843184560348</v>
+      </c>
+      <c r="G277" t="n">
+        <v>0.04997585393211772</v>
+      </c>
+    </row>
+    <row r="278" ht="15" customHeight="1">
+      <c r="F278" t="n">
+        <v>0.008823077191007091</v>
+      </c>
+      <c r="G278" t="n">
+        <v>0.04997612246058173</v>
+      </c>
+    </row>
+    <row r="279" ht="15" customHeight="1">
+      <c r="F279" t="n">
+        <v>0.009092471379447131</v>
+      </c>
+      <c r="G279" t="n">
+        <v>0.04997639098904575</v>
+      </c>
+    </row>
+    <row r="280" ht="15" customHeight="1">
+      <c r="F280" t="n">
+        <v>0.009357947533665915</v>
+      </c>
+      <c r="G280" t="n">
+        <v>0.04997665951750976</v>
+      </c>
+    </row>
+    <row r="281" ht="15" customHeight="1">
+      <c r="F281" t="n">
+        <v>0.009619427437472218</v>
+      </c>
+      <c r="G281" t="n">
+        <v>0.04997692804597378</v>
+      </c>
+    </row>
+    <row r="282" ht="15" customHeight="1">
+      <c r="F282" t="n">
+        <v>0.009876832874651839</v>
+      </c>
+      <c r="G282" t="n">
+        <v>0.0499771965744378</v>
+      </c>
+    </row>
+    <row r="283" ht="15" customHeight="1">
+      <c r="F283" t="n">
+        <v>0.01013008562900772</v>
+      </c>
+      <c r="G283" t="n">
+        <v>0.04997746510290182</v>
+      </c>
+    </row>
+    <row r="284" ht="15" customHeight="1">
+      <c r="F284" t="n">
+        <v>0.01037910748434243</v>
+      </c>
+      <c r="G284" t="n">
+        <v>0.04997773363136584</v>
+      </c>
+    </row>
+    <row r="285" ht="15" customHeight="1">
+      <c r="F285" t="n">
+        <v>0.01062382022444235</v>
+      </c>
+      <c r="G285" t="n">
+        <v>0.04997800215982985</v>
+      </c>
+    </row>
+    <row r="286" ht="15" customHeight="1">
+      <c r="F286" t="n">
+        <v>0.01086414563311528</v>
+      </c>
+      <c r="G286" t="n">
+        <v>0.04997827068829387</v>
+      </c>
+    </row>
+    <row r="287" ht="15" customHeight="1">
+      <c r="F287" t="n">
+        <v>0.01110000549414801</v>
+      </c>
+      <c r="G287" t="n">
+        <v>0.04997853921675788</v>
+      </c>
+    </row>
+    <row r="288" ht="15" customHeight="1">
+      <c r="F288" t="n">
+        <v>0.01133132159134796</v>
+      </c>
+      <c r="G288" t="n">
+        <v>0.04997880774522191</v>
+      </c>
+    </row>
+    <row r="289" ht="15" customHeight="1">
+      <c r="F289" t="n">
+        <v>0.01155801570850228</v>
+      </c>
+      <c r="G289" t="n">
+        <v>0.04997907627368592</v>
+      </c>
+    </row>
+    <row r="290" ht="15" customHeight="1">
+      <c r="F290" t="n">
+        <v>0.01178032901224616</v>
+      </c>
+      <c r="G290" t="n">
+        <v>0.04997934480214994</v>
+      </c>
+    </row>
+    <row r="291" ht="15" customHeight="1">
+      <c r="F291" t="n">
+        <v>0.01200009958333578</v>
+      </c>
+      <c r="G291" t="n">
+        <v>0.04997961333061395</v>
+      </c>
+    </row>
+    <row r="292" ht="15" customHeight="1">
+      <c r="F292" t="n">
+        <v>0.01221756858840599</v>
+      </c>
+      <c r="G292" t="n">
+        <v>0.04997988185907797</v>
+      </c>
+    </row>
+    <row r="293" ht="15" customHeight="1">
+      <c r="F293" t="n">
+        <v>0.01243265781124454</v>
+      </c>
+      <c r="G293" t="n">
+        <v>0.04998015038754199</v>
+      </c>
+    </row>
+    <row r="294" ht="15" customHeight="1">
+      <c r="F294" t="n">
+        <v>0.01264528903565797</v>
+      </c>
+      <c r="G294" t="n">
+        <v>0.04998041891600601</v>
+      </c>
+    </row>
+    <row r="295" ht="15" customHeight="1">
+      <c r="F295" t="n">
+        <v>0.01285538404543423</v>
+      </c>
+      <c r="G295" t="n">
+        <v>0.04998068744447002</v>
+      </c>
+    </row>
+    <row r="296" ht="15" customHeight="1">
+      <c r="F296" t="n">
+        <v>0.01306286462437967</v>
+      </c>
+      <c r="G296" t="n">
+        <v>0.04998095597293404</v>
+      </c>
+    </row>
+    <row r="297" ht="15" customHeight="1">
+      <c r="F297" t="n">
+        <v>0.01326765255628244</v>
+      </c>
+      <c r="G297" t="n">
+        <v>0.04998122450139806</v>
+      </c>
+    </row>
+    <row r="298" ht="15" customHeight="1">
+      <c r="F298" t="n">
+        <v>0.0134696696249443</v>
+      </c>
+      <c r="G298" t="n">
+        <v>0.04998149302986207</v>
+      </c>
+    </row>
+    <row r="299" ht="15" customHeight="1">
+      <c r="F299" t="n">
+        <v>0.01366883761416673</v>
+      </c>
+      <c r="G299" t="n">
+        <v>0.04998176155832609</v>
+      </c>
+    </row>
+    <row r="300" ht="15" customHeight="1">
+      <c r="F300" t="n">
+        <v>0.0138650783077383</v>
+      </c>
+      <c r="G300" t="n">
+        <v>0.04998203008679011</v>
+      </c>
+    </row>
+    <row r="301" ht="15" customHeight="1">
+      <c r="F301" t="n">
+        <v>0.01405831348946471</v>
+      </c>
+      <c r="G301" t="n">
+        <v>0.04998229861525413</v>
+      </c>
+    </row>
+    <row r="302" ht="15" customHeight="1">
+      <c r="F302" t="n">
+        <v>0.01424846494313476</v>
+      </c>
+      <c r="G302" t="n">
+        <v>0.04998256714371814</v>
+      </c>
+    </row>
+    <row r="303" ht="15" customHeight="1">
+      <c r="F303" t="n">
+        <v>0.01443545445255392</v>
+      </c>
+      <c r="G303" t="n">
+        <v>0.04998283567218216</v>
+      </c>
+    </row>
+    <row r="304" ht="15" customHeight="1">
+      <c r="F304" t="n">
+        <v>0.01461920380151125</v>
+      </c>
+      <c r="G304" t="n">
+        <v>0.04998310420064617</v>
+      </c>
+    </row>
+    <row r="305" ht="15" customHeight="1">
+      <c r="F305" t="n">
+        <v>0.01479963477381194</v>
+      </c>
+      <c r="G305" t="n">
+        <v>0.04998337272911019</v>
+      </c>
+    </row>
+    <row r="306" ht="15" customHeight="1">
+      <c r="F306" t="n">
+        <v>0.01497666915324535</v>
+      </c>
+      <c r="G306" t="n">
+        <v>0.04998364125757421</v>
+      </c>
+    </row>
+    <row r="307" ht="15" customHeight="1">
+      <c r="F307" t="n">
+        <v>0.01515022872361638</v>
+      </c>
+      <c r="G307" t="n">
+        <v>0.04998390978603823</v>
+      </c>
+    </row>
+    <row r="308" ht="15" customHeight="1">
+      <c r="F308" t="n">
+        <v>0.01532023526871464</v>
+      </c>
+      <c r="G308" t="n">
+        <v>0.04998417831450225</v>
+      </c>
+    </row>
+    <row r="309" ht="15" customHeight="1">
+      <c r="F309" t="n">
+        <v>0.01548661057234477</v>
+      </c>
+      <c r="G309" t="n">
+        <v>0.04998444684296627</v>
+      </c>
+    </row>
+    <row r="310" ht="15" customHeight="1">
+      <c r="F310" t="n">
+        <v>0.0156492764182967</v>
+      </c>
+      <c r="G310" t="n">
+        <v>0.04998471537143028</v>
+      </c>
+    </row>
+    <row r="311" ht="15" customHeight="1">
+      <c r="F311" t="n">
+        <v>0.01580815459037471</v>
+      </c>
+      <c r="G311" t="n">
+        <v>0.0499849838998943</v>
+      </c>
+    </row>
+    <row r="312" ht="15" customHeight="1">
+      <c r="F312" t="n">
+        <v>0.01596316687236909</v>
+      </c>
+      <c r="G312" t="n">
+        <v>0.04998525242835831</v>
+      </c>
+    </row>
+    <row r="313" ht="15" customHeight="1">
+      <c r="F313" t="n">
+        <v>0.01611423504808377</v>
+      </c>
+      <c r="G313" t="n">
+        <v>0.04998552095682234</v>
+      </c>
+    </row>
+    <row r="314" ht="15" customHeight="1">
+      <c r="F314" t="n">
+        <v>0.01626128090130938</v>
+      </c>
+      <c r="G314" t="n">
+        <v>0.04998578948528635</v>
+      </c>
+    </row>
+    <row r="315" ht="15" customHeight="1">
+      <c r="F315" t="n">
+        <v>0.01626128090130938</v>
+      </c>
+      <c r="G315" t="n">
+        <v>0.04997263159054951</v>
+      </c>
+    </row>
+    <row r="316" ht="15" customHeight="1">
+      <c r="F316" t="n">
+        <v>0.01638112550444976</v>
+      </c>
+      <c r="G316" t="n">
+        <v>0.05000547292690936</v>
+      </c>
+    </row>
+    <row r="317" ht="15" customHeight="1">
+      <c r="F317" t="n">
+        <v>0.01649893505193537</v>
+      </c>
+      <c r="G317" t="n">
+        <v>0.05003831426326923</v>
+      </c>
+    </row>
+    <row r="318" ht="15" customHeight="1">
+      <c r="F318" t="n">
+        <v>0.01661445224670772</v>
+      </c>
+      <c r="G318" t="n">
+        <v>0.05007115559962909</v>
+      </c>
+    </row>
+    <row r="319" ht="15" customHeight="1">
+      <c r="F319" t="n">
+        <v>0.01672741979170837</v>
+      </c>
+      <c r="G319" t="n">
+        <v>0.05010399693598894</v>
+      </c>
+    </row>
+    <row r="320" ht="15" customHeight="1">
+      <c r="F320" t="n">
+        <v>0.01683758038987884</v>
+      </c>
+      <c r="G320" t="n">
+        <v>0.05013683827234881</v>
+      </c>
+    </row>
+    <row r="321" ht="15" customHeight="1">
+      <c r="F321" t="n">
+        <v>0.01694467674416068</v>
+      </c>
+      <c r="G321" t="n">
+        <v>0.05016967960870867</v>
+      </c>
+    </row>
+    <row r="322" ht="15" customHeight="1">
+      <c r="F322" t="n">
+        <v>0.01704845155749542</v>
+      </c>
+      <c r="G322" t="n">
+        <v>0.05020252094506852</v>
+      </c>
+    </row>
+    <row r="323" ht="15" customHeight="1">
+      <c r="F323" t="n">
+        <v>0.01714864753282457</v>
+      </c>
+      <c r="G323" t="n">
+        <v>0.05023536228142839</v>
+      </c>
+    </row>
+    <row r="324" ht="15" customHeight="1">
+      <c r="F324" t="n">
+        <v>0.0172450073730897</v>
+      </c>
+      <c r="G324" t="n">
+        <v>0.05026820361778824</v>
+      </c>
+    </row>
+    <row r="325" ht="15" customHeight="1">
+      <c r="F325" t="n">
+        <v>0.01733727378123234</v>
+      </c>
+      <c r="G325" t="n">
+        <v>0.0503010449541481</v>
+      </c>
+    </row>
+    <row r="326" ht="15" customHeight="1">
+      <c r="F326" t="n">
+        <v>0.01742518946019399</v>
+      </c>
+      <c r="G326" t="n">
+        <v>0.05033388629050797</v>
+      </c>
+    </row>
+    <row r="327" ht="15" customHeight="1">
+      <c r="F327" t="n">
+        <v>0.01750849711291622</v>
+      </c>
+      <c r="G327" t="n">
+        <v>0.05036672762686782</v>
+      </c>
+    </row>
+    <row r="328" ht="15" customHeight="1">
+      <c r="F328" t="n">
+        <v>0.01758693944234054</v>
+      </c>
+      <c r="G328" t="n">
+        <v>0.05039956896322768</v>
+      </c>
+    </row>
+    <row r="329" ht="15" customHeight="1">
+      <c r="F329" t="n">
+        <v>0.01766025915140852</v>
+      </c>
+      <c r="G329" t="n">
+        <v>0.05043241029958754</v>
+      </c>
+    </row>
+    <row r="330" ht="15" customHeight="1">
+      <c r="F330" t="n">
+        <v>0.01772819894306165</v>
+      </c>
+      <c r="G330" t="n">
+        <v>0.0504652516359474</v>
+      </c>
+    </row>
+    <row r="331" ht="15" customHeight="1">
+      <c r="F331" t="n">
+        <v>0.01779050152024149</v>
+      </c>
+      <c r="G331" t="n">
+        <v>0.05049809297230726</v>
+      </c>
+    </row>
+    <row r="332" ht="15" customHeight="1">
+      <c r="F332" t="n">
+        <v>0.01784690958588958</v>
+      </c>
+      <c r="G332" t="n">
+        <v>0.05053093430866712</v>
+      </c>
+    </row>
+    <row r="333" ht="15" customHeight="1">
+      <c r="F333" t="n">
+        <v>0.01789716584294743</v>
+      </c>
+      <c r="G333" t="n">
+        <v>0.05056377564502698</v>
+      </c>
+    </row>
+    <row r="334" ht="15" customHeight="1">
+      <c r="F334" t="n">
+        <v>0.01794101299435659</v>
+      </c>
+      <c r="G334" t="n">
+        <v>0.05059661698138684</v>
+      </c>
+    </row>
+    <row r="335" ht="15" customHeight="1">
+      <c r="F335" t="n">
+        <v>0.01797819374305859</v>
+      </c>
+      <c r="G335" t="n">
+        <v>0.0506294583177467</v>
+      </c>
+    </row>
+    <row r="336" ht="15" customHeight="1">
+      <c r="F336" t="n">
+        <v>0.01800845079199497</v>
+      </c>
+      <c r="G336" t="n">
+        <v>0.05066229965410656</v>
+      </c>
+    </row>
+    <row r="337" ht="15" customHeight="1">
+      <c r="F337" t="n">
+        <v>0.01803152684410727</v>
+      </c>
+      <c r="G337" t="n">
+        <v>0.05069514099046642</v>
+      </c>
+    </row>
+    <row r="338" ht="15" customHeight="1">
+      <c r="F338" t="n">
+        <v>0.018047164602337</v>
+      </c>
+      <c r="G338" t="n">
+        <v>0.05072798232682627</v>
+      </c>
+    </row>
+    <row r="339" ht="15" customHeight="1">
+      <c r="F339" t="n">
+        <v>0.01805510676962572</v>
+      </c>
+      <c r="G339" t="n">
+        <v>0.05076082366318613</v>
+      </c>
+    </row>
+    <row r="340" ht="15" customHeight="1">
+      <c r="F340" t="n">
+        <v>0.01805610706623796</v>
+      </c>
+      <c r="G340" t="n">
+        <v>0.050793664999546</v>
+      </c>
+    </row>
+    <row r="341" ht="15" customHeight="1">
+      <c r="F341" t="n">
+        <v>0.018055989153678</v>
+      </c>
+      <c r="G341" t="n">
+        <v>0.05082650633590585</v>
+      </c>
+    </row>
+    <row r="342" ht="15" customHeight="1">
+      <c r="F342" t="n">
+        <v>0.01805554471402893</v>
+      </c>
+      <c r="G342" t="n">
+        <v>0.05085934767226571</v>
+      </c>
+    </row>
+    <row r="343" ht="15" customHeight="1">
+      <c r="F343" t="n">
+        <v>0.01805455606256465</v>
+      </c>
+      <c r="G343" t="n">
+        <v>0.05089218900862557</v>
+      </c>
+    </row>
+    <row r="344" ht="15" customHeight="1">
+      <c r="F344" t="n">
+        <v>0.0180528055145591</v>
+      </c>
+      <c r="G344" t="n">
+        <v>0.05092503034498543</v>
+      </c>
+    </row>
+    <row r="345" ht="15" customHeight="1">
+      <c r="F345" t="n">
+        <v>0.0180500753852862</v>
+      </c>
+      <c r="G345" t="n">
+        <v>0.05095787168134529</v>
+      </c>
+    </row>
+    <row r="346" ht="15" customHeight="1">
+      <c r="F346" t="n">
+        <v>0.01804614799001986</v>
+      </c>
+      <c r="G346" t="n">
+        <v>0.05099071301770515</v>
+      </c>
+    </row>
+    <row r="347" ht="15" customHeight="1">
+      <c r="F347" t="n">
+        <v>0.01804080564403401</v>
+      </c>
+      <c r="G347" t="n">
+        <v>0.05102355435406501</v>
+      </c>
+    </row>
+    <row r="348" ht="15" customHeight="1">
+      <c r="F348" t="n">
+        <v>0.01803383066260256</v>
+      </c>
+      <c r="G348" t="n">
+        <v>0.05105639569042487</v>
+      </c>
+    </row>
+    <row r="349" ht="15" customHeight="1">
+      <c r="F349" t="n">
+        <v>0.01802500536099945</v>
+      </c>
+      <c r="G349" t="n">
+        <v>0.05108923702678473</v>
+      </c>
+    </row>
+    <row r="350" ht="15" customHeight="1">
+      <c r="F350" t="n">
+        <v>0.01801411205449859</v>
+      </c>
+      <c r="G350" t="n">
+        <v>0.05112207836314459</v>
+      </c>
+    </row>
+    <row r="351" ht="15" customHeight="1">
+      <c r="F351" t="n">
+        <v>0.0180009330583739</v>
+      </c>
+      <c r="G351" t="n">
+        <v>0.05115491969950445</v>
+      </c>
+    </row>
+    <row r="352" ht="15" customHeight="1">
+      <c r="F352" t="n">
+        <v>0.01798525068789931</v>
+      </c>
+      <c r="G352" t="n">
+        <v>0.05118776103586431</v>
+      </c>
+    </row>
+    <row r="353" ht="15" customHeight="1">
+      <c r="F353" t="n">
+        <v>0.01796684725834873</v>
+      </c>
+      <c r="G353" t="n">
+        <v>0.05122060237222417</v>
+      </c>
+    </row>
+    <row r="354" ht="15" customHeight="1">
+      <c r="F354" t="n">
+        <v>0.01794550508499608</v>
+      </c>
+      <c r="G354" t="n">
+        <v>0.05125344370858403</v>
+      </c>
+    </row>
+    <row r="355" ht="15" customHeight="1">
+      <c r="F355" t="n">
+        <v>0.01792100648311529</v>
+      </c>
+      <c r="G355" t="n">
+        <v>0.05128628504494389</v>
+      </c>
+    </row>
+    <row r="356" ht="15" customHeight="1">
+      <c r="F356" t="n">
+        <v>0.01789313376798028</v>
+      </c>
+      <c r="G356" t="n">
+        <v>0.05131912638130375</v>
+      </c>
+    </row>
+    <row r="357" ht="15" customHeight="1">
+      <c r="F357" t="n">
+        <v>0.01786166925486497</v>
+      </c>
+      <c r="G357" t="n">
+        <v>0.05135196771766361</v>
+      </c>
+    </row>
+    <row r="358" ht="15" customHeight="1">
+      <c r="F358" t="n">
+        <v>0.01782639525904329</v>
+      </c>
+      <c r="G358" t="n">
+        <v>0.05138480905402346</v>
+      </c>
+    </row>
+    <row r="359" ht="15" customHeight="1">
+      <c r="F359" t="n">
+        <v>0.01778709409578913</v>
+      </c>
+      <c r="G359" t="n">
+        <v>0.05141765039038333</v>
+      </c>
+    </row>
+    <row r="360" ht="15" customHeight="1">
+      <c r="F360" t="n">
+        <v>0.01774354808037645</v>
+      </c>
+      <c r="G360" t="n">
+        <v>0.05145049172674319</v>
+      </c>
+    </row>
+    <row r="361" ht="15" customHeight="1">
+      <c r="F361" t="n">
+        <v>0.01769553952807915</v>
+      </c>
+      <c r="G361" t="n">
+        <v>0.05148333306310304</v>
+      </c>
+    </row>
+    <row r="362" ht="15" customHeight="1">
+      <c r="F362" t="n">
+        <v>0.01764285075417115</v>
+      </c>
+      <c r="G362" t="n">
+        <v>0.05151617439946291</v>
+      </c>
+    </row>
+    <row r="363" ht="15" customHeight="1">
+      <c r="F363" t="n">
+        <v>0.01758526407392638</v>
+      </c>
+      <c r="G363" t="n">
+        <v>0.05154901573582277</v>
+      </c>
+    </row>
+    <row r="364" ht="15" customHeight="1">
+      <c r="F364" t="n">
+        <v>0.01752256180261876</v>
+      </c>
+      <c r="G364" t="n">
+        <v>0.05158185707218262</v>
+      </c>
+    </row>
+    <row r="365" ht="15" customHeight="1">
+      <c r="F365" t="n">
+        <v>0.01752256180261876</v>
+      </c>
+      <c r="G365" t="n">
+        <v>0.05158185707218262</v>
+      </c>
+    </row>
+    <row r="366" ht="15" customHeight="1">
+      <c r="F366" t="n">
+        <v>0.01793673984643735</v>
+      </c>
+      <c r="G366" t="n">
+        <v>0.05316420157342022</v>
+      </c>
+    </row>
+    <row r="367" ht="15" customHeight="1">
+      <c r="F367" t="n">
+        <v>0.01834287472197342</v>
+      </c>
+      <c r="G367" t="n">
+        <v>0.05474654607465783</v>
+      </c>
+    </row>
+    <row r="368" ht="15" customHeight="1">
+      <c r="F368" t="n">
+        <v>0.01874077848042868</v>
+      </c>
+      <c r="G368" t="n">
+        <v>0.05632889057589542</v>
+      </c>
+    </row>
+    <row r="369" ht="15" customHeight="1">
+      <c r="F369" t="n">
+        <v>0.01913026317300483</v>
+      </c>
+      <c r="G369" t="n">
+        <v>0.05791123507713302</v>
+      </c>
+    </row>
+    <row r="370" ht="15" customHeight="1">
+      <c r="F370" t="n">
+        <v>0.01951114085090357</v>
+      </c>
+      <c r="G370" t="n">
+        <v>0.05949357957837063</v>
+      </c>
+    </row>
+    <row r="371" ht="15" customHeight="1">
+      <c r="F371" t="n">
+        <v>0.01988322356532659</v>
+      </c>
+      <c r="G371" t="n">
+        <v>0.06107592407960823</v>
+      </c>
+    </row>
+    <row r="372" ht="15" customHeight="1">
+      <c r="F372" t="n">
+        <v>0.0202463233674756</v>
+      </c>
+      <c r="G372" t="n">
+        <v>0.06265826858084582</v>
+      </c>
+    </row>
+    <row r="373" ht="15" customHeight="1">
+      <c r="F373" t="n">
+        <v>0.02060025230855229</v>
+      </c>
+      <c r="G373" t="n">
+        <v>0.06424061308208343</v>
+      </c>
+    </row>
+    <row r="374" ht="15" customHeight="1">
+      <c r="F374" t="n">
+        <v>0.02094482243975838</v>
+      </c>
+      <c r="G374" t="n">
+        <v>0.06582295758332102</v>
+      </c>
+    </row>
+    <row r="375" ht="15" customHeight="1">
+      <c r="F375" t="n">
+        <v>0.02127984581229556</v>
+      </c>
+      <c r="G375" t="n">
+        <v>0.06740530208455862</v>
+      </c>
+    </row>
+    <row r="376" ht="15" customHeight="1">
+      <c r="F376" t="n">
+        <v>0.02160513447736554</v>
+      </c>
+      <c r="G376" t="n">
+        <v>0.06898764658579623</v>
+      </c>
+    </row>
+    <row r="377" ht="15" customHeight="1">
+      <c r="F377" t="n">
+        <v>0.02192050048617001</v>
+      </c>
+      <c r="G377" t="n">
+        <v>0.07056999108703382</v>
+      </c>
+    </row>
+    <row r="378" ht="15" customHeight="1">
+      <c r="F378" t="n">
+        <v>0.02222575588991064</v>
+      </c>
+      <c r="G378" t="n">
+        <v>0.07215233558827143</v>
+      </c>
+    </row>
+    <row r="379" ht="15" customHeight="1">
+      <c r="F379" t="n">
+        <v>0.02252071273978919</v>
+      </c>
+      <c r="G379" t="n">
+        <v>0.07373468008950902</v>
+      </c>
+    </row>
+    <row r="380" ht="15" customHeight="1">
+      <c r="F380" t="n">
+        <v>0.02280518308700735</v>
+      </c>
+      <c r="G380" t="n">
+        <v>0.07531702459074663</v>
+      </c>
+    </row>
+    <row r="381" ht="15" customHeight="1">
+      <c r="F381" t="n">
+        <v>0.02307897898276678</v>
+      </c>
+      <c r="G381" t="n">
+        <v>0.07689936909198423</v>
+      </c>
+    </row>
+    <row r="382" ht="15" customHeight="1">
+      <c r="F382" t="n">
+        <v>0.02334191247826922</v>
+      </c>
+      <c r="G382" t="n">
+        <v>0.07848171359322183</v>
+      </c>
+    </row>
+    <row r="383" ht="15" customHeight="1">
+      <c r="F383" t="n">
+        <v>0.02359379562471633</v>
+      </c>
+      <c r="G383" t="n">
+        <v>0.08006405809445942</v>
+      </c>
+    </row>
+    <row r="384" ht="15" customHeight="1">
+      <c r="F384" t="n">
+        <v>0.02383444047330985</v>
+      </c>
+      <c r="G384" t="n">
+        <v>0.08164640259569703</v>
+      </c>
+    </row>
+    <row r="385" ht="15" customHeight="1">
+      <c r="F385" t="n">
+        <v>0.02406365907525148</v>
+      </c>
+      <c r="G385" t="n">
+        <v>0.08322874709693462</v>
+      </c>
+    </row>
+    <row r="386" ht="15" customHeight="1">
+      <c r="F386" t="n">
+        <v>0.0242812634817429</v>
+      </c>
+      <c r="G386" t="n">
+        <v>0.08481109159817224</v>
+      </c>
+    </row>
+    <row r="387" ht="15" customHeight="1">
+      <c r="F387" t="n">
+        <v>0.02448706574398581</v>
+      </c>
+      <c r="G387" t="n">
+        <v>0.08639343609940982</v>
+      </c>
+    </row>
+    <row r="388" ht="15" customHeight="1">
+      <c r="F388" t="n">
+        <v>0.02468087791318193</v>
+      </c>
+      <c r="G388" t="n">
+        <v>0.08797578060064742</v>
+      </c>
+    </row>
+    <row r="389" ht="15" customHeight="1">
+      <c r="F389" t="n">
+        <v>0.02486251204053295</v>
+      </c>
+      <c r="G389" t="n">
+        <v>0.08955812510188503</v>
+      </c>
+    </row>
+    <row r="390" ht="15" customHeight="1">
+      <c r="F390" t="n">
+        <v>0.02503178017724058</v>
+      </c>
+      <c r="G390" t="n">
+        <v>0.09114046960312262</v>
+      </c>
+    </row>
+    <row r="391" ht="15" customHeight="1">
+      <c r="F391" t="n">
+        <v>0.02518849437450648</v>
+      </c>
+      <c r="G391" t="n">
+        <v>0.09272281410436023</v>
+      </c>
+    </row>
+    <row r="392" ht="15" customHeight="1">
+      <c r="F392" t="n">
+        <v>0.02533246668353242</v>
+      </c>
+      <c r="G392" t="n">
+        <v>0.09430515860559782</v>
+      </c>
+    </row>
+    <row r="393" ht="15" customHeight="1">
+      <c r="F393" t="n">
+        <v>0.02546350915552004</v>
+      </c>
+      <c r="G393" t="n">
+        <v>0.09588750310683543</v>
+      </c>
+    </row>
+    <row r="394" ht="15" customHeight="1">
+      <c r="F394" t="n">
+        <v>0.02558143384167106</v>
+      </c>
+      <c r="G394" t="n">
+        <v>0.09746984760807303</v>
+      </c>
+    </row>
+    <row r="395" ht="15" customHeight="1">
+      <c r="F395" t="n">
+        <v>0.02568605279318719</v>
+      </c>
+      <c r="G395" t="n">
+        <v>0.09905219210931063</v>
+      </c>
+    </row>
+    <row r="396" ht="15" customHeight="1">
+      <c r="F396" t="n">
+        <v>0.02577717806127013</v>
+      </c>
+      <c r="G396" t="n">
+        <v>0.1006345366105482</v>
+      </c>
+    </row>
+    <row r="397" ht="15" customHeight="1">
+      <c r="F397" t="n">
+        <v>0.02585462169712157</v>
+      </c>
+      <c r="G397" t="n">
+        <v>0.1022168811117858</v>
+      </c>
+    </row>
+    <row r="398" ht="15" customHeight="1">
+      <c r="F398" t="n">
+        <v>0.02591819575194323</v>
+      </c>
+      <c r="G398" t="n">
+        <v>0.1037992256130234</v>
+      </c>
+    </row>
+    <row r="399" ht="15" customHeight="1">
+      <c r="F399" t="n">
+        <v>0.02596771227693678</v>
+      </c>
+      <c r="G399" t="n">
+        <v>0.105381570114261</v>
+      </c>
+    </row>
+    <row r="400" ht="15" customHeight="1">
+      <c r="F400" t="n">
+        <v>0.02600298332330394</v>
+      </c>
+      <c r="G400" t="n">
+        <v>0.1069639146154986</v>
+      </c>
+    </row>
+    <row r="401" ht="15" customHeight="1">
+      <c r="F401" t="n">
+        <v>0.02603008240349169</v>
+      </c>
+      <c r="G401" t="n">
+        <v>0.1085462591167362</v>
+      </c>
+    </row>
+    <row r="402" ht="15" customHeight="1">
+      <c r="F402" t="n">
+        <v>0.02603006416929089</v>
+      </c>
+      <c r="G402" t="n">
+        <v>0.1101286036179738</v>
+      </c>
+    </row>
+    <row r="403" ht="15" customHeight="1">
+      <c r="F403" t="n">
+        <v>0.02602669504074873</v>
+      </c>
+      <c r="G403" t="n">
+        <v>0.1117109481192115</v>
+      </c>
+    </row>
+    <row r="404" ht="15" customHeight="1">
+      <c r="F404" t="n">
+        <v>0.02601779964221091</v>
+      </c>
+      <c r="G404" t="n">
+        <v>0.113293292620449</v>
+      </c>
+    </row>
+    <row r="405" ht="15" customHeight="1">
+      <c r="F405" t="n">
+        <v>0.02600379768563017</v>
+      </c>
+      <c r="G405" t="n">
+        <v>0.1148756371216866</v>
+      </c>
+    </row>
+    <row r="406" ht="15" customHeight="1">
+      <c r="F406" t="n">
+        <v>0.02598510888295933</v>
+      </c>
+      <c r="G406" t="n">
+        <v>0.1164579816229242</v>
+      </c>
+    </row>
+    <row r="407" ht="15" customHeight="1">
+      <c r="F407" t="n">
+        <v>0.02596215294615115</v>
+      </c>
+      <c r="G407" t="n">
+        <v>0.1180403261241618</v>
+      </c>
+    </row>
+    <row r="408" ht="15" customHeight="1">
+      <c r="F408" t="n">
+        <v>0.02593534958715842</v>
+      </c>
+      <c r="G408" t="n">
+        <v>0.1196226706253994</v>
+      </c>
+    </row>
+    <row r="409" ht="15" customHeight="1">
+      <c r="F409" t="n">
+        <v>0.02590511851793393</v>
+      </c>
+      <c r="G409" t="n">
+        <v>0.121205015126637</v>
+      </c>
+    </row>
+    <row r="410" ht="15" customHeight="1">
+      <c r="F410" t="n">
+        <v>0.02587187945043048</v>
+      </c>
+      <c r="G410" t="n">
+        <v>0.1227873596278746</v>
+      </c>
+    </row>
+    <row r="411" ht="15" customHeight="1">
+      <c r="F411" t="n">
+        <v>0.02583605209660082</v>
+      </c>
+      <c r="G411" t="n">
+        <v>0.1243697041291122</v>
+      </c>
+    </row>
+    <row r="412" ht="15" customHeight="1">
+      <c r="F412" t="n">
+        <v>0.02579805616839773</v>
+      </c>
+      <c r="G412" t="n">
+        <v>0.1259520486303498</v>
+      </c>
+    </row>
+    <row r="413" ht="15" customHeight="1">
+      <c r="F413" t="n">
+        <v>0.02575831137777402</v>
+      </c>
+      <c r="G413" t="n">
+        <v>0.1275343931315875</v>
+      </c>
+    </row>
+    <row r="414" ht="15" customHeight="1">
+      <c r="F414" t="n">
+        <v>0.02571723743668248</v>
+      </c>
+      <c r="G414" t="n">
+        <v>0.129116737632825</v>
+      </c>
+    </row>
+    <row r="415" ht="15" customHeight="1">
+      <c r="F415" t="n">
+        <v>0.02567525405707585</v>
+      </c>
+      <c r="G415" t="n">
+        <v>0.1306990821340626</v>
+      </c>
+    </row>
+    <row r="416" ht="15" customHeight="1">
+      <c r="F416" t="n">
+        <v>0.02563249789328736</v>
+      </c>
+      <c r="G416" t="n">
+        <v>0.1322814266353002</v>
+      </c>
+    </row>
+    <row r="417" ht="15" customHeight="1">
+      <c r="F417" t="n">
+        <v>0.02557639135202989</v>
+      </c>
+      <c r="G417" t="n">
+        <v>0.1338637711365378</v>
+      </c>
+    </row>
+    <row r="418" ht="15" customHeight="1">
+      <c r="F418" t="n">
+        <v>0.02550314054160912</v>
+      </c>
+      <c r="G418" t="n">
+        <v>0.1354461156377754</v>
+      </c>
+    </row>
+    <row r="419" ht="15" customHeight="1">
+      <c r="F419" t="n">
+        <v>0.02541711121667748</v>
+      </c>
+      <c r="G419" t="n">
+        <v>0.137028460139013</v>
+      </c>
+    </row>
+    <row r="420" ht="15" customHeight="1">
+      <c r="F420" t="n">
+        <v>0.0253226691318874</v>
+      </c>
+      <c r="G420" t="n">
+        <v>0.1386108046402506</v>
+      </c>
+    </row>
+    <row r="421" ht="15" customHeight="1">
+      <c r="F421" t="n">
+        <v>0.02522418004189132</v>
+      </c>
+      <c r="G421" t="n">
+        <v>0.1401931491414882</v>
+      </c>
+    </row>
+    <row r="422" ht="15" customHeight="1">
+      <c r="F422" t="n">
+        <v>0.02512600970134166</v>
+      </c>
+      <c r="G422" t="n">
+        <v>0.1417754936427258</v>
+      </c>
+    </row>
+    <row r="423" ht="15" customHeight="1">
+      <c r="F423" t="n">
+        <v>0.02503252386489086</v>
+      </c>
+      <c r="G423" t="n">
+        <v>0.1433578381439634</v>
+      </c>
+    </row>
+    <row r="424" ht="15" customHeight="1">
+      <c r="F424" t="n">
+        <v>0.02494808828719137</v>
+      </c>
+      <c r="G424" t="n">
+        <v>0.144940182645201</v>
+      </c>
+    </row>
+    <row r="425" ht="15" customHeight="1">
+      <c r="F425" t="n">
+        <v>0.0248770687228956</v>
+      </c>
+      <c r="G425" t="n">
+        <v>0.1465225271464386</v>
+      </c>
+    </row>
+    <row r="426" ht="15" customHeight="1">
+      <c r="F426" t="n">
+        <v>0.024823830926656</v>
+      </c>
+      <c r="G426" t="n">
+        <v>0.1481048716476762</v>
+      </c>
+    </row>
+    <row r="427" ht="15" customHeight="1">
+      <c r="F427" t="n">
+        <v>0.02478402935885666</v>
+      </c>
+      <c r="G427" t="n">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="428" ht="15" customHeight="1">
+      <c r="F428" t="n">
+        <v>0.0247466600686777</v>
+      </c>
+      <c r="G428" t="n">
+        <v>0.1512695606501514</v>
+      </c>
+    </row>
+    <row r="429" ht="15" customHeight="1">
+      <c r="F429" t="n">
+        <v>0.02471148478592818</v>
+      </c>
+      <c r="G429" t="n">
+        <v>0.1528519051513891</v>
+      </c>
+    </row>
+    <row r="430" ht="15" customHeight="1">
+      <c r="F430" t="n">
+        <v>0.02467836361483532</v>
+      </c>
+      <c r="G430" t="n">
+        <v>0.1544342496526266</v>
+      </c>
+    </row>
+    <row r="431" ht="15" customHeight="1">
+      <c r="F431" t="n">
+        <v>0.02464715665962635</v>
+      </c>
+      <c r="G431" t="n">
+        <v>0.1560165941538642</v>
+      </c>
+    </row>
+    <row r="432" ht="15" customHeight="1">
+      <c r="F432" t="n">
+        <v>0.02461772402452846</v>
+      </c>
+      <c r="G432" t="n">
+        <v>0.1575989386551019</v>
+      </c>
+    </row>
+    <row r="433" ht="15" customHeight="1">
+      <c r="F433" t="n">
+        <v>0.02458992581376891</v>
+      </c>
+      <c r="G433" t="n">
+        <v>0.1591812831563394</v>
+      </c>
+    </row>
+    <row r="434" ht="15" customHeight="1">
+      <c r="F434" t="n">
+        <v>0.02456362213157489</v>
+      </c>
+      <c r="G434" t="n">
+        <v>0.160763627657577</v>
+      </c>
+    </row>
+    <row r="435" ht="15" customHeight="1">
+      <c r="F435" t="n">
+        <v>0.02453867308217363</v>
+      </c>
+      <c r="G435" t="n">
+        <v>0.1623459721588146</v>
+      </c>
+    </row>
+    <row r="436" ht="15" customHeight="1">
+      <c r="F436" t="n">
+        <v>0.02451493876979235</v>
+      </c>
+      <c r="G436" t="n">
+        <v>0.1639283166600523</v>
+      </c>
+    </row>
+    <row r="437" ht="15" customHeight="1">
+      <c r="F437" t="n">
+        <v>0.02449227929865831</v>
+      </c>
+      <c r="G437" t="n">
+        <v>0.1655106611612898</v>
+      </c>
+    </row>
+    <row r="438" ht="15" customHeight="1">
+      <c r="F438" t="n">
+        <v>0.02447055477299868</v>
+      </c>
+      <c r="G438" t="n">
+        <v>0.1670930056625274</v>
+      </c>
+    </row>
+    <row r="439" ht="15" customHeight="1">
+      <c r="F439" t="n">
+        <v>0.02444962529704069</v>
+      </c>
+      <c r="G439" t="n">
+        <v>0.1686753501637651</v>
+      </c>
+    </row>
+    <row r="440" ht="15" customHeight="1">
+      <c r="F440" t="n">
+        <v>0.02442935097501158</v>
+      </c>
+      <c r="G440" t="n">
+        <v>0.1702576946650026</v>
+      </c>
+    </row>
+    <row r="441" ht="15" customHeight="1">
+      <c r="F441" t="n">
+        <v>0.02440959191113857</v>
+      </c>
+      <c r="G441" t="n">
+        <v>0.1718400391662402</v>
+      </c>
+    </row>
+    <row r="442" ht="15" customHeight="1">
+      <c r="F442" t="n">
+        <v>0.02439020820964887</v>
+      </c>
+      <c r="G442" t="n">
+        <v>0.1734223836674778</v>
+      </c>
+    </row>
+    <row r="443" ht="15" customHeight="1">
+      <c r="F443" t="n">
+        <v>0.02437105997476969</v>
+      </c>
+      <c r="G443" t="n">
+        <v>0.1750047281687154</v>
+      </c>
+    </row>
+    <row r="444" ht="15" customHeight="1">
+      <c r="F444" t="n">
+        <v>0.02435200731072828</v>
+      </c>
+      <c r="G444" t="n">
+        <v>0.176587072669953</v>
+      </c>
+    </row>
+    <row r="445" ht="15" customHeight="1">
+      <c r="F445" t="n">
+        <v>0.02433291032175185</v>
+      </c>
+      <c r="G445" t="n">
+        <v>0.1781694171711906</v>
+      </c>
+    </row>
+    <row r="446" ht="15" customHeight="1">
+      <c r="F446" t="n">
+        <v>0.02431362911206762</v>
+      </c>
+      <c r="G446" t="n">
+        <v>0.1797517616724283</v>
+      </c>
+    </row>
+    <row r="447" ht="15" customHeight="1">
+      <c r="F447" t="n">
+        <v>0.02429402378590279</v>
+      </c>
+      <c r="G447" t="n">
+        <v>0.1813341061736658</v>
+      </c>
+    </row>
+    <row r="448" ht="15" customHeight="1">
+      <c r="F448" t="n">
+        <v>0.0242743641997611</v>
+      </c>
+      <c r="G448" t="n">
+        <v>0.1829164506749034</v>
+      </c>
+    </row>
+    <row r="449" ht="15" customHeight="1">
+      <c r="F449" t="n">
+        <v>0.02425503315908053</v>
+      </c>
+      <c r="G449" t="n">
+        <v>0.1844987951761411</v>
+      </c>
+    </row>
+    <row r="450" ht="15" customHeight="1">
+      <c r="F450" t="n">
+        <v>0.02423604282591215</v>
+      </c>
+      <c r="G450" t="n">
+        <v>0.1860811396773786</v>
+      </c>
+    </row>
+    <row r="451" ht="15" customHeight="1">
+      <c r="F451" t="n">
+        <v>0.02421740534055398</v>
+      </c>
+      <c r="G451" t="n">
+        <v>0.1876634841786162</v>
+      </c>
+    </row>
+    <row r="452" ht="15" customHeight="1">
+      <c r="F452" t="n">
+        <v>0.02419913284330402</v>
+      </c>
+      <c r="G452" t="n">
+        <v>0.1892458286798538</v>
+      </c>
+    </row>
+    <row r="453" ht="15" customHeight="1">
+      <c r="F453" t="n">
+        <v>0.02418123747446029</v>
+      </c>
+      <c r="G453" t="n">
+        <v>0.1908281731810914</v>
+      </c>
+    </row>
+    <row r="454" ht="15" customHeight="1">
+      <c r="F454" t="n">
+        <v>0.0241637313743208</v>
+      </c>
+      <c r="G454" t="n">
+        <v>0.192410517682329</v>
+      </c>
+    </row>
+    <row r="455" ht="15" customHeight="1">
+      <c r="F455" t="n">
+        <v>0.02414662668318355</v>
+      </c>
+      <c r="G455" t="n">
+        <v>0.1939928621835667</v>
+      </c>
+    </row>
+    <row r="456" ht="15" customHeight="1">
+      <c r="F456" t="n">
+        <v>0.02412993554134658</v>
+      </c>
+      <c r="G456" t="n">
+        <v>0.1955752066848043</v>
+      </c>
+    </row>
+    <row r="457" ht="15" customHeight="1">
+      <c r="F457" t="n">
+        <v>0.02411367008910786</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.1971575511860418</v>
+      </c>
+    </row>
+    <row r="458" ht="15" customHeight="1">
+      <c r="F458" t="n">
+        <v>0.02409784246676541</v>
+      </c>
+      <c r="G458" t="n">
+        <v>0.1987398956872795</v>
+      </c>
+    </row>
+    <row r="459" ht="15" customHeight="1">
+      <c r="F459" t="n">
+        <v>0.02408246481461724</v>
+      </c>
+      <c r="G459" t="n">
+        <v>0.200322240188517</v>
+      </c>
+    </row>
+    <row r="460" ht="15" customHeight="1">
+      <c r="F460" t="n">
+        <v>0.02406754927296138</v>
+      </c>
+      <c r="G460" t="n">
+        <v>0.2019045846897546</v>
+      </c>
+    </row>
+    <row r="461" ht="15" customHeight="1">
+      <c r="F461" t="n">
+        <v>0.02405310798209582</v>
+      </c>
+      <c r="G461" t="n">
+        <v>0.2034869291909922</v>
+      </c>
+    </row>
+    <row r="462" ht="15" customHeight="1">
+      <c r="F462" t="n">
+        <v>0.02403915308231857</v>
+      </c>
+      <c r="G462" t="n">
+        <v>0.2050692736922299</v>
+      </c>
+    </row>
+    <row r="463" ht="15" customHeight="1">
+      <c r="F463" t="n">
+        <v>0.02402569671392766</v>
+      </c>
+      <c r="G463" t="n">
+        <v>0.2066516181934674</v>
+      </c>
+    </row>
+    <row r="464" ht="15" customHeight="1">
+      <c r="F464" t="n">
+        <v>0.02401275101722108</v>
+      </c>
+      <c r="G464" t="n">
+        <v>0.208233962694705</v>
+      </c>
+    </row>
     <row r="465" ht="15" customHeight="1"/>
     <row r="466" ht="15" customHeight="1"/>
     <row r="467" ht="15" customHeight="1"/>
